--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B82F1-8638-408F-B481-3F3E4CD1A9D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F74D8C7-E246-4A2B-B6F9-A37BEDB4B681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="1695" windowWidth="23925" windowHeight="11385" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="3015" windowWidth="23925" windowHeight="11385" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -3362,6 +3362,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3380,6 +3383,201 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,180 +3587,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3599,6 +3623,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3629,9 +3734,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3641,89 +3743,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3734,6 +3803,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3761,14 +3839,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3779,6 +3872,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3788,107 +3890,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3914,13 +3971,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3932,80 +4001,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5675,12 +5675,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="126">
+      <c r="I25" s="127">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43850</v>
       </c>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="39"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5768,39 +5768,39 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
     </row>
     <row r="35" spans="6:19" x14ac:dyDescent="0.15">
       <c r="P35" s="14"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="14"/>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="124"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="125"/>
       <c r="S36" s="38"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="14"/>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="121"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="122"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="14"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="14"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6313,57 +6313,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="151" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="160" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="169" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="142" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -6371,53 +6371,53 @@
       <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="151" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="183">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -6425,45 +6425,45 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="178" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
@@ -6602,1042 +6602,1042 @@
       <c r="A7" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127" t="s">
+      <c r="C7" s="194"/>
+      <c r="D7" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="127" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="127" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="127" t="s">
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="195"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="128"/>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="195"/>
+      <c r="AI7" s="194"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="100">
         <v>1</v>
       </c>
-      <c r="B8" s="331" t="s">
+      <c r="B8" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="179">
+      <c r="C8" s="165"/>
+      <c r="D8" s="166">
         <v>43643</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="154" t="s">
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172" t="s">
         <v>158</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="185" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="186"/>
-      <c r="X8" s="186"/>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="186"/>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="186"/>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="186"/>
-      <c r="AE8" s="187"/>
-      <c r="AF8" s="154" t="s">
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="156"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="174"/>
     </row>
     <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="328">
+      <c r="A9" s="121">
         <v>2</v>
       </c>
-      <c r="B9" s="333" t="s">
+      <c r="B9" s="190" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="334"/>
+      <c r="C9" s="191"/>
       <c r="D9" s="136">
         <v>43850</v>
       </c>
       <c r="E9" s="137"/>
       <c r="F9" s="138"/>
-      <c r="G9" s="329" t="s">
+      <c r="G9" s="192" t="s">
         <v>219</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="330" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="178" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="335" t="s">
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="134"/>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="330" t="s">
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="178" t="s">
         <v>220</v>
       </c>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="132"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="328"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="140"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="136"/>
       <c r="E10" s="137"/>
       <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="134"/>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="132"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="328"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="136"/>
       <c r="E11" s="137"/>
       <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="131"/>
-      <c r="AH11" s="131"/>
-      <c r="AI11" s="132"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="328"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="136"/>
       <c r="E12" s="137"/>
       <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="135"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="132"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="328"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="136"/>
       <c r="E13" s="137"/>
       <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="134"/>
-      <c r="AD13" s="134"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="132"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="328"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="136"/>
       <c r="E14" s="137"/>
       <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="134"/>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="132"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="328"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="136"/>
       <c r="E15" s="137"/>
       <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="134"/>
-      <c r="AD15" s="134"/>
-      <c r="AE15" s="135"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="132"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="328"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="136"/>
       <c r="E16" s="137"/>
       <c r="F16" s="138"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="134"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="134"/>
-      <c r="AB16" s="134"/>
-      <c r="AC16" s="134"/>
-      <c r="AD16" s="134"/>
-      <c r="AE16" s="135"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="132"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="328"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="136"/>
       <c r="E17" s="137"/>
       <c r="F17" s="138"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
-      <c r="Z17" s="134"/>
-      <c r="AA17" s="134"/>
-      <c r="AB17" s="134"/>
-      <c r="AC17" s="134"/>
-      <c r="AD17" s="134"/>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="132"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="133"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="328"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="136"/>
       <c r="E18" s="137"/>
       <c r="F18" s="138"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="134"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="134"/>
-      <c r="AB18" s="134"/>
-      <c r="AC18" s="134"/>
-      <c r="AD18" s="134"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="132"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="328"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="136"/>
       <c r="E19" s="137"/>
       <c r="F19" s="138"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="134"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="134"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="134"/>
-      <c r="AD19" s="134"/>
-      <c r="AE19" s="135"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="132"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="328"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="136"/>
       <c r="E20" s="137"/>
       <c r="F20" s="138"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="134"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="134"/>
-      <c r="AE20" s="135"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="132"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="328"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="136"/>
       <c r="E21" s="137"/>
       <c r="F21" s="138"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="134"/>
-      <c r="X21" s="134"/>
-      <c r="Y21" s="134"/>
-      <c r="Z21" s="134"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="134"/>
-      <c r="AD21" s="134"/>
-      <c r="AE21" s="135"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="132"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="328"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="136"/>
       <c r="E22" s="137"/>
       <c r="F22" s="138"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="134"/>
-      <c r="X22" s="134"/>
-      <c r="Y22" s="134"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="135"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="132"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="328"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="136"/>
       <c r="E23" s="137"/>
       <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="134"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="132"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="328"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="136"/>
       <c r="E24" s="137"/>
       <c r="F24" s="138"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="134"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="135"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="132"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="129"/>
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="328"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="136"/>
       <c r="E25" s="137"/>
       <c r="F25" s="138"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="134"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="135"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="132"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="328"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="136"/>
       <c r="E26" s="137"/>
       <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="134"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="134"/>
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="132"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="328"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="136"/>
       <c r="E27" s="137"/>
       <c r="F27" s="138"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="135"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="132"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="129"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="328"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="136"/>
       <c r="E28" s="137"/>
       <c r="F28" s="138"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="132"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="133"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="129"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="328"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="135"/>
       <c r="D29" s="136"/>
       <c r="E29" s="137"/>
       <c r="F29" s="138"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="135"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="132"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="129"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="328"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="136"/>
       <c r="E30" s="137"/>
       <c r="F30" s="138"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="133"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="135"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="132"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="328"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="137"/>
       <c r="F31" s="138"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="132"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="133"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="129"/>
+      <c r="AH31" s="129"/>
+      <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="328"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="137"/>
       <c r="F32" s="138"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="132"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="133"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="328"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="136"/>
       <c r="E33" s="137"/>
       <c r="F33" s="138"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="135"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="132"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="133"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="129"/>
+      <c r="AI33" s="130"/>
       <c r="AJ33" s="48"/>
       <c r="AK33" s="48"/>
       <c r="AL33" s="48"/>
@@ -7646,45 +7646,122 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D25:F25"/>
@@ -7709,122 +7786,45 @@
     <mergeCell ref="Q9:AE9"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7855,59 +7855,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="160" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="142" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -7924,54 +7924,54 @@
       <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -7988,52 +7988,52 @@
       <c r="AW2" s="42"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="142" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -11226,6 +11226,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11235,14 +11243,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11272,157 +11272,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="160" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="142" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="142" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11798,6 +11798,14 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11807,14 +11815,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11846,157 +11846,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="160" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="142" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="142" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12068,350 +12068,350 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="227" t="s">
+      <c r="D24" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="229"/>
-      <c r="J24" s="227" t="s">
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="228"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="228"/>
-      <c r="N24" s="228"/>
-      <c r="O24" s="228"/>
-      <c r="P24" s="228"/>
-      <c r="Q24" s="228"/>
-      <c r="R24" s="228"/>
-      <c r="S24" s="228"/>
-      <c r="T24" s="228"/>
-      <c r="U24" s="228"/>
-      <c r="V24" s="228"/>
-      <c r="W24" s="228"/>
-      <c r="X24" s="228"/>
-      <c r="Y24" s="228"/>
-      <c r="Z24" s="228"/>
-      <c r="AA24" s="228"/>
-      <c r="AB24" s="228"/>
-      <c r="AC24" s="228"/>
-      <c r="AD24" s="228"/>
-      <c r="AE24" s="228"/>
-      <c r="AF24" s="228"/>
-      <c r="AG24" s="228"/>
-      <c r="AH24" s="229"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="211"/>
+      <c r="N24" s="211"/>
+      <c r="O24" s="211"/>
+      <c r="P24" s="211"/>
+      <c r="Q24" s="211"/>
+      <c r="R24" s="211"/>
+      <c r="S24" s="211"/>
+      <c r="T24" s="211"/>
+      <c r="U24" s="211"/>
+      <c r="V24" s="211"/>
+      <c r="W24" s="211"/>
+      <c r="X24" s="211"/>
+      <c r="Y24" s="211"/>
+      <c r="Z24" s="211"/>
+      <c r="AA24" s="211"/>
+      <c r="AB24" s="211"/>
+      <c r="AC24" s="211"/>
+      <c r="AD24" s="211"/>
+      <c r="AE24" s="211"/>
+      <c r="AF24" s="211"/>
+      <c r="AG24" s="211"/>
+      <c r="AH24" s="212"/>
     </row>
     <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="200" t="s">
+      <c r="D25" s="235" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="233" t="s">
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="234"/>
-      <c r="P25" s="234"/>
-      <c r="Q25" s="234"/>
-      <c r="R25" s="234"/>
-      <c r="S25" s="234"/>
-      <c r="T25" s="234"/>
-      <c r="U25" s="234"/>
-      <c r="V25" s="234"/>
-      <c r="W25" s="234"/>
-      <c r="X25" s="234"/>
-      <c r="Y25" s="234"/>
-      <c r="Z25" s="234"/>
-      <c r="AA25" s="234"/>
-      <c r="AB25" s="234"/>
-      <c r="AC25" s="234"/>
-      <c r="AD25" s="234"/>
-      <c r="AE25" s="234"/>
-      <c r="AF25" s="234"/>
-      <c r="AG25" s="234"/>
-      <c r="AH25" s="235"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="218"/>
+      <c r="Q25" s="218"/>
+      <c r="R25" s="218"/>
+      <c r="S25" s="218"/>
+      <c r="T25" s="218"/>
+      <c r="U25" s="218"/>
+      <c r="V25" s="218"/>
+      <c r="W25" s="218"/>
+      <c r="X25" s="218"/>
+      <c r="Y25" s="218"/>
+      <c r="Z25" s="218"/>
+      <c r="AA25" s="218"/>
+      <c r="AB25" s="218"/>
+      <c r="AC25" s="218"/>
+      <c r="AD25" s="218"/>
+      <c r="AE25" s="218"/>
+      <c r="AF25" s="218"/>
+      <c r="AG25" s="218"/>
+      <c r="AH25" s="219"/>
     </row>
     <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="203"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="237"/>
-      <c r="O26" s="237"/>
-      <c r="P26" s="237"/>
-      <c r="Q26" s="237"/>
-      <c r="R26" s="237"/>
-      <c r="S26" s="237"/>
-      <c r="T26" s="237"/>
-      <c r="U26" s="237"/>
-      <c r="V26" s="237"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="237"/>
-      <c r="Y26" s="237"/>
-      <c r="Z26" s="237"/>
-      <c r="AA26" s="237"/>
-      <c r="AB26" s="237"/>
-      <c r="AC26" s="237"/>
-      <c r="AD26" s="237"/>
-      <c r="AE26" s="237"/>
-      <c r="AF26" s="237"/>
-      <c r="AG26" s="237"/>
-      <c r="AH26" s="238"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="239"/>
+      <c r="G26" s="239"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="220"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="221"/>
+      <c r="AG26" s="221"/>
+      <c r="AH26" s="222"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="206"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="240"/>
-      <c r="M27" s="240"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="240"/>
-      <c r="P27" s="240"/>
-      <c r="Q27" s="240"/>
-      <c r="R27" s="240"/>
-      <c r="S27" s="240"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="240"/>
-      <c r="V27" s="240"/>
-      <c r="W27" s="240"/>
-      <c r="X27" s="240"/>
-      <c r="Y27" s="240"/>
-      <c r="Z27" s="240"/>
-      <c r="AA27" s="240"/>
-      <c r="AB27" s="240"/>
-      <c r="AC27" s="240"/>
-      <c r="AD27" s="240"/>
-      <c r="AE27" s="240"/>
-      <c r="AF27" s="240"/>
-      <c r="AG27" s="240"/>
-      <c r="AH27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="224"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="224"/>
+      <c r="Z27" s="224"/>
+      <c r="AA27" s="224"/>
+      <c r="AB27" s="224"/>
+      <c r="AC27" s="224"/>
+      <c r="AD27" s="224"/>
+      <c r="AE27" s="224"/>
+      <c r="AF27" s="224"/>
+      <c r="AG27" s="224"/>
+      <c r="AH27" s="225"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="235" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="217" t="s">
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="226" t="s">
         <v>196</v>
       </c>
-      <c r="K28" s="218"/>
-      <c r="L28" s="218"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="218"/>
-      <c r="R28" s="218"/>
-      <c r="S28" s="218"/>
-      <c r="T28" s="218"/>
-      <c r="U28" s="218"/>
-      <c r="V28" s="218"/>
-      <c r="W28" s="218"/>
-      <c r="X28" s="218"/>
-      <c r="Y28" s="218"/>
-      <c r="Z28" s="218"/>
-      <c r="AA28" s="218"/>
-      <c r="AB28" s="218"/>
-      <c r="AC28" s="218"/>
-      <c r="AD28" s="218"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="218"/>
-      <c r="AH28" s="219"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="227"/>
+      <c r="P28" s="227"/>
+      <c r="Q28" s="227"/>
+      <c r="R28" s="227"/>
+      <c r="S28" s="227"/>
+      <c r="T28" s="227"/>
+      <c r="U28" s="227"/>
+      <c r="V28" s="227"/>
+      <c r="W28" s="227"/>
+      <c r="X28" s="227"/>
+      <c r="Y28" s="227"/>
+      <c r="Z28" s="227"/>
+      <c r="AA28" s="227"/>
+      <c r="AB28" s="227"/>
+      <c r="AC28" s="227"/>
+      <c r="AD28" s="227"/>
+      <c r="AE28" s="227"/>
+      <c r="AF28" s="227"/>
+      <c r="AG28" s="227"/>
+      <c r="AH28" s="228"/>
     </row>
     <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="203"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="221"/>
-      <c r="M29" s="221"/>
-      <c r="N29" s="221"/>
-      <c r="O29" s="221"/>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="221"/>
-      <c r="S29" s="221"/>
-      <c r="T29" s="221"/>
-      <c r="U29" s="221"/>
-      <c r="V29" s="221"/>
-      <c r="W29" s="221"/>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="221"/>
-      <c r="AC29" s="221"/>
-      <c r="AD29" s="221"/>
-      <c r="AE29" s="221"/>
-      <c r="AF29" s="221"/>
-      <c r="AG29" s="221"/>
-      <c r="AH29" s="222"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="230"/>
+      <c r="Q29" s="230"/>
+      <c r="R29" s="230"/>
+      <c r="S29" s="230"/>
+      <c r="T29" s="230"/>
+      <c r="U29" s="230"/>
+      <c r="V29" s="230"/>
+      <c r="W29" s="230"/>
+      <c r="X29" s="230"/>
+      <c r="Y29" s="230"/>
+      <c r="Z29" s="230"/>
+      <c r="AA29" s="230"/>
+      <c r="AB29" s="230"/>
+      <c r="AC29" s="230"/>
+      <c r="AD29" s="230"/>
+      <c r="AE29" s="230"/>
+      <c r="AF29" s="230"/>
+      <c r="AG29" s="230"/>
+      <c r="AH29" s="231"/>
     </row>
     <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="206"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="224"/>
-      <c r="Q30" s="224"/>
-      <c r="R30" s="224"/>
-      <c r="S30" s="224"/>
-      <c r="T30" s="224"/>
-      <c r="U30" s="224"/>
-      <c r="V30" s="224"/>
-      <c r="W30" s="224"/>
-      <c r="X30" s="224"/>
-      <c r="Y30" s="224"/>
-      <c r="Z30" s="224"/>
-      <c r="AA30" s="224"/>
-      <c r="AB30" s="224"/>
-      <c r="AC30" s="224"/>
-      <c r="AD30" s="224"/>
-      <c r="AE30" s="224"/>
-      <c r="AF30" s="224"/>
-      <c r="AG30" s="224"/>
-      <c r="AH30" s="225"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="243"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="233"/>
+      <c r="L30" s="233"/>
+      <c r="M30" s="233"/>
+      <c r="N30" s="233"/>
+      <c r="O30" s="233"/>
+      <c r="P30" s="233"/>
+      <c r="Q30" s="233"/>
+      <c r="R30" s="233"/>
+      <c r="S30" s="233"/>
+      <c r="T30" s="233"/>
+      <c r="U30" s="233"/>
+      <c r="V30" s="233"/>
+      <c r="W30" s="233"/>
+      <c r="X30" s="233"/>
+      <c r="Y30" s="233"/>
+      <c r="Z30" s="233"/>
+      <c r="AA30" s="233"/>
+      <c r="AB30" s="233"/>
+      <c r="AC30" s="233"/>
+      <c r="AD30" s="233"/>
+      <c r="AE30" s="233"/>
+      <c r="AF30" s="233"/>
+      <c r="AG30" s="233"/>
+      <c r="AH30" s="234"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="209" t="s">
+      <c r="D31" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="201"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="217" t="s">
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="237"/>
+      <c r="J31" s="226" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="218"/>
-      <c r="L31" s="218"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="218"/>
-      <c r="Q31" s="218"/>
-      <c r="R31" s="218"/>
-      <c r="S31" s="218"/>
-      <c r="T31" s="218"/>
-      <c r="U31" s="218"/>
-      <c r="V31" s="218"/>
-      <c r="W31" s="218"/>
-      <c r="X31" s="218"/>
-      <c r="Y31" s="218"/>
-      <c r="Z31" s="218"/>
-      <c r="AA31" s="218"/>
-      <c r="AB31" s="218"/>
-      <c r="AC31" s="218"/>
-      <c r="AD31" s="218"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="218"/>
-      <c r="AH31" s="219"/>
+      <c r="K31" s="227"/>
+      <c r="L31" s="227"/>
+      <c r="M31" s="227"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
+      <c r="P31" s="227"/>
+      <c r="Q31" s="227"/>
+      <c r="R31" s="227"/>
+      <c r="S31" s="227"/>
+      <c r="T31" s="227"/>
+      <c r="U31" s="227"/>
+      <c r="V31" s="227"/>
+      <c r="W31" s="227"/>
+      <c r="X31" s="227"/>
+      <c r="Y31" s="227"/>
+      <c r="Z31" s="227"/>
+      <c r="AA31" s="227"/>
+      <c r="AB31" s="227"/>
+      <c r="AC31" s="227"/>
+      <c r="AD31" s="227"/>
+      <c r="AE31" s="227"/>
+      <c r="AF31" s="227"/>
+      <c r="AG31" s="227"/>
+      <c r="AH31" s="228"/>
     </row>
     <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="203"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-      <c r="Z32" s="221"/>
-      <c r="AA32" s="221"/>
-      <c r="AB32" s="221"/>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="221"/>
-      <c r="AE32" s="221"/>
-      <c r="AF32" s="221"/>
-      <c r="AG32" s="221"/>
-      <c r="AH32" s="222"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="230"/>
+      <c r="R32" s="230"/>
+      <c r="S32" s="230"/>
+      <c r="T32" s="230"/>
+      <c r="U32" s="230"/>
+      <c r="V32" s="230"/>
+      <c r="W32" s="230"/>
+      <c r="X32" s="230"/>
+      <c r="Y32" s="230"/>
+      <c r="Z32" s="230"/>
+      <c r="AA32" s="230"/>
+      <c r="AB32" s="230"/>
+      <c r="AC32" s="230"/>
+      <c r="AD32" s="230"/>
+      <c r="AE32" s="230"/>
+      <c r="AF32" s="230"/>
+      <c r="AG32" s="230"/>
+      <c r="AH32" s="231"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="224"/>
-      <c r="Q33" s="224"/>
-      <c r="R33" s="224"/>
-      <c r="S33" s="224"/>
-      <c r="T33" s="224"/>
-      <c r="U33" s="224"/>
-      <c r="V33" s="224"/>
-      <c r="W33" s="224"/>
-      <c r="X33" s="224"/>
-      <c r="Y33" s="224"/>
-      <c r="Z33" s="224"/>
-      <c r="AA33" s="224"/>
-      <c r="AB33" s="224"/>
-      <c r="AC33" s="224"/>
-      <c r="AD33" s="224"/>
-      <c r="AE33" s="224"/>
-      <c r="AF33" s="224"/>
-      <c r="AG33" s="224"/>
-      <c r="AH33" s="225"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="233"/>
+      <c r="N33" s="233"/>
+      <c r="O33" s="233"/>
+      <c r="P33" s="233"/>
+      <c r="Q33" s="233"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="233"/>
+      <c r="T33" s="233"/>
+      <c r="U33" s="233"/>
+      <c r="V33" s="233"/>
+      <c r="W33" s="233"/>
+      <c r="X33" s="233"/>
+      <c r="Y33" s="233"/>
+      <c r="Z33" s="233"/>
+      <c r="AA33" s="233"/>
+      <c r="AB33" s="233"/>
+      <c r="AC33" s="233"/>
+      <c r="AD33" s="233"/>
+      <c r="AE33" s="233"/>
+      <c r="AF33" s="233"/>
+      <c r="AG33" s="233"/>
+      <c r="AH33" s="234"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
@@ -12434,156 +12434,156 @@
     </row>
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="211" t="s">
+      <c r="D39" s="245" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="212"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="210" t="s">
+      <c r="E39" s="246"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="247"/>
+      <c r="H39" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="135"/>
-      <c r="L39" s="210" t="s">
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="230"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="231"/>
-      <c r="P39" s="210" t="s">
+      <c r="M39" s="214"/>
+      <c r="N39" s="214"/>
+      <c r="O39" s="215"/>
+      <c r="P39" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="135"/>
-      <c r="T39" s="210" t="s">
+      <c r="Q39" s="132"/>
+      <c r="R39" s="132"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="232" t="s">
+      <c r="U39" s="132"/>
+      <c r="V39" s="132"/>
+      <c r="W39" s="133"/>
+      <c r="X39" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="135"/>
+      <c r="Y39" s="132"/>
+      <c r="Z39" s="132"/>
+      <c r="AA39" s="133"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D40" s="197" t="s">
+      <c r="D40" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="197" t="s">
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="199"/>
-      <c r="L40" s="197" t="s">
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="198"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="199"/>
-      <c r="P40" s="197" t="s">
+      <c r="M40" s="206"/>
+      <c r="N40" s="206"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="199"/>
-      <c r="T40" s="197" t="s">
+      <c r="Q40" s="206"/>
+      <c r="R40" s="206"/>
+      <c r="S40" s="207"/>
+      <c r="T40" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="198"/>
-      <c r="V40" s="198"/>
-      <c r="W40" s="199"/>
-      <c r="X40" s="197" t="s">
+      <c r="U40" s="206"/>
+      <c r="V40" s="206"/>
+      <c r="W40" s="207"/>
+      <c r="X40" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="Y40" s="198"/>
-      <c r="Z40" s="198"/>
-      <c r="AA40" s="199"/>
+      <c r="Y40" s="206"/>
+      <c r="Z40" s="206"/>
+      <c r="AA40" s="207"/>
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="214" t="s">
+      <c r="D41" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="216"/>
-      <c r="H41" s="214" t="s">
+      <c r="E41" s="248"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="209" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="198"/>
-      <c r="J41" s="198"/>
-      <c r="K41" s="199"/>
-      <c r="L41" s="214" t="s">
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="209" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="198"/>
-      <c r="N41" s="198"/>
-      <c r="O41" s="199"/>
-      <c r="P41" s="197" t="s">
+      <c r="M41" s="206"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="Q41" s="198"/>
-      <c r="R41" s="198"/>
-      <c r="S41" s="199"/>
-      <c r="T41" s="197" t="s">
+      <c r="Q41" s="206"/>
+      <c r="R41" s="206"/>
+      <c r="S41" s="207"/>
+      <c r="T41" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="U41" s="198"/>
-      <c r="V41" s="198"/>
-      <c r="W41" s="199"/>
-      <c r="X41" s="226" t="s">
+      <c r="U41" s="206"/>
+      <c r="V41" s="206"/>
+      <c r="W41" s="207"/>
+      <c r="X41" s="208" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" s="198"/>
-      <c r="Z41" s="198"/>
-      <c r="AA41" s="199"/>
+      <c r="Y41" s="206"/>
+      <c r="Z41" s="206"/>
+      <c r="AA41" s="207"/>
     </row>
     <row r="42" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D42" s="197" t="s">
+      <c r="D42" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="197" t="s">
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="198"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="199"/>
-      <c r="L42" s="197" t="s">
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="198"/>
-      <c r="N42" s="198"/>
-      <c r="O42" s="199"/>
-      <c r="P42" s="226" t="s">
+      <c r="M42" s="206"/>
+      <c r="N42" s="206"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="Q42" s="198"/>
-      <c r="R42" s="198"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="226" t="s">
+      <c r="Q42" s="206"/>
+      <c r="R42" s="206"/>
+      <c r="S42" s="207"/>
+      <c r="T42" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="U42" s="198"/>
-      <c r="V42" s="198"/>
-      <c r="W42" s="199"/>
-      <c r="X42" s="197" t="s">
+      <c r="U42" s="206"/>
+      <c r="V42" s="206"/>
+      <c r="W42" s="207"/>
+      <c r="X42" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="Y42" s="198"/>
-      <c r="Z42" s="198"/>
-      <c r="AA42" s="199"/>
+      <c r="Y42" s="206"/>
+      <c r="Z42" s="206"/>
+      <c r="AA42" s="207"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D43" s="15" t="s">
@@ -12646,23 +12646,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D25:I27"/>
+    <mergeCell ref="D31:I33"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="J28:AH30"/>
+    <mergeCell ref="D28:I30"/>
+    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="X40:AA40"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="P42:S42"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AC1:AF1"/>
@@ -12679,22 +12678,23 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D25:I27"/>
-    <mergeCell ref="D31:I33"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="J28:AH30"/>
-    <mergeCell ref="D28:I30"/>
-    <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="X40:AA40"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="J24:AH24"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J25:AH27"/>
+    <mergeCell ref="J31:AH33"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12729,157 +12729,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="160" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="142" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="142" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13093,35 +13093,35 @@
       <c r="D28" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="276" t="s">
+      <c r="E28" s="298" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="277"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="278"/>
-      <c r="I28" s="254" t="s">
+      <c r="F28" s="299"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="255"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="275" t="s">
+      <c r="J28" s="269"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="275"/>
-      <c r="N28" s="275"/>
-      <c r="O28" s="275"/>
-      <c r="P28" s="275"/>
-      <c r="Q28" s="254" t="s">
+      <c r="M28" s="280"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="280"/>
+      <c r="Q28" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="R28" s="255"/>
-      <c r="S28" s="255"/>
-      <c r="T28" s="256"/>
-      <c r="U28" s="254" t="s">
+      <c r="R28" s="269"/>
+      <c r="S28" s="269"/>
+      <c r="T28" s="270"/>
+      <c r="U28" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="255"/>
-      <c r="W28" s="256"/>
+      <c r="V28" s="269"/>
+      <c r="W28" s="270"/>
       <c r="X28" s="73" t="s">
         <v>46</v>
       </c>
@@ -13142,31 +13142,31 @@
       <c r="D29" s="82">
         <v>1</v>
       </c>
-      <c r="E29" s="269" t="s">
+      <c r="E29" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="270"/>
-      <c r="G29" s="270"/>
-      <c r="H29" s="271"/>
-      <c r="I29" s="263" t="s">
+      <c r="F29" s="286"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="301" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="264"/>
-      <c r="K29" s="264"/>
-      <c r="L29" s="265" t="s">
+      <c r="J29" s="302"/>
+      <c r="K29" s="302"/>
+      <c r="L29" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="265"/>
-      <c r="N29" s="265"/>
-      <c r="O29" s="265"/>
-      <c r="P29" s="265"/>
-      <c r="Q29" s="257"/>
-      <c r="R29" s="258"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="259"/>
-      <c r="U29" s="257"/>
-      <c r="V29" s="258"/>
-      <c r="W29" s="259"/>
+      <c r="M29" s="297"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297"/>
+      <c r="P29" s="297"/>
+      <c r="Q29" s="288"/>
+      <c r="R29" s="289"/>
+      <c r="S29" s="289"/>
+      <c r="T29" s="290"/>
+      <c r="U29" s="288"/>
+      <c r="V29" s="289"/>
+      <c r="W29" s="290"/>
       <c r="X29" s="83" t="s">
         <v>8</v>
       </c>
@@ -13187,27 +13187,27 @@
       <c r="D30" s="82">
         <v>2</v>
       </c>
-      <c r="E30" s="257"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="264"/>
-      <c r="J30" s="264"/>
-      <c r="K30" s="264"/>
-      <c r="L30" s="265" t="s">
+      <c r="E30" s="288"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="265"/>
-      <c r="N30" s="265"/>
-      <c r="O30" s="265"/>
-      <c r="P30" s="265"/>
-      <c r="Q30" s="257"/>
-      <c r="R30" s="258"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="259"/>
-      <c r="U30" s="257"/>
-      <c r="V30" s="258"/>
-      <c r="W30" s="259"/>
+      <c r="M30" s="297"/>
+      <c r="N30" s="297"/>
+      <c r="O30" s="297"/>
+      <c r="P30" s="297"/>
+      <c r="Q30" s="288"/>
+      <c r="R30" s="289"/>
+      <c r="S30" s="289"/>
+      <c r="T30" s="290"/>
+      <c r="U30" s="288"/>
+      <c r="V30" s="289"/>
+      <c r="W30" s="290"/>
       <c r="X30" s="83" t="s">
         <v>3</v>
       </c>
@@ -13226,27 +13226,27 @@
       <c r="D31" s="89">
         <v>3</v>
       </c>
-      <c r="E31" s="272"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="273"/>
-      <c r="H31" s="274"/>
-      <c r="I31" s="264"/>
-      <c r="J31" s="264"/>
-      <c r="K31" s="264"/>
-      <c r="L31" s="265" t="s">
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="265"/>
-      <c r="N31" s="265"/>
-      <c r="O31" s="265"/>
-      <c r="P31" s="265"/>
-      <c r="Q31" s="260"/>
-      <c r="R31" s="261"/>
-      <c r="S31" s="261"/>
-      <c r="T31" s="262"/>
-      <c r="U31" s="260"/>
-      <c r="V31" s="261"/>
-      <c r="W31" s="262"/>
+      <c r="M31" s="297"/>
+      <c r="N31" s="297"/>
+      <c r="O31" s="297"/>
+      <c r="P31" s="297"/>
+      <c r="Q31" s="294"/>
+      <c r="R31" s="295"/>
+      <c r="S31" s="295"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="294"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="296"/>
       <c r="X31" s="90" t="s">
         <v>4</v>
       </c>
@@ -13394,50 +13394,50 @@
       <c r="D39" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="291" t="s">
+      <c r="E39" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="292"/>
-      <c r="G39" s="292"/>
-      <c r="H39" s="293"/>
-      <c r="I39" s="254" t="s">
+      <c r="F39" s="263"/>
+      <c r="G39" s="263"/>
+      <c r="H39" s="264"/>
+      <c r="I39" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="255"/>
-      <c r="K39" s="256"/>
-      <c r="L39" s="275" t="s">
+      <c r="J39" s="269"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="275"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="275"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="294" t="s">
+      <c r="M39" s="280"/>
+      <c r="N39" s="280"/>
+      <c r="O39" s="280"/>
+      <c r="P39" s="280"/>
+      <c r="Q39" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="295"/>
-      <c r="S39" s="295"/>
-      <c r="T39" s="296"/>
-      <c r="U39" s="254" t="s">
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="284"/>
+      <c r="U39" s="268" t="s">
         <v>45</v>
       </c>
-      <c r="V39" s="255"/>
-      <c r="W39" s="256"/>
-      <c r="X39" s="291" t="s">
+      <c r="V39" s="269"/>
+      <c r="W39" s="270"/>
+      <c r="X39" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="Y39" s="292"/>
-      <c r="Z39" s="292"/>
-      <c r="AA39" s="292"/>
-      <c r="AB39" s="292"/>
-      <c r="AC39" s="292"/>
-      <c r="AD39" s="292"/>
-      <c r="AE39" s="293"/>
-      <c r="AF39" s="279" t="s">
+      <c r="Y39" s="263"/>
+      <c r="Z39" s="263"/>
+      <c r="AA39" s="263"/>
+      <c r="AB39" s="263"/>
+      <c r="AC39" s="263"/>
+      <c r="AD39" s="263"/>
+      <c r="AE39" s="264"/>
+      <c r="AF39" s="250" t="s">
         <v>29</v>
       </c>
-      <c r="AG39" s="280"/>
-      <c r="AH39" s="281"/>
+      <c r="AG39" s="251"/>
+      <c r="AH39" s="252"/>
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
@@ -13450,45 +13450,45 @@
       <c r="D40" s="82">
         <v>1</v>
       </c>
-      <c r="E40" s="282" t="s">
+      <c r="E40" s="253" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="283"/>
-      <c r="G40" s="283"/>
-      <c r="H40" s="284"/>
-      <c r="I40" s="245" t="s">
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="246"/>
-      <c r="K40" s="247"/>
-      <c r="L40" s="267" t="s">
+      <c r="J40" s="272"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="281" t="s">
         <v>93</v>
       </c>
-      <c r="M40" s="267"/>
-      <c r="N40" s="267"/>
-      <c r="O40" s="267"/>
-      <c r="P40" s="267"/>
-      <c r="Q40" s="282" t="s">
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="281"/>
+      <c r="P40" s="281"/>
+      <c r="Q40" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="R40" s="283"/>
-      <c r="S40" s="283"/>
-      <c r="T40" s="284"/>
-      <c r="U40" s="245" t="s">
+      <c r="R40" s="254"/>
+      <c r="S40" s="254"/>
+      <c r="T40" s="255"/>
+      <c r="U40" s="271" t="s">
         <v>149</v>
       </c>
-      <c r="V40" s="246"/>
-      <c r="W40" s="247"/>
-      <c r="X40" s="242" t="s">
+      <c r="V40" s="272"/>
+      <c r="W40" s="273"/>
+      <c r="X40" s="265" t="s">
         <v>147</v>
       </c>
-      <c r="Y40" s="243"/>
-      <c r="Z40" s="243"/>
-      <c r="AA40" s="243"/>
-      <c r="AB40" s="243"/>
-      <c r="AC40" s="243"/>
-      <c r="AD40" s="243"/>
-      <c r="AE40" s="244"/>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266"/>
+      <c r="AB40" s="266"/>
+      <c r="AC40" s="266"/>
+      <c r="AD40" s="266"/>
+      <c r="AE40" s="267"/>
       <c r="AF40" s="101" t="s">
         <v>96</v>
       </c>
@@ -13506,37 +13506,37 @@
       <c r="D41" s="82">
         <v>2</v>
       </c>
-      <c r="E41" s="285"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="286"/>
-      <c r="H41" s="287"/>
-      <c r="I41" s="248"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="250"/>
-      <c r="L41" s="267" t="s">
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="258"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="275"/>
+      <c r="K41" s="276"/>
+      <c r="L41" s="281" t="s">
         <v>94</v>
       </c>
-      <c r="M41" s="267"/>
-      <c r="N41" s="267"/>
-      <c r="O41" s="267"/>
-      <c r="P41" s="267"/>
-      <c r="Q41" s="285"/>
-      <c r="R41" s="286"/>
-      <c r="S41" s="286"/>
-      <c r="T41" s="287"/>
-      <c r="U41" s="248"/>
-      <c r="V41" s="249"/>
-      <c r="W41" s="250"/>
-      <c r="X41" s="242" t="s">
+      <c r="M41" s="281"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="281"/>
+      <c r="Q41" s="256"/>
+      <c r="R41" s="257"/>
+      <c r="S41" s="257"/>
+      <c r="T41" s="258"/>
+      <c r="U41" s="274"/>
+      <c r="V41" s="275"/>
+      <c r="W41" s="276"/>
+      <c r="X41" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="Y41" s="243"/>
-      <c r="Z41" s="243"/>
-      <c r="AA41" s="243"/>
-      <c r="AB41" s="243"/>
-      <c r="AC41" s="243"/>
-      <c r="AD41" s="243"/>
-      <c r="AE41" s="244"/>
+      <c r="Y41" s="266"/>
+      <c r="Z41" s="266"/>
+      <c r="AA41" s="266"/>
+      <c r="AB41" s="266"/>
+      <c r="AC41" s="266"/>
+      <c r="AD41" s="266"/>
+      <c r="AE41" s="267"/>
       <c r="AF41" s="104"/>
       <c r="AG41" s="105"/>
       <c r="AH41" s="106"/>
@@ -13552,37 +13552,37 @@
       <c r="D42" s="82">
         <v>3</v>
       </c>
-      <c r="E42" s="285"/>
-      <c r="F42" s="286"/>
-      <c r="G42" s="286"/>
-      <c r="H42" s="287"/>
-      <c r="I42" s="248"/>
-      <c r="J42" s="249"/>
-      <c r="K42" s="250"/>
-      <c r="L42" s="267" t="s">
+      <c r="E42" s="256"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="258"/>
+      <c r="I42" s="274"/>
+      <c r="J42" s="275"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="267"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="267"/>
-      <c r="P42" s="267"/>
-      <c r="Q42" s="285"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="287"/>
-      <c r="U42" s="248"/>
-      <c r="V42" s="249"/>
-      <c r="W42" s="250"/>
-      <c r="X42" s="242" t="s">
+      <c r="M42" s="281"/>
+      <c r="N42" s="281"/>
+      <c r="O42" s="281"/>
+      <c r="P42" s="281"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="257"/>
+      <c r="S42" s="257"/>
+      <c r="T42" s="258"/>
+      <c r="U42" s="274"/>
+      <c r="V42" s="275"/>
+      <c r="W42" s="276"/>
+      <c r="X42" s="265" t="s">
         <v>145</v>
       </c>
-      <c r="Y42" s="243"/>
-      <c r="Z42" s="243"/>
-      <c r="AA42" s="243"/>
-      <c r="AB42" s="243"/>
-      <c r="AC42" s="243"/>
-      <c r="AD42" s="243"/>
-      <c r="AE42" s="244"/>
+      <c r="Y42" s="266"/>
+      <c r="Z42" s="266"/>
+      <c r="AA42" s="266"/>
+      <c r="AB42" s="266"/>
+      <c r="AC42" s="266"/>
+      <c r="AD42" s="266"/>
+      <c r="AE42" s="267"/>
       <c r="AF42" s="104"/>
       <c r="AG42" s="105"/>
       <c r="AH42" s="106"/>
@@ -13598,37 +13598,37 @@
       <c r="D43" s="82">
         <v>4</v>
       </c>
-      <c r="E43" s="285"/>
-      <c r="F43" s="286"/>
-      <c r="G43" s="286"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="248"/>
-      <c r="J43" s="249"/>
-      <c r="K43" s="250"/>
-      <c r="L43" s="268" t="s">
+      <c r="E43" s="256"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="257"/>
+      <c r="H43" s="258"/>
+      <c r="I43" s="274"/>
+      <c r="J43" s="275"/>
+      <c r="K43" s="276"/>
+      <c r="L43" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="267"/>
-      <c r="N43" s="267"/>
-      <c r="O43" s="267"/>
-      <c r="P43" s="267"/>
-      <c r="Q43" s="285"/>
-      <c r="R43" s="286"/>
-      <c r="S43" s="286"/>
-      <c r="T43" s="287"/>
-      <c r="U43" s="248"/>
-      <c r="V43" s="249"/>
-      <c r="W43" s="250"/>
-      <c r="X43" s="242" t="s">
+      <c r="M43" s="281"/>
+      <c r="N43" s="281"/>
+      <c r="O43" s="281"/>
+      <c r="P43" s="281"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="257"/>
+      <c r="S43" s="257"/>
+      <c r="T43" s="258"/>
+      <c r="U43" s="274"/>
+      <c r="V43" s="275"/>
+      <c r="W43" s="276"/>
+      <c r="X43" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="Y43" s="243"/>
-      <c r="Z43" s="243"/>
-      <c r="AA43" s="243"/>
-      <c r="AB43" s="243"/>
-      <c r="AC43" s="243"/>
-      <c r="AD43" s="243"/>
-      <c r="AE43" s="244"/>
+      <c r="Y43" s="266"/>
+      <c r="Z43" s="266"/>
+      <c r="AA43" s="266"/>
+      <c r="AB43" s="266"/>
+      <c r="AC43" s="266"/>
+      <c r="AD43" s="266"/>
+      <c r="AE43" s="267"/>
       <c r="AF43" s="104"/>
       <c r="AG43" s="105"/>
       <c r="AH43" s="106"/>
@@ -13644,37 +13644,37 @@
       <c r="D44" s="82">
         <v>5</v>
       </c>
-      <c r="E44" s="288"/>
-      <c r="F44" s="289"/>
-      <c r="G44" s="289"/>
-      <c r="H44" s="290"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="252"/>
-      <c r="K44" s="253"/>
-      <c r="L44" s="266" t="s">
+      <c r="E44" s="259"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="261"/>
+      <c r="I44" s="277"/>
+      <c r="J44" s="278"/>
+      <c r="K44" s="279"/>
+      <c r="L44" s="303" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="266"/>
-      <c r="N44" s="266"/>
-      <c r="O44" s="266"/>
-      <c r="P44" s="266"/>
-      <c r="Q44" s="288"/>
-      <c r="R44" s="289"/>
-      <c r="S44" s="289"/>
-      <c r="T44" s="290"/>
-      <c r="U44" s="251"/>
-      <c r="V44" s="252"/>
-      <c r="W44" s="253"/>
-      <c r="X44" s="242" t="s">
+      <c r="M44" s="303"/>
+      <c r="N44" s="303"/>
+      <c r="O44" s="303"/>
+      <c r="P44" s="303"/>
+      <c r="Q44" s="259"/>
+      <c r="R44" s="260"/>
+      <c r="S44" s="260"/>
+      <c r="T44" s="261"/>
+      <c r="U44" s="277"/>
+      <c r="V44" s="278"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="Y44" s="243"/>
-      <c r="Z44" s="243"/>
-      <c r="AA44" s="243"/>
-      <c r="AB44" s="243"/>
-      <c r="AC44" s="243"/>
-      <c r="AD44" s="243"/>
-      <c r="AE44" s="244"/>
+      <c r="Y44" s="266"/>
+      <c r="Z44" s="266"/>
+      <c r="AA44" s="266"/>
+      <c r="AB44" s="266"/>
+      <c r="AC44" s="266"/>
+      <c r="AD44" s="266"/>
+      <c r="AE44" s="267"/>
       <c r="AF44" s="107"/>
       <c r="AG44" s="108"/>
       <c r="AH44" s="109"/>
@@ -13941,6 +13941,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -13957,40 +13991,6 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14024,157 +14024,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="160" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="157" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="142" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="157" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="145">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="142" t="str">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14543,112 +14543,112 @@
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="276" t="s">
+      <c r="E22" s="298" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="277"/>
-      <c r="G22" s="277"/>
-      <c r="H22" s="277"/>
-      <c r="I22" s="277"/>
-      <c r="J22" s="278"/>
-      <c r="K22" s="276" t="s">
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="278"/>
-      <c r="M22" s="276" t="s">
+      <c r="L22" s="300"/>
+      <c r="M22" s="298" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="277"/>
-      <c r="O22" s="277"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="277"/>
-      <c r="R22" s="277"/>
-      <c r="S22" s="277"/>
-      <c r="T22" s="277"/>
-      <c r="U22" s="277"/>
-      <c r="V22" s="277"/>
-      <c r="W22" s="277"/>
-      <c r="X22" s="277"/>
-      <c r="Y22" s="277"/>
-      <c r="Z22" s="277"/>
-      <c r="AA22" s="277"/>
-      <c r="AB22" s="277"/>
-      <c r="AC22" s="277"/>
-      <c r="AD22" s="277"/>
-      <c r="AE22" s="277"/>
-      <c r="AF22" s="277"/>
-      <c r="AG22" s="277"/>
-      <c r="AH22" s="278"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="299"/>
+      <c r="Q22" s="299"/>
+      <c r="R22" s="299"/>
+      <c r="S22" s="299"/>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="299"/>
+      <c r="X22" s="299"/>
+      <c r="Y22" s="299"/>
+      <c r="Z22" s="299"/>
+      <c r="AA22" s="299"/>
+      <c r="AB22" s="299"/>
+      <c r="AC22" s="299"/>
+      <c r="AD22" s="299"/>
+      <c r="AE22" s="299"/>
+      <c r="AF22" s="299"/>
+      <c r="AG22" s="299"/>
+      <c r="AH22" s="300"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="297" t="s">
+      <c r="E23" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="298"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="127" t="s">
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="321" t="s">
+      <c r="L23" s="194"/>
+      <c r="M23" s="324" t="s">
         <v>138</v>
       </c>
-      <c r="N23" s="322"/>
-      <c r="O23" s="322"/>
-      <c r="P23" s="322"/>
-      <c r="Q23" s="322"/>
-      <c r="R23" s="322"/>
-      <c r="S23" s="322"/>
-      <c r="T23" s="322"/>
-      <c r="U23" s="322"/>
-      <c r="V23" s="322"/>
-      <c r="W23" s="322"/>
-      <c r="X23" s="322"/>
-      <c r="Y23" s="322"/>
-      <c r="Z23" s="322"/>
-      <c r="AA23" s="322"/>
-      <c r="AB23" s="322"/>
-      <c r="AC23" s="322"/>
-      <c r="AD23" s="322"/>
-      <c r="AE23" s="322"/>
-      <c r="AF23" s="322"/>
-      <c r="AG23" s="322"/>
-      <c r="AH23" s="323"/>
+      <c r="N23" s="325"/>
+      <c r="O23" s="325"/>
+      <c r="P23" s="325"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="325"/>
+      <c r="S23" s="325"/>
+      <c r="T23" s="325"/>
+      <c r="U23" s="325"/>
+      <c r="V23" s="325"/>
+      <c r="W23" s="325"/>
+      <c r="X23" s="325"/>
+      <c r="Y23" s="325"/>
+      <c r="Z23" s="325"/>
+      <c r="AA23" s="325"/>
+      <c r="AB23" s="325"/>
+      <c r="AC23" s="325"/>
+      <c r="AD23" s="325"/>
+      <c r="AE23" s="325"/>
+      <c r="AF23" s="325"/>
+      <c r="AG23" s="325"/>
+      <c r="AH23" s="326"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="300"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="301"/>
-      <c r="I24" s="301"/>
-      <c r="J24" s="302"/>
-      <c r="K24" s="303"/>
-      <c r="L24" s="304"/>
-      <c r="M24" s="324"/>
-      <c r="N24" s="325"/>
-      <c r="O24" s="325"/>
-      <c r="P24" s="325"/>
-      <c r="Q24" s="325"/>
-      <c r="R24" s="325"/>
-      <c r="S24" s="325"/>
-      <c r="T24" s="325"/>
-      <c r="U24" s="325"/>
-      <c r="V24" s="325"/>
-      <c r="W24" s="325"/>
-      <c r="X24" s="325"/>
-      <c r="Y24" s="325"/>
-      <c r="Z24" s="325"/>
-      <c r="AA24" s="325"/>
-      <c r="AB24" s="325"/>
-      <c r="AC24" s="325"/>
-      <c r="AD24" s="325"/>
-      <c r="AE24" s="325"/>
-      <c r="AF24" s="325"/>
-      <c r="AG24" s="325"/>
-      <c r="AH24" s="326"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="320"/>
+      <c r="J24" s="321"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="323"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="328"/>
+      <c r="U24" s="328"/>
+      <c r="V24" s="328"/>
+      <c r="W24" s="328"/>
+      <c r="X24" s="328"/>
+      <c r="Y24" s="328"/>
+      <c r="Z24" s="328"/>
+      <c r="AA24" s="328"/>
+      <c r="AB24" s="328"/>
+      <c r="AC24" s="328"/>
+      <c r="AD24" s="328"/>
+      <c r="AE24" s="328"/>
+      <c r="AF24" s="328"/>
+      <c r="AG24" s="328"/>
+      <c r="AH24" s="329"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="305" t="s">
@@ -14659,98 +14659,98 @@
       <c r="H25" s="306"/>
       <c r="I25" s="306"/>
       <c r="J25" s="307"/>
-      <c r="K25" s="314" t="s">
+      <c r="K25" s="311" t="s">
         <v>191</v>
       </c>
-      <c r="L25" s="315"/>
-      <c r="M25" s="327" t="s">
+      <c r="L25" s="312"/>
+      <c r="M25" s="315" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="270"/>
-      <c r="O25" s="270"/>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="270"/>
-      <c r="R25" s="270"/>
-      <c r="S25" s="270"/>
-      <c r="T25" s="270"/>
-      <c r="U25" s="270"/>
-      <c r="V25" s="270"/>
-      <c r="W25" s="270"/>
-      <c r="X25" s="270"/>
-      <c r="Y25" s="270"/>
-      <c r="Z25" s="270"/>
-      <c r="AA25" s="270"/>
-      <c r="AB25" s="270"/>
-      <c r="AC25" s="270"/>
-      <c r="AD25" s="270"/>
-      <c r="AE25" s="270"/>
-      <c r="AF25" s="270"/>
-      <c r="AG25" s="270"/>
-      <c r="AH25" s="271"/>
+      <c r="N25" s="286"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="286"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="286"/>
+      <c r="X25" s="286"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="286"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="286"/>
+      <c r="AD25" s="286"/>
+      <c r="AE25" s="286"/>
+      <c r="AF25" s="286"/>
+      <c r="AG25" s="286"/>
+      <c r="AH25" s="287"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="308"/>
-      <c r="F26" s="309"/>
-      <c r="G26" s="309"/>
-      <c r="H26" s="309"/>
-      <c r="I26" s="309"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="316"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="257"/>
-      <c r="N26" s="258"/>
-      <c r="O26" s="258"/>
-      <c r="P26" s="258"/>
-      <c r="Q26" s="258"/>
-      <c r="R26" s="258"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="258"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="258"/>
-      <c r="W26" s="258"/>
-      <c r="X26" s="258"/>
-      <c r="Y26" s="258"/>
-      <c r="Z26" s="258"/>
-      <c r="AA26" s="258"/>
-      <c r="AB26" s="258"/>
-      <c r="AC26" s="258"/>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="258"/>
-      <c r="AF26" s="258"/>
-      <c r="AG26" s="258"/>
-      <c r="AH26" s="259"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="333"/>
+      <c r="K26" s="334"/>
+      <c r="L26" s="335"/>
+      <c r="M26" s="288"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="289"/>
+      <c r="S26" s="289"/>
+      <c r="T26" s="289"/>
+      <c r="U26" s="289"/>
+      <c r="V26" s="289"/>
+      <c r="W26" s="289"/>
+      <c r="X26" s="289"/>
+      <c r="Y26" s="289"/>
+      <c r="Z26" s="289"/>
+      <c r="AA26" s="289"/>
+      <c r="AB26" s="289"/>
+      <c r="AC26" s="289"/>
+      <c r="AD26" s="289"/>
+      <c r="AE26" s="289"/>
+      <c r="AF26" s="289"/>
+      <c r="AG26" s="289"/>
+      <c r="AH26" s="290"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="311"/>
-      <c r="F27" s="312"/>
-      <c r="G27" s="312"/>
-      <c r="H27" s="312"/>
-      <c r="I27" s="312"/>
-      <c r="J27" s="313"/>
-      <c r="K27" s="318"/>
-      <c r="L27" s="319"/>
-      <c r="M27" s="272"/>
-      <c r="N27" s="273"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="273"/>
-      <c r="Q27" s="273"/>
-      <c r="R27" s="273"/>
-      <c r="S27" s="273"/>
-      <c r="T27" s="273"/>
-      <c r="U27" s="273"/>
-      <c r="V27" s="273"/>
-      <c r="W27" s="273"/>
-      <c r="X27" s="273"/>
-      <c r="Y27" s="273"/>
-      <c r="Z27" s="273"/>
-      <c r="AA27" s="273"/>
-      <c r="AB27" s="273"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="273"/>
-      <c r="AE27" s="273"/>
-      <c r="AF27" s="273"/>
-      <c r="AG27" s="273"/>
-      <c r="AH27" s="274"/>
+      <c r="E27" s="308"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="309"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="310"/>
+      <c r="K27" s="313"/>
+      <c r="L27" s="314"/>
+      <c r="M27" s="291"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
+      <c r="Q27" s="292"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="292"/>
+      <c r="Z27" s="292"/>
+      <c r="AA27" s="292"/>
+      <c r="AB27" s="292"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="292"/>
+      <c r="AE27" s="292"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="293"/>
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="305" t="s">
@@ -14761,66 +14761,66 @@
       <c r="H28" s="306"/>
       <c r="I28" s="306"/>
       <c r="J28" s="307"/>
-      <c r="K28" s="314" t="s">
+      <c r="K28" s="311" t="s">
         <v>191</v>
       </c>
-      <c r="L28" s="315"/>
-      <c r="M28" s="327" t="s">
+      <c r="L28" s="312"/>
+      <c r="M28" s="315" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="270"/>
-      <c r="O28" s="270"/>
-      <c r="P28" s="270"/>
-      <c r="Q28" s="270"/>
-      <c r="R28" s="270"/>
-      <c r="S28" s="270"/>
-      <c r="T28" s="270"/>
-      <c r="U28" s="270"/>
-      <c r="V28" s="270"/>
-      <c r="W28" s="270"/>
-      <c r="X28" s="270"/>
-      <c r="Y28" s="270"/>
-      <c r="Z28" s="270"/>
-      <c r="AA28" s="270"/>
-      <c r="AB28" s="270"/>
-      <c r="AC28" s="270"/>
-      <c r="AD28" s="270"/>
-      <c r="AE28" s="270"/>
-      <c r="AF28" s="270"/>
-      <c r="AG28" s="270"/>
-      <c r="AH28" s="271"/>
+      <c r="N28" s="286"/>
+      <c r="O28" s="286"/>
+      <c r="P28" s="286"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="286"/>
+      <c r="S28" s="286"/>
+      <c r="T28" s="286"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="286"/>
+      <c r="W28" s="286"/>
+      <c r="X28" s="286"/>
+      <c r="Y28" s="286"/>
+      <c r="Z28" s="286"/>
+      <c r="AA28" s="286"/>
+      <c r="AB28" s="286"/>
+      <c r="AC28" s="286"/>
+      <c r="AD28" s="286"/>
+      <c r="AE28" s="286"/>
+      <c r="AF28" s="286"/>
+      <c r="AG28" s="286"/>
+      <c r="AH28" s="287"/>
     </row>
     <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="311"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="312"/>
-      <c r="H29" s="312"/>
-      <c r="I29" s="312"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="318"/>
-      <c r="L29" s="319"/>
-      <c r="M29" s="272"/>
-      <c r="N29" s="273"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="273"/>
-      <c r="Q29" s="273"/>
-      <c r="R29" s="273"/>
-      <c r="S29" s="273"/>
-      <c r="T29" s="273"/>
-      <c r="U29" s="273"/>
-      <c r="V29" s="273"/>
-      <c r="W29" s="273"/>
-      <c r="X29" s="273"/>
-      <c r="Y29" s="273"/>
-      <c r="Z29" s="273"/>
-      <c r="AA29" s="273"/>
-      <c r="AB29" s="273"/>
-      <c r="AC29" s="273"/>
-      <c r="AD29" s="273"/>
-      <c r="AE29" s="273"/>
-      <c r="AF29" s="273"/>
-      <c r="AG29" s="273"/>
-      <c r="AH29" s="274"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="313"/>
+      <c r="L29" s="314"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="292"/>
+      <c r="Q29" s="292"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="292"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="293"/>
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="305" t="s">
@@ -14831,66 +14831,66 @@
       <c r="H30" s="306"/>
       <c r="I30" s="306"/>
       <c r="J30" s="307"/>
-      <c r="K30" s="314" t="s">
+      <c r="K30" s="311" t="s">
         <v>191</v>
       </c>
-      <c r="L30" s="315"/>
-      <c r="M30" s="327" t="s">
+      <c r="L30" s="312"/>
+      <c r="M30" s="315" t="s">
         <v>215</v>
       </c>
-      <c r="N30" s="270"/>
-      <c r="O30" s="270"/>
-      <c r="P30" s="270"/>
-      <c r="Q30" s="270"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="270"/>
-      <c r="T30" s="270"/>
-      <c r="U30" s="270"/>
-      <c r="V30" s="270"/>
-      <c r="W30" s="270"/>
-      <c r="X30" s="270"/>
-      <c r="Y30" s="270"/>
-      <c r="Z30" s="270"/>
-      <c r="AA30" s="270"/>
-      <c r="AB30" s="270"/>
-      <c r="AC30" s="270"/>
-      <c r="AD30" s="270"/>
-      <c r="AE30" s="270"/>
-      <c r="AF30" s="270"/>
-      <c r="AG30" s="270"/>
-      <c r="AH30" s="271"/>
+      <c r="N30" s="286"/>
+      <c r="O30" s="286"/>
+      <c r="P30" s="286"/>
+      <c r="Q30" s="286"/>
+      <c r="R30" s="286"/>
+      <c r="S30" s="286"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="286"/>
+      <c r="V30" s="286"/>
+      <c r="W30" s="286"/>
+      <c r="X30" s="286"/>
+      <c r="Y30" s="286"/>
+      <c r="Z30" s="286"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="286"/>
+      <c r="AC30" s="286"/>
+      <c r="AD30" s="286"/>
+      <c r="AE30" s="286"/>
+      <c r="AF30" s="286"/>
+      <c r="AG30" s="286"/>
+      <c r="AH30" s="287"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="311"/>
-      <c r="F31" s="312"/>
-      <c r="G31" s="312"/>
-      <c r="H31" s="312"/>
-      <c r="I31" s="312"/>
-      <c r="J31" s="313"/>
-      <c r="K31" s="318"/>
-      <c r="L31" s="319"/>
-      <c r="M31" s="272"/>
-      <c r="N31" s="273"/>
-      <c r="O31" s="273"/>
-      <c r="P31" s="273"/>
-      <c r="Q31" s="273"/>
-      <c r="R31" s="273"/>
-      <c r="S31" s="273"/>
-      <c r="T31" s="273"/>
-      <c r="U31" s="273"/>
-      <c r="V31" s="273"/>
-      <c r="W31" s="273"/>
-      <c r="X31" s="273"/>
-      <c r="Y31" s="273"/>
-      <c r="Z31" s="273"/>
-      <c r="AA31" s="273"/>
-      <c r="AB31" s="273"/>
-      <c r="AC31" s="273"/>
-      <c r="AD31" s="273"/>
-      <c r="AE31" s="273"/>
-      <c r="AF31" s="273"/>
-      <c r="AG31" s="273"/>
-      <c r="AH31" s="274"/>
+      <c r="E31" s="308"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="313"/>
+      <c r="L31" s="314"/>
+      <c r="M31" s="291"/>
+      <c r="N31" s="292"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="292"/>
+      <c r="Q31" s="292"/>
+      <c r="R31" s="292"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="292"/>
+      <c r="W31" s="292"/>
+      <c r="X31" s="292"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="292"/>
+      <c r="AA31" s="292"/>
+      <c r="AB31" s="292"/>
+      <c r="AC31" s="292"/>
+      <c r="AD31" s="292"/>
+      <c r="AE31" s="292"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="292"/>
+      <c r="AH31" s="293"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="119" t="s">
@@ -14901,112 +14901,112 @@
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="276" t="s">
+      <c r="E35" s="298" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="277"/>
-      <c r="G35" s="277"/>
-      <c r="H35" s="277"/>
-      <c r="I35" s="277"/>
-      <c r="J35" s="278"/>
-      <c r="K35" s="276" t="s">
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
+      <c r="I35" s="299"/>
+      <c r="J35" s="300"/>
+      <c r="K35" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="278"/>
-      <c r="M35" s="276" t="s">
+      <c r="L35" s="300"/>
+      <c r="M35" s="298" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="277"/>
-      <c r="O35" s="277"/>
-      <c r="P35" s="277"/>
-      <c r="Q35" s="277"/>
-      <c r="R35" s="277"/>
-      <c r="S35" s="277"/>
-      <c r="T35" s="277"/>
-      <c r="U35" s="277"/>
-      <c r="V35" s="277"/>
-      <c r="W35" s="277"/>
-      <c r="X35" s="277"/>
-      <c r="Y35" s="277"/>
-      <c r="Z35" s="277"/>
-      <c r="AA35" s="277"/>
-      <c r="AB35" s="277"/>
-      <c r="AC35" s="277"/>
-      <c r="AD35" s="277"/>
-      <c r="AE35" s="277"/>
-      <c r="AF35" s="277"/>
-      <c r="AG35" s="277"/>
-      <c r="AH35" s="278"/>
+      <c r="N35" s="299"/>
+      <c r="O35" s="299"/>
+      <c r="P35" s="299"/>
+      <c r="Q35" s="299"/>
+      <c r="R35" s="299"/>
+      <c r="S35" s="299"/>
+      <c r="T35" s="299"/>
+      <c r="U35" s="299"/>
+      <c r="V35" s="299"/>
+      <c r="W35" s="299"/>
+      <c r="X35" s="299"/>
+      <c r="Y35" s="299"/>
+      <c r="Z35" s="299"/>
+      <c r="AA35" s="299"/>
+      <c r="AB35" s="299"/>
+      <c r="AC35" s="299"/>
+      <c r="AD35" s="299"/>
+      <c r="AE35" s="299"/>
+      <c r="AF35" s="299"/>
+      <c r="AG35" s="299"/>
+      <c r="AH35" s="300"/>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="297" t="s">
+      <c r="E36" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="298"/>
-      <c r="G36" s="298"/>
-      <c r="H36" s="298"/>
-      <c r="I36" s="298"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="127" t="s">
+      <c r="F36" s="317"/>
+      <c r="G36" s="317"/>
+      <c r="H36" s="317"/>
+      <c r="I36" s="317"/>
+      <c r="J36" s="318"/>
+      <c r="K36" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="L36" s="128"/>
-      <c r="M36" s="321" t="s">
+      <c r="L36" s="194"/>
+      <c r="M36" s="324" t="s">
         <v>138</v>
       </c>
-      <c r="N36" s="322"/>
-      <c r="O36" s="322"/>
-      <c r="P36" s="322"/>
-      <c r="Q36" s="322"/>
-      <c r="R36" s="322"/>
-      <c r="S36" s="322"/>
-      <c r="T36" s="322"/>
-      <c r="U36" s="322"/>
-      <c r="V36" s="322"/>
-      <c r="W36" s="322"/>
-      <c r="X36" s="322"/>
-      <c r="Y36" s="322"/>
-      <c r="Z36" s="322"/>
-      <c r="AA36" s="322"/>
-      <c r="AB36" s="322"/>
-      <c r="AC36" s="322"/>
-      <c r="AD36" s="322"/>
-      <c r="AE36" s="322"/>
-      <c r="AF36" s="322"/>
-      <c r="AG36" s="322"/>
-      <c r="AH36" s="323"/>
+      <c r="N36" s="325"/>
+      <c r="O36" s="325"/>
+      <c r="P36" s="325"/>
+      <c r="Q36" s="325"/>
+      <c r="R36" s="325"/>
+      <c r="S36" s="325"/>
+      <c r="T36" s="325"/>
+      <c r="U36" s="325"/>
+      <c r="V36" s="325"/>
+      <c r="W36" s="325"/>
+      <c r="X36" s="325"/>
+      <c r="Y36" s="325"/>
+      <c r="Z36" s="325"/>
+      <c r="AA36" s="325"/>
+      <c r="AB36" s="325"/>
+      <c r="AC36" s="325"/>
+      <c r="AD36" s="325"/>
+      <c r="AE36" s="325"/>
+      <c r="AF36" s="325"/>
+      <c r="AG36" s="325"/>
+      <c r="AH36" s="326"/>
     </row>
     <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="300"/>
-      <c r="F37" s="301"/>
-      <c r="G37" s="301"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="301"/>
-      <c r="J37" s="302"/>
-      <c r="K37" s="303"/>
-      <c r="L37" s="304"/>
-      <c r="M37" s="324"/>
-      <c r="N37" s="325"/>
-      <c r="O37" s="325"/>
-      <c r="P37" s="325"/>
-      <c r="Q37" s="325"/>
-      <c r="R37" s="325"/>
-      <c r="S37" s="325"/>
-      <c r="T37" s="325"/>
-      <c r="U37" s="325"/>
-      <c r="V37" s="325"/>
-      <c r="W37" s="325"/>
-      <c r="X37" s="325"/>
-      <c r="Y37" s="325"/>
-      <c r="Z37" s="325"/>
-      <c r="AA37" s="325"/>
-      <c r="AB37" s="325"/>
-      <c r="AC37" s="325"/>
-      <c r="AD37" s="325"/>
-      <c r="AE37" s="325"/>
-      <c r="AF37" s="325"/>
-      <c r="AG37" s="325"/>
-      <c r="AH37" s="326"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="323"/>
+      <c r="M37" s="327"/>
+      <c r="N37" s="328"/>
+      <c r="O37" s="328"/>
+      <c r="P37" s="328"/>
+      <c r="Q37" s="328"/>
+      <c r="R37" s="328"/>
+      <c r="S37" s="328"/>
+      <c r="T37" s="328"/>
+      <c r="U37" s="328"/>
+      <c r="V37" s="328"/>
+      <c r="W37" s="328"/>
+      <c r="X37" s="328"/>
+      <c r="Y37" s="328"/>
+      <c r="Z37" s="328"/>
+      <c r="AA37" s="328"/>
+      <c r="AB37" s="328"/>
+      <c r="AC37" s="328"/>
+      <c r="AD37" s="328"/>
+      <c r="AE37" s="328"/>
+      <c r="AF37" s="328"/>
+      <c r="AG37" s="328"/>
+      <c r="AH37" s="329"/>
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="305" t="s">
@@ -15017,130 +15017,130 @@
       <c r="H38" s="306"/>
       <c r="I38" s="306"/>
       <c r="J38" s="307"/>
-      <c r="K38" s="314" t="s">
+      <c r="K38" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="L38" s="315"/>
-      <c r="M38" s="269" t="s">
+      <c r="L38" s="312"/>
+      <c r="M38" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="N38" s="270"/>
-      <c r="O38" s="270"/>
-      <c r="P38" s="270"/>
-      <c r="Q38" s="270"/>
-      <c r="R38" s="270"/>
-      <c r="S38" s="270"/>
-      <c r="T38" s="270"/>
-      <c r="U38" s="270"/>
-      <c r="V38" s="270"/>
-      <c r="W38" s="270"/>
-      <c r="X38" s="270"/>
-      <c r="Y38" s="270"/>
-      <c r="Z38" s="270"/>
-      <c r="AA38" s="270"/>
-      <c r="AB38" s="270"/>
-      <c r="AC38" s="270"/>
-      <c r="AD38" s="270"/>
-      <c r="AE38" s="270"/>
-      <c r="AF38" s="270"/>
-      <c r="AG38" s="270"/>
-      <c r="AH38" s="271"/>
+      <c r="N38" s="286"/>
+      <c r="O38" s="286"/>
+      <c r="P38" s="286"/>
+      <c r="Q38" s="286"/>
+      <c r="R38" s="286"/>
+      <c r="S38" s="286"/>
+      <c r="T38" s="286"/>
+      <c r="U38" s="286"/>
+      <c r="V38" s="286"/>
+      <c r="W38" s="286"/>
+      <c r="X38" s="286"/>
+      <c r="Y38" s="286"/>
+      <c r="Z38" s="286"/>
+      <c r="AA38" s="286"/>
+      <c r="AB38" s="286"/>
+      <c r="AC38" s="286"/>
+      <c r="AD38" s="286"/>
+      <c r="AE38" s="286"/>
+      <c r="AF38" s="286"/>
+      <c r="AG38" s="286"/>
+      <c r="AH38" s="287"/>
     </row>
     <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="308"/>
-      <c r="F39" s="309"/>
-      <c r="G39" s="309"/>
-      <c r="H39" s="309"/>
-      <c r="I39" s="309"/>
-      <c r="J39" s="310"/>
-      <c r="K39" s="316"/>
-      <c r="L39" s="317"/>
-      <c r="M39" s="257"/>
-      <c r="N39" s="258"/>
-      <c r="O39" s="258"/>
-      <c r="P39" s="258"/>
-      <c r="Q39" s="258"/>
-      <c r="R39" s="258"/>
-      <c r="S39" s="258"/>
-      <c r="T39" s="258"/>
-      <c r="U39" s="258"/>
-      <c r="V39" s="258"/>
-      <c r="W39" s="258"/>
-      <c r="X39" s="258"/>
-      <c r="Y39" s="258"/>
-      <c r="Z39" s="258"/>
-      <c r="AA39" s="258"/>
-      <c r="AB39" s="258"/>
-      <c r="AC39" s="258"/>
-      <c r="AD39" s="258"/>
-      <c r="AE39" s="258"/>
-      <c r="AF39" s="258"/>
-      <c r="AG39" s="258"/>
-      <c r="AH39" s="259"/>
+      <c r="E39" s="331"/>
+      <c r="F39" s="332"/>
+      <c r="G39" s="332"/>
+      <c r="H39" s="332"/>
+      <c r="I39" s="332"/>
+      <c r="J39" s="333"/>
+      <c r="K39" s="334"/>
+      <c r="L39" s="335"/>
+      <c r="M39" s="288"/>
+      <c r="N39" s="289"/>
+      <c r="O39" s="289"/>
+      <c r="P39" s="289"/>
+      <c r="Q39" s="289"/>
+      <c r="R39" s="289"/>
+      <c r="S39" s="289"/>
+      <c r="T39" s="289"/>
+      <c r="U39" s="289"/>
+      <c r="V39" s="289"/>
+      <c r="W39" s="289"/>
+      <c r="X39" s="289"/>
+      <c r="Y39" s="289"/>
+      <c r="Z39" s="289"/>
+      <c r="AA39" s="289"/>
+      <c r="AB39" s="289"/>
+      <c r="AC39" s="289"/>
+      <c r="AD39" s="289"/>
+      <c r="AE39" s="289"/>
+      <c r="AF39" s="289"/>
+      <c r="AG39" s="289"/>
+      <c r="AH39" s="290"/>
     </row>
     <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="308"/>
-      <c r="F40" s="309"/>
-      <c r="G40" s="309"/>
-      <c r="H40" s="309"/>
-      <c r="I40" s="309"/>
-      <c r="J40" s="310"/>
-      <c r="K40" s="316"/>
-      <c r="L40" s="317"/>
-      <c r="M40" s="257"/>
-      <c r="N40" s="258"/>
-      <c r="O40" s="258"/>
-      <c r="P40" s="258"/>
-      <c r="Q40" s="258"/>
-      <c r="R40" s="258"/>
-      <c r="S40" s="258"/>
-      <c r="T40" s="258"/>
-      <c r="U40" s="258"/>
-      <c r="V40" s="258"/>
-      <c r="W40" s="258"/>
-      <c r="X40" s="258"/>
-      <c r="Y40" s="258"/>
-      <c r="Z40" s="258"/>
-      <c r="AA40" s="258"/>
-      <c r="AB40" s="258"/>
-      <c r="AC40" s="258"/>
-      <c r="AD40" s="258"/>
-      <c r="AE40" s="258"/>
-      <c r="AF40" s="258"/>
-      <c r="AG40" s="258"/>
-      <c r="AH40" s="259"/>
+      <c r="E40" s="331"/>
+      <c r="F40" s="332"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="333"/>
+      <c r="K40" s="334"/>
+      <c r="L40" s="335"/>
+      <c r="M40" s="288"/>
+      <c r="N40" s="289"/>
+      <c r="O40" s="289"/>
+      <c r="P40" s="289"/>
+      <c r="Q40" s="289"/>
+      <c r="R40" s="289"/>
+      <c r="S40" s="289"/>
+      <c r="T40" s="289"/>
+      <c r="U40" s="289"/>
+      <c r="V40" s="289"/>
+      <c r="W40" s="289"/>
+      <c r="X40" s="289"/>
+      <c r="Y40" s="289"/>
+      <c r="Z40" s="289"/>
+      <c r="AA40" s="289"/>
+      <c r="AB40" s="289"/>
+      <c r="AC40" s="289"/>
+      <c r="AD40" s="289"/>
+      <c r="AE40" s="289"/>
+      <c r="AF40" s="289"/>
+      <c r="AG40" s="289"/>
+      <c r="AH40" s="290"/>
     </row>
     <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="311"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
-      <c r="H41" s="312"/>
-      <c r="I41" s="312"/>
-      <c r="J41" s="313"/>
-      <c r="K41" s="318"/>
-      <c r="L41" s="319"/>
-      <c r="M41" s="272"/>
-      <c r="N41" s="273"/>
-      <c r="O41" s="273"/>
-      <c r="P41" s="273"/>
-      <c r="Q41" s="273"/>
-      <c r="R41" s="273"/>
-      <c r="S41" s="273"/>
-      <c r="T41" s="273"/>
-      <c r="U41" s="273"/>
-      <c r="V41" s="273"/>
-      <c r="W41" s="273"/>
-      <c r="X41" s="273"/>
-      <c r="Y41" s="273"/>
-      <c r="Z41" s="273"/>
-      <c r="AA41" s="273"/>
-      <c r="AB41" s="273"/>
-      <c r="AC41" s="273"/>
-      <c r="AD41" s="273"/>
-      <c r="AE41" s="273"/>
-      <c r="AF41" s="273"/>
-      <c r="AG41" s="273"/>
-      <c r="AH41" s="274"/>
+      <c r="E41" s="308"/>
+      <c r="F41" s="309"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="310"/>
+      <c r="K41" s="313"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="291"/>
+      <c r="N41" s="292"/>
+      <c r="O41" s="292"/>
+      <c r="P41" s="292"/>
+      <c r="Q41" s="292"/>
+      <c r="R41" s="292"/>
+      <c r="S41" s="292"/>
+      <c r="T41" s="292"/>
+      <c r="U41" s="292"/>
+      <c r="V41" s="292"/>
+      <c r="W41" s="292"/>
+      <c r="X41" s="292"/>
+      <c r="Y41" s="292"/>
+      <c r="Z41" s="292"/>
+      <c r="AA41" s="292"/>
+      <c r="AB41" s="292"/>
+      <c r="AC41" s="292"/>
+      <c r="AD41" s="292"/>
+      <c r="AE41" s="292"/>
+      <c r="AF41" s="292"/>
+      <c r="AG41" s="292"/>
+      <c r="AH41" s="293"/>
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="305" t="s">
@@ -15151,66 +15151,66 @@
       <c r="H42" s="306"/>
       <c r="I42" s="306"/>
       <c r="J42" s="307"/>
-      <c r="K42" s="314" t="s">
+      <c r="K42" s="311" t="s">
         <v>191</v>
       </c>
-      <c r="L42" s="315"/>
-      <c r="M42" s="327" t="s">
+      <c r="L42" s="312"/>
+      <c r="M42" s="315" t="s">
         <v>213</v>
       </c>
-      <c r="N42" s="270"/>
-      <c r="O42" s="270"/>
-      <c r="P42" s="270"/>
-      <c r="Q42" s="270"/>
-      <c r="R42" s="270"/>
-      <c r="S42" s="270"/>
-      <c r="T42" s="270"/>
-      <c r="U42" s="270"/>
-      <c r="V42" s="270"/>
-      <c r="W42" s="270"/>
-      <c r="X42" s="270"/>
-      <c r="Y42" s="270"/>
-      <c r="Z42" s="270"/>
-      <c r="AA42" s="270"/>
-      <c r="AB42" s="270"/>
-      <c r="AC42" s="270"/>
-      <c r="AD42" s="270"/>
-      <c r="AE42" s="270"/>
-      <c r="AF42" s="270"/>
-      <c r="AG42" s="270"/>
-      <c r="AH42" s="271"/>
+      <c r="N42" s="286"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="286"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
+      <c r="S42" s="286"/>
+      <c r="T42" s="286"/>
+      <c r="U42" s="286"/>
+      <c r="V42" s="286"/>
+      <c r="W42" s="286"/>
+      <c r="X42" s="286"/>
+      <c r="Y42" s="286"/>
+      <c r="Z42" s="286"/>
+      <c r="AA42" s="286"/>
+      <c r="AB42" s="286"/>
+      <c r="AC42" s="286"/>
+      <c r="AD42" s="286"/>
+      <c r="AE42" s="286"/>
+      <c r="AF42" s="286"/>
+      <c r="AG42" s="286"/>
+      <c r="AH42" s="287"/>
     </row>
     <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="311"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="312"/>
-      <c r="J43" s="313"/>
-      <c r="K43" s="318"/>
-      <c r="L43" s="319"/>
-      <c r="M43" s="272"/>
-      <c r="N43" s="273"/>
-      <c r="O43" s="273"/>
-      <c r="P43" s="273"/>
-      <c r="Q43" s="273"/>
-      <c r="R43" s="273"/>
-      <c r="S43" s="273"/>
-      <c r="T43" s="273"/>
-      <c r="U43" s="273"/>
-      <c r="V43" s="273"/>
-      <c r="W43" s="273"/>
-      <c r="X43" s="273"/>
-      <c r="Y43" s="273"/>
-      <c r="Z43" s="273"/>
-      <c r="AA43" s="273"/>
-      <c r="AB43" s="273"/>
-      <c r="AC43" s="273"/>
-      <c r="AD43" s="273"/>
-      <c r="AE43" s="273"/>
-      <c r="AF43" s="273"/>
-      <c r="AG43" s="273"/>
-      <c r="AH43" s="274"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="310"/>
+      <c r="K43" s="313"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="292"/>
+      <c r="O43" s="292"/>
+      <c r="P43" s="292"/>
+      <c r="Q43" s="292"/>
+      <c r="R43" s="292"/>
+      <c r="S43" s="292"/>
+      <c r="T43" s="292"/>
+      <c r="U43" s="292"/>
+      <c r="V43" s="292"/>
+      <c r="W43" s="292"/>
+      <c r="X43" s="292"/>
+      <c r="Y43" s="292"/>
+      <c r="Z43" s="292"/>
+      <c r="AA43" s="292"/>
+      <c r="AB43" s="292"/>
+      <c r="AC43" s="292"/>
+      <c r="AD43" s="292"/>
+      <c r="AE43" s="292"/>
+      <c r="AF43" s="292"/>
+      <c r="AG43" s="292"/>
+      <c r="AH43" s="293"/>
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="305" t="s">
@@ -15221,69 +15221,69 @@
       <c r="H44" s="306"/>
       <c r="I44" s="306"/>
       <c r="J44" s="307"/>
-      <c r="K44" s="314" t="s">
+      <c r="K44" s="311" t="s">
         <v>191</v>
       </c>
-      <c r="L44" s="315"/>
-      <c r="M44" s="327" t="s">
+      <c r="L44" s="312"/>
+      <c r="M44" s="315" t="s">
         <v>215</v>
       </c>
-      <c r="N44" s="270"/>
-      <c r="O44" s="270"/>
-      <c r="P44" s="270"/>
-      <c r="Q44" s="270"/>
-      <c r="R44" s="270"/>
-      <c r="S44" s="270"/>
-      <c r="T44" s="270"/>
-      <c r="U44" s="270"/>
-      <c r="V44" s="270"/>
-      <c r="W44" s="270"/>
-      <c r="X44" s="270"/>
-      <c r="Y44" s="270"/>
-      <c r="Z44" s="270"/>
-      <c r="AA44" s="270"/>
-      <c r="AB44" s="270"/>
-      <c r="AC44" s="270"/>
-      <c r="AD44" s="270"/>
-      <c r="AE44" s="270"/>
-      <c r="AF44" s="270"/>
-      <c r="AG44" s="270"/>
-      <c r="AH44" s="271"/>
+      <c r="N44" s="286"/>
+      <c r="O44" s="286"/>
+      <c r="P44" s="286"/>
+      <c r="Q44" s="286"/>
+      <c r="R44" s="286"/>
+      <c r="S44" s="286"/>
+      <c r="T44" s="286"/>
+      <c r="U44" s="286"/>
+      <c r="V44" s="286"/>
+      <c r="W44" s="286"/>
+      <c r="X44" s="286"/>
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="286"/>
+      <c r="AA44" s="286"/>
+      <c r="AB44" s="286"/>
+      <c r="AC44" s="286"/>
+      <c r="AD44" s="286"/>
+      <c r="AE44" s="286"/>
+      <c r="AF44" s="286"/>
+      <c r="AG44" s="286"/>
+      <c r="AH44" s="287"/>
     </row>
     <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="311"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="313"/>
-      <c r="K45" s="318"/>
-      <c r="L45" s="319"/>
-      <c r="M45" s="272"/>
-      <c r="N45" s="273"/>
-      <c r="O45" s="273"/>
-      <c r="P45" s="273"/>
-      <c r="Q45" s="273"/>
-      <c r="R45" s="273"/>
-      <c r="S45" s="273"/>
-      <c r="T45" s="273"/>
-      <c r="U45" s="273"/>
-      <c r="V45" s="273"/>
-      <c r="W45" s="273"/>
-      <c r="X45" s="273"/>
-      <c r="Y45" s="273"/>
-      <c r="Z45" s="273"/>
-      <c r="AA45" s="273"/>
-      <c r="AB45" s="273"/>
-      <c r="AC45" s="273"/>
-      <c r="AD45" s="273"/>
-      <c r="AE45" s="273"/>
-      <c r="AF45" s="273"/>
-      <c r="AG45" s="273"/>
-      <c r="AH45" s="274"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="309"/>
+      <c r="G45" s="309"/>
+      <c r="H45" s="309"/>
+      <c r="I45" s="309"/>
+      <c r="J45" s="310"/>
+      <c r="K45" s="313"/>
+      <c r="L45" s="314"/>
+      <c r="M45" s="291"/>
+      <c r="N45" s="292"/>
+      <c r="O45" s="292"/>
+      <c r="P45" s="292"/>
+      <c r="Q45" s="292"/>
+      <c r="R45" s="292"/>
+      <c r="S45" s="292"/>
+      <c r="T45" s="292"/>
+      <c r="U45" s="292"/>
+      <c r="V45" s="292"/>
+      <c r="W45" s="292"/>
+      <c r="X45" s="292"/>
+      <c r="Y45" s="292"/>
+      <c r="Z45" s="292"/>
+      <c r="AA45" s="292"/>
+      <c r="AB45" s="292"/>
+      <c r="AC45" s="292"/>
+      <c r="AD45" s="292"/>
+      <c r="AE45" s="292"/>
+      <c r="AF45" s="292"/>
+      <c r="AG45" s="292"/>
+      <c r="AH45" s="293"/>
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="320" t="s">
+      <c r="E46" s="330" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="306"/>
@@ -15291,98 +15291,98 @@
       <c r="H46" s="306"/>
       <c r="I46" s="306"/>
       <c r="J46" s="307"/>
-      <c r="K46" s="314" t="s">
+      <c r="K46" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="L46" s="315"/>
-      <c r="M46" s="269" t="s">
+      <c r="L46" s="312"/>
+      <c r="M46" s="285" t="s">
         <v>141</v>
       </c>
-      <c r="N46" s="270"/>
-      <c r="O46" s="270"/>
-      <c r="P46" s="270"/>
-      <c r="Q46" s="270"/>
-      <c r="R46" s="270"/>
-      <c r="S46" s="270"/>
-      <c r="T46" s="270"/>
-      <c r="U46" s="270"/>
-      <c r="V46" s="270"/>
-      <c r="W46" s="270"/>
-      <c r="X46" s="270"/>
-      <c r="Y46" s="270"/>
-      <c r="Z46" s="270"/>
-      <c r="AA46" s="270"/>
-      <c r="AB46" s="270"/>
-      <c r="AC46" s="270"/>
-      <c r="AD46" s="270"/>
-      <c r="AE46" s="270"/>
-      <c r="AF46" s="270"/>
-      <c r="AG46" s="270"/>
-      <c r="AH46" s="271"/>
+      <c r="N46" s="286"/>
+      <c r="O46" s="286"/>
+      <c r="P46" s="286"/>
+      <c r="Q46" s="286"/>
+      <c r="R46" s="286"/>
+      <c r="S46" s="286"/>
+      <c r="T46" s="286"/>
+      <c r="U46" s="286"/>
+      <c r="V46" s="286"/>
+      <c r="W46" s="286"/>
+      <c r="X46" s="286"/>
+      <c r="Y46" s="286"/>
+      <c r="Z46" s="286"/>
+      <c r="AA46" s="286"/>
+      <c r="AB46" s="286"/>
+      <c r="AC46" s="286"/>
+      <c r="AD46" s="286"/>
+      <c r="AE46" s="286"/>
+      <c r="AF46" s="286"/>
+      <c r="AG46" s="286"/>
+      <c r="AH46" s="287"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="308"/>
-      <c r="F47" s="309"/>
-      <c r="G47" s="309"/>
-      <c r="H47" s="309"/>
-      <c r="I47" s="309"/>
-      <c r="J47" s="310"/>
-      <c r="K47" s="316"/>
-      <c r="L47" s="317"/>
-      <c r="M47" s="257"/>
-      <c r="N47" s="258"/>
-      <c r="O47" s="258"/>
-      <c r="P47" s="258"/>
-      <c r="Q47" s="258"/>
-      <c r="R47" s="258"/>
-      <c r="S47" s="258"/>
-      <c r="T47" s="258"/>
-      <c r="U47" s="258"/>
-      <c r="V47" s="258"/>
-      <c r="W47" s="258"/>
-      <c r="X47" s="258"/>
-      <c r="Y47" s="258"/>
-      <c r="Z47" s="258"/>
-      <c r="AA47" s="258"/>
-      <c r="AB47" s="258"/>
-      <c r="AC47" s="258"/>
-      <c r="AD47" s="258"/>
-      <c r="AE47" s="258"/>
-      <c r="AF47" s="258"/>
-      <c r="AG47" s="258"/>
-      <c r="AH47" s="259"/>
+      <c r="E47" s="331"/>
+      <c r="F47" s="332"/>
+      <c r="G47" s="332"/>
+      <c r="H47" s="332"/>
+      <c r="I47" s="332"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="288"/>
+      <c r="N47" s="289"/>
+      <c r="O47" s="289"/>
+      <c r="P47" s="289"/>
+      <c r="Q47" s="289"/>
+      <c r="R47" s="289"/>
+      <c r="S47" s="289"/>
+      <c r="T47" s="289"/>
+      <c r="U47" s="289"/>
+      <c r="V47" s="289"/>
+      <c r="W47" s="289"/>
+      <c r="X47" s="289"/>
+      <c r="Y47" s="289"/>
+      <c r="Z47" s="289"/>
+      <c r="AA47" s="289"/>
+      <c r="AB47" s="289"/>
+      <c r="AC47" s="289"/>
+      <c r="AD47" s="289"/>
+      <c r="AE47" s="289"/>
+      <c r="AF47" s="289"/>
+      <c r="AG47" s="289"/>
+      <c r="AH47" s="290"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="311"/>
-      <c r="F48" s="312"/>
-      <c r="G48" s="312"/>
-      <c r="H48" s="312"/>
-      <c r="I48" s="312"/>
-      <c r="J48" s="313"/>
-      <c r="K48" s="318"/>
-      <c r="L48" s="319"/>
-      <c r="M48" s="272"/>
-      <c r="N48" s="273"/>
-      <c r="O48" s="273"/>
-      <c r="P48" s="273"/>
-      <c r="Q48" s="273"/>
-      <c r="R48" s="273"/>
-      <c r="S48" s="273"/>
-      <c r="T48" s="273"/>
-      <c r="U48" s="273"/>
-      <c r="V48" s="273"/>
-      <c r="W48" s="273"/>
-      <c r="X48" s="273"/>
-      <c r="Y48" s="273"/>
-      <c r="Z48" s="273"/>
-      <c r="AA48" s="273"/>
-      <c r="AB48" s="273"/>
-      <c r="AC48" s="273"/>
-      <c r="AD48" s="273"/>
-      <c r="AE48" s="273"/>
-      <c r="AF48" s="273"/>
-      <c r="AG48" s="273"/>
-      <c r="AH48" s="274"/>
+      <c r="E48" s="308"/>
+      <c r="F48" s="309"/>
+      <c r="G48" s="309"/>
+      <c r="H48" s="309"/>
+      <c r="I48" s="309"/>
+      <c r="J48" s="310"/>
+      <c r="K48" s="313"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="291"/>
+      <c r="N48" s="292"/>
+      <c r="O48" s="292"/>
+      <c r="P48" s="292"/>
+      <c r="Q48" s="292"/>
+      <c r="R48" s="292"/>
+      <c r="S48" s="292"/>
+      <c r="T48" s="292"/>
+      <c r="U48" s="292"/>
+      <c r="V48" s="292"/>
+      <c r="W48" s="292"/>
+      <c r="X48" s="292"/>
+      <c r="Y48" s="292"/>
+      <c r="Z48" s="292"/>
+      <c r="AA48" s="292"/>
+      <c r="AB48" s="292"/>
+      <c r="AC48" s="292"/>
+      <c r="AD48" s="292"/>
+      <c r="AE48" s="292"/>
+      <c r="AF48" s="292"/>
+      <c r="AG48" s="292"/>
+      <c r="AH48" s="293"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="305" t="s">
@@ -15393,10 +15393,10 @@
       <c r="H49" s="306"/>
       <c r="I49" s="306"/>
       <c r="J49" s="307"/>
-      <c r="K49" s="314" t="s">
+      <c r="K49" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="L49" s="315"/>
+      <c r="L49" s="312"/>
       <c r="M49" s="61" t="s">
         <v>24</v>
       </c>
@@ -15423,14 +15423,14 @@
       <c r="AH49" s="62"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="308"/>
-      <c r="F50" s="309"/>
-      <c r="G50" s="309"/>
-      <c r="H50" s="309"/>
-      <c r="I50" s="309"/>
-      <c r="J50" s="310"/>
-      <c r="K50" s="316"/>
-      <c r="L50" s="317"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="332"/>
+      <c r="H50" s="332"/>
+      <c r="I50" s="332"/>
+      <c r="J50" s="333"/>
+      <c r="K50" s="334"/>
+      <c r="L50" s="335"/>
       <c r="M50" s="61" t="s">
         <v>63</v>
       </c>
@@ -15457,14 +15457,14 @@
       <c r="AH50" s="62"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="308"/>
-      <c r="F51" s="309"/>
-      <c r="G51" s="309"/>
-      <c r="H51" s="309"/>
-      <c r="I51" s="309"/>
-      <c r="J51" s="310"/>
-      <c r="K51" s="316"/>
-      <c r="L51" s="317"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="333"/>
+      <c r="K51" s="334"/>
+      <c r="L51" s="335"/>
       <c r="M51" s="61" t="s">
         <v>25</v>
       </c>
@@ -15491,14 +15491,14 @@
       <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="308"/>
-      <c r="F52" s="309"/>
-      <c r="G52" s="309"/>
-      <c r="H52" s="309"/>
-      <c r="I52" s="309"/>
-      <c r="J52" s="310"/>
-      <c r="K52" s="316"/>
-      <c r="L52" s="317"/>
+      <c r="E52" s="331"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="333"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="335"/>
       <c r="M52" s="61" t="s">
         <v>61</v>
       </c>
@@ -15513,14 +15513,14 @@
       <c r="AH52" s="62"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="308"/>
-      <c r="F53" s="309"/>
-      <c r="G53" s="309"/>
-      <c r="H53" s="309"/>
-      <c r="I53" s="309"/>
-      <c r="J53" s="310"/>
-      <c r="K53" s="316"/>
-      <c r="L53" s="317"/>
+      <c r="E53" s="331"/>
+      <c r="F53" s="332"/>
+      <c r="G53" s="332"/>
+      <c r="H53" s="332"/>
+      <c r="I53" s="332"/>
+      <c r="J53" s="333"/>
+      <c r="K53" s="334"/>
+      <c r="L53" s="335"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
         <v>62</v>
@@ -15536,14 +15536,14 @@
       <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="308"/>
-      <c r="F54" s="309"/>
-      <c r="G54" s="309"/>
-      <c r="H54" s="309"/>
-      <c r="I54" s="309"/>
-      <c r="J54" s="310"/>
-      <c r="K54" s="316"/>
-      <c r="L54" s="317"/>
+      <c r="E54" s="331"/>
+      <c r="F54" s="332"/>
+      <c r="G54" s="332"/>
+      <c r="H54" s="332"/>
+      <c r="I54" s="332"/>
+      <c r="J54" s="333"/>
+      <c r="K54" s="334"/>
+      <c r="L54" s="335"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
         <v>77</v>
@@ -15570,14 +15570,14 @@
       <c r="AH54" s="62"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="308"/>
-      <c r="F55" s="309"/>
-      <c r="G55" s="309"/>
-      <c r="H55" s="309"/>
-      <c r="I55" s="309"/>
-      <c r="J55" s="310"/>
-      <c r="K55" s="316"/>
-      <c r="L55" s="317"/>
+      <c r="E55" s="331"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="332"/>
+      <c r="I55" s="332"/>
+      <c r="J55" s="333"/>
+      <c r="K55" s="334"/>
+      <c r="L55" s="335"/>
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
@@ -15604,14 +15604,14 @@
       <c r="AH55" s="62"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="308"/>
-      <c r="F56" s="309"/>
-      <c r="G56" s="309"/>
-      <c r="H56" s="309"/>
-      <c r="I56" s="309"/>
-      <c r="J56" s="310"/>
-      <c r="K56" s="316"/>
-      <c r="L56" s="317"/>
+      <c r="E56" s="331"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
+      <c r="H56" s="332"/>
+      <c r="I56" s="332"/>
+      <c r="J56" s="333"/>
+      <c r="K56" s="334"/>
+      <c r="L56" s="335"/>
       <c r="M56" s="61"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
@@ -15638,14 +15638,14 @@
       <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="308"/>
-      <c r="F57" s="309"/>
-      <c r="G57" s="309"/>
-      <c r="H57" s="309"/>
-      <c r="I57" s="309"/>
-      <c r="J57" s="310"/>
-      <c r="K57" s="316"/>
-      <c r="L57" s="317"/>
+      <c r="E57" s="331"/>
+      <c r="F57" s="332"/>
+      <c r="G57" s="332"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="332"/>
+      <c r="J57" s="333"/>
+      <c r="K57" s="334"/>
+      <c r="L57" s="335"/>
       <c r="M57" s="61"/>
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
@@ -15672,14 +15672,14 @@
       <c r="AH57" s="62"/>
     </row>
     <row r="58" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="308"/>
-      <c r="F58" s="309"/>
-      <c r="G58" s="309"/>
-      <c r="H58" s="309"/>
-      <c r="I58" s="309"/>
-      <c r="J58" s="310"/>
-      <c r="K58" s="316"/>
-      <c r="L58" s="317"/>
+      <c r="E58" s="331"/>
+      <c r="F58" s="332"/>
+      <c r="G58" s="332"/>
+      <c r="H58" s="332"/>
+      <c r="I58" s="332"/>
+      <c r="J58" s="333"/>
+      <c r="K58" s="334"/>
+      <c r="L58" s="335"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
         <v>65</v>
@@ -15704,14 +15704,14 @@
       <c r="AH58" s="62"/>
     </row>
     <row r="59" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="308"/>
-      <c r="F59" s="309"/>
-      <c r="G59" s="309"/>
-      <c r="H59" s="309"/>
-      <c r="I59" s="309"/>
-      <c r="J59" s="310"/>
-      <c r="K59" s="316"/>
-      <c r="L59" s="317"/>
+      <c r="E59" s="331"/>
+      <c r="F59" s="332"/>
+      <c r="G59" s="332"/>
+      <c r="H59" s="332"/>
+      <c r="I59" s="332"/>
+      <c r="J59" s="333"/>
+      <c r="K59" s="334"/>
+      <c r="L59" s="335"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
         <v>66</v>
@@ -15738,14 +15738,14 @@
       <c r="AH59" s="62"/>
     </row>
     <row r="60" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="308"/>
-      <c r="F60" s="309"/>
-      <c r="G60" s="309"/>
-      <c r="H60" s="309"/>
-      <c r="I60" s="309"/>
-      <c r="J60" s="310"/>
-      <c r="K60" s="316"/>
-      <c r="L60" s="317"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="332"/>
+      <c r="G60" s="332"/>
+      <c r="H60" s="332"/>
+      <c r="I60" s="332"/>
+      <c r="J60" s="333"/>
+      <c r="K60" s="334"/>
+      <c r="L60" s="335"/>
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
@@ -15772,14 +15772,14 @@
       <c r="AH60" s="62"/>
     </row>
     <row r="61" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="308"/>
-      <c r="F61" s="309"/>
-      <c r="G61" s="309"/>
-      <c r="H61" s="309"/>
-      <c r="I61" s="309"/>
-      <c r="J61" s="310"/>
-      <c r="K61" s="316"/>
-      <c r="L61" s="317"/>
+      <c r="E61" s="331"/>
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
+      <c r="H61" s="332"/>
+      <c r="I61" s="332"/>
+      <c r="J61" s="333"/>
+      <c r="K61" s="334"/>
+      <c r="L61" s="335"/>
       <c r="M61" s="61"/>
       <c r="N61" s="19"/>
       <c r="O61" s="19" t="s">
@@ -15806,14 +15806,14 @@
       <c r="AH61" s="62"/>
     </row>
     <row r="62" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="311"/>
-      <c r="F62" s="312"/>
-      <c r="G62" s="312"/>
-      <c r="H62" s="312"/>
-      <c r="I62" s="312"/>
-      <c r="J62" s="313"/>
-      <c r="K62" s="318"/>
-      <c r="L62" s="319"/>
+      <c r="E62" s="308"/>
+      <c r="F62" s="309"/>
+      <c r="G62" s="309"/>
+      <c r="H62" s="309"/>
+      <c r="I62" s="309"/>
+      <c r="J62" s="310"/>
+      <c r="K62" s="313"/>
+      <c r="L62" s="314"/>
       <c r="M62" s="61"/>
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
@@ -15840,89 +15840,89 @@
       <c r="AH62" s="62"/>
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="297" t="s">
+      <c r="E63" s="316" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="298"/>
-      <c r="G63" s="298"/>
-      <c r="H63" s="298"/>
-      <c r="I63" s="298"/>
-      <c r="J63" s="299"/>
-      <c r="K63" s="297" t="s">
+      <c r="F63" s="317"/>
+      <c r="G63" s="317"/>
+      <c r="H63" s="317"/>
+      <c r="I63" s="317"/>
+      <c r="J63" s="318"/>
+      <c r="K63" s="316" t="s">
         <v>164</v>
       </c>
-      <c r="L63" s="299"/>
-      <c r="M63" s="321" t="s">
+      <c r="L63" s="318"/>
+      <c r="M63" s="324" t="s">
         <v>142</v>
       </c>
-      <c r="N63" s="322"/>
-      <c r="O63" s="322"/>
-      <c r="P63" s="322"/>
-      <c r="Q63" s="322"/>
-      <c r="R63" s="322"/>
-      <c r="S63" s="322"/>
-      <c r="T63" s="322"/>
-      <c r="U63" s="322"/>
-      <c r="V63" s="322"/>
-      <c r="W63" s="322"/>
-      <c r="X63" s="322"/>
-      <c r="Y63" s="322"/>
-      <c r="Z63" s="322"/>
-      <c r="AA63" s="322"/>
-      <c r="AB63" s="322"/>
-      <c r="AC63" s="322"/>
-      <c r="AD63" s="322"/>
-      <c r="AE63" s="322"/>
-      <c r="AF63" s="322"/>
-      <c r="AG63" s="322"/>
-      <c r="AH63" s="323"/>
+      <c r="N63" s="325"/>
+      <c r="O63" s="325"/>
+      <c r="P63" s="325"/>
+      <c r="Q63" s="325"/>
+      <c r="R63" s="325"/>
+      <c r="S63" s="325"/>
+      <c r="T63" s="325"/>
+      <c r="U63" s="325"/>
+      <c r="V63" s="325"/>
+      <c r="W63" s="325"/>
+      <c r="X63" s="325"/>
+      <c r="Y63" s="325"/>
+      <c r="Z63" s="325"/>
+      <c r="AA63" s="325"/>
+      <c r="AB63" s="325"/>
+      <c r="AC63" s="325"/>
+      <c r="AD63" s="325"/>
+      <c r="AE63" s="325"/>
+      <c r="AF63" s="325"/>
+      <c r="AG63" s="325"/>
+      <c r="AH63" s="326"/>
     </row>
     <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="300"/>
-      <c r="F64" s="301"/>
-      <c r="G64" s="301"/>
-      <c r="H64" s="301"/>
-      <c r="I64" s="301"/>
-      <c r="J64" s="302"/>
-      <c r="K64" s="300"/>
-      <c r="L64" s="302"/>
-      <c r="M64" s="324"/>
-      <c r="N64" s="325"/>
-      <c r="O64" s="325"/>
-      <c r="P64" s="325"/>
-      <c r="Q64" s="325"/>
-      <c r="R64" s="325"/>
-      <c r="S64" s="325"/>
-      <c r="T64" s="325"/>
-      <c r="U64" s="325"/>
-      <c r="V64" s="325"/>
-      <c r="W64" s="325"/>
-      <c r="X64" s="325"/>
-      <c r="Y64" s="325"/>
-      <c r="Z64" s="325"/>
-      <c r="AA64" s="325"/>
-      <c r="AB64" s="325"/>
-      <c r="AC64" s="325"/>
-      <c r="AD64" s="325"/>
-      <c r="AE64" s="325"/>
-      <c r="AF64" s="325"/>
-      <c r="AG64" s="325"/>
-      <c r="AH64" s="326"/>
+      <c r="E64" s="319"/>
+      <c r="F64" s="320"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="320"/>
+      <c r="I64" s="320"/>
+      <c r="J64" s="321"/>
+      <c r="K64" s="319"/>
+      <c r="L64" s="321"/>
+      <c r="M64" s="327"/>
+      <c r="N64" s="328"/>
+      <c r="O64" s="328"/>
+      <c r="P64" s="328"/>
+      <c r="Q64" s="328"/>
+      <c r="R64" s="328"/>
+      <c r="S64" s="328"/>
+      <c r="T64" s="328"/>
+      <c r="U64" s="328"/>
+      <c r="V64" s="328"/>
+      <c r="W64" s="328"/>
+      <c r="X64" s="328"/>
+      <c r="Y64" s="328"/>
+      <c r="Z64" s="328"/>
+      <c r="AA64" s="328"/>
+      <c r="AB64" s="328"/>
+      <c r="AC64" s="328"/>
+      <c r="AD64" s="328"/>
+      <c r="AE64" s="328"/>
+      <c r="AF64" s="328"/>
+      <c r="AG64" s="328"/>
+      <c r="AH64" s="329"/>
     </row>
     <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="269" t="s">
+      <c r="E65" s="285" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="270"/>
-      <c r="G65" s="270"/>
-      <c r="H65" s="270"/>
-      <c r="I65" s="270"/>
-      <c r="J65" s="271"/>
-      <c r="K65" s="320" t="s">
+      <c r="F65" s="286"/>
+      <c r="G65" s="286"/>
+      <c r="H65" s="286"/>
+      <c r="I65" s="286"/>
+      <c r="J65" s="287"/>
+      <c r="K65" s="330" t="s">
         <v>164</v>
       </c>
       <c r="L65" s="307"/>
-      <c r="M65" s="320" t="s">
+      <c r="M65" s="330" t="s">
         <v>15</v>
       </c>
       <c r="N65" s="306"/>
@@ -15948,36 +15948,36 @@
       <c r="AH65" s="307"/>
     </row>
     <row r="66" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="272"/>
-      <c r="F66" s="273"/>
-      <c r="G66" s="273"/>
-      <c r="H66" s="273"/>
-      <c r="I66" s="273"/>
-      <c r="J66" s="274"/>
-      <c r="K66" s="311"/>
-      <c r="L66" s="313"/>
-      <c r="M66" s="311"/>
-      <c r="N66" s="312"/>
-      <c r="O66" s="312"/>
-      <c r="P66" s="312"/>
-      <c r="Q66" s="312"/>
-      <c r="R66" s="312"/>
-      <c r="S66" s="312"/>
-      <c r="T66" s="312"/>
-      <c r="U66" s="312"/>
-      <c r="V66" s="312"/>
-      <c r="W66" s="312"/>
-      <c r="X66" s="312"/>
-      <c r="Y66" s="312"/>
-      <c r="Z66" s="312"/>
-      <c r="AA66" s="312"/>
-      <c r="AB66" s="312"/>
-      <c r="AC66" s="312"/>
-      <c r="AD66" s="312"/>
-      <c r="AE66" s="312"/>
-      <c r="AF66" s="312"/>
-      <c r="AG66" s="312"/>
-      <c r="AH66" s="313"/>
+      <c r="E66" s="291"/>
+      <c r="F66" s="292"/>
+      <c r="G66" s="292"/>
+      <c r="H66" s="292"/>
+      <c r="I66" s="292"/>
+      <c r="J66" s="293"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="310"/>
+      <c r="M66" s="308"/>
+      <c r="N66" s="309"/>
+      <c r="O66" s="309"/>
+      <c r="P66" s="309"/>
+      <c r="Q66" s="309"/>
+      <c r="R66" s="309"/>
+      <c r="S66" s="309"/>
+      <c r="T66" s="309"/>
+      <c r="U66" s="309"/>
+      <c r="V66" s="309"/>
+      <c r="W66" s="309"/>
+      <c r="X66" s="309"/>
+      <c r="Y66" s="309"/>
+      <c r="Z66" s="309"/>
+      <c r="AA66" s="309"/>
+      <c r="AB66" s="309"/>
+      <c r="AC66" s="309"/>
+      <c r="AD66" s="309"/>
+      <c r="AE66" s="309"/>
+      <c r="AF66" s="309"/>
+      <c r="AG66" s="309"/>
+      <c r="AH66" s="310"/>
     </row>
     <row r="67" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="115"/>
@@ -16046,112 +16046,112 @@
       <c r="AH68" s="116"/>
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="276" t="s">
+      <c r="E69" s="298" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="277"/>
-      <c r="G69" s="277"/>
-      <c r="H69" s="277"/>
-      <c r="I69" s="277"/>
-      <c r="J69" s="278"/>
-      <c r="K69" s="276" t="s">
+      <c r="F69" s="299"/>
+      <c r="G69" s="299"/>
+      <c r="H69" s="299"/>
+      <c r="I69" s="299"/>
+      <c r="J69" s="300"/>
+      <c r="K69" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="278"/>
-      <c r="M69" s="276" t="s">
+      <c r="L69" s="300"/>
+      <c r="M69" s="298" t="s">
         <v>68</v>
       </c>
-      <c r="N69" s="277"/>
-      <c r="O69" s="277"/>
-      <c r="P69" s="277"/>
-      <c r="Q69" s="277"/>
-      <c r="R69" s="277"/>
-      <c r="S69" s="277"/>
-      <c r="T69" s="277"/>
-      <c r="U69" s="277"/>
-      <c r="V69" s="277"/>
-      <c r="W69" s="277"/>
-      <c r="X69" s="277"/>
-      <c r="Y69" s="277"/>
-      <c r="Z69" s="277"/>
-      <c r="AA69" s="277"/>
-      <c r="AB69" s="277"/>
-      <c r="AC69" s="277"/>
-      <c r="AD69" s="277"/>
-      <c r="AE69" s="277"/>
-      <c r="AF69" s="277"/>
-      <c r="AG69" s="277"/>
-      <c r="AH69" s="278"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="299"/>
+      <c r="R69" s="299"/>
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="299"/>
+      <c r="Z69" s="299"/>
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="299"/>
+      <c r="AE69" s="299"/>
+      <c r="AF69" s="299"/>
+      <c r="AG69" s="299"/>
+      <c r="AH69" s="300"/>
     </row>
     <row r="70" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="297" t="s">
+      <c r="E70" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="298"/>
-      <c r="G70" s="298"/>
-      <c r="H70" s="298"/>
-      <c r="I70" s="298"/>
-      <c r="J70" s="299"/>
-      <c r="K70" s="127" t="s">
+      <c r="F70" s="317"/>
+      <c r="G70" s="317"/>
+      <c r="H70" s="317"/>
+      <c r="I70" s="317"/>
+      <c r="J70" s="318"/>
+      <c r="K70" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="L70" s="128"/>
-      <c r="M70" s="321" t="s">
+      <c r="L70" s="194"/>
+      <c r="M70" s="324" t="s">
         <v>138</v>
       </c>
-      <c r="N70" s="322"/>
-      <c r="O70" s="322"/>
-      <c r="P70" s="322"/>
-      <c r="Q70" s="322"/>
-      <c r="R70" s="322"/>
-      <c r="S70" s="322"/>
-      <c r="T70" s="322"/>
-      <c r="U70" s="322"/>
-      <c r="V70" s="322"/>
-      <c r="W70" s="322"/>
-      <c r="X70" s="322"/>
-      <c r="Y70" s="322"/>
-      <c r="Z70" s="322"/>
-      <c r="AA70" s="322"/>
-      <c r="AB70" s="322"/>
-      <c r="AC70" s="322"/>
-      <c r="AD70" s="322"/>
-      <c r="AE70" s="322"/>
-      <c r="AF70" s="322"/>
-      <c r="AG70" s="322"/>
-      <c r="AH70" s="323"/>
+      <c r="N70" s="325"/>
+      <c r="O70" s="325"/>
+      <c r="P70" s="325"/>
+      <c r="Q70" s="325"/>
+      <c r="R70" s="325"/>
+      <c r="S70" s="325"/>
+      <c r="T70" s="325"/>
+      <c r="U70" s="325"/>
+      <c r="V70" s="325"/>
+      <c r="W70" s="325"/>
+      <c r="X70" s="325"/>
+      <c r="Y70" s="325"/>
+      <c r="Z70" s="325"/>
+      <c r="AA70" s="325"/>
+      <c r="AB70" s="325"/>
+      <c r="AC70" s="325"/>
+      <c r="AD70" s="325"/>
+      <c r="AE70" s="325"/>
+      <c r="AF70" s="325"/>
+      <c r="AG70" s="325"/>
+      <c r="AH70" s="326"/>
     </row>
     <row r="71" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="300"/>
-      <c r="F71" s="301"/>
-      <c r="G71" s="301"/>
-      <c r="H71" s="301"/>
-      <c r="I71" s="301"/>
-      <c r="J71" s="302"/>
-      <c r="K71" s="303"/>
-      <c r="L71" s="304"/>
-      <c r="M71" s="324"/>
-      <c r="N71" s="325"/>
-      <c r="O71" s="325"/>
-      <c r="P71" s="325"/>
-      <c r="Q71" s="325"/>
-      <c r="R71" s="325"/>
-      <c r="S71" s="325"/>
-      <c r="T71" s="325"/>
-      <c r="U71" s="325"/>
-      <c r="V71" s="325"/>
-      <c r="W71" s="325"/>
-      <c r="X71" s="325"/>
-      <c r="Y71" s="325"/>
-      <c r="Z71" s="325"/>
-      <c r="AA71" s="325"/>
-      <c r="AB71" s="325"/>
-      <c r="AC71" s="325"/>
-      <c r="AD71" s="325"/>
-      <c r="AE71" s="325"/>
-      <c r="AF71" s="325"/>
-      <c r="AG71" s="325"/>
-      <c r="AH71" s="326"/>
+      <c r="E71" s="319"/>
+      <c r="F71" s="320"/>
+      <c r="G71" s="320"/>
+      <c r="H71" s="320"/>
+      <c r="I71" s="320"/>
+      <c r="J71" s="321"/>
+      <c r="K71" s="322"/>
+      <c r="L71" s="323"/>
+      <c r="M71" s="327"/>
+      <c r="N71" s="328"/>
+      <c r="O71" s="328"/>
+      <c r="P71" s="328"/>
+      <c r="Q71" s="328"/>
+      <c r="R71" s="328"/>
+      <c r="S71" s="328"/>
+      <c r="T71" s="328"/>
+      <c r="U71" s="328"/>
+      <c r="V71" s="328"/>
+      <c r="W71" s="328"/>
+      <c r="X71" s="328"/>
+      <c r="Y71" s="328"/>
+      <c r="Z71" s="328"/>
+      <c r="AA71" s="328"/>
+      <c r="AB71" s="328"/>
+      <c r="AC71" s="328"/>
+      <c r="AD71" s="328"/>
+      <c r="AE71" s="328"/>
+      <c r="AF71" s="328"/>
+      <c r="AG71" s="328"/>
+      <c r="AH71" s="329"/>
     </row>
     <row r="72" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="115"/>
@@ -16531,34 +16531,30 @@
     <row r="89" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:AH69"/>
-    <mergeCell ref="E70:J71"/>
-    <mergeCell ref="K70:L71"/>
-    <mergeCell ref="M70:AH71"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M46:AH48"/>
-    <mergeCell ref="M38:AH41"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="M42:AH43"/>
-    <mergeCell ref="M44:AH45"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E49:J62"/>
-    <mergeCell ref="K49:L62"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E38:J41"/>
     <mergeCell ref="K38:L41"/>
     <mergeCell ref="E46:J48"/>
@@ -16571,30 +16567,34 @@
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="E44:J45"/>
     <mergeCell ref="K44:L45"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E49:J62"/>
+    <mergeCell ref="K49:L62"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="M46:AH48"/>
+    <mergeCell ref="M38:AH41"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="M42:AH43"/>
+    <mergeCell ref="M44:AH45"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="E70:J71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="M70:AH71"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F74D8C7-E246-4A2B-B6F9-A37BEDB4B681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0249BF4-21BB-4A74-B29A-0A63DEC7ED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3015" windowWidth="23925" windowHeight="11385" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2'!$1:$4</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="234">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -165,19 +165,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>テストケースNoのフォルダ以下は、エビデンスが複数種類ある</t>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>場合はエビデンス種類ごとにフォルダを分けて格納する。</t>
     <rPh sb="0" eb="2">
       <t>バアイ</t>
@@ -194,62 +181,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>(画面処理方式、画面・ディレード処理方式の場合のみ。他の入力処理方式の単体テストは全て自動テストで実施するためエビデンスの格納は不要)</t>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="28" eb="34">
-      <t>ニュウリョクショリホウシキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単体テスト仕様書および自動テストで実施するテストのエビデンスは格納不要。(リポジトリ上で管理する)</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>カクノウフヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面ハードコピー</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -303,19 +234,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>└──[テストケースNo]</t>
-  </si>
-  <si>
-    <t>テストケースごとにフォルダを作成し、エビデンスを格納する。</t>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザ管理テーブルを更新する。</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
@@ -378,26 +296,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>エビデンスはテストケースごとに作成する。</t>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1つのテストショットで複数のテストケースを実施した場合も</t>
-    <rPh sb="11" eb="13">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>実施方法</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -822,16 +720,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ファイル名は任意とする。</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>例2)呼び出した共通コンポーネントがどのテーブルの更新や参照をしているのかを、呼び出し側で</t>
     <rPh sb="3" eb="4">
       <t>ヨ</t>
@@ -927,15 +815,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>[root]</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>└──[取引ID]</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>└──取引単体テスト</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
@@ -2087,40 +1967,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>└──[画面ハードコピー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>├──[DBダンプ]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>├──[ログ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>※ DAOはスタブで差し替えてテストを行う。テストデータのメンテナンスコストを避けるためである。</t>
     <rPh sb="10" eb="11">
       <t>サ</t>
@@ -2363,10 +2209,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>レスポンスHTML</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>テストを再実行した際に結果の確認を簡略化するため保存する。</t>
     <rPh sb="4" eb="7">
       <t>サイジッコウ</t>
@@ -2386,14 +2228,6 @@
     <rPh sb="24" eb="26">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>├──[テスト計画]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>├──[レスポンスHTML]</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2448,6 +2282,251 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└──[シナリオID]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シナリオIDごとにフォルダを作成し、エビデンスを格納する。</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シナリオIDのフォルダ以下は、エビデンスが複数種類ある</t>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(DBダンプ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(テスト計画)</t>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(ログ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(画面ハードコピー)</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──db_dump</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──scenario</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──response</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──log</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>└──hard_copy</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[取引単体テスト自動実行ツール/src/test/resources]</t>
+    <rPh sb="1" eb="3">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>打鍵テスト・自動テスト※2</t>
+    <rPh sb="0" eb="2">
+      <t>ダケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初回は打鍵で行い、二回目以降は取引単体テストの自動実行ツールを使って実施する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──output</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──input</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(インプットデータ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(アウトプットデータ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書は格納不要。(リポジトリ上で管理する)</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カクノウフヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(画面処理方式、画面・ディレード処理方式の場合のみ。他の入力処理方式の単体テストは、エビデンスの格納は不要)</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="28" eb="34">
+      <t>ニュウリョクショリホウシキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フォルダ名は取引単体テスト自動実行ツールが参照するため、</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>左図と同じ名前で作成する（詳しくはツールのREADMEを参照）。</t>
+    <rPh sb="0" eb="2">
+      <t>サズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レスポンス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(レスポンス)</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3216,7 +3295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3365,6 +3443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3629,6 +3708,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3741,12 +3826,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4369,7 +4448,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4424,7 +4502,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4479,7 +4556,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4682,7 +4758,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4761,7 +4836,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5224,7 +5298,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
@@ -5657,7 +5730,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="39"/>
       <c r="J23" s="26" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -6314,13 +6387,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
       <c r="E1" s="189" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162"/>
@@ -6332,13 +6405,13 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
       <c r="S1" s="152" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="T1" s="153"/>
       <c r="U1" s="153"/>
@@ -6348,7 +6421,7 @@
       <c r="Y1" s="153"/>
       <c r="Z1" s="154"/>
       <c r="AA1" s="140" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -6372,13 +6445,13 @@
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
       <c r="E2" s="189" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
@@ -6402,7 +6475,7 @@
       <c r="Y2" s="156"/>
       <c r="Z2" s="157"/>
       <c r="AA2" s="140" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="186" t="str">
@@ -6426,13 +6499,13 @@
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
       <c r="E3" s="161" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
@@ -6527,7 +6600,7 @@
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="N5" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
@@ -6599,25 +6672,25 @@
       <c r="AN6" s="46"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
-        <v>117</v>
+      <c r="A7" s="73" t="s">
+        <v>107</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="194"/>
       <c r="D7" s="193" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E7" s="195"/>
       <c r="F7" s="194"/>
       <c r="G7" s="193" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H7" s="195"/>
       <c r="I7" s="194"/>
       <c r="J7" s="193" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K7" s="195"/>
       <c r="L7" s="195"/>
@@ -6626,7 +6699,7 @@
       <c r="O7" s="195"/>
       <c r="P7" s="194"/>
       <c r="Q7" s="193" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="R7" s="195"/>
       <c r="S7" s="195"/>
@@ -6643,18 +6716,18 @@
       <c r="AD7" s="195"/>
       <c r="AE7" s="194"/>
       <c r="AF7" s="193" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AG7" s="195"/>
       <c r="AH7" s="195"/>
       <c r="AI7" s="194"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="100">
+      <c r="A8" s="99">
         <v>1</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="166">
@@ -6663,12 +6736,12 @@
       <c r="E8" s="167"/>
       <c r="F8" s="168"/>
       <c r="G8" s="169" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H8" s="170"/>
       <c r="I8" s="171"/>
       <c r="J8" s="172" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K8" s="173"/>
       <c r="L8" s="173"/>
@@ -6677,7 +6750,7 @@
       <c r="O8" s="173"/>
       <c r="P8" s="174"/>
       <c r="Q8" s="175" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="R8" s="176"/>
       <c r="S8" s="176"/>
@@ -6694,18 +6767,18 @@
       <c r="AD8" s="176"/>
       <c r="AE8" s="177"/>
       <c r="AF8" s="172" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="173"/>
       <c r="AH8" s="173"/>
       <c r="AI8" s="174"/>
     </row>
     <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="121">
+      <c r="A9" s="120">
         <v>2</v>
       </c>
       <c r="B9" s="190" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C9" s="191"/>
       <c r="D9" s="136">
@@ -6714,12 +6787,12 @@
       <c r="E9" s="137"/>
       <c r="F9" s="138"/>
       <c r="G9" s="192" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="H9" s="139"/>
       <c r="I9" s="135"/>
       <c r="J9" s="178" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
@@ -6728,7 +6801,7 @@
       <c r="O9" s="129"/>
       <c r="P9" s="130"/>
       <c r="Q9" s="179" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="R9" s="132"/>
       <c r="S9" s="132"/>
@@ -6745,14 +6818,14 @@
       <c r="AD9" s="132"/>
       <c r="AE9" s="133"/>
       <c r="AF9" s="178" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="AG9" s="129"/>
       <c r="AH9" s="129"/>
       <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="121"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="134"/>
       <c r="C10" s="135"/>
       <c r="D10" s="136"/>
@@ -6789,7 +6862,7 @@
       <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="121"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="136"/>
@@ -6826,7 +6899,7 @@
       <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="121"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="134"/>
       <c r="C12" s="135"/>
       <c r="D12" s="136"/>
@@ -6863,7 +6936,7 @@
       <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="121"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="134"/>
       <c r="C13" s="135"/>
       <c r="D13" s="136"/>
@@ -6900,7 +6973,7 @@
       <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="121"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="134"/>
       <c r="C14" s="135"/>
       <c r="D14" s="136"/>
@@ -6937,7 +7010,7 @@
       <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="121"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="134"/>
       <c r="C15" s="135"/>
       <c r="D15" s="136"/>
@@ -6974,7 +7047,7 @@
       <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="121"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="134"/>
       <c r="C16" s="135"/>
       <c r="D16" s="136"/>
@@ -7011,7 +7084,7 @@
       <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="121"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="134"/>
       <c r="C17" s="135"/>
       <c r="D17" s="136"/>
@@ -7048,7 +7121,7 @@
       <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="121"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="136"/>
@@ -7085,7 +7158,7 @@
       <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="121"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="134"/>
       <c r="C19" s="135"/>
       <c r="D19" s="136"/>
@@ -7122,7 +7195,7 @@
       <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="121"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="134"/>
       <c r="C20" s="135"/>
       <c r="D20" s="136"/>
@@ -7159,7 +7232,7 @@
       <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="121"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="134"/>
       <c r="C21" s="135"/>
       <c r="D21" s="136"/>
@@ -7196,7 +7269,7 @@
       <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="121"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="134"/>
       <c r="C22" s="135"/>
       <c r="D22" s="136"/>
@@ -7233,7 +7306,7 @@
       <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="121"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="134"/>
       <c r="C23" s="135"/>
       <c r="D23" s="136"/>
@@ -7270,7 +7343,7 @@
       <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="121"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="134"/>
       <c r="C24" s="135"/>
       <c r="D24" s="136"/>
@@ -7307,7 +7380,7 @@
       <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="121"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="134"/>
       <c r="C25" s="135"/>
       <c r="D25" s="136"/>
@@ -7344,7 +7417,7 @@
       <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="121"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="134"/>
       <c r="C26" s="135"/>
       <c r="D26" s="136"/>
@@ -7381,7 +7454,7 @@
       <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="121"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="134"/>
       <c r="C27" s="135"/>
       <c r="D27" s="136"/>
@@ -7418,7 +7491,7 @@
       <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="121"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="134"/>
       <c r="C28" s="135"/>
       <c r="D28" s="136"/>
@@ -7455,7 +7528,7 @@
       <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="121"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="134"/>
       <c r="C29" s="135"/>
       <c r="D29" s="136"/>
@@ -7492,7 +7565,7 @@
       <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="121"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="134"/>
       <c r="C30" s="135"/>
       <c r="D30" s="136"/>
@@ -7529,7 +7602,7 @@
       <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="121"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="134"/>
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
@@ -7566,7 +7639,7 @@
       <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="121"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="134"/>
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
@@ -7603,7 +7676,7 @@
       <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="121"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="134"/>
       <c r="C33" s="135"/>
       <c r="D33" s="136"/>
@@ -7856,7 +7929,7 @@
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -7875,7 +7948,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -7892,7 +7965,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -7925,7 +7998,7 @@
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -7956,7 +8029,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -7989,7 +8062,7 @@
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -8115,8 +8188,8 @@
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="P5" s="46"/>
-      <c r="Q5" s="80" t="s">
-        <v>144</v>
+      <c r="Q5" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
@@ -8204,10 +8277,10 @@
     </row>
     <row r="7" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
-      <c r="B7" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="75"/>
+      <c r="B7" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="74"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -8221,11 +8294,11 @@
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="52"/>
-      <c r="Q7" s="110"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="76"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
+      <c r="S7" s="75"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
       <c r="W7" s="48"/>
       <c r="X7" s="48"/>
       <c r="Y7" s="48"/>
@@ -8256,8 +8329,8 @@
     </row>
     <row r="8" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
-      <c r="C8" s="77" t="s">
-        <v>123</v>
+      <c r="C8" s="76" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8272,10 +8345,10 @@
       <c r="N8" s="48"/>
       <c r="O8" s="48"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="110"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="1"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="37"/>
       <c r="W8" s="48"/>
       <c r="X8" s="48"/>
@@ -8322,10 +8395,10 @@
       <c r="N9" s="48"/>
       <c r="O9" s="48"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="109"/>
       <c r="R9" s="1"/>
       <c r="S9" s="20"/>
-      <c r="T9" s="77"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="48"/>
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
@@ -8358,8 +8431,8 @@
     </row>
     <row r="10" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
-      <c r="B10" s="75" t="s">
-        <v>121</v>
+      <c r="B10" s="74" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -8375,12 +8448,12 @@
       <c r="N10" s="48"/>
       <c r="O10" s="48"/>
       <c r="P10" s="52"/>
-      <c r="Q10" s="110"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="1"/>
       <c r="S10" s="48"/>
-      <c r="T10" s="77"/>
+      <c r="T10" s="76"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="77"/>
       <c r="W10" s="48"/>
       <c r="X10" s="48"/>
       <c r="Y10" s="48"/>
@@ -8411,8 +8484,8 @@
     </row>
     <row r="11" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
-      <c r="C11" s="77" t="s">
-        <v>124</v>
+      <c r="C11" s="76" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8427,11 +8500,11 @@
       <c r="N11" s="48"/>
       <c r="O11" s="48"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="110"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="1"/>
       <c r="S11" s="48"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="48"/>
       <c r="W11" s="48"/>
       <c r="X11" s="48"/>
@@ -8463,8 +8536,8 @@
     </row>
     <row r="12" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="C12" s="77" t="s">
-        <v>125</v>
+      <c r="C12" s="76" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8479,7 +8552,7 @@
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="110"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="1"/>
       <c r="S12" s="48"/>
       <c r="T12" s="48"/>
@@ -8514,8 +8587,8 @@
     </row>
     <row r="13" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
-      <c r="C13" s="77" t="s">
-        <v>126</v>
+      <c r="C13" s="76" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8530,12 +8603,12 @@
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="110"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="1"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="77"/>
       <c r="W13" s="48"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="15"/>
@@ -8581,13 +8654,13 @@
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
       <c r="P14" s="52"/>
-      <c r="Q14" s="110"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="1"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="78"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="77"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="48"/>
@@ -8618,7 +8691,7 @@
     <row r="15" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="30" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -8633,13 +8706,13 @@
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="52"/>
-      <c r="Q15" s="110"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="1"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="V15" s="22"/>
       <c r="W15" s="48"/>
-      <c r="X15" s="78"/>
+      <c r="X15" s="77"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="48"/>
       <c r="AA15" s="48"/>
@@ -8668,8 +8741,8 @@
     </row>
     <row r="16" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
-      <c r="C16" s="77" t="s">
-        <v>127</v>
+      <c r="C16" s="76" t="s">
+        <v>117</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
@@ -8684,11 +8757,11 @@
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="111"/>
+      <c r="Q16" s="110"/>
       <c r="R16" s="1"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="48"/>
       <c r="X16" s="48"/>
       <c r="Y16" s="31"/>
@@ -8719,8 +8792,8 @@
     </row>
     <row r="17" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="C17" s="77" t="s">
-        <v>128</v>
+      <c r="C17" s="76" t="s">
+        <v>118</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8735,14 +8808,14 @@
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="111"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="1"/>
       <c r="S17" s="48"/>
       <c r="T17" s="46"/>
-      <c r="V17" s="77"/>
+      <c r="V17" s="76"/>
       <c r="W17" s="1"/>
       <c r="X17" s="48"/>
-      <c r="Y17" s="75"/>
+      <c r="Y17" s="74"/>
       <c r="Z17" s="48"/>
       <c r="AA17" s="48"/>
       <c r="AB17" s="48"/>
@@ -8771,10 +8844,10 @@
     <row r="18" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="76"/>
+      <c r="C18" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="75"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8787,7 +8860,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
-      <c r="Q18" s="110"/>
+      <c r="Q18" s="109"/>
       <c r="R18" s="1"/>
       <c r="S18" s="48"/>
       <c r="T18" s="46"/>
@@ -8823,8 +8896,8 @@
     <row r="19" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -8836,15 +8909,15 @@
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
       <c r="P19" s="48"/>
-      <c r="Q19" s="110"/>
+      <c r="Q19" s="109"/>
       <c r="R19" s="1"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="78"/>
+      <c r="V19" s="77"/>
       <c r="W19" s="49"/>
       <c r="X19" s="49"/>
-      <c r="Y19" s="75"/>
+      <c r="Y19" s="74"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="48"/>
       <c r="AB19" s="49"/>
@@ -8872,15 +8945,15 @@
       <c r="A20" s="48"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
-      <c r="Q20" s="110"/>
+      <c r="Q20" s="109"/>
       <c r="R20" s="1"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="78"/>
+      <c r="V20" s="77"/>
       <c r="W20" s="48"/>
       <c r="X20" s="49"/>
-      <c r="Y20" s="75"/>
+      <c r="Y20" s="74"/>
       <c r="Z20" s="48"/>
       <c r="AA20" s="48"/>
       <c r="AB20" s="48"/>
@@ -8909,7 +8982,7 @@
       <c r="A21" s="48"/>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
-      <c r="Q21" s="110"/>
+      <c r="Q21" s="109"/>
       <c r="R21" s="1"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
@@ -8947,7 +9020,7 @@
       <c r="A22" s="48"/>
       <c r="O22" s="48"/>
       <c r="P22" s="48"/>
-      <c r="Q22" s="110"/>
+      <c r="Q22" s="109"/>
       <c r="R22" s="1"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48"/>
@@ -8974,7 +9047,7 @@
       <c r="A23" s="48"/>
       <c r="O23" s="48"/>
       <c r="P23" s="48"/>
-      <c r="Q23" s="111"/>
+      <c r="Q23" s="110"/>
       <c r="R23" s="1"/>
       <c r="S23" s="48"/>
       <c r="T23" s="20"/>
@@ -9001,7 +9074,7 @@
       <c r="A24" s="48"/>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
-      <c r="Q24" s="111"/>
+      <c r="Q24" s="110"/>
       <c r="R24" s="1"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48"/>
@@ -9025,7 +9098,7 @@
     <row r="25" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
-      <c r="D25" s="78"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -9038,13 +9111,13 @@
       <c r="N25" s="48"/>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
-      <c r="Q25" s="110"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="1"/>
       <c r="S25" s="48"/>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
       <c r="V25" s="22"/>
-      <c r="W25" s="78"/>
+      <c r="W25" s="77"/>
       <c r="X25" s="48"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="49"/>
@@ -9075,7 +9148,7 @@
     <row r="26" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="48"/>
-      <c r="D26" s="78"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -9088,13 +9161,13 @@
       <c r="N26" s="48"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
-      <c r="Q26" s="110"/>
+      <c r="Q26" s="109"/>
       <c r="R26" s="1"/>
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
       <c r="U26" s="49"/>
       <c r="V26" s="48"/>
-      <c r="W26" s="78"/>
+      <c r="W26" s="77"/>
       <c r="X26" s="46"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="49"/>
@@ -9125,7 +9198,7 @@
     <row r="27" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
-      <c r="D27" s="78"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
@@ -9138,14 +9211,14 @@
       <c r="N27" s="48"/>
       <c r="O27" s="48"/>
       <c r="P27" s="48"/>
-      <c r="Q27" s="110"/>
+      <c r="Q27" s="109"/>
       <c r="R27" s="1"/>
       <c r="S27" s="48"/>
       <c r="T27" s="46"/>
       <c r="U27" s="48"/>
       <c r="V27" s="48"/>
       <c r="W27" s="48"/>
-      <c r="X27" s="78"/>
+      <c r="X27" s="77"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="48"/>
       <c r="AA27" s="48"/>
@@ -9187,7 +9260,7 @@
       <c r="N28" s="48"/>
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
-      <c r="Q28" s="110"/>
+      <c r="Q28" s="109"/>
       <c r="R28" s="1"/>
       <c r="S28" s="19"/>
       <c r="T28" s="48"/>
@@ -9195,7 +9268,7 @@
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="78"/>
+      <c r="Y28" s="77"/>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
@@ -9227,13 +9300,13 @@
       <c r="N29" s="48"/>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
-      <c r="Q29" s="110"/>
+      <c r="Q29" s="109"/>
       <c r="R29" s="49"/>
       <c r="S29" s="19"/>
       <c r="T29" s="48"/>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
-      <c r="X29" s="79"/>
+      <c r="X29" s="78"/>
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="48"/>
@@ -9275,14 +9348,14 @@
       <c r="N30" s="48"/>
       <c r="O30" s="48"/>
       <c r="P30" s="48"/>
-      <c r="Q30" s="110"/>
+      <c r="Q30" s="109"/>
       <c r="R30" s="1"/>
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
-      <c r="Y30" s="78"/>
+      <c r="Y30" s="77"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="48"/>
       <c r="AB30" s="48"/>
@@ -9312,7 +9385,7 @@
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="78"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -9324,14 +9397,14 @@
       <c r="N31" s="48"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
-      <c r="Q31" s="110"/>
+      <c r="Q31" s="109"/>
       <c r="R31" s="1"/>
       <c r="S31" s="19"/>
       <c r="T31" s="48"/>
       <c r="V31" s="48"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
-      <c r="Y31" s="78"/>
+      <c r="Y31" s="77"/>
       <c r="Z31" s="48"/>
       <c r="AA31" s="48"/>
       <c r="AB31" s="48"/>
@@ -9361,7 +9434,7 @@
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="78"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
@@ -9373,14 +9446,14 @@
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
-      <c r="Q32" s="110"/>
+      <c r="Q32" s="109"/>
       <c r="R32" s="1"/>
       <c r="S32" s="19"/>
       <c r="T32" s="48"/>
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
       <c r="X32" s="48"/>
-      <c r="Y32" s="78"/>
+      <c r="Y32" s="77"/>
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
@@ -9422,14 +9495,14 @@
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="110"/>
+      <c r="Q33" s="109"/>
       <c r="R33" s="1"/>
       <c r="S33" s="19"/>
       <c r="T33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
-      <c r="Y33" s="78"/>
+      <c r="Y33" s="77"/>
       <c r="Z33" s="48"/>
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
@@ -9465,14 +9538,14 @@
       <c r="N34" s="48"/>
       <c r="O34" s="48"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="111"/>
+      <c r="Q34" s="110"/>
       <c r="R34" s="1"/>
       <c r="S34" s="20"/>
       <c r="T34" s="48"/>
       <c r="V34" s="48"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
-      <c r="Y34" s="78"/>
+      <c r="Y34" s="77"/>
       <c r="Z34" s="48"/>
       <c r="AA34" s="48"/>
       <c r="AB34" s="48"/>
@@ -9508,13 +9581,13 @@
       <c r="N35" s="48"/>
       <c r="O35" s="48"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="111"/>
+      <c r="Q35" s="110"/>
       <c r="R35" s="1"/>
       <c r="S35" s="19"/>
       <c r="T35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="78"/>
+      <c r="X35" s="77"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
       <c r="AA35" s="48"/>
@@ -11273,7 +11346,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -11292,7 +11365,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -11309,7 +11382,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -11328,7 +11401,7 @@
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -11359,7 +11432,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -11378,7 +11451,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -11462,8 +11535,8 @@
       <c r="AI4" s="15"/>
     </row>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="75" t="s">
-        <v>130</v>
+      <c r="B5" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11502,7 +11575,7 @@
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="C6" s="31" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -11575,7 +11648,7 @@
       <c r="A8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -11613,7 +11686,7 @@
       <c r="A9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -11687,7 +11760,7 @@
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -11725,7 +11798,7 @@
       <c r="A12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -11847,7 +11920,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -11866,7 +11939,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -11883,7 +11956,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -11902,7 +11975,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -11933,7 +12006,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -11952,7 +12025,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -12002,15 +12075,15 @@
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="31" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12018,15 +12091,15 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D8" s="75" t="s">
-        <v>170</v>
+      <c r="D8" s="74" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D9" s="75"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D10" s="75"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12057,8 +12130,8 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D21" s="75" t="s">
-        <v>184</v>
+      <c r="D21" s="74" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12068,404 +12141,404 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="210" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="210" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="211"/>
-      <c r="P24" s="211"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211"/>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="211"/>
-      <c r="AF24" s="211"/>
-      <c r="AG24" s="211"/>
-      <c r="AH24" s="212"/>
+      <c r="D24" s="212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="212" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="213"/>
+      <c r="Z24" s="213"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="214"/>
     </row>
     <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="235" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="217" t="s">
-        <v>185</v>
-      </c>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="218"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="218"/>
-      <c r="S25" s="218"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="218"/>
-      <c r="V25" s="218"/>
-      <c r="W25" s="218"/>
-      <c r="X25" s="218"/>
-      <c r="Y25" s="218"/>
-      <c r="Z25" s="218"/>
-      <c r="AA25" s="218"/>
-      <c r="AB25" s="218"/>
-      <c r="AC25" s="218"/>
-      <c r="AD25" s="218"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="218"/>
-      <c r="AG25" s="218"/>
-      <c r="AH25" s="219"/>
+      <c r="D25" s="237" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="238"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="219" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="220"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="220"/>
+      <c r="Z25" s="220"/>
+      <c r="AA25" s="220"/>
+      <c r="AB25" s="220"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="220"/>
+      <c r="AE25" s="220"/>
+      <c r="AF25" s="220"/>
+      <c r="AG25" s="220"/>
+      <c r="AH25" s="221"/>
     </row>
     <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="238"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="221"/>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="221"/>
-      <c r="AE26" s="221"/>
-      <c r="AF26" s="221"/>
-      <c r="AG26" s="221"/>
-      <c r="AH26" s="222"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="223"/>
+      <c r="Z26" s="223"/>
+      <c r="AA26" s="223"/>
+      <c r="AB26" s="223"/>
+      <c r="AC26" s="223"/>
+      <c r="AD26" s="223"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="223"/>
+      <c r="AH26" s="224"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="241"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="243"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="224"/>
-      <c r="AB27" s="224"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="224"/>
-      <c r="AE27" s="224"/>
-      <c r="AF27" s="224"/>
-      <c r="AG27" s="224"/>
-      <c r="AH27" s="225"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="226"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="226"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="226"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="226"/>
+      <c r="AH27" s="227"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="235" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="226" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="227"/>
-      <c r="Q28" s="227"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="227"/>
-      <c r="U28" s="227"/>
-      <c r="V28" s="227"/>
-      <c r="W28" s="227"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="227"/>
-      <c r="AA28" s="227"/>
-      <c r="AB28" s="227"/>
-      <c r="AC28" s="227"/>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="227"/>
-      <c r="AF28" s="227"/>
-      <c r="AG28" s="227"/>
-      <c r="AH28" s="228"/>
+      <c r="D28" s="237" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="228" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="229"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="229"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="229"/>
+      <c r="Q28" s="229"/>
+      <c r="R28" s="229"/>
+      <c r="S28" s="229"/>
+      <c r="T28" s="229"/>
+      <c r="U28" s="229"/>
+      <c r="V28" s="229"/>
+      <c r="W28" s="229"/>
+      <c r="X28" s="229"/>
+      <c r="Y28" s="229"/>
+      <c r="Z28" s="229"/>
+      <c r="AA28" s="229"/>
+      <c r="AB28" s="229"/>
+      <c r="AC28" s="229"/>
+      <c r="AD28" s="229"/>
+      <c r="AE28" s="229"/>
+      <c r="AF28" s="229"/>
+      <c r="AG28" s="229"/>
+      <c r="AH28" s="230"/>
     </row>
     <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="238"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="229"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="230"/>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
-      <c r="R29" s="230"/>
-      <c r="S29" s="230"/>
-      <c r="T29" s="230"/>
-      <c r="U29" s="230"/>
-      <c r="V29" s="230"/>
-      <c r="W29" s="230"/>
-      <c r="X29" s="230"/>
-      <c r="Y29" s="230"/>
-      <c r="Z29" s="230"/>
-      <c r="AA29" s="230"/>
-      <c r="AB29" s="230"/>
-      <c r="AC29" s="230"/>
-      <c r="AD29" s="230"/>
-      <c r="AE29" s="230"/>
-      <c r="AF29" s="230"/>
-      <c r="AG29" s="230"/>
-      <c r="AH29" s="231"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="232"/>
+      <c r="Y29" s="232"/>
+      <c r="Z29" s="232"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="232"/>
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="233"/>
     </row>
     <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="241"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="243"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
-      <c r="O30" s="233"/>
-      <c r="P30" s="233"/>
-      <c r="Q30" s="233"/>
-      <c r="R30" s="233"/>
-      <c r="S30" s="233"/>
-      <c r="T30" s="233"/>
-      <c r="U30" s="233"/>
-      <c r="V30" s="233"/>
-      <c r="W30" s="233"/>
-      <c r="X30" s="233"/>
-      <c r="Y30" s="233"/>
-      <c r="Z30" s="233"/>
-      <c r="AA30" s="233"/>
-      <c r="AB30" s="233"/>
-      <c r="AC30" s="233"/>
-      <c r="AD30" s="233"/>
-      <c r="AE30" s="233"/>
-      <c r="AF30" s="233"/>
-      <c r="AG30" s="233"/>
-      <c r="AH30" s="234"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="234"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="235"/>
+      <c r="M30" s="235"/>
+      <c r="N30" s="235"/>
+      <c r="O30" s="235"/>
+      <c r="P30" s="235"/>
+      <c r="Q30" s="235"/>
+      <c r="R30" s="235"/>
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="235"/>
+      <c r="V30" s="235"/>
+      <c r="W30" s="235"/>
+      <c r="X30" s="235"/>
+      <c r="Y30" s="235"/>
+      <c r="Z30" s="235"/>
+      <c r="AA30" s="235"/>
+      <c r="AB30" s="235"/>
+      <c r="AC30" s="235"/>
+      <c r="AD30" s="235"/>
+      <c r="AE30" s="235"/>
+      <c r="AF30" s="235"/>
+      <c r="AG30" s="235"/>
+      <c r="AH30" s="236"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="244" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="236"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="226" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" s="227"/>
-      <c r="L31" s="227"/>
-      <c r="M31" s="227"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
-      <c r="P31" s="227"/>
-      <c r="Q31" s="227"/>
-      <c r="R31" s="227"/>
-      <c r="S31" s="227"/>
-      <c r="T31" s="227"/>
-      <c r="U31" s="227"/>
-      <c r="V31" s="227"/>
-      <c r="W31" s="227"/>
-      <c r="X31" s="227"/>
-      <c r="Y31" s="227"/>
-      <c r="Z31" s="227"/>
-      <c r="AA31" s="227"/>
-      <c r="AB31" s="227"/>
-      <c r="AC31" s="227"/>
-      <c r="AD31" s="227"/>
-      <c r="AE31" s="227"/>
-      <c r="AF31" s="227"/>
-      <c r="AG31" s="227"/>
-      <c r="AH31" s="228"/>
+      <c r="D31" s="246" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="228" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="229"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="229"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="229"/>
+      <c r="P31" s="229"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="229"/>
+      <c r="S31" s="229"/>
+      <c r="T31" s="229"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="229"/>
+      <c r="W31" s="229"/>
+      <c r="X31" s="229"/>
+      <c r="Y31" s="229"/>
+      <c r="Z31" s="229"/>
+      <c r="AA31" s="229"/>
+      <c r="AB31" s="229"/>
+      <c r="AC31" s="229"/>
+      <c r="AD31" s="229"/>
+      <c r="AE31" s="229"/>
+      <c r="AF31" s="229"/>
+      <c r="AG31" s="229"/>
+      <c r="AH31" s="230"/>
     </row>
     <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="238"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="239"/>
-      <c r="G32" s="239"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="230"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="230"/>
-      <c r="P32" s="230"/>
-      <c r="Q32" s="230"/>
-      <c r="R32" s="230"/>
-      <c r="S32" s="230"/>
-      <c r="T32" s="230"/>
-      <c r="U32" s="230"/>
-      <c r="V32" s="230"/>
-      <c r="W32" s="230"/>
-      <c r="X32" s="230"/>
-      <c r="Y32" s="230"/>
-      <c r="Z32" s="230"/>
-      <c r="AA32" s="230"/>
-      <c r="AB32" s="230"/>
-      <c r="AC32" s="230"/>
-      <c r="AD32" s="230"/>
-      <c r="AE32" s="230"/>
-      <c r="AF32" s="230"/>
-      <c r="AG32" s="230"/>
-      <c r="AH32" s="231"/>
+      <c r="D32" s="240"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="233"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="241"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="233"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="233"/>
-      <c r="AA33" s="233"/>
-      <c r="AB33" s="233"/>
-      <c r="AC33" s="233"/>
-      <c r="AD33" s="233"/>
-      <c r="AE33" s="233"/>
-      <c r="AF33" s="233"/>
-      <c r="AG33" s="233"/>
-      <c r="AH33" s="234"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="245"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
+      <c r="M33" s="235"/>
+      <c r="N33" s="235"/>
+      <c r="O33" s="235"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="235"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="235"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="235"/>
+      <c r="AA33" s="235"/>
+      <c r="AB33" s="235"/>
+      <c r="AC33" s="235"/>
+      <c r="AD33" s="235"/>
+      <c r="AE33" s="235"/>
+      <c r="AF33" s="235"/>
+      <c r="AG33" s="235"/>
+      <c r="AH33" s="236"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D36" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D37" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="245" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="246"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="247"/>
-      <c r="H39" s="213" t="s">
-        <v>87</v>
+      <c r="D39" s="247" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="249"/>
+      <c r="H39" s="215" t="s">
+        <v>77</v>
       </c>
       <c r="I39" s="132"/>
       <c r="J39" s="132"/>
       <c r="K39" s="133"/>
-      <c r="L39" s="213" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" s="214"/>
-      <c r="N39" s="214"/>
-      <c r="O39" s="215"/>
-      <c r="P39" s="213" t="s">
-        <v>89</v>
+      <c r="L39" s="215" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="216"/>
+      <c r="N39" s="216"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="215" t="s">
+        <v>79</v>
       </c>
       <c r="Q39" s="132"/>
       <c r="R39" s="132"/>
       <c r="S39" s="133"/>
-      <c r="T39" s="213" t="s">
-        <v>90</v>
+      <c r="T39" s="215" t="s">
+        <v>80</v>
       </c>
       <c r="U39" s="132"/>
       <c r="V39" s="132"/>
       <c r="W39" s="133"/>
-      <c r="X39" s="216" t="s">
-        <v>207</v>
+      <c r="X39" s="218" t="s">
+        <v>194</v>
       </c>
       <c r="Y39" s="132"/>
       <c r="Z39" s="132"/>
@@ -12473,37 +12546,37 @@
     </row>
     <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D40" s="205" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E40" s="206"/>
       <c r="F40" s="206"/>
       <c r="G40" s="207"/>
       <c r="H40" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I40" s="206"/>
       <c r="J40" s="206"/>
       <c r="K40" s="207"/>
       <c r="L40" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M40" s="206"/>
       <c r="N40" s="206"/>
       <c r="O40" s="207"/>
       <c r="P40" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="206"/>
       <c r="R40" s="206"/>
       <c r="S40" s="207"/>
       <c r="T40" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U40" s="206"/>
       <c r="V40" s="206"/>
       <c r="W40" s="207"/>
       <c r="X40" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y40" s="206"/>
       <c r="Z40" s="206"/>
@@ -12511,75 +12584,75 @@
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="209" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="248"/>
-      <c r="F41" s="248"/>
-      <c r="G41" s="249"/>
+        <v>182</v>
+      </c>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
       <c r="H41" s="209" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
       <c r="L41" s="209" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M41" s="206"/>
       <c r="N41" s="206"/>
       <c r="O41" s="207"/>
       <c r="P41" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="206"/>
       <c r="R41" s="206"/>
       <c r="S41" s="207"/>
       <c r="T41" s="205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U41" s="206"/>
       <c r="V41" s="206"/>
       <c r="W41" s="207"/>
       <c r="X41" s="208" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Y41" s="206"/>
       <c r="Z41" s="206"/>
       <c r="AA41" s="207"/>
     </row>
-    <row r="42" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="205" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E42" s="206"/>
       <c r="F42" s="206"/>
       <c r="G42" s="207"/>
-      <c r="H42" s="205" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="206"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="207"/>
-      <c r="L42" s="205" t="s">
-        <v>56</v>
-      </c>
-      <c r="M42" s="206"/>
-      <c r="N42" s="206"/>
-      <c r="O42" s="207"/>
+      <c r="H42" s="209" t="s">
+        <v>221</v>
+      </c>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="209" t="s">
+        <v>221</v>
+      </c>
+      <c r="M42" s="210"/>
+      <c r="N42" s="210"/>
+      <c r="O42" s="211"/>
       <c r="P42" s="208" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="206"/>
       <c r="R42" s="206"/>
       <c r="S42" s="207"/>
       <c r="T42" s="208" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
       <c r="X42" s="205" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
@@ -12587,26 +12660,33 @@
     </row>
     <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D43" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D44" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="77" t="s">
-        <v>134</v>
+      <c r="C45" s="76" t="s">
+        <v>124</v>
       </c>
       <c r="D45" s="19"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="77"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D47" s="31" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12614,18 +12694,18 @@
     </row>
     <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C50" s="77" t="s">
-        <v>135</v>
+      <c r="C50" s="76" t="s">
+        <v>125</v>
       </c>
       <c r="D50" s="19"/>
     </row>
     <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="77"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D52" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
@@ -12633,15 +12713,15 @@
         <v>1</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D54" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12730,7 +12810,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -12749,7 +12829,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -12766,7 +12846,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -12785,7 +12865,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -12816,7 +12896,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -12835,7 +12915,7 @@
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -12884,16 +12964,16 @@
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12902,7 +12982,7 @@
     <row r="8" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
       <c r="D8" s="34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -12924,7 +13004,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="22"/>
       <c r="D9" s="30" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -12946,7 +13026,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -12990,7 +13070,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12999,7 +13079,7 @@
     <row r="14" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13014,29 +13094,29 @@
     <row r="17" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="22"/>
       <c r="E18" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D21" s="55" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E22" s="35" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
@@ -13045,7 +13125,7 @@
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E24" s="56"/>
       <c r="F24" s="36" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
@@ -13086,44 +13166,44 @@
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E26" s="55" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="81" t="s">
-        <v>136</v>
+      <c r="D28" s="80" t="s">
+        <v>126</v>
       </c>
       <c r="E28" s="298" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F28" s="299"/>
       <c r="G28" s="299"/>
       <c r="H28" s="300"/>
       <c r="I28" s="268" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J28" s="269"/>
       <c r="K28" s="270"/>
       <c r="L28" s="280" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M28" s="280"/>
       <c r="N28" s="280"/>
       <c r="O28" s="280"/>
       <c r="P28" s="280"/>
       <c r="Q28" s="268" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R28" s="269"/>
       <c r="S28" s="269"/>
       <c r="T28" s="270"/>
       <c r="U28" s="268" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="V28" s="269"/>
       <c r="W28" s="270"/>
-      <c r="X28" s="73" t="s">
-        <v>46</v>
+      <c r="X28" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Y28" s="59"/>
       <c r="Z28" s="59"/>
@@ -13132,24 +13212,24 @@
       <c r="AC28" s="59"/>
       <c r="AD28" s="59"/>
       <c r="AE28" s="59"/>
-      <c r="AF28" s="73" t="s">
-        <v>29</v>
+      <c r="AF28" s="72" t="s">
+        <v>22</v>
       </c>
       <c r="AG28" s="59"/>
       <c r="AH28" s="60"/>
     </row>
     <row r="29" spans="3:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="82">
+      <c r="D29" s="81">
         <v>1</v>
       </c>
       <c r="E29" s="285" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F29" s="286"/>
       <c r="G29" s="286"/>
       <c r="H29" s="287"/>
       <c r="I29" s="301" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J29" s="302"/>
       <c r="K29" s="302"/>
@@ -13167,24 +13247,24 @@
       <c r="U29" s="288"/>
       <c r="V29" s="289"/>
       <c r="W29" s="290"/>
-      <c r="X29" s="83" t="s">
+      <c r="X29" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="86" t="s">
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="113"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="112"/>
     </row>
     <row r="30" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D30" s="82">
+      <c r="D30" s="81">
         <v>2</v>
       </c>
       <c r="E30" s="288"/>
@@ -13208,22 +13288,22 @@
       <c r="U30" s="288"/>
       <c r="V30" s="289"/>
       <c r="W30" s="290"/>
-      <c r="X30" s="83" t="s">
+      <c r="X30" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="88"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="87"/>
       <c r="AG30" s="42"/>
-      <c r="AH30" s="87"/>
+      <c r="AH30" s="86"/>
     </row>
     <row r="31" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D31" s="89">
+      <c r="D31" s="88">
         <v>3</v>
       </c>
       <c r="E31" s="291"/>
@@ -13247,27 +13327,27 @@
       <c r="U31" s="294"/>
       <c r="V31" s="295"/>
       <c r="W31" s="296"/>
-      <c r="X31" s="90" t="s">
+      <c r="X31" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="94"/>
-      <c r="AH31" s="95"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="94"/>
     </row>
     <row r="32" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
@@ -13284,7 +13364,7 @@
     <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -13327,7 +13407,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="58"/>
       <c r="F35" s="36" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -13367,64 +13447,64 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E37" s="35" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D38" s="35"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
-      <c r="Z38" s="118"/>
-      <c r="AA38" s="118"/>
-      <c r="AB38" s="118"/>
-      <c r="AC38" s="118"/>
-      <c r="AD38" s="118"/>
-      <c r="AE38" s="118"/>
-      <c r="AF38" s="118"/>
-      <c r="AG38" s="118"/>
-      <c r="AH38" s="118"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
+      <c r="AF38" s="117"/>
+      <c r="AG38" s="117"/>
+      <c r="AH38" s="117"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="99" t="s">
-        <v>136</v>
+      <c r="D39" s="98" t="s">
+        <v>126</v>
       </c>
       <c r="E39" s="262" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F39" s="263"/>
       <c r="G39" s="263"/>
       <c r="H39" s="264"/>
       <c r="I39" s="268" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J39" s="269"/>
       <c r="K39" s="270"/>
       <c r="L39" s="280" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M39" s="280"/>
       <c r="N39" s="280"/>
       <c r="O39" s="280"/>
       <c r="P39" s="280"/>
       <c r="Q39" s="282" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R39" s="283"/>
       <c r="S39" s="283"/>
       <c r="T39" s="284"/>
       <c r="U39" s="268" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="V39" s="269"/>
       <c r="W39" s="270"/>
       <c r="X39" s="262" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Y39" s="263"/>
       <c r="Z39" s="263"/>
@@ -13434,7 +13514,7 @@
       <c r="AD39" s="263"/>
       <c r="AE39" s="264"/>
       <c r="AF39" s="250" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AG39" s="251"/>
       <c r="AH39" s="252"/>
@@ -13447,40 +13527,40 @@
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="82">
+      <c r="D40" s="81">
         <v>1</v>
       </c>
       <c r="E40" s="253" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F40" s="254"/>
       <c r="G40" s="254"/>
       <c r="H40" s="255"/>
       <c r="I40" s="271" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J40" s="272"/>
       <c r="K40" s="273"/>
       <c r="L40" s="281" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M40" s="281"/>
       <c r="N40" s="281"/>
       <c r="O40" s="281"/>
       <c r="P40" s="281"/>
       <c r="Q40" s="253" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="R40" s="254"/>
       <c r="S40" s="254"/>
       <c r="T40" s="255"/>
       <c r="U40" s="271" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="V40" s="272"/>
       <c r="W40" s="273"/>
       <c r="X40" s="265" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="266"/>
       <c r="Z40" s="266"/>
@@ -13489,11 +13569,11 @@
       <c r="AC40" s="266"/>
       <c r="AD40" s="266"/>
       <c r="AE40" s="267"/>
-      <c r="AF40" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG40" s="102"/>
-      <c r="AH40" s="103"/>
+      <c r="AF40" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG40" s="101"/>
+      <c r="AH40" s="102"/>
       <c r="AJ40" s="35"/>
       <c r="AK40" s="35"/>
       <c r="AL40" s="35"/>
@@ -13503,7 +13583,7 @@
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="82">
+      <c r="D41" s="81">
         <v>2</v>
       </c>
       <c r="E41" s="256"/>
@@ -13514,7 +13594,7 @@
       <c r="J41" s="275"/>
       <c r="K41" s="276"/>
       <c r="L41" s="281" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M41" s="281"/>
       <c r="N41" s="281"/>
@@ -13528,7 +13608,7 @@
       <c r="V41" s="275"/>
       <c r="W41" s="276"/>
       <c r="X41" s="265" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Y41" s="266"/>
       <c r="Z41" s="266"/>
@@ -13537,9 +13617,9 @@
       <c r="AC41" s="266"/>
       <c r="AD41" s="266"/>
       <c r="AE41" s="267"/>
-      <c r="AF41" s="104"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="106"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="104"/>
+      <c r="AH41" s="105"/>
       <c r="AJ41" s="35"/>
       <c r="AK41" s="35"/>
       <c r="AL41" s="35"/>
@@ -13549,7 +13629,7 @@
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="82">
+      <c r="D42" s="81">
         <v>3</v>
       </c>
       <c r="E42" s="256"/>
@@ -13560,7 +13640,7 @@
       <c r="J42" s="275"/>
       <c r="K42" s="276"/>
       <c r="L42" s="281" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M42" s="281"/>
       <c r="N42" s="281"/>
@@ -13574,7 +13654,7 @@
       <c r="V42" s="275"/>
       <c r="W42" s="276"/>
       <c r="X42" s="265" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Y42" s="266"/>
       <c r="Z42" s="266"/>
@@ -13583,9 +13663,9 @@
       <c r="AC42" s="266"/>
       <c r="AD42" s="266"/>
       <c r="AE42" s="267"/>
-      <c r="AF42" s="104"/>
-      <c r="AG42" s="105"/>
-      <c r="AH42" s="106"/>
+      <c r="AF42" s="103"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="105"/>
       <c r="AJ42" s="35"/>
       <c r="AK42" s="35"/>
       <c r="AL42" s="35"/>
@@ -13595,7 +13675,7 @@
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="82">
+      <c r="D43" s="81">
         <v>4</v>
       </c>
       <c r="E43" s="256"/>
@@ -13606,7 +13686,7 @@
       <c r="J43" s="275"/>
       <c r="K43" s="276"/>
       <c r="L43" s="304" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M43" s="281"/>
       <c r="N43" s="281"/>
@@ -13620,7 +13700,7 @@
       <c r="V43" s="275"/>
       <c r="W43" s="276"/>
       <c r="X43" s="265" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="Y43" s="266"/>
       <c r="Z43" s="266"/>
@@ -13629,9 +13709,9 @@
       <c r="AC43" s="266"/>
       <c r="AD43" s="266"/>
       <c r="AE43" s="267"/>
-      <c r="AF43" s="104"/>
-      <c r="AG43" s="105"/>
-      <c r="AH43" s="106"/>
+      <c r="AF43" s="103"/>
+      <c r="AG43" s="104"/>
+      <c r="AH43" s="105"/>
       <c r="AJ43" s="35"/>
       <c r="AK43" s="35"/>
       <c r="AL43" s="35"/>
@@ -13641,7 +13721,7 @@
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="82">
+      <c r="D44" s="81">
         <v>5</v>
       </c>
       <c r="E44" s="259"/>
@@ -13652,7 +13732,7 @@
       <c r="J44" s="278"/>
       <c r="K44" s="279"/>
       <c r="L44" s="303" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M44" s="303"/>
       <c r="N44" s="303"/>
@@ -13666,7 +13746,7 @@
       <c r="V44" s="278"/>
       <c r="W44" s="279"/>
       <c r="X44" s="265" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Y44" s="266"/>
       <c r="Z44" s="266"/>
@@ -13675,33 +13755,33 @@
       <c r="AC44" s="266"/>
       <c r="AD44" s="266"/>
       <c r="AE44" s="267"/>
-      <c r="AF44" s="107"/>
-      <c r="AG44" s="108"/>
-      <c r="AH44" s="109"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="108"/>
       <c r="AJ44" s="35"/>
       <c r="AK44" s="35"/>
       <c r="AL44" s="35"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="D45" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
+      <c r="D45" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="117"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A46" s="35"/>
@@ -13736,7 +13816,7 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -13761,12 +13841,12 @@
     </row>
     <row r="49" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E49" s="33" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D52" s="55" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="4:22" x14ac:dyDescent="0.15">
@@ -13791,7 +13871,7 @@
     </row>
     <row r="54" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E54" s="35" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -13834,7 +13914,7 @@
     <row r="56" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E56" s="35"/>
       <c r="F56" s="35" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -13895,12 +13975,12 @@
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D59" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E61" s="35" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F61" s="35"/>
     </row>
@@ -13911,7 +13991,7 @@
     <row r="63" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E63" s="35"/>
       <c r="F63" s="35" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="4:22" x14ac:dyDescent="0.15">
@@ -13920,12 +14000,12 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D66" s="31" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E68" s="35" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F68" s="35"/>
     </row>
@@ -13936,7 +14016,7 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E70" s="35"/>
       <c r="F70" s="35" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -14012,7 +14092,7 @@
   <sheetPr codeName="Sheet37">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI89"/>
+  <dimension ref="A1:AI90"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -14025,7 +14105,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -14044,7 +14124,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -14061,7 +14141,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -14080,7 +14160,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -14111,7 +14191,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -14130,7 +14210,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -14180,7 +14260,7 @@
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14190,7 +14270,7 @@
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -14222,7 +14302,7 @@
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C8" s="55"/>
       <c r="D8" s="55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -14284,7 +14364,7 @@
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C10" s="55"/>
       <c r="D10" s="33" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -14346,23 +14426,23 @@
     <row r="12" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="117" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
+      <c r="E12" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
       <c r="T12" s="55"/>
       <c r="U12" s="55"/>
       <c r="V12" s="55"/>
@@ -14378,21 +14458,21 @@
     <row r="13" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
       <c r="T13" s="55"/>
       <c r="U13" s="55"/>
       <c r="V13" s="55"/>
@@ -14408,23 +14488,23 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C14" s="55"/>
       <c r="D14" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
+        <v>191</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
       <c r="T14" s="55"/>
       <c r="U14" s="55"/>
       <c r="V14" s="55"/>
@@ -14440,21 +14520,21 @@
     <row r="15" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="55"/>
       <c r="U15" s="55"/>
       <c r="V15" s="55"/>
@@ -14470,23 +14550,23 @@
     <row r="16" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
+      <c r="E16" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
       <c r="V16" s="55"/>
@@ -14531,12 +14611,12 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="33" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="54" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14544,7 +14624,7 @@
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="298" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F22" s="299"/>
       <c r="G22" s="299"/>
@@ -14552,11 +14632,11 @@
       <c r="I22" s="299"/>
       <c r="J22" s="300"/>
       <c r="K22" s="298" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L22" s="300"/>
       <c r="M22" s="298" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N22" s="299"/>
       <c r="O22" s="299"/>
@@ -14582,7 +14662,7 @@
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="316" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" s="317"/>
       <c r="G23" s="317"/>
@@ -14590,11 +14670,11 @@
       <c r="I23" s="317"/>
       <c r="J23" s="318"/>
       <c r="K23" s="193" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L23" s="194"/>
       <c r="M23" s="324" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N23" s="325"/>
       <c r="O23" s="325"/>
@@ -14652,7 +14732,7 @@
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="305" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="306"/>
       <c r="G25" s="306"/>
@@ -14660,11 +14740,11 @@
       <c r="I25" s="306"/>
       <c r="J25" s="307"/>
       <c r="K25" s="311" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L25" s="312"/>
       <c r="M25" s="315" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N25" s="286"/>
       <c r="O25" s="286"/>
@@ -14754,7 +14834,7 @@
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="305" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F28" s="306"/>
       <c r="G28" s="306"/>
@@ -14762,11 +14842,11 @@
       <c r="I28" s="306"/>
       <c r="J28" s="307"/>
       <c r="K28" s="311" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L28" s="312"/>
       <c r="M28" s="315" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="N28" s="286"/>
       <c r="O28" s="286"/>
@@ -14824,7 +14904,7 @@
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="305" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F30" s="306"/>
       <c r="G30" s="306"/>
@@ -14832,11 +14912,11 @@
       <c r="I30" s="306"/>
       <c r="J30" s="307"/>
       <c r="K30" s="311" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L30" s="312"/>
       <c r="M30" s="315" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N30" s="286"/>
       <c r="O30" s="286"/>
@@ -14893,8 +14973,8 @@
       <c r="AH31" s="293"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="119" t="s">
-        <v>192</v>
+      <c r="E33" s="118" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14902,7 +14982,7 @@
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="298" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F35" s="299"/>
       <c r="G35" s="299"/>
@@ -14910,11 +14990,11 @@
       <c r="I35" s="299"/>
       <c r="J35" s="300"/>
       <c r="K35" s="298" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L35" s="300"/>
       <c r="M35" s="298" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N35" s="299"/>
       <c r="O35" s="299"/>
@@ -14940,7 +15020,7 @@
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="316" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F36" s="317"/>
       <c r="G36" s="317"/>
@@ -14948,11 +15028,11 @@
       <c r="I36" s="317"/>
       <c r="J36" s="318"/>
       <c r="K36" s="193" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L36" s="194"/>
       <c r="M36" s="324" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N36" s="325"/>
       <c r="O36" s="325"/>
@@ -15010,7 +15090,7 @@
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="305" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F38" s="306"/>
       <c r="G38" s="306"/>
@@ -15018,11 +15098,11 @@
       <c r="I38" s="306"/>
       <c r="J38" s="307"/>
       <c r="K38" s="311" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L38" s="312"/>
       <c r="M38" s="285" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N38" s="286"/>
       <c r="O38" s="286"/>
@@ -15144,7 +15224,7 @@
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="305" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F42" s="306"/>
       <c r="G42" s="306"/>
@@ -15152,11 +15232,11 @@
       <c r="I42" s="306"/>
       <c r="J42" s="307"/>
       <c r="K42" s="311" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L42" s="312"/>
       <c r="M42" s="315" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="N42" s="286"/>
       <c r="O42" s="286"/>
@@ -15214,7 +15294,7 @@
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="305" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F44" s="306"/>
       <c r="G44" s="306"/>
@@ -15222,11 +15302,11 @@
       <c r="I44" s="306"/>
       <c r="J44" s="307"/>
       <c r="K44" s="311" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L44" s="312"/>
       <c r="M44" s="315" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N44" s="286"/>
       <c r="O44" s="286"/>
@@ -15284,7 +15364,7 @@
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="330" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F46" s="306"/>
       <c r="G46" s="306"/>
@@ -15292,11 +15372,11 @@
       <c r="I46" s="306"/>
       <c r="J46" s="307"/>
       <c r="K46" s="311" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L46" s="312"/>
       <c r="M46" s="285" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N46" s="286"/>
       <c r="O46" s="286"/>
@@ -15386,7 +15466,7 @@
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="305" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F49" s="306"/>
       <c r="G49" s="306"/>
@@ -15394,11 +15474,11 @@
       <c r="I49" s="306"/>
       <c r="J49" s="307"/>
       <c r="K49" s="311" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L49" s="312"/>
       <c r="M49" s="61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
@@ -15432,7 +15512,7 @@
       <c r="K50" s="334"/>
       <c r="L50" s="335"/>
       <c r="M50" s="61" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
@@ -15466,7 +15546,7 @@
       <c r="K51" s="334"/>
       <c r="L51" s="335"/>
       <c r="M51" s="61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
@@ -15500,7 +15580,7 @@
       <c r="K52" s="334"/>
       <c r="L52" s="335"/>
       <c r="M52" s="61" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
@@ -15523,7 +15603,7 @@
       <c r="L53" s="335"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Z53" s="56"/>
       <c r="AA53" s="56"/>
@@ -15546,7 +15626,7 @@
       <c r="L54" s="335"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -15581,7 +15661,7 @@
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -15615,7 +15695,7 @@
       <c r="M56" s="61"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -15650,7 +15730,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
       <c r="P57" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -15682,7 +15762,7 @@
       <c r="L58" s="335"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -15714,7 +15794,7 @@
       <c r="L59" s="335"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
@@ -15749,7 +15829,7 @@
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -15783,7 +15863,7 @@
       <c r="M61" s="61"/>
       <c r="N61" s="19"/>
       <c r="O61" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -15818,7 +15898,7 @@
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
       <c r="P62" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
@@ -15841,7 +15921,7 @@
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="316" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F63" s="317"/>
       <c r="G63" s="317"/>
@@ -15849,11 +15929,11 @@
       <c r="I63" s="317"/>
       <c r="J63" s="318"/>
       <c r="K63" s="316" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L63" s="318"/>
-      <c r="M63" s="324" t="s">
-        <v>142</v>
+      <c r="M63" s="219" t="s">
+        <v>132</v>
       </c>
       <c r="N63" s="325"/>
       <c r="O63" s="325"/>
@@ -15911,7 +15991,7 @@
     </row>
     <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="285" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F65" s="286"/>
       <c r="G65" s="286"/>
@@ -15919,11 +15999,11 @@
       <c r="I65" s="286"/>
       <c r="J65" s="287"/>
       <c r="K65" s="330" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L65" s="307"/>
-      <c r="M65" s="330" t="s">
-        <v>15</v>
+      <c r="M65" s="305" t="s">
+        <v>12</v>
       </c>
       <c r="N65" s="306"/>
       <c r="O65" s="306"/>
@@ -15980,74 +16060,74 @@
       <c r="AH66" s="310"/>
     </row>
     <row r="67" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="115"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="116"/>
-      <c r="L67" s="116"/>
-      <c r="M67" s="116"/>
-      <c r="N67" s="116"/>
-      <c r="O67" s="116"/>
-      <c r="P67" s="116"/>
-      <c r="Q67" s="116"/>
-      <c r="R67" s="116"/>
-      <c r="S67" s="116"/>
-      <c r="T67" s="116"/>
-      <c r="U67" s="116"/>
-      <c r="V67" s="116"/>
-      <c r="W67" s="116"/>
-      <c r="X67" s="116"/>
-      <c r="Y67" s="116"/>
-      <c r="Z67" s="116"/>
-      <c r="AA67" s="116"/>
-      <c r="AB67" s="116"/>
-      <c r="AC67" s="116"/>
-      <c r="AD67" s="116"/>
-      <c r="AE67" s="116"/>
-      <c r="AF67" s="116"/>
-      <c r="AG67" s="116"/>
-      <c r="AH67" s="116"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="115"/>
+      <c r="M67" s="115"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="115"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="115"/>
+      <c r="T67" s="115"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="115"/>
+      <c r="Y67" s="115"/>
+      <c r="Z67" s="115"/>
+      <c r="AA67" s="115"/>
+      <c r="AB67" s="115"/>
+      <c r="AC67" s="115"/>
+      <c r="AD67" s="115"/>
+      <c r="AE67" s="115"/>
+      <c r="AF67" s="115"/>
+      <c r="AG67" s="115"/>
+      <c r="AH67" s="115"/>
     </row>
     <row r="68" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="115"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="116"/>
-      <c r="R68" s="116"/>
-      <c r="S68" s="116"/>
-      <c r="T68" s="116"/>
-      <c r="U68" s="116"/>
-      <c r="V68" s="116"/>
-      <c r="W68" s="116"/>
-      <c r="X68" s="116"/>
-      <c r="Y68" s="116"/>
-      <c r="Z68" s="116"/>
-      <c r="AA68" s="116"/>
-      <c r="AB68" s="116"/>
-      <c r="AC68" s="116"/>
-      <c r="AD68" s="116"/>
-      <c r="AE68" s="116"/>
-      <c r="AF68" s="116"/>
-      <c r="AG68" s="116"/>
-      <c r="AH68" s="116"/>
+      <c r="E68" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="115"/>
+      <c r="P68" s="115"/>
+      <c r="Q68" s="115"/>
+      <c r="R68" s="115"/>
+      <c r="S68" s="115"/>
+      <c r="T68" s="115"/>
+      <c r="U68" s="115"/>
+      <c r="V68" s="115"/>
+      <c r="W68" s="115"/>
+      <c r="X68" s="115"/>
+      <c r="Y68" s="115"/>
+      <c r="Z68" s="115"/>
+      <c r="AA68" s="115"/>
+      <c r="AB68" s="115"/>
+      <c r="AC68" s="115"/>
+      <c r="AD68" s="115"/>
+      <c r="AE68" s="115"/>
+      <c r="AF68" s="115"/>
+      <c r="AG68" s="115"/>
+      <c r="AH68" s="115"/>
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="298" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F69" s="299"/>
       <c r="G69" s="299"/>
@@ -16055,11 +16135,11 @@
       <c r="I69" s="299"/>
       <c r="J69" s="300"/>
       <c r="K69" s="298" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L69" s="300"/>
       <c r="M69" s="298" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N69" s="299"/>
       <c r="O69" s="299"/>
@@ -16085,7 +16165,7 @@
     </row>
     <row r="70" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="316" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F70" s="317"/>
       <c r="G70" s="317"/>
@@ -16093,11 +16173,11 @@
       <c r="I70" s="317"/>
       <c r="J70" s="318"/>
       <c r="K70" s="193" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L70" s="194"/>
       <c r="M70" s="324" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N70" s="325"/>
       <c r="O70" s="325"/>
@@ -16154,93 +16234,93 @@
       <c r="AH71" s="329"/>
     </row>
     <row r="72" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="116"/>
-      <c r="L72" s="116"/>
-      <c r="M72" s="116"/>
-      <c r="N72" s="116"/>
-      <c r="O72" s="116"/>
-      <c r="P72" s="116"/>
-      <c r="Q72" s="116"/>
-      <c r="R72" s="116"/>
-      <c r="S72" s="116"/>
-      <c r="T72" s="116"/>
-      <c r="U72" s="116"/>
-      <c r="V72" s="116"/>
-      <c r="W72" s="116"/>
-      <c r="X72" s="116"/>
-      <c r="Y72" s="116"/>
-      <c r="Z72" s="116"/>
-      <c r="AA72" s="116"/>
-      <c r="AB72" s="116"/>
-      <c r="AC72" s="116"/>
-      <c r="AD72" s="116"/>
-      <c r="AE72" s="116"/>
-      <c r="AF72" s="116"/>
-      <c r="AG72" s="116"/>
-      <c r="AH72" s="116"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="115"/>
+      <c r="L72" s="115"/>
+      <c r="M72" s="115"/>
+      <c r="N72" s="115"/>
+      <c r="O72" s="115"/>
+      <c r="P72" s="115"/>
+      <c r="Q72" s="115"/>
+      <c r="R72" s="115"/>
+      <c r="S72" s="115"/>
+      <c r="T72" s="115"/>
+      <c r="U72" s="115"/>
+      <c r="V72" s="115"/>
+      <c r="W72" s="115"/>
+      <c r="X72" s="115"/>
+      <c r="Y72" s="115"/>
+      <c r="Z72" s="115"/>
+      <c r="AA72" s="115"/>
+      <c r="AB72" s="115"/>
+      <c r="AC72" s="115"/>
+      <c r="AD72" s="115"/>
+      <c r="AE72" s="115"/>
+      <c r="AF72" s="115"/>
+      <c r="AG72" s="115"/>
+      <c r="AH72" s="115"/>
     </row>
     <row r="73" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="31" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="15" t="s">
-        <v>12</v>
+      <c r="E76" s="31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="15" t="s">
-        <v>13</v>
+      <c r="E77" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="4:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="4:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="65"/>
-      <c r="T79" s="65"/>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="65"/>
-      <c r="X79" s="65"/>
-      <c r="Y79" s="65"/>
-      <c r="Z79" s="65"/>
-      <c r="AA79" s="65"/>
-      <c r="AB79" s="65"/>
-      <c r="AC79" s="65"/>
-      <c r="AD79" s="65"/>
-      <c r="AE79" s="66"/>
+      <c r="E79" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
+      <c r="R79" s="64"/>
+      <c r="S79" s="64"/>
+      <c r="T79" s="64"/>
+      <c r="U79" s="64"/>
+      <c r="V79" s="64"/>
+      <c r="W79" s="64"/>
+      <c r="X79" s="64"/>
+      <c r="Y79" s="64"/>
+      <c r="Z79" s="64"/>
+      <c r="AA79" s="64"/>
+      <c r="AB79" s="64"/>
+      <c r="AC79" s="64"/>
+      <c r="AD79" s="64"/>
+      <c r="AE79" s="65"/>
     </row>
     <row r="80" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E80" s="67"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G80" s="56"/>
       <c r="H80" s="56"/>
@@ -16266,26 +16346,27 @@
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
-      <c r="AE80" s="68"/>
+      <c r="AE80" s="67"/>
     </row>
     <row r="81" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="67"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56" t="s">
-        <v>81</v>
-      </c>
+      <c r="E81" s="68"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H81" s="56"/>
       <c r="I81" s="56"/>
       <c r="J81" s="56"/>
       <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
       <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
+      <c r="R81" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S81" s="30" t="s">
+        <v>209</v>
+      </c>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
       <c r="V81" s="19"/>
@@ -16297,30 +16378,25 @@
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
-      <c r="AE81" s="68"/>
+      <c r="AE81" s="67"/>
     </row>
     <row r="82" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="69"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56" t="s">
-        <v>19</v>
-      </c>
+      <c r="I82" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="J82" s="56"/>
       <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="30" t="s">
+        <v>211</v>
+      </c>
       <c r="Q82" s="19"/>
-      <c r="R82" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="S82" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="R82" s="19"/>
+      <c r="S82" s="30"/>
       <c r="T82" s="19"/>
       <c r="U82" s="19"/>
       <c r="V82" s="19"/>
@@ -16332,27 +16408,26 @@
       <c r="AB82" s="19"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="19"/>
-      <c r="AE82" s="68"/>
+      <c r="AE82" s="67"/>
     </row>
     <row r="83" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E83" s="69"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
+      <c r="I83" s="113" t="s">
+        <v>216</v>
+      </c>
       <c r="J83" s="56"/>
       <c r="K83" s="56"/>
-      <c r="L83" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="30" t="s">
+        <v>212</v>
+      </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
-      <c r="S83" s="19" t="s">
-        <v>28</v>
+      <c r="S83" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -16365,27 +16440,26 @@
       <c r="AB83" s="19"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="19"/>
-      <c r="AE83" s="68"/>
+      <c r="AE83" s="67"/>
     </row>
     <row r="84" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E84" s="69"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
+      <c r="I84" s="113" t="s">
+        <v>217</v>
+      </c>
       <c r="J84" s="56"/>
       <c r="K84" s="56"/>
-      <c r="L84" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="30" t="s">
+        <v>233</v>
+      </c>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
       <c r="S84" s="19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="T84" s="19"/>
       <c r="U84" s="19"/>
@@ -16398,28 +16472,25 @@
       <c r="AB84" s="19"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19"/>
-      <c r="AE84" s="68"/>
+      <c r="AE84" s="67"/>
     </row>
     <row r="85" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="69"/>
+      <c r="E85" s="68"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
+      <c r="I85" s="113" t="s">
+        <v>225</v>
+      </c>
       <c r="J85" s="56"/>
       <c r="K85" s="56"/>
-      <c r="L85" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
-      <c r="S85" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="S85" s="19"/>
       <c r="T85" s="19"/>
       <c r="U85" s="19"/>
       <c r="V85" s="19"/>
@@ -16431,27 +16502,26 @@
       <c r="AB85" s="19"/>
       <c r="AC85" s="19"/>
       <c r="AD85" s="19"/>
-      <c r="AE85" s="68"/>
+      <c r="AE85" s="67"/>
     </row>
     <row r="86" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E86" s="69"/>
+      <c r="E86" s="68"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
+      <c r="I86" s="113" t="s">
+        <v>224</v>
+      </c>
       <c r="J86" s="56"/>
       <c r="K86" s="56"/>
-      <c r="L86" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
-      <c r="S86" s="19" t="s">
-        <v>11</v>
+      <c r="S86" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="T86" s="19"/>
       <c r="U86" s="19"/>
@@ -16464,27 +16534,26 @@
       <c r="AB86" s="19"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="19"/>
-      <c r="AE86" s="68"/>
+      <c r="AE86" s="67"/>
     </row>
     <row r="87" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E87" s="69"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
+      <c r="I87" s="113" t="s">
+        <v>218</v>
+      </c>
       <c r="J87" s="56"/>
       <c r="K87" s="56"/>
-      <c r="L87" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="30" t="s">
+        <v>213</v>
+      </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
-      <c r="S87" s="19" t="s">
-        <v>64</v>
+      <c r="S87" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
@@ -16497,38 +16566,68 @@
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19"/>
-      <c r="AE87" s="68"/>
-    </row>
-    <row r="88" spans="5:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="70"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="71"/>
-      <c r="W88" s="71"/>
-      <c r="X88" s="71"/>
-      <c r="Y88" s="71"/>
-      <c r="Z88" s="71"/>
-      <c r="AA88" s="71"/>
-      <c r="AB88" s="71"/>
-      <c r="AC88" s="71"/>
-      <c r="AD88" s="71"/>
-      <c r="AE88" s="72"/>
-    </row>
-    <row r="89" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="AE87" s="67"/>
+    </row>
+    <row r="88" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E88" s="68"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="67"/>
+    </row>
+    <row r="89" spans="5:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="69"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
+      <c r="Y89" s="70"/>
+      <c r="Z89" s="70"/>
+      <c r="AA89" s="70"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="70"/>
+      <c r="AD89" s="70"/>
+      <c r="AE89" s="71"/>
+    </row>
+    <row r="90" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="M22:AH22"/>
@@ -16605,9 +16704,9 @@
   </headerFooter>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="32" max="16383" man="1"/>
-    <brk id="67" max="34" man="1"/>
+    <brk id="67" max="16383" man="1"/>
     <brk id="72" max="16383" man="1"/>
-    <brk id="223" max="16383" man="1"/>
+    <brk id="224" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0249BF4-21BB-4A74-B29A-0A63DEC7ED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="16560" windowHeight="14760" tabRatio="641"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2'!$1:$4</definedName>
@@ -69,12 +70,20 @@
     <definedName name="文字種精査">#REF!</definedName>
     <definedName name="文字列長精査">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="234">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -156,19 +165,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>テストケースNoのフォルダ以下は、エビデンスが複数種類ある</t>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>場合はエビデンス種類ごとにフォルダを分けて格納する。</t>
     <rPh sb="0" eb="2">
       <t>バアイ</t>
@@ -185,62 +181,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>(画面処理方式、画面・ディレード処理方式の場合のみ。他の入力処理方式の単体テストは全て自動テストで実施するためエビデンスの格納は不要)</t>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="28" eb="34">
-      <t>ニュウリョクショリホウシキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単体テスト仕様書および自動テストで実施するテストのエビデンスは格納不要。(リポジトリ上で管理する)</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>カクノウフヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面ハードコピー</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -294,19 +234,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>└──[テストケースNo]</t>
-  </si>
-  <si>
-    <t>テストケースごとにフォルダを作成し、エビデンスを格納する。</t>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザ管理テーブルを更新する。</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
@@ -369,26 +296,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>エビデンスはテストケースごとに作成する。</t>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1つのテストショットで複数のテストケースを実施した場合も</t>
-    <rPh sb="11" eb="13">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>実施方法</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -711,16 +618,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>単体テスト仕様書作成単位</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
@@ -823,16 +720,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ファイル名は任意とする。</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>例2)呼び出した共通コンポーネントがどのテーブルの更新や参照をしているのかを、呼び出し側で</t>
     <rPh sb="3" eb="4">
       <t>ヨ</t>
@@ -928,15 +815,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>[root]</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>└──[取引ID]</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>└──取引単体テスト</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
@@ -2088,40 +1967,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>└──[画面ハードコピー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>├──[DBダンプ]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>├──[ログ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>※ DAOはスタブで差し替えてテストを行う。テストデータのメンテナンスコストを避けるためである。</t>
     <rPh sb="10" eb="11">
       <t>サ</t>
@@ -2334,11 +2179,360 @@
 正しく動作するかを確認する。</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>テスト計画</t>
+    <rPh sb="3" eb="5">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テストで行った操作を再実行できるよう電子媒体で保存する。</t>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バイタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テストを再実行した際に結果の確認を簡略化するため保存する。</t>
+    <rPh sb="4" eb="7">
+      <t>サイジッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カンリャクカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.3.3. 取引単体テストのエビデンス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面処理方式の取引単体テストのエビデンスとして、以下を追加。
+・テスト計画
+・レスポンスHTML</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トリヒキタンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└──[シナリオID]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シナリオIDごとにフォルダを作成し、エビデンスを格納する。</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シナリオIDのフォルダ以下は、エビデンスが複数種類ある</t>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(DBダンプ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(テスト計画)</t>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(ログ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(画面ハードコピー)</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──db_dump</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──scenario</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──response</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──log</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>└──hard_copy</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[取引単体テスト自動実行ツール/src/test/resources]</t>
+    <rPh sb="1" eb="3">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>打鍵テスト・自動テスト※2</t>
+    <rPh sb="0" eb="2">
+      <t>ダケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初回は打鍵で行い、二回目以降は取引単体テストの自動実行ツールを使って実施する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──output</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──input</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(インプットデータ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(アウトプットデータ)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書は格納不要。(リポジトリ上で管理する)</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カクノウフヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(画面処理方式、画面・ディレード処理方式の場合のみ。他の入力処理方式の単体テストは、エビデンスの格納は不要)</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="28" eb="34">
+      <t>ニュウリョクショリホウシキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フォルダ名は取引単体テスト自動実行ツールが参照するため、</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>左図と同じ名前で作成する（詳しくはツールのREADMEを参照）。</t>
+    <rPh sb="0" eb="2">
+      <t>サズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レスポンス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(レスポンス)</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2505,7 +2699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2916,6 +3110,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2931,7 +3147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3079,7 +3295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3108,9 +3323,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3228,6 +3440,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3354,10 +3570,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3396,6 +3612,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3426,6 +3648,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3477,6 +3708,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3591,12 +3828,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3762,6 +3993,39 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3807,24 +4071,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3834,41 +4080,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 3" xfId="8"/>
-    <cellStyle name="標準_~6362950" xfId="3"/>
-    <cellStyle name="標準_Book1" xfId="4"/>
-    <cellStyle name="標準_ガイドライン１" xfId="5"/>
-    <cellStyle name="標準_画面標準" xfId="6"/>
-    <cellStyle name="標準_画面標準定義" xfId="7"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_~6362950" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_Book1" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_ガイドライン１" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_画面標準" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3891,7 +4128,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18845" name="Group 7"/>
+        <xdr:cNvPr id="18845" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D490000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3906,7 +4149,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33796" name="Text Box 4"/>
+          <xdr:cNvPr id="33796" name="Text Box 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004840000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3996,7 +4245,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18848" name="Line 5"/>
+          <xdr:cNvPr id="18848" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0490000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4038,7 +4293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33800" name="Text Box 8"/>
+        <xdr:cNvPr id="33800" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008840000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4166,7 +4427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4181,7 +4448,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4215,7 +4481,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4230,7 +4502,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4264,7 +4535,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4279,7 +4556,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4308,7 +4584,13 @@
     <xdr:ext cx="1697131" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4388,7 +4670,13 @@
     <xdr:ext cx="1273875" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4448,7 +4736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4464,7 +4758,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4521,7 +4814,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4537,7 +4836,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4589,7 +4887,13 @@
     <xdr:ext cx="992579" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4644,7 +4948,13 @@
     <xdr:ext cx="1859483" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4712,7 +5022,13 @@
     <xdr:ext cx="2253759" cy="714374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4954,7 +5270,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4976,7 +5298,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
@@ -5363,7 +5684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5409,7 +5730,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="39"/>
       <c r="J23" s="26" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -5429,7 +5750,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="127">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43643</v>
+        <v>43850</v>
       </c>
       <c r="J25" s="127"/>
       <c r="K25" s="127"/>
@@ -6045,7 +6366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet25">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6066,13 +6387,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
-      <c r="E1" s="187" t="s">
-        <v>162</v>
+      <c r="E1" s="189" t="s">
+        <v>151</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162"/>
@@ -6084,13 +6405,13 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
       <c r="S1" s="152" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="T1" s="153"/>
       <c r="U1" s="153"/>
@@ -6100,22 +6421,22 @@
       <c r="Y1" s="153"/>
       <c r="Z1" s="154"/>
       <c r="AA1" s="140" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="142"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AC1" s="180" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -6124,13 +6445,13 @@
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="187" t="s">
-        <v>163</v>
+      <c r="E2" s="189" t="s">
+        <v>152</v>
       </c>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
@@ -6154,22 +6475,22 @@
       <c r="Y2" s="156"/>
       <c r="Z2" s="157"/>
       <c r="AA2" s="140" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="142"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="181" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="183">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+        <v>43850</v>
+      </c>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -6178,13 +6499,13 @@
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
       <c r="E3" s="161" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
@@ -6209,13 +6530,13 @@
       <c r="Z3" s="160"/>
       <c r="AA3" s="140"/>
       <c r="AB3" s="142"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
@@ -6279,7 +6600,7 @@
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="N5" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
@@ -6351,62 +6672,62 @@
       <c r="AN6" s="46"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="188" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="188" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="188" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="188" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="188" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="190"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="190"/>
-      <c r="U7" s="190"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="189"/>
+      <c r="A7" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="194"/>
+      <c r="D7" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="195"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="195"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="193" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="195"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="195"/>
+      <c r="AI7" s="194"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="101">
+      <c r="A8" s="99">
         <v>1</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="166">
@@ -6415,12 +6736,12 @@
       <c r="E8" s="167"/>
       <c r="F8" s="168"/>
       <c r="G8" s="169" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H8" s="170"/>
       <c r="I8" s="171"/>
       <c r="J8" s="172" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K8" s="173"/>
       <c r="L8" s="173"/>
@@ -6429,7 +6750,7 @@
       <c r="O8" s="173"/>
       <c r="P8" s="174"/>
       <c r="Q8" s="175" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="R8" s="176"/>
       <c r="S8" s="176"/>
@@ -6446,30 +6767,42 @@
       <c r="AD8" s="176"/>
       <c r="AE8" s="177"/>
       <c r="AF8" s="172" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="173"/>
       <c r="AH8" s="173"/>
       <c r="AI8" s="174"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
+    <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="120">
+        <v>2</v>
+      </c>
+      <c r="B9" s="190" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="191"/>
+      <c r="D9" s="136">
+        <v>43850</v>
+      </c>
       <c r="E9" s="137"/>
       <c r="F9" s="138"/>
-      <c r="G9" s="134"/>
+      <c r="G9" s="192" t="s">
+        <v>203</v>
+      </c>
       <c r="H9" s="139"/>
       <c r="I9" s="135"/>
-      <c r="J9" s="128"/>
+      <c r="J9" s="178" t="s">
+        <v>205</v>
+      </c>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
       <c r="M9" s="129"/>
       <c r="N9" s="129"/>
       <c r="O9" s="129"/>
       <c r="P9" s="130"/>
-      <c r="Q9" s="131"/>
+      <c r="Q9" s="179" t="s">
+        <v>206</v>
+      </c>
       <c r="R9" s="132"/>
       <c r="S9" s="132"/>
       <c r="T9" s="132"/>
@@ -6484,13 +6817,15 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
       <c r="AE9" s="133"/>
-      <c r="AF9" s="128"/>
+      <c r="AF9" s="178" t="s">
+        <v>204</v>
+      </c>
       <c r="AG9" s="129"/>
       <c r="AH9" s="129"/>
       <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="134"/>
       <c r="C10" s="135"/>
       <c r="D10" s="136"/>
@@ -6527,7 +6862,7 @@
       <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="75"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="136"/>
@@ -6564,7 +6899,7 @@
       <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="134"/>
       <c r="C12" s="135"/>
       <c r="D12" s="136"/>
@@ -6601,7 +6936,7 @@
       <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="134"/>
       <c r="C13" s="135"/>
       <c r="D13" s="136"/>
@@ -6638,7 +6973,7 @@
       <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="134"/>
       <c r="C14" s="135"/>
       <c r="D14" s="136"/>
@@ -6675,7 +7010,7 @@
       <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="75"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="134"/>
       <c r="C15" s="135"/>
       <c r="D15" s="136"/>
@@ -6712,7 +7047,7 @@
       <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="134"/>
       <c r="C16" s="135"/>
       <c r="D16" s="136"/>
@@ -6749,7 +7084,7 @@
       <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="75"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="134"/>
       <c r="C17" s="135"/>
       <c r="D17" s="136"/>
@@ -6786,7 +7121,7 @@
       <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="134"/>
       <c r="C18" s="135"/>
       <c r="D18" s="136"/>
@@ -6823,7 +7158,7 @@
       <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="134"/>
       <c r="C19" s="135"/>
       <c r="D19" s="136"/>
@@ -6860,7 +7195,7 @@
       <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="75"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="134"/>
       <c r="C20" s="135"/>
       <c r="D20" s="136"/>
@@ -6897,7 +7232,7 @@
       <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="75"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="134"/>
       <c r="C21" s="135"/>
       <c r="D21" s="136"/>
@@ -6934,7 +7269,7 @@
       <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="134"/>
       <c r="C22" s="135"/>
       <c r="D22" s="136"/>
@@ -6971,7 +7306,7 @@
       <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="75"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="134"/>
       <c r="C23" s="135"/>
       <c r="D23" s="136"/>
@@ -7008,7 +7343,7 @@
       <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="134"/>
       <c r="C24" s="135"/>
       <c r="D24" s="136"/>
@@ -7045,7 +7380,7 @@
       <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="134"/>
       <c r="C25" s="135"/>
       <c r="D25" s="136"/>
@@ -7082,7 +7417,7 @@
       <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="134"/>
       <c r="C26" s="135"/>
       <c r="D26" s="136"/>
@@ -7119,7 +7454,7 @@
       <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="134"/>
       <c r="C27" s="135"/>
       <c r="D27" s="136"/>
@@ -7156,7 +7491,7 @@
       <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="134"/>
       <c r="C28" s="135"/>
       <c r="D28" s="136"/>
@@ -7193,7 +7528,7 @@
       <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="75"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="134"/>
       <c r="C29" s="135"/>
       <c r="D29" s="136"/>
@@ -7230,7 +7565,7 @@
       <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="75"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="134"/>
       <c r="C30" s="135"/>
       <c r="D30" s="136"/>
@@ -7267,7 +7602,7 @@
       <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="134"/>
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
@@ -7304,7 +7639,7 @@
       <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="134"/>
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
@@ -7341,7 +7676,7 @@
       <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="75"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="134"/>
       <c r="C33" s="135"/>
       <c r="D33" s="136"/>
@@ -7573,7 +7908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet44">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7594,12 +7929,12 @@
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
@@ -7613,39 +7948,39 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -7663,12 +7998,12 @@
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
@@ -7685,31 +8020,31 @@
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+        <v>43850</v>
+      </c>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -7727,12 +8062,12 @@
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
@@ -7749,29 +8084,29 @@
       <c r="P3" s="150"/>
       <c r="Q3" s="150"/>
       <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
       <c r="AA3" s="140"/>
       <c r="AB3" s="142"/>
-      <c r="AC3" s="178" t="str">
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -7853,8 +8188,8 @@
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
       <c r="P5" s="46"/>
-      <c r="Q5" s="81" t="s">
-        <v>145</v>
+      <c r="Q5" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
@@ -7942,10 +8277,10 @@
     </row>
     <row r="7" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
-      <c r="B7" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="76"/>
+      <c r="B7" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="74"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -7959,11 +8294,11 @@
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="52"/>
-      <c r="Q7" s="111"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="77"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
+      <c r="S7" s="75"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
       <c r="W7" s="48"/>
       <c r="X7" s="48"/>
       <c r="Y7" s="48"/>
@@ -7994,8 +8329,8 @@
     </row>
     <row r="8" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
-      <c r="C8" s="78" t="s">
-        <v>124</v>
+      <c r="C8" s="76" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8010,10 +8345,10 @@
       <c r="N8" s="48"/>
       <c r="O8" s="48"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="111"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="1"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="79"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="37"/>
       <c r="W8" s="48"/>
       <c r="X8" s="48"/>
@@ -8060,10 +8395,10 @@
       <c r="N9" s="48"/>
       <c r="O9" s="48"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="111"/>
+      <c r="Q9" s="109"/>
       <c r="R9" s="1"/>
       <c r="S9" s="20"/>
-      <c r="T9" s="78"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="48"/>
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
@@ -8096,8 +8431,8 @@
     </row>
     <row r="10" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
-      <c r="B10" s="76" t="s">
-        <v>122</v>
+      <c r="B10" s="74" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -8113,12 +8448,12 @@
       <c r="N10" s="48"/>
       <c r="O10" s="48"/>
       <c r="P10" s="52"/>
-      <c r="Q10" s="111"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="1"/>
       <c r="S10" s="48"/>
-      <c r="T10" s="78"/>
+      <c r="T10" s="76"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="77"/>
       <c r="W10" s="48"/>
       <c r="X10" s="48"/>
       <c r="Y10" s="48"/>
@@ -8149,8 +8484,8 @@
     </row>
     <row r="11" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
-      <c r="C11" s="78" t="s">
-        <v>125</v>
+      <c r="C11" s="76" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8165,11 +8500,11 @@
       <c r="N11" s="48"/>
       <c r="O11" s="48"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="111"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="1"/>
       <c r="S11" s="48"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="48"/>
       <c r="W11" s="48"/>
       <c r="X11" s="48"/>
@@ -8201,8 +8536,8 @@
     </row>
     <row r="12" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="C12" s="78" t="s">
-        <v>126</v>
+      <c r="C12" s="76" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8217,7 +8552,7 @@
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="111"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="1"/>
       <c r="S12" s="48"/>
       <c r="T12" s="48"/>
@@ -8252,8 +8587,8 @@
     </row>
     <row r="13" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
-      <c r="C13" s="78" t="s">
-        <v>127</v>
+      <c r="C13" s="76" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8268,12 +8603,12 @@
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="111"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="1"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="77"/>
       <c r="W13" s="48"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="15"/>
@@ -8319,13 +8654,13 @@
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
       <c r="P14" s="52"/>
-      <c r="Q14" s="111"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="1"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="79"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="77"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="48"/>
@@ -8356,7 +8691,7 @@
     <row r="15" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="30" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -8371,13 +8706,13 @@
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="52"/>
-      <c r="Q15" s="111"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="1"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="V15" s="22"/>
       <c r="W15" s="48"/>
-      <c r="X15" s="79"/>
+      <c r="X15" s="77"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="48"/>
       <c r="AA15" s="48"/>
@@ -8406,8 +8741,8 @@
     </row>
     <row r="16" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
-      <c r="C16" s="78" t="s">
-        <v>128</v>
+      <c r="C16" s="76" t="s">
+        <v>117</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
@@ -8422,11 +8757,11 @@
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="112"/>
+      <c r="Q16" s="110"/>
       <c r="R16" s="1"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="48"/>
       <c r="X16" s="48"/>
       <c r="Y16" s="31"/>
@@ -8457,8 +8792,8 @@
     </row>
     <row r="17" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="C17" s="78" t="s">
-        <v>129</v>
+      <c r="C17" s="76" t="s">
+        <v>118</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8473,14 +8808,14 @@
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="112"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="1"/>
       <c r="S17" s="48"/>
       <c r="T17" s="46"/>
-      <c r="V17" s="78"/>
+      <c r="V17" s="76"/>
       <c r="W17" s="1"/>
       <c r="X17" s="48"/>
-      <c r="Y17" s="76"/>
+      <c r="Y17" s="74"/>
       <c r="Z17" s="48"/>
       <c r="AA17" s="48"/>
       <c r="AB17" s="48"/>
@@ -8509,10 +8844,10 @@
     <row r="18" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="77"/>
+      <c r="C18" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="75"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8525,7 +8860,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
-      <c r="Q18" s="111"/>
+      <c r="Q18" s="109"/>
       <c r="R18" s="1"/>
       <c r="S18" s="48"/>
       <c r="T18" s="46"/>
@@ -8561,8 +8896,8 @@
     <row r="19" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -8574,15 +8909,15 @@
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
       <c r="P19" s="48"/>
-      <c r="Q19" s="111"/>
+      <c r="Q19" s="109"/>
       <c r="R19" s="1"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="79"/>
+      <c r="V19" s="77"/>
       <c r="W19" s="49"/>
       <c r="X19" s="49"/>
-      <c r="Y19" s="76"/>
+      <c r="Y19" s="74"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="48"/>
       <c r="AB19" s="49"/>
@@ -8610,15 +8945,15 @@
       <c r="A20" s="48"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
-      <c r="Q20" s="111"/>
+      <c r="Q20" s="109"/>
       <c r="R20" s="1"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="79"/>
+      <c r="V20" s="77"/>
       <c r="W20" s="48"/>
       <c r="X20" s="49"/>
-      <c r="Y20" s="76"/>
+      <c r="Y20" s="74"/>
       <c r="Z20" s="48"/>
       <c r="AA20" s="48"/>
       <c r="AB20" s="48"/>
@@ -8647,7 +8982,7 @@
       <c r="A21" s="48"/>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
-      <c r="Q21" s="111"/>
+      <c r="Q21" s="109"/>
       <c r="R21" s="1"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
@@ -8685,7 +9020,7 @@
       <c r="A22" s="48"/>
       <c r="O22" s="48"/>
       <c r="P22" s="48"/>
-      <c r="Q22" s="111"/>
+      <c r="Q22" s="109"/>
       <c r="R22" s="1"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48"/>
@@ -8712,7 +9047,7 @@
       <c r="A23" s="48"/>
       <c r="O23" s="48"/>
       <c r="P23" s="48"/>
-      <c r="Q23" s="112"/>
+      <c r="Q23" s="110"/>
       <c r="R23" s="1"/>
       <c r="S23" s="48"/>
       <c r="T23" s="20"/>
@@ -8739,7 +9074,7 @@
       <c r="A24" s="48"/>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
-      <c r="Q24" s="112"/>
+      <c r="Q24" s="110"/>
       <c r="R24" s="1"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48"/>
@@ -8763,7 +9098,7 @@
     <row r="25" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
-      <c r="D25" s="79"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -8776,13 +9111,13 @@
       <c r="N25" s="48"/>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
-      <c r="Q25" s="111"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="1"/>
       <c r="S25" s="48"/>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
       <c r="V25" s="22"/>
-      <c r="W25" s="79"/>
+      <c r="W25" s="77"/>
       <c r="X25" s="48"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="49"/>
@@ -8813,7 +9148,7 @@
     <row r="26" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="48"/>
-      <c r="D26" s="79"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -8826,13 +9161,13 @@
       <c r="N26" s="48"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
-      <c r="Q26" s="111"/>
+      <c r="Q26" s="109"/>
       <c r="R26" s="1"/>
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
       <c r="U26" s="49"/>
       <c r="V26" s="48"/>
-      <c r="W26" s="79"/>
+      <c r="W26" s="77"/>
       <c r="X26" s="46"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="49"/>
@@ -8863,7 +9198,7 @@
     <row r="27" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
@@ -8876,14 +9211,14 @@
       <c r="N27" s="48"/>
       <c r="O27" s="48"/>
       <c r="P27" s="48"/>
-      <c r="Q27" s="111"/>
+      <c r="Q27" s="109"/>
       <c r="R27" s="1"/>
       <c r="S27" s="48"/>
       <c r="T27" s="46"/>
       <c r="U27" s="48"/>
       <c r="V27" s="48"/>
       <c r="W27" s="48"/>
-      <c r="X27" s="79"/>
+      <c r="X27" s="77"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="48"/>
       <c r="AA27" s="48"/>
@@ -8925,7 +9260,7 @@
       <c r="N28" s="48"/>
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
-      <c r="Q28" s="111"/>
+      <c r="Q28" s="109"/>
       <c r="R28" s="1"/>
       <c r="S28" s="19"/>
       <c r="T28" s="48"/>
@@ -8933,7 +9268,7 @@
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="79"/>
+      <c r="Y28" s="77"/>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
@@ -8965,13 +9300,13 @@
       <c r="N29" s="48"/>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
-      <c r="Q29" s="111"/>
+      <c r="Q29" s="109"/>
       <c r="R29" s="49"/>
       <c r="S29" s="19"/>
       <c r="T29" s="48"/>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
-      <c r="X29" s="80"/>
+      <c r="X29" s="78"/>
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="48"/>
@@ -9013,14 +9348,14 @@
       <c r="N30" s="48"/>
       <c r="O30" s="48"/>
       <c r="P30" s="48"/>
-      <c r="Q30" s="111"/>
+      <c r="Q30" s="109"/>
       <c r="R30" s="1"/>
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
-      <c r="Y30" s="79"/>
+      <c r="Y30" s="77"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="48"/>
       <c r="AB30" s="48"/>
@@ -9050,7 +9385,7 @@
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="79"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -9062,14 +9397,14 @@
       <c r="N31" s="48"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
-      <c r="Q31" s="111"/>
+      <c r="Q31" s="109"/>
       <c r="R31" s="1"/>
       <c r="S31" s="19"/>
       <c r="T31" s="48"/>
       <c r="V31" s="48"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
-      <c r="Y31" s="79"/>
+      <c r="Y31" s="77"/>
       <c r="Z31" s="48"/>
       <c r="AA31" s="48"/>
       <c r="AB31" s="48"/>
@@ -9099,7 +9434,7 @@
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="79"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
@@ -9111,14 +9446,14 @@
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
-      <c r="Q32" s="111"/>
+      <c r="Q32" s="109"/>
       <c r="R32" s="1"/>
       <c r="S32" s="19"/>
       <c r="T32" s="48"/>
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
       <c r="X32" s="48"/>
-      <c r="Y32" s="79"/>
+      <c r="Y32" s="77"/>
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
@@ -9160,14 +9495,14 @@
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="111"/>
+      <c r="Q33" s="109"/>
       <c r="R33" s="1"/>
       <c r="S33" s="19"/>
       <c r="T33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
-      <c r="Y33" s="79"/>
+      <c r="Y33" s="77"/>
       <c r="Z33" s="48"/>
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
@@ -9203,14 +9538,14 @@
       <c r="N34" s="48"/>
       <c r="O34" s="48"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="112"/>
+      <c r="Q34" s="110"/>
       <c r="R34" s="1"/>
       <c r="S34" s="20"/>
       <c r="T34" s="48"/>
       <c r="V34" s="48"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
-      <c r="Y34" s="79"/>
+      <c r="Y34" s="77"/>
       <c r="Z34" s="48"/>
       <c r="AA34" s="48"/>
       <c r="AB34" s="48"/>
@@ -9246,13 +9581,13 @@
       <c r="N35" s="48"/>
       <c r="O35" s="48"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="112"/>
+      <c r="Q35" s="110"/>
       <c r="R35" s="1"/>
       <c r="S35" s="19"/>
       <c r="T35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="79"/>
+      <c r="X35" s="77"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
       <c r="AA35" s="48"/>
@@ -10994,7 +11329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet30">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11011,12 +11346,12 @@
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
@@ -11030,48 +11365,48 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
@@ -11088,40 +11423,40 @@
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+        <v>43850</v>
+      </c>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
@@ -11138,29 +11473,29 @@
       <c r="P3" s="150"/>
       <c r="Q3" s="150"/>
       <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
       <c r="AA3" s="140"/>
       <c r="AB3" s="142"/>
-      <c r="AC3" s="178" t="str">
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11200,8 +11535,8 @@
       <c r="AI4" s="15"/>
     </row>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="76" t="s">
-        <v>131</v>
+      <c r="B5" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11240,7 +11575,7 @@
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="C6" s="31" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -11313,7 +11648,7 @@
       <c r="A8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -11351,7 +11686,7 @@
       <c r="A9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -11425,7 +11760,7 @@
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -11463,7 +11798,7 @@
       <c r="A12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -11568,7 +11903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11585,12 +11920,12 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
@@ -11604,48 +11939,48 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
@@ -11662,40 +11997,40 @@
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+        <v>43850</v>
+      </c>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
@@ -11712,43 +12047,43 @@
       <c r="P3" s="150"/>
       <c r="Q3" s="150"/>
       <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
       <c r="AA3" s="140"/>
       <c r="AB3" s="142"/>
-      <c r="AC3" s="178" t="str">
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="31" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -11756,15 +12091,15 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D8" s="76" t="s">
-        <v>171</v>
+      <c r="D8" s="74" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D9" s="76"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D10" s="76"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -11795,8 +12130,8 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D21" s="76" t="s">
-        <v>185</v>
+      <c r="D21" s="74" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -11806,545 +12141,552 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="205" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="205" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="206"/>
-      <c r="L24" s="206"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="206"/>
-      <c r="O24" s="206"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="206"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="206"/>
-      <c r="AB24" s="206"/>
-      <c r="AC24" s="206"/>
-      <c r="AD24" s="206"/>
-      <c r="AE24" s="206"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="206"/>
-      <c r="AH24" s="207"/>
+      <c r="D24" s="212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="212" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="213"/>
+      <c r="Z24" s="213"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="214"/>
     </row>
     <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="230" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="212" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="213"/>
-      <c r="L25" s="213"/>
-      <c r="M25" s="213"/>
-      <c r="N25" s="213"/>
-      <c r="O25" s="213"/>
-      <c r="P25" s="213"/>
-      <c r="Q25" s="213"/>
-      <c r="R25" s="213"/>
-      <c r="S25" s="213"/>
-      <c r="T25" s="213"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="213"/>
-      <c r="W25" s="213"/>
-      <c r="X25" s="213"/>
-      <c r="Y25" s="213"/>
-      <c r="Z25" s="213"/>
-      <c r="AA25" s="213"/>
-      <c r="AB25" s="213"/>
-      <c r="AC25" s="213"/>
-      <c r="AD25" s="213"/>
-      <c r="AE25" s="213"/>
-      <c r="AF25" s="213"/>
-      <c r="AG25" s="213"/>
-      <c r="AH25" s="214"/>
+      <c r="D25" s="237" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="238"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="219" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="220"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="220"/>
+      <c r="Z25" s="220"/>
+      <c r="AA25" s="220"/>
+      <c r="AB25" s="220"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="220"/>
+      <c r="AE25" s="220"/>
+      <c r="AF25" s="220"/>
+      <c r="AG25" s="220"/>
+      <c r="AH25" s="221"/>
     </row>
     <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="233"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="216"/>
-      <c r="M26" s="216"/>
-      <c r="N26" s="216"/>
-      <c r="O26" s="216"/>
-      <c r="P26" s="216"/>
-      <c r="Q26" s="216"/>
-      <c r="R26" s="216"/>
-      <c r="S26" s="216"/>
-      <c r="T26" s="216"/>
-      <c r="U26" s="216"/>
-      <c r="V26" s="216"/>
-      <c r="W26" s="216"/>
-      <c r="X26" s="216"/>
-      <c r="Y26" s="216"/>
-      <c r="Z26" s="216"/>
-      <c r="AA26" s="216"/>
-      <c r="AB26" s="216"/>
-      <c r="AC26" s="216"/>
-      <c r="AD26" s="216"/>
-      <c r="AE26" s="216"/>
-      <c r="AF26" s="216"/>
-      <c r="AG26" s="216"/>
-      <c r="AH26" s="217"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="223"/>
+      <c r="Z26" s="223"/>
+      <c r="AA26" s="223"/>
+      <c r="AB26" s="223"/>
+      <c r="AC26" s="223"/>
+      <c r="AD26" s="223"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="223"/>
+      <c r="AH26" s="224"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="236"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="219"/>
-      <c r="R27" s="219"/>
-      <c r="S27" s="219"/>
-      <c r="T27" s="219"/>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="219"/>
-      <c r="Y27" s="219"/>
-      <c r="Z27" s="219"/>
-      <c r="AA27" s="219"/>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="219"/>
-      <c r="AD27" s="219"/>
-      <c r="AE27" s="219"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="220"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="226"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="226"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="226"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="226"/>
+      <c r="AH27" s="227"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="230" t="s">
+      <c r="D28" s="237" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="228" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="229"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="229"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="229"/>
+      <c r="Q28" s="229"/>
+      <c r="R28" s="229"/>
+      <c r="S28" s="229"/>
+      <c r="T28" s="229"/>
+      <c r="U28" s="229"/>
+      <c r="V28" s="229"/>
+      <c r="W28" s="229"/>
+      <c r="X28" s="229"/>
+      <c r="Y28" s="229"/>
+      <c r="Z28" s="229"/>
+      <c r="AA28" s="229"/>
+      <c r="AB28" s="229"/>
+      <c r="AC28" s="229"/>
+      <c r="AD28" s="229"/>
+      <c r="AE28" s="229"/>
+      <c r="AF28" s="229"/>
+      <c r="AG28" s="229"/>
+      <c r="AH28" s="230"/>
+    </row>
+    <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D29" s="240"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="232"/>
+      <c r="Y29" s="232"/>
+      <c r="Z29" s="232"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="232"/>
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="233"/>
+    </row>
+    <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="234"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="235"/>
+      <c r="M30" s="235"/>
+      <c r="N30" s="235"/>
+      <c r="O30" s="235"/>
+      <c r="P30" s="235"/>
+      <c r="Q30" s="235"/>
+      <c r="R30" s="235"/>
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="235"/>
+      <c r="V30" s="235"/>
+      <c r="W30" s="235"/>
+      <c r="X30" s="235"/>
+      <c r="Y30" s="235"/>
+      <c r="Z30" s="235"/>
+      <c r="AA30" s="235"/>
+      <c r="AB30" s="235"/>
+      <c r="AC30" s="235"/>
+      <c r="AD30" s="235"/>
+      <c r="AE30" s="235"/>
+      <c r="AF30" s="235"/>
+      <c r="AG30" s="235"/>
+      <c r="AH30" s="236"/>
+    </row>
+    <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D31" s="246" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="221" t="s">
-        <v>197</v>
-      </c>
-      <c r="K28" s="222"/>
-      <c r="L28" s="222"/>
-      <c r="M28" s="222"/>
-      <c r="N28" s="222"/>
-      <c r="O28" s="222"/>
-      <c r="P28" s="222"/>
-      <c r="Q28" s="222"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="222"/>
-      <c r="V28" s="222"/>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="222"/>
-      <c r="AG28" s="222"/>
-      <c r="AH28" s="223"/>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="235"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="225"/>
-      <c r="R29" s="225"/>
-      <c r="S29" s="225"/>
-      <c r="T29" s="225"/>
-      <c r="U29" s="225"/>
-      <c r="V29" s="225"/>
-      <c r="W29" s="225"/>
-      <c r="X29" s="225"/>
-      <c r="Y29" s="225"/>
-      <c r="Z29" s="225"/>
-      <c r="AA29" s="225"/>
-      <c r="AB29" s="225"/>
-      <c r="AC29" s="225"/>
-      <c r="AD29" s="225"/>
-      <c r="AE29" s="225"/>
-      <c r="AF29" s="225"/>
-      <c r="AG29" s="225"/>
-      <c r="AH29" s="226"/>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="236"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="238"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="228"/>
-      <c r="L30" s="228"/>
-      <c r="M30" s="228"/>
-      <c r="N30" s="228"/>
-      <c r="O30" s="228"/>
-      <c r="P30" s="228"/>
-      <c r="Q30" s="228"/>
-      <c r="R30" s="228"/>
-      <c r="S30" s="228"/>
-      <c r="T30" s="228"/>
-      <c r="U30" s="228"/>
-      <c r="V30" s="228"/>
-      <c r="W30" s="228"/>
-      <c r="X30" s="228"/>
-      <c r="Y30" s="228"/>
-      <c r="Z30" s="228"/>
-      <c r="AA30" s="228"/>
-      <c r="AB30" s="228"/>
-      <c r="AC30" s="228"/>
-      <c r="AD30" s="228"/>
-      <c r="AE30" s="228"/>
-      <c r="AF30" s="228"/>
-      <c r="AG30" s="228"/>
-      <c r="AH30" s="229"/>
-    </row>
-    <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="239" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="231"/>
-      <c r="F31" s="231"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="232"/>
-      <c r="J31" s="221" t="s">
-        <v>212</v>
-      </c>
-      <c r="K31" s="222"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="222"/>
-      <c r="P31" s="222"/>
-      <c r="Q31" s="222"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222"/>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222"/>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222"/>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="222"/>
-      <c r="AF31" s="222"/>
-      <c r="AG31" s="222"/>
-      <c r="AH31" s="223"/>
+      <c r="K31" s="229"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="229"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="229"/>
+      <c r="P31" s="229"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="229"/>
+      <c r="S31" s="229"/>
+      <c r="T31" s="229"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="229"/>
+      <c r="W31" s="229"/>
+      <c r="X31" s="229"/>
+      <c r="Y31" s="229"/>
+      <c r="Z31" s="229"/>
+      <c r="AA31" s="229"/>
+      <c r="AB31" s="229"/>
+      <c r="AC31" s="229"/>
+      <c r="AD31" s="229"/>
+      <c r="AE31" s="229"/>
+      <c r="AF31" s="229"/>
+      <c r="AG31" s="229"/>
+      <c r="AH31" s="230"/>
     </row>
     <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="233"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="235"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="225"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="225"/>
-      <c r="V32" s="225"/>
-      <c r="W32" s="225"/>
-      <c r="X32" s="225"/>
-      <c r="Y32" s="225"/>
-      <c r="Z32" s="225"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="225"/>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="225"/>
-      <c r="AG32" s="225"/>
-      <c r="AH32" s="226"/>
+      <c r="D32" s="240"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="233"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="236"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="238"/>
-      <c r="J33" s="227"/>
-      <c r="K33" s="228"/>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="228"/>
-      <c r="X33" s="228"/>
-      <c r="Y33" s="228"/>
-      <c r="Z33" s="228"/>
-      <c r="AA33" s="228"/>
-      <c r="AB33" s="228"/>
-      <c r="AC33" s="228"/>
-      <c r="AD33" s="228"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="228"/>
-      <c r="AG33" s="228"/>
-      <c r="AH33" s="229"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="245"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
+      <c r="M33" s="235"/>
+      <c r="N33" s="235"/>
+      <c r="O33" s="235"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="235"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="235"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="235"/>
+      <c r="AA33" s="235"/>
+      <c r="AB33" s="235"/>
+      <c r="AC33" s="235"/>
+      <c r="AD33" s="235"/>
+      <c r="AE33" s="235"/>
+      <c r="AF33" s="235"/>
+      <c r="AG33" s="235"/>
+      <c r="AH33" s="236"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D36" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D37" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="240" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="241"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="208" t="s">
-        <v>88</v>
+      <c r="D39" s="247" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="249"/>
+      <c r="H39" s="215" t="s">
+        <v>77</v>
       </c>
       <c r="I39" s="132"/>
       <c r="J39" s="132"/>
       <c r="K39" s="133"/>
-      <c r="L39" s="208" t="s">
-        <v>89</v>
-      </c>
-      <c r="M39" s="209"/>
-      <c r="N39" s="209"/>
-      <c r="O39" s="210"/>
-      <c r="P39" s="208" t="s">
-        <v>90</v>
+      <c r="L39" s="215" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="216"/>
+      <c r="N39" s="216"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="215" t="s">
+        <v>79</v>
       </c>
       <c r="Q39" s="132"/>
       <c r="R39" s="132"/>
       <c r="S39" s="133"/>
-      <c r="T39" s="208" t="s">
-        <v>91</v>
+      <c r="T39" s="215" t="s">
+        <v>80</v>
       </c>
       <c r="U39" s="132"/>
       <c r="V39" s="132"/>
       <c r="W39" s="133"/>
-      <c r="X39" s="211" t="s">
-        <v>208</v>
+      <c r="X39" s="218" t="s">
+        <v>194</v>
       </c>
       <c r="Y39" s="132"/>
       <c r="Z39" s="132"/>
       <c r="AA39" s="133"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D40" s="200" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="201"/>
-      <c r="J40" s="201"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="201"/>
-      <c r="N40" s="201"/>
-      <c r="O40" s="202"/>
-      <c r="P40" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q40" s="201"/>
-      <c r="R40" s="201"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" s="201"/>
-      <c r="V40" s="201"/>
-      <c r="W40" s="202"/>
-      <c r="X40" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y40" s="201"/>
-      <c r="Z40" s="201"/>
-      <c r="AA40" s="202"/>
+      <c r="D40" s="205" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="206"/>
+      <c r="N40" s="206"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q40" s="206"/>
+      <c r="R40" s="206"/>
+      <c r="S40" s="207"/>
+      <c r="T40" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="U40" s="206"/>
+      <c r="V40" s="206"/>
+      <c r="W40" s="207"/>
+      <c r="X40" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y40" s="206"/>
+      <c r="Z40" s="206"/>
+      <c r="AA40" s="207"/>
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="243"/>
-      <c r="F41" s="243"/>
-      <c r="G41" s="244"/>
-      <c r="H41" s="204" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="M41" s="201"/>
-      <c r="N41" s="201"/>
-      <c r="O41" s="202"/>
-      <c r="P41" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="201"/>
-      <c r="S41" s="202"/>
-      <c r="T41" s="200" t="s">
-        <v>41</v>
-      </c>
-      <c r="U41" s="201"/>
-      <c r="V41" s="201"/>
-      <c r="W41" s="202"/>
-      <c r="X41" s="203" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y41" s="201"/>
-      <c r="Z41" s="201"/>
-      <c r="AA41" s="202"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D42" s="200" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="201"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="200" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="201"/>
-      <c r="J42" s="201"/>
-      <c r="K42" s="202"/>
-      <c r="L42" s="200" t="s">
-        <v>56</v>
-      </c>
-      <c r="M42" s="201"/>
-      <c r="N42" s="201"/>
-      <c r="O42" s="202"/>
-      <c r="P42" s="203" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q42" s="201"/>
-      <c r="R42" s="201"/>
-      <c r="S42" s="202"/>
-      <c r="T42" s="203" t="s">
-        <v>41</v>
-      </c>
-      <c r="U42" s="201"/>
-      <c r="V42" s="201"/>
-      <c r="W42" s="202"/>
-      <c r="X42" s="200" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y42" s="201"/>
-      <c r="Z42" s="201"/>
-      <c r="AA42" s="202"/>
+      <c r="D41" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="209" t="s">
+        <v>186</v>
+      </c>
+      <c r="M41" s="206"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q41" s="206"/>
+      <c r="R41" s="206"/>
+      <c r="S41" s="207"/>
+      <c r="T41" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" s="206"/>
+      <c r="V41" s="206"/>
+      <c r="W41" s="207"/>
+      <c r="X41" s="208" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y41" s="206"/>
+      <c r="Z41" s="206"/>
+      <c r="AA41" s="207"/>
+    </row>
+    <row r="42" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="205" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="209" t="s">
+        <v>221</v>
+      </c>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="209" t="s">
+        <v>221</v>
+      </c>
+      <c r="M42" s="210"/>
+      <c r="N42" s="210"/>
+      <c r="O42" s="211"/>
+      <c r="P42" s="208" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q42" s="206"/>
+      <c r="R42" s="206"/>
+      <c r="S42" s="207"/>
+      <c r="T42" s="208" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42" s="206"/>
+      <c r="V42" s="206"/>
+      <c r="W42" s="207"/>
+      <c r="X42" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y42" s="206"/>
+      <c r="Z42" s="206"/>
+      <c r="AA42" s="207"/>
     </row>
     <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D43" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D44" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="78" t="s">
-        <v>135</v>
+      <c r="C45" s="76" t="s">
+        <v>124</v>
       </c>
       <c r="D45" s="19"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="78"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D47" s="31" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12352,18 +12694,18 @@
     </row>
     <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C50" s="78" t="s">
-        <v>136</v>
+      <c r="C50" s="76" t="s">
+        <v>125</v>
       </c>
       <c r="D50" s="19"/>
     </row>
     <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="78"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D52" s="15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
@@ -12371,15 +12713,15 @@
         <v>1</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D54" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12450,7 +12792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12468,12 +12810,12 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
@@ -12487,48 +12829,48 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
@@ -12545,40 +12887,40 @@
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+        <v>43850</v>
+      </c>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
@@ -12595,43 +12937,43 @@
       <c r="P3" s="150"/>
       <c r="Q3" s="150"/>
       <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
       <c r="AA3" s="140"/>
       <c r="AB3" s="142"/>
-      <c r="AC3" s="178" t="str">
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12640,7 +12982,7 @@
     <row r="8" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
       <c r="D8" s="34" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -12662,7 +13004,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="22"/>
       <c r="D9" s="30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -12684,7 +13026,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -12728,7 +13070,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12737,7 +13079,7 @@
     <row r="14" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12752,29 +13094,29 @@
     <row r="17" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="22"/>
       <c r="E18" s="15" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D21" s="55" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E22" s="35" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
@@ -12783,7 +13125,7 @@
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E24" s="56"/>
       <c r="F24" s="36" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
@@ -12824,44 +13166,44 @@
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E26" s="55" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="293" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
-      <c r="H28" s="295"/>
-      <c r="I28" s="263" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="264"/>
-      <c r="K28" s="265"/>
-      <c r="L28" s="275" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="275"/>
-      <c r="N28" s="275"/>
-      <c r="O28" s="275"/>
-      <c r="P28" s="275"/>
-      <c r="Q28" s="263" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="264"/>
-      <c r="S28" s="264"/>
-      <c r="T28" s="265"/>
-      <c r="U28" s="263" t="s">
-        <v>45</v>
-      </c>
-      <c r="V28" s="264"/>
-      <c r="W28" s="265"/>
-      <c r="X28" s="73" t="s">
-        <v>46</v>
+      <c r="D28" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="298" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="299"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="268" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="269"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="280" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="280"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="280"/>
+      <c r="Q28" s="268" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" s="269"/>
+      <c r="S28" s="269"/>
+      <c r="T28" s="270"/>
+      <c r="U28" s="268" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="269"/>
+      <c r="W28" s="270"/>
+      <c r="X28" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="Y28" s="59"/>
       <c r="Z28" s="59"/>
@@ -12870,142 +13212,142 @@
       <c r="AC28" s="59"/>
       <c r="AD28" s="59"/>
       <c r="AE28" s="59"/>
-      <c r="AF28" s="73" t="s">
-        <v>29</v>
+      <c r="AF28" s="72" t="s">
+        <v>22</v>
       </c>
       <c r="AG28" s="59"/>
       <c r="AH28" s="60"/>
     </row>
     <row r="29" spans="3:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="83">
+      <c r="D29" s="81">
         <v>1</v>
       </c>
-      <c r="E29" s="280" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="281"/>
-      <c r="G29" s="281"/>
-      <c r="H29" s="282"/>
-      <c r="I29" s="296" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="297"/>
-      <c r="K29" s="297"/>
-      <c r="L29" s="292" t="s">
+      <c r="E29" s="285" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="286"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="302"/>
+      <c r="K29" s="302"/>
+      <c r="L29" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="292"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="292"/>
-      <c r="Q29" s="283"/>
-      <c r="R29" s="284"/>
-      <c r="S29" s="284"/>
-      <c r="T29" s="285"/>
-      <c r="U29" s="283"/>
-      <c r="V29" s="284"/>
-      <c r="W29" s="285"/>
-      <c r="X29" s="84" t="s">
+      <c r="M29" s="297"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297"/>
+      <c r="P29" s="297"/>
+      <c r="Q29" s="288"/>
+      <c r="R29" s="289"/>
+      <c r="S29" s="289"/>
+      <c r="T29" s="290"/>
+      <c r="U29" s="288"/>
+      <c r="V29" s="289"/>
+      <c r="W29" s="290"/>
+      <c r="X29" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="87" t="s">
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="114"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="112"/>
     </row>
     <row r="30" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D30" s="83">
+      <c r="D30" s="81">
         <v>2</v>
       </c>
-      <c r="E30" s="283"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="284"/>
-      <c r="H30" s="285"/>
-      <c r="I30" s="297"/>
-      <c r="J30" s="297"/>
-      <c r="K30" s="297"/>
-      <c r="L30" s="292" t="s">
+      <c r="E30" s="288"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="292"/>
-      <c r="N30" s="292"/>
-      <c r="O30" s="292"/>
-      <c r="P30" s="292"/>
-      <c r="Q30" s="283"/>
-      <c r="R30" s="284"/>
-      <c r="S30" s="284"/>
-      <c r="T30" s="285"/>
-      <c r="U30" s="283"/>
-      <c r="V30" s="284"/>
-      <c r="W30" s="285"/>
-      <c r="X30" s="84" t="s">
+      <c r="M30" s="297"/>
+      <c r="N30" s="297"/>
+      <c r="O30" s="297"/>
+      <c r="P30" s="297"/>
+      <c r="Q30" s="288"/>
+      <c r="R30" s="289"/>
+      <c r="S30" s="289"/>
+      <c r="T30" s="290"/>
+      <c r="U30" s="288"/>
+      <c r="V30" s="289"/>
+      <c r="W30" s="290"/>
+      <c r="X30" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="89"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="87"/>
       <c r="AG30" s="42"/>
-      <c r="AH30" s="88"/>
+      <c r="AH30" s="86"/>
     </row>
     <row r="31" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D31" s="90">
+      <c r="D31" s="88">
         <v>3</v>
       </c>
-      <c r="E31" s="286"/>
-      <c r="F31" s="287"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="288"/>
-      <c r="I31" s="297"/>
-      <c r="J31" s="297"/>
-      <c r="K31" s="297"/>
-      <c r="L31" s="292" t="s">
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="292"/>
-      <c r="N31" s="292"/>
-      <c r="O31" s="292"/>
-      <c r="P31" s="292"/>
-      <c r="Q31" s="289"/>
-      <c r="R31" s="290"/>
-      <c r="S31" s="290"/>
-      <c r="T31" s="291"/>
-      <c r="U31" s="289"/>
-      <c r="V31" s="290"/>
-      <c r="W31" s="291"/>
-      <c r="X31" s="91" t="s">
+      <c r="M31" s="297"/>
+      <c r="N31" s="297"/>
+      <c r="O31" s="297"/>
+      <c r="P31" s="297"/>
+      <c r="Q31" s="294"/>
+      <c r="R31" s="295"/>
+      <c r="S31" s="295"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="294"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="296"/>
+      <c r="X31" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="96"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="94"/>
     </row>
     <row r="32" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D32" s="97"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
@@ -13022,7 +13364,7 @@
     <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -13065,7 +13407,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="58"/>
       <c r="F35" s="36" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -13105,77 +13447,77 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E37" s="35" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D38" s="35"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="119"/>
-      <c r="W38" s="119"/>
-      <c r="X38" s="119"/>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="119"/>
-      <c r="AA38" s="119"/>
-      <c r="AB38" s="119"/>
-      <c r="AC38" s="119"/>
-      <c r="AD38" s="119"/>
-      <c r="AE38" s="119"/>
-      <c r="AF38" s="119"/>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
+      <c r="AF38" s="117"/>
+      <c r="AG38" s="117"/>
+      <c r="AH38" s="117"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="257" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="259"/>
-      <c r="I39" s="263" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="264"/>
-      <c r="K39" s="265"/>
-      <c r="L39" s="275" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="275"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="275"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="277" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" s="278"/>
-      <c r="S39" s="278"/>
-      <c r="T39" s="279"/>
-      <c r="U39" s="263" t="s">
-        <v>45</v>
-      </c>
-      <c r="V39" s="264"/>
-      <c r="W39" s="265"/>
-      <c r="X39" s="257" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y39" s="258"/>
-      <c r="Z39" s="258"/>
-      <c r="AA39" s="258"/>
-      <c r="AB39" s="258"/>
-      <c r="AC39" s="258"/>
-      <c r="AD39" s="258"/>
-      <c r="AE39" s="259"/>
-      <c r="AF39" s="245" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG39" s="246"/>
-      <c r="AH39" s="247"/>
+      <c r="D39" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="262" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="263"/>
+      <c r="G39" s="263"/>
+      <c r="H39" s="264"/>
+      <c r="I39" s="268" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="269"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="280" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="280"/>
+      <c r="N39" s="280"/>
+      <c r="O39" s="280"/>
+      <c r="P39" s="280"/>
+      <c r="Q39" s="282" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="284"/>
+      <c r="U39" s="268" t="s">
+        <v>38</v>
+      </c>
+      <c r="V39" s="269"/>
+      <c r="W39" s="270"/>
+      <c r="X39" s="262" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y39" s="263"/>
+      <c r="Z39" s="263"/>
+      <c r="AA39" s="263"/>
+      <c r="AB39" s="263"/>
+      <c r="AC39" s="263"/>
+      <c r="AD39" s="263"/>
+      <c r="AE39" s="264"/>
+      <c r="AF39" s="250" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG39" s="251"/>
+      <c r="AH39" s="252"/>
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
@@ -13185,53 +13527,53 @@
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="83">
+      <c r="D40" s="81">
         <v>1</v>
       </c>
-      <c r="E40" s="248" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="250"/>
-      <c r="I40" s="266" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="267"/>
-      <c r="K40" s="268"/>
-      <c r="L40" s="276" t="s">
-        <v>94</v>
-      </c>
-      <c r="M40" s="276"/>
-      <c r="N40" s="276"/>
-      <c r="O40" s="276"/>
-      <c r="P40" s="276"/>
-      <c r="Q40" s="248" t="s">
-        <v>149</v>
-      </c>
-      <c r="R40" s="249"/>
-      <c r="S40" s="249"/>
-      <c r="T40" s="250"/>
-      <c r="U40" s="266" t="s">
-        <v>150</v>
-      </c>
-      <c r="V40" s="267"/>
-      <c r="W40" s="268"/>
-      <c r="X40" s="260" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y40" s="261"/>
-      <c r="Z40" s="261"/>
-      <c r="AA40" s="261"/>
-      <c r="AB40" s="261"/>
-      <c r="AC40" s="261"/>
-      <c r="AD40" s="261"/>
-      <c r="AE40" s="262"/>
-      <c r="AF40" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG40" s="103"/>
-      <c r="AH40" s="104"/>
+      <c r="E40" s="253" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="271" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="272"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="281" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="281"/>
+      <c r="P40" s="281"/>
+      <c r="Q40" s="253" t="s">
+        <v>138</v>
+      </c>
+      <c r="R40" s="254"/>
+      <c r="S40" s="254"/>
+      <c r="T40" s="255"/>
+      <c r="U40" s="271" t="s">
+        <v>139</v>
+      </c>
+      <c r="V40" s="272"/>
+      <c r="W40" s="273"/>
+      <c r="X40" s="265" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266"/>
+      <c r="AB40" s="266"/>
+      <c r="AC40" s="266"/>
+      <c r="AD40" s="266"/>
+      <c r="AE40" s="267"/>
+      <c r="AF40" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG40" s="101"/>
+      <c r="AH40" s="102"/>
       <c r="AJ40" s="35"/>
       <c r="AK40" s="35"/>
       <c r="AL40" s="35"/>
@@ -13241,43 +13583,43 @@
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="83">
+      <c r="D41" s="81">
         <v>2</v>
       </c>
-      <c r="E41" s="251"/>
-      <c r="F41" s="252"/>
-      <c r="G41" s="252"/>
-      <c r="H41" s="253"/>
-      <c r="I41" s="269"/>
-      <c r="J41" s="270"/>
-      <c r="K41" s="271"/>
-      <c r="L41" s="276" t="s">
-        <v>95</v>
-      </c>
-      <c r="M41" s="276"/>
-      <c r="N41" s="276"/>
-      <c r="O41" s="276"/>
-      <c r="P41" s="276"/>
-      <c r="Q41" s="251"/>
-      <c r="R41" s="252"/>
-      <c r="S41" s="252"/>
-      <c r="T41" s="253"/>
-      <c r="U41" s="269"/>
-      <c r="V41" s="270"/>
-      <c r="W41" s="271"/>
-      <c r="X41" s="260" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y41" s="261"/>
-      <c r="Z41" s="261"/>
-      <c r="AA41" s="261"/>
-      <c r="AB41" s="261"/>
-      <c r="AC41" s="261"/>
-      <c r="AD41" s="261"/>
-      <c r="AE41" s="262"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="106"/>
-      <c r="AH41" s="107"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="258"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="275"/>
+      <c r="K41" s="276"/>
+      <c r="L41" s="281" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="281"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="281"/>
+      <c r="Q41" s="256"/>
+      <c r="R41" s="257"/>
+      <c r="S41" s="257"/>
+      <c r="T41" s="258"/>
+      <c r="U41" s="274"/>
+      <c r="V41" s="275"/>
+      <c r="W41" s="276"/>
+      <c r="X41" s="265" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y41" s="266"/>
+      <c r="Z41" s="266"/>
+      <c r="AA41" s="266"/>
+      <c r="AB41" s="266"/>
+      <c r="AC41" s="266"/>
+      <c r="AD41" s="266"/>
+      <c r="AE41" s="267"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="104"/>
+      <c r="AH41" s="105"/>
       <c r="AJ41" s="35"/>
       <c r="AK41" s="35"/>
       <c r="AL41" s="35"/>
@@ -13287,43 +13629,43 @@
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="83">
+      <c r="D42" s="81">
         <v>3</v>
       </c>
-      <c r="E42" s="251"/>
-      <c r="F42" s="252"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="269"/>
-      <c r="J42" s="270"/>
-      <c r="K42" s="271"/>
-      <c r="L42" s="276" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="276"/>
-      <c r="N42" s="276"/>
-      <c r="O42" s="276"/>
-      <c r="P42" s="276"/>
-      <c r="Q42" s="251"/>
-      <c r="R42" s="252"/>
-      <c r="S42" s="252"/>
-      <c r="T42" s="253"/>
-      <c r="U42" s="269"/>
-      <c r="V42" s="270"/>
-      <c r="W42" s="271"/>
-      <c r="X42" s="260" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y42" s="261"/>
-      <c r="Z42" s="261"/>
-      <c r="AA42" s="261"/>
-      <c r="AB42" s="261"/>
-      <c r="AC42" s="261"/>
-      <c r="AD42" s="261"/>
-      <c r="AE42" s="262"/>
-      <c r="AF42" s="105"/>
-      <c r="AG42" s="106"/>
-      <c r="AH42" s="107"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="258"/>
+      <c r="I42" s="274"/>
+      <c r="J42" s="275"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="281" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="281"/>
+      <c r="N42" s="281"/>
+      <c r="O42" s="281"/>
+      <c r="P42" s="281"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="257"/>
+      <c r="S42" s="257"/>
+      <c r="T42" s="258"/>
+      <c r="U42" s="274"/>
+      <c r="V42" s="275"/>
+      <c r="W42" s="276"/>
+      <c r="X42" s="265" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y42" s="266"/>
+      <c r="Z42" s="266"/>
+      <c r="AA42" s="266"/>
+      <c r="AB42" s="266"/>
+      <c r="AC42" s="266"/>
+      <c r="AD42" s="266"/>
+      <c r="AE42" s="267"/>
+      <c r="AF42" s="103"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="105"/>
       <c r="AJ42" s="35"/>
       <c r="AK42" s="35"/>
       <c r="AL42" s="35"/>
@@ -13333,43 +13675,43 @@
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="83">
+      <c r="D43" s="81">
         <v>4</v>
       </c>
-      <c r="E43" s="251"/>
-      <c r="F43" s="252"/>
-      <c r="G43" s="252"/>
-      <c r="H43" s="253"/>
-      <c r="I43" s="269"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="271"/>
-      <c r="L43" s="299" t="s">
-        <v>92</v>
-      </c>
-      <c r="M43" s="276"/>
-      <c r="N43" s="276"/>
-      <c r="O43" s="276"/>
-      <c r="P43" s="276"/>
-      <c r="Q43" s="251"/>
-      <c r="R43" s="252"/>
-      <c r="S43" s="252"/>
-      <c r="T43" s="253"/>
-      <c r="U43" s="269"/>
-      <c r="V43" s="270"/>
-      <c r="W43" s="271"/>
-      <c r="X43" s="260" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y43" s="261"/>
-      <c r="Z43" s="261"/>
-      <c r="AA43" s="261"/>
-      <c r="AB43" s="261"/>
-      <c r="AC43" s="261"/>
-      <c r="AD43" s="261"/>
-      <c r="AE43" s="262"/>
-      <c r="AF43" s="105"/>
-      <c r="AG43" s="106"/>
-      <c r="AH43" s="107"/>
+      <c r="E43" s="256"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="257"/>
+      <c r="H43" s="258"/>
+      <c r="I43" s="274"/>
+      <c r="J43" s="275"/>
+      <c r="K43" s="276"/>
+      <c r="L43" s="304" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="281"/>
+      <c r="N43" s="281"/>
+      <c r="O43" s="281"/>
+      <c r="P43" s="281"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="257"/>
+      <c r="S43" s="257"/>
+      <c r="T43" s="258"/>
+      <c r="U43" s="274"/>
+      <c r="V43" s="275"/>
+      <c r="W43" s="276"/>
+      <c r="X43" s="265" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y43" s="266"/>
+      <c r="Z43" s="266"/>
+      <c r="AA43" s="266"/>
+      <c r="AB43" s="266"/>
+      <c r="AC43" s="266"/>
+      <c r="AD43" s="266"/>
+      <c r="AE43" s="267"/>
+      <c r="AF43" s="103"/>
+      <c r="AG43" s="104"/>
+      <c r="AH43" s="105"/>
       <c r="AJ43" s="35"/>
       <c r="AK43" s="35"/>
       <c r="AL43" s="35"/>
@@ -13379,67 +13721,67 @@
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="83">
+      <c r="D44" s="81">
         <v>5</v>
       </c>
-      <c r="E44" s="254"/>
-      <c r="F44" s="255"/>
-      <c r="G44" s="255"/>
-      <c r="H44" s="256"/>
-      <c r="I44" s="272"/>
-      <c r="J44" s="273"/>
-      <c r="K44" s="274"/>
-      <c r="L44" s="298" t="s">
-        <v>93</v>
-      </c>
-      <c r="M44" s="298"/>
-      <c r="N44" s="298"/>
-      <c r="O44" s="298"/>
-      <c r="P44" s="298"/>
-      <c r="Q44" s="254"/>
-      <c r="R44" s="255"/>
-      <c r="S44" s="255"/>
-      <c r="T44" s="256"/>
-      <c r="U44" s="272"/>
-      <c r="V44" s="273"/>
-      <c r="W44" s="274"/>
-      <c r="X44" s="260" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y44" s="261"/>
-      <c r="Z44" s="261"/>
-      <c r="AA44" s="261"/>
-      <c r="AB44" s="261"/>
-      <c r="AC44" s="261"/>
-      <c r="AD44" s="261"/>
-      <c r="AE44" s="262"/>
-      <c r="AF44" s="108"/>
-      <c r="AG44" s="109"/>
-      <c r="AH44" s="110"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="261"/>
+      <c r="I44" s="277"/>
+      <c r="J44" s="278"/>
+      <c r="K44" s="279"/>
+      <c r="L44" s="303" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" s="303"/>
+      <c r="N44" s="303"/>
+      <c r="O44" s="303"/>
+      <c r="P44" s="303"/>
+      <c r="Q44" s="259"/>
+      <c r="R44" s="260"/>
+      <c r="S44" s="260"/>
+      <c r="T44" s="261"/>
+      <c r="U44" s="277"/>
+      <c r="V44" s="278"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="265" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y44" s="266"/>
+      <c r="Z44" s="266"/>
+      <c r="AA44" s="266"/>
+      <c r="AB44" s="266"/>
+      <c r="AC44" s="266"/>
+      <c r="AD44" s="266"/>
+      <c r="AE44" s="267"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="108"/>
       <c r="AJ44" s="35"/>
       <c r="AK44" s="35"/>
       <c r="AL44" s="35"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="D45" s="118" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="119"/>
-      <c r="S45" s="119"/>
+      <c r="D45" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="117"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A46" s="35"/>
@@ -13474,7 +13816,7 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -13499,12 +13841,12 @@
     </row>
     <row r="49" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E49" s="33" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D52" s="55" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="4:22" x14ac:dyDescent="0.15">
@@ -13529,7 +13871,7 @@
     </row>
     <row r="54" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E54" s="35" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -13572,7 +13914,7 @@
     <row r="56" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E56" s="35"/>
       <c r="F56" s="35" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -13633,12 +13975,12 @@
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D59" s="15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E61" s="35" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F61" s="35"/>
     </row>
@@ -13649,7 +13991,7 @@
     <row r="63" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E63" s="35"/>
       <c r="F63" s="35" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="4:22" x14ac:dyDescent="0.15">
@@ -13658,12 +14000,12 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D66" s="31" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E68" s="35" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F68" s="35"/>
     </row>
@@ -13674,7 +14016,7 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E70" s="35"/>
       <c r="F70" s="35" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -13746,11 +14088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet37">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AI90"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -13763,12 +14105,12 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
@@ -13782,48 +14124,48 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
-      <c r="AC1" s="178" t="str">
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="183"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
@@ -13840,40 +14182,40 @@
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="183"/>
+        <v>43850</v>
+      </c>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
@@ -13890,35 +14232,35 @@
       <c r="P3" s="150"/>
       <c r="Q3" s="150"/>
       <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
       <c r="AA3" s="140"/>
       <c r="AB3" s="142"/>
-      <c r="AC3" s="178" t="str">
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -13928,7 +14270,7 @@
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -13960,7 +14302,7 @@
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C8" s="55"/>
       <c r="D8" s="55" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -14022,7 +14364,7 @@
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C10" s="55"/>
       <c r="D10" s="33" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -14084,23 +14426,23 @@
     <row r="12" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
+      <c r="E12" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
       <c r="T12" s="55"/>
       <c r="U12" s="55"/>
       <c r="V12" s="55"/>
@@ -14116,21 +14458,21 @@
     <row r="13" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
       <c r="T13" s="55"/>
       <c r="U13" s="55"/>
       <c r="V13" s="55"/>
@@ -14146,23 +14488,23 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C14" s="55"/>
       <c r="D14" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+        <v>191</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
       <c r="T14" s="55"/>
       <c r="U14" s="55"/>
       <c r="V14" s="55"/>
@@ -14178,21 +14520,21 @@
     <row r="15" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="55"/>
       <c r="U15" s="55"/>
       <c r="V15" s="55"/>
@@ -14208,23 +14550,23 @@
     <row r="16" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="E16" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
       <c r="V16" s="55"/>
@@ -14269,847 +14611,878 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="33" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="54" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="293" t="s">
+      <c r="E22" s="298" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="298" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="300"/>
+      <c r="M22" s="298" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="299"/>
+      <c r="Q22" s="299"/>
+      <c r="R22" s="299"/>
+      <c r="S22" s="299"/>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="299"/>
+      <c r="X22" s="299"/>
+      <c r="Y22" s="299"/>
+      <c r="Z22" s="299"/>
+      <c r="AA22" s="299"/>
+      <c r="AB22" s="299"/>
+      <c r="AC22" s="299"/>
+      <c r="AD22" s="299"/>
+      <c r="AE22" s="299"/>
+      <c r="AF22" s="299"/>
+      <c r="AG22" s="299"/>
+      <c r="AH22" s="300"/>
+    </row>
+    <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="316" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="194"/>
+      <c r="M23" s="324" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" s="325"/>
+      <c r="O23" s="325"/>
+      <c r="P23" s="325"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="325"/>
+      <c r="S23" s="325"/>
+      <c r="T23" s="325"/>
+      <c r="U23" s="325"/>
+      <c r="V23" s="325"/>
+      <c r="W23" s="325"/>
+      <c r="X23" s="325"/>
+      <c r="Y23" s="325"/>
+      <c r="Z23" s="325"/>
+      <c r="AA23" s="325"/>
+      <c r="AB23" s="325"/>
+      <c r="AC23" s="325"/>
+      <c r="AD23" s="325"/>
+      <c r="AE23" s="325"/>
+      <c r="AF23" s="325"/>
+      <c r="AG23" s="325"/>
+      <c r="AH23" s="326"/>
+    </row>
+    <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="320"/>
+      <c r="J24" s="321"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="323"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="328"/>
+      <c r="U24" s="328"/>
+      <c r="V24" s="328"/>
+      <c r="W24" s="328"/>
+      <c r="X24" s="328"/>
+      <c r="Y24" s="328"/>
+      <c r="Z24" s="328"/>
+      <c r="AA24" s="328"/>
+      <c r="AB24" s="328"/>
+      <c r="AC24" s="328"/>
+      <c r="AD24" s="328"/>
+      <c r="AE24" s="328"/>
+      <c r="AF24" s="328"/>
+      <c r="AG24" s="328"/>
+      <c r="AH24" s="329"/>
+    </row>
+    <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="305" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="306"/>
+      <c r="I25" s="306"/>
+      <c r="J25" s="307"/>
+      <c r="K25" s="311" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="312"/>
+      <c r="M25" s="315" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="286"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="286"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="286"/>
+      <c r="X25" s="286"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="286"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="286"/>
+      <c r="AD25" s="286"/>
+      <c r="AE25" s="286"/>
+      <c r="AF25" s="286"/>
+      <c r="AG25" s="286"/>
+      <c r="AH25" s="287"/>
+    </row>
+    <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="331"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="333"/>
+      <c r="K26" s="334"/>
+      <c r="L26" s="335"/>
+      <c r="M26" s="288"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="289"/>
+      <c r="S26" s="289"/>
+      <c r="T26" s="289"/>
+      <c r="U26" s="289"/>
+      <c r="V26" s="289"/>
+      <c r="W26" s="289"/>
+      <c r="X26" s="289"/>
+      <c r="Y26" s="289"/>
+      <c r="Z26" s="289"/>
+      <c r="AA26" s="289"/>
+      <c r="AB26" s="289"/>
+      <c r="AC26" s="289"/>
+      <c r="AD26" s="289"/>
+      <c r="AE26" s="289"/>
+      <c r="AF26" s="289"/>
+      <c r="AG26" s="289"/>
+      <c r="AH26" s="290"/>
+    </row>
+    <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="308"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="309"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="310"/>
+      <c r="K27" s="313"/>
+      <c r="L27" s="314"/>
+      <c r="M27" s="291"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
+      <c r="Q27" s="292"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="292"/>
+      <c r="Z27" s="292"/>
+      <c r="AA27" s="292"/>
+      <c r="AB27" s="292"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="292"/>
+      <c r="AE27" s="292"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="293"/>
+    </row>
+    <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="306"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="307"/>
+      <c r="K28" s="311" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" s="312"/>
+      <c r="M28" s="315" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="286"/>
+      <c r="O28" s="286"/>
+      <c r="P28" s="286"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="286"/>
+      <c r="S28" s="286"/>
+      <c r="T28" s="286"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="286"/>
+      <c r="W28" s="286"/>
+      <c r="X28" s="286"/>
+      <c r="Y28" s="286"/>
+      <c r="Z28" s="286"/>
+      <c r="AA28" s="286"/>
+      <c r="AB28" s="286"/>
+      <c r="AC28" s="286"/>
+      <c r="AD28" s="286"/>
+      <c r="AE28" s="286"/>
+      <c r="AF28" s="286"/>
+      <c r="AG28" s="286"/>
+      <c r="AH28" s="287"/>
+    </row>
+    <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="308"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="313"/>
+      <c r="L29" s="314"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="292"/>
+      <c r="Q29" s="292"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="292"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="293"/>
+    </row>
+    <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="305" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="306"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="306"/>
+      <c r="I30" s="306"/>
+      <c r="J30" s="307"/>
+      <c r="K30" s="311" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="312"/>
+      <c r="M30" s="315" t="s">
+        <v>201</v>
+      </c>
+      <c r="N30" s="286"/>
+      <c r="O30" s="286"/>
+      <c r="P30" s="286"/>
+      <c r="Q30" s="286"/>
+      <c r="R30" s="286"/>
+      <c r="S30" s="286"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="286"/>
+      <c r="V30" s="286"/>
+      <c r="W30" s="286"/>
+      <c r="X30" s="286"/>
+      <c r="Y30" s="286"/>
+      <c r="Z30" s="286"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="286"/>
+      <c r="AC30" s="286"/>
+      <c r="AD30" s="286"/>
+      <c r="AE30" s="286"/>
+      <c r="AF30" s="286"/>
+      <c r="AG30" s="286"/>
+      <c r="AH30" s="287"/>
+    </row>
+    <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="308"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="313"/>
+      <c r="L31" s="314"/>
+      <c r="M31" s="291"/>
+      <c r="N31" s="292"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="292"/>
+      <c r="Q31" s="292"/>
+      <c r="R31" s="292"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="292"/>
+      <c r="W31" s="292"/>
+      <c r="X31" s="292"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="292"/>
+      <c r="AA31" s="292"/>
+      <c r="AB31" s="292"/>
+      <c r="AC31" s="292"/>
+      <c r="AD31" s="292"/>
+      <c r="AE31" s="292"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="292"/>
+      <c r="AH31" s="293"/>
+    </row>
+    <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="298" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
+      <c r="I35" s="299"/>
+      <c r="J35" s="300"/>
+      <c r="K35" s="298" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="300"/>
+      <c r="M35" s="298" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="299"/>
+      <c r="O35" s="299"/>
+      <c r="P35" s="299"/>
+      <c r="Q35" s="299"/>
+      <c r="R35" s="299"/>
+      <c r="S35" s="299"/>
+      <c r="T35" s="299"/>
+      <c r="U35" s="299"/>
+      <c r="V35" s="299"/>
+      <c r="W35" s="299"/>
+      <c r="X35" s="299"/>
+      <c r="Y35" s="299"/>
+      <c r="Z35" s="299"/>
+      <c r="AA35" s="299"/>
+      <c r="AB35" s="299"/>
+      <c r="AC35" s="299"/>
+      <c r="AD35" s="299"/>
+      <c r="AE35" s="299"/>
+      <c r="AF35" s="299"/>
+      <c r="AG35" s="299"/>
+      <c r="AH35" s="300"/>
+    </row>
+    <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="316" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="317"/>
+      <c r="G36" s="317"/>
+      <c r="H36" s="317"/>
+      <c r="I36" s="317"/>
+      <c r="J36" s="318"/>
+      <c r="K36" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="194"/>
+      <c r="M36" s="324" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" s="325"/>
+      <c r="O36" s="325"/>
+      <c r="P36" s="325"/>
+      <c r="Q36" s="325"/>
+      <c r="R36" s="325"/>
+      <c r="S36" s="325"/>
+      <c r="T36" s="325"/>
+      <c r="U36" s="325"/>
+      <c r="V36" s="325"/>
+      <c r="W36" s="325"/>
+      <c r="X36" s="325"/>
+      <c r="Y36" s="325"/>
+      <c r="Z36" s="325"/>
+      <c r="AA36" s="325"/>
+      <c r="AB36" s="325"/>
+      <c r="AC36" s="325"/>
+      <c r="AD36" s="325"/>
+      <c r="AE36" s="325"/>
+      <c r="AF36" s="325"/>
+      <c r="AG36" s="325"/>
+      <c r="AH36" s="326"/>
+    </row>
+    <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="319"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="323"/>
+      <c r="M37" s="327"/>
+      <c r="N37" s="328"/>
+      <c r="O37" s="328"/>
+      <c r="P37" s="328"/>
+      <c r="Q37" s="328"/>
+      <c r="R37" s="328"/>
+      <c r="S37" s="328"/>
+      <c r="T37" s="328"/>
+      <c r="U37" s="328"/>
+      <c r="V37" s="328"/>
+      <c r="W37" s="328"/>
+      <c r="X37" s="328"/>
+      <c r="Y37" s="328"/>
+      <c r="Z37" s="328"/>
+      <c r="AA37" s="328"/>
+      <c r="AB37" s="328"/>
+      <c r="AC37" s="328"/>
+      <c r="AD37" s="328"/>
+      <c r="AE37" s="328"/>
+      <c r="AF37" s="328"/>
+      <c r="AG37" s="328"/>
+      <c r="AH37" s="329"/>
+    </row>
+    <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="305" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="306"/>
+      <c r="G38" s="306"/>
+      <c r="H38" s="306"/>
+      <c r="I38" s="306"/>
+      <c r="J38" s="307"/>
+      <c r="K38" s="311" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="312"/>
+      <c r="M38" s="285" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" s="286"/>
+      <c r="O38" s="286"/>
+      <c r="P38" s="286"/>
+      <c r="Q38" s="286"/>
+      <c r="R38" s="286"/>
+      <c r="S38" s="286"/>
+      <c r="T38" s="286"/>
+      <c r="U38" s="286"/>
+      <c r="V38" s="286"/>
+      <c r="W38" s="286"/>
+      <c r="X38" s="286"/>
+      <c r="Y38" s="286"/>
+      <c r="Z38" s="286"/>
+      <c r="AA38" s="286"/>
+      <c r="AB38" s="286"/>
+      <c r="AC38" s="286"/>
+      <c r="AD38" s="286"/>
+      <c r="AE38" s="286"/>
+      <c r="AF38" s="286"/>
+      <c r="AG38" s="286"/>
+      <c r="AH38" s="287"/>
+    </row>
+    <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="331"/>
+      <c r="F39" s="332"/>
+      <c r="G39" s="332"/>
+      <c r="H39" s="332"/>
+      <c r="I39" s="332"/>
+      <c r="J39" s="333"/>
+      <c r="K39" s="334"/>
+      <c r="L39" s="335"/>
+      <c r="M39" s="288"/>
+      <c r="N39" s="289"/>
+      <c r="O39" s="289"/>
+      <c r="P39" s="289"/>
+      <c r="Q39" s="289"/>
+      <c r="R39" s="289"/>
+      <c r="S39" s="289"/>
+      <c r="T39" s="289"/>
+      <c r="U39" s="289"/>
+      <c r="V39" s="289"/>
+      <c r="W39" s="289"/>
+      <c r="X39" s="289"/>
+      <c r="Y39" s="289"/>
+      <c r="Z39" s="289"/>
+      <c r="AA39" s="289"/>
+      <c r="AB39" s="289"/>
+      <c r="AC39" s="289"/>
+      <c r="AD39" s="289"/>
+      <c r="AE39" s="289"/>
+      <c r="AF39" s="289"/>
+      <c r="AG39" s="289"/>
+      <c r="AH39" s="290"/>
+    </row>
+    <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="331"/>
+      <c r="F40" s="332"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="333"/>
+      <c r="K40" s="334"/>
+      <c r="L40" s="335"/>
+      <c r="M40" s="288"/>
+      <c r="N40" s="289"/>
+      <c r="O40" s="289"/>
+      <c r="P40" s="289"/>
+      <c r="Q40" s="289"/>
+      <c r="R40" s="289"/>
+      <c r="S40" s="289"/>
+      <c r="T40" s="289"/>
+      <c r="U40" s="289"/>
+      <c r="V40" s="289"/>
+      <c r="W40" s="289"/>
+      <c r="X40" s="289"/>
+      <c r="Y40" s="289"/>
+      <c r="Z40" s="289"/>
+      <c r="AA40" s="289"/>
+      <c r="AB40" s="289"/>
+      <c r="AC40" s="289"/>
+      <c r="AD40" s="289"/>
+      <c r="AE40" s="289"/>
+      <c r="AF40" s="289"/>
+      <c r="AG40" s="289"/>
+      <c r="AH40" s="290"/>
+    </row>
+    <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="308"/>
+      <c r="F41" s="309"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="310"/>
+      <c r="K41" s="313"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="291"/>
+      <c r="N41" s="292"/>
+      <c r="O41" s="292"/>
+      <c r="P41" s="292"/>
+      <c r="Q41" s="292"/>
+      <c r="R41" s="292"/>
+      <c r="S41" s="292"/>
+      <c r="T41" s="292"/>
+      <c r="U41" s="292"/>
+      <c r="V41" s="292"/>
+      <c r="W41" s="292"/>
+      <c r="X41" s="292"/>
+      <c r="Y41" s="292"/>
+      <c r="Z41" s="292"/>
+      <c r="AA41" s="292"/>
+      <c r="AB41" s="292"/>
+      <c r="AC41" s="292"/>
+      <c r="AD41" s="292"/>
+      <c r="AE41" s="292"/>
+      <c r="AF41" s="292"/>
+      <c r="AG41" s="292"/>
+      <c r="AH41" s="293"/>
+    </row>
+    <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="306"/>
+      <c r="G42" s="306"/>
+      <c r="H42" s="306"/>
+      <c r="I42" s="306"/>
+      <c r="J42" s="307"/>
+      <c r="K42" s="311" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" s="312"/>
+      <c r="M42" s="315" t="s">
+        <v>200</v>
+      </c>
+      <c r="N42" s="286"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="286"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
+      <c r="S42" s="286"/>
+      <c r="T42" s="286"/>
+      <c r="U42" s="286"/>
+      <c r="V42" s="286"/>
+      <c r="W42" s="286"/>
+      <c r="X42" s="286"/>
+      <c r="Y42" s="286"/>
+      <c r="Z42" s="286"/>
+      <c r="AA42" s="286"/>
+      <c r="AB42" s="286"/>
+      <c r="AC42" s="286"/>
+      <c r="AD42" s="286"/>
+      <c r="AE42" s="286"/>
+      <c r="AF42" s="286"/>
+      <c r="AG42" s="286"/>
+      <c r="AH42" s="287"/>
+    </row>
+    <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="308"/>
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="310"/>
+      <c r="K43" s="313"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="292"/>
+      <c r="O43" s="292"/>
+      <c r="P43" s="292"/>
+      <c r="Q43" s="292"/>
+      <c r="R43" s="292"/>
+      <c r="S43" s="292"/>
+      <c r="T43" s="292"/>
+      <c r="U43" s="292"/>
+      <c r="V43" s="292"/>
+      <c r="W43" s="292"/>
+      <c r="X43" s="292"/>
+      <c r="Y43" s="292"/>
+      <c r="Z43" s="292"/>
+      <c r="AA43" s="292"/>
+      <c r="AB43" s="292"/>
+      <c r="AC43" s="292"/>
+      <c r="AD43" s="292"/>
+      <c r="AE43" s="292"/>
+      <c r="AF43" s="292"/>
+      <c r="AG43" s="292"/>
+      <c r="AH43" s="293"/>
+    </row>
+    <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="305" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="306"/>
+      <c r="I44" s="306"/>
+      <c r="J44" s="307"/>
+      <c r="K44" s="311" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="312"/>
+      <c r="M44" s="315" t="s">
+        <v>201</v>
+      </c>
+      <c r="N44" s="286"/>
+      <c r="O44" s="286"/>
+      <c r="P44" s="286"/>
+      <c r="Q44" s="286"/>
+      <c r="R44" s="286"/>
+      <c r="S44" s="286"/>
+      <c r="T44" s="286"/>
+      <c r="U44" s="286"/>
+      <c r="V44" s="286"/>
+      <c r="W44" s="286"/>
+      <c r="X44" s="286"/>
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="286"/>
+      <c r="AA44" s="286"/>
+      <c r="AB44" s="286"/>
+      <c r="AC44" s="286"/>
+      <c r="AD44" s="286"/>
+      <c r="AE44" s="286"/>
+      <c r="AF44" s="286"/>
+      <c r="AG44" s="286"/>
+      <c r="AH44" s="287"/>
+    </row>
+    <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="308"/>
+      <c r="F45" s="309"/>
+      <c r="G45" s="309"/>
+      <c r="H45" s="309"/>
+      <c r="I45" s="309"/>
+      <c r="J45" s="310"/>
+      <c r="K45" s="313"/>
+      <c r="L45" s="314"/>
+      <c r="M45" s="291"/>
+      <c r="N45" s="292"/>
+      <c r="O45" s="292"/>
+      <c r="P45" s="292"/>
+      <c r="Q45" s="292"/>
+      <c r="R45" s="292"/>
+      <c r="S45" s="292"/>
+      <c r="T45" s="292"/>
+      <c r="U45" s="292"/>
+      <c r="V45" s="292"/>
+      <c r="W45" s="292"/>
+      <c r="X45" s="292"/>
+      <c r="Y45" s="292"/>
+      <c r="Z45" s="292"/>
+      <c r="AA45" s="292"/>
+      <c r="AB45" s="292"/>
+      <c r="AC45" s="292"/>
+      <c r="AD45" s="292"/>
+      <c r="AE45" s="292"/>
+      <c r="AF45" s="292"/>
+      <c r="AG45" s="292"/>
+      <c r="AH45" s="293"/>
+    </row>
+    <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="330" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="306"/>
+      <c r="G46" s="306"/>
+      <c r="H46" s="306"/>
+      <c r="I46" s="306"/>
+      <c r="J46" s="307"/>
+      <c r="K46" s="311" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="295"/>
-      <c r="K22" s="293" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="295"/>
-      <c r="M22" s="293" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="294"/>
-      <c r="R22" s="294"/>
-      <c r="S22" s="294"/>
-      <c r="T22" s="294"/>
-      <c r="U22" s="294"/>
-      <c r="V22" s="294"/>
-      <c r="W22" s="294"/>
-      <c r="X22" s="294"/>
-      <c r="Y22" s="294"/>
-      <c r="Z22" s="294"/>
-      <c r="AA22" s="294"/>
-      <c r="AB22" s="294"/>
-      <c r="AC22" s="294"/>
-      <c r="AD22" s="294"/>
-      <c r="AE22" s="294"/>
-      <c r="AF22" s="294"/>
-      <c r="AG22" s="294"/>
-      <c r="AH22" s="295"/>
-    </row>
-    <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="300" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="301"/>
-      <c r="G23" s="301"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="301"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="188" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="189"/>
-      <c r="M23" s="308" t="s">
-        <v>139</v>
-      </c>
-      <c r="N23" s="309"/>
-      <c r="O23" s="309"/>
-      <c r="P23" s="309"/>
-      <c r="Q23" s="309"/>
-      <c r="R23" s="309"/>
-      <c r="S23" s="309"/>
-      <c r="T23" s="309"/>
-      <c r="U23" s="309"/>
-      <c r="V23" s="309"/>
-      <c r="W23" s="309"/>
-      <c r="X23" s="309"/>
-      <c r="Y23" s="309"/>
-      <c r="Z23" s="309"/>
-      <c r="AA23" s="309"/>
-      <c r="AB23" s="309"/>
-      <c r="AC23" s="309"/>
-      <c r="AD23" s="309"/>
-      <c r="AE23" s="309"/>
-      <c r="AF23" s="309"/>
-      <c r="AG23" s="309"/>
-      <c r="AH23" s="310"/>
-    </row>
-    <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="303"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="304"/>
-      <c r="I24" s="304"/>
-      <c r="J24" s="305"/>
-      <c r="K24" s="306"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="311"/>
-      <c r="N24" s="312"/>
-      <c r="O24" s="312"/>
-      <c r="P24" s="312"/>
-      <c r="Q24" s="312"/>
-      <c r="R24" s="312"/>
-      <c r="S24" s="312"/>
-      <c r="T24" s="312"/>
-      <c r="U24" s="312"/>
-      <c r="V24" s="312"/>
-      <c r="W24" s="312"/>
-      <c r="X24" s="312"/>
-      <c r="Y24" s="312"/>
-      <c r="Z24" s="312"/>
-      <c r="AA24" s="312"/>
-      <c r="AB24" s="312"/>
-      <c r="AC24" s="312"/>
-      <c r="AD24" s="312"/>
-      <c r="AE24" s="312"/>
-      <c r="AF24" s="312"/>
-      <c r="AG24" s="312"/>
-      <c r="AH24" s="313"/>
-    </row>
-    <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="320" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="318"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="318"/>
-      <c r="I25" s="318"/>
-      <c r="J25" s="315"/>
-      <c r="K25" s="324" t="s">
-        <v>192</v>
-      </c>
-      <c r="L25" s="325"/>
-      <c r="M25" s="280" t="s">
-        <v>140</v>
-      </c>
-      <c r="N25" s="281"/>
-      <c r="O25" s="281"/>
-      <c r="P25" s="281"/>
-      <c r="Q25" s="281"/>
-      <c r="R25" s="281"/>
-      <c r="S25" s="281"/>
-      <c r="T25" s="281"/>
-      <c r="U25" s="281"/>
-      <c r="V25" s="281"/>
-      <c r="W25" s="281"/>
-      <c r="X25" s="281"/>
-      <c r="Y25" s="281"/>
-      <c r="Z25" s="281"/>
-      <c r="AA25" s="281"/>
-      <c r="AB25" s="281"/>
-      <c r="AC25" s="281"/>
-      <c r="AD25" s="281"/>
-      <c r="AE25" s="281"/>
-      <c r="AF25" s="281"/>
-      <c r="AG25" s="281"/>
-      <c r="AH25" s="282"/>
-    </row>
-    <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="321"/>
-      <c r="F26" s="322"/>
-      <c r="G26" s="322"/>
-      <c r="H26" s="322"/>
-      <c r="I26" s="322"/>
-      <c r="J26" s="323"/>
-      <c r="K26" s="326"/>
-      <c r="L26" s="327"/>
-      <c r="M26" s="283"/>
-      <c r="N26" s="284"/>
-      <c r="O26" s="284"/>
-      <c r="P26" s="284"/>
-      <c r="Q26" s="284"/>
-      <c r="R26" s="284"/>
-      <c r="S26" s="284"/>
-      <c r="T26" s="284"/>
-      <c r="U26" s="284"/>
-      <c r="V26" s="284"/>
-      <c r="W26" s="284"/>
-      <c r="X26" s="284"/>
-      <c r="Y26" s="284"/>
-      <c r="Z26" s="284"/>
-      <c r="AA26" s="284"/>
-      <c r="AB26" s="284"/>
-      <c r="AC26" s="284"/>
-      <c r="AD26" s="284"/>
-      <c r="AE26" s="284"/>
-      <c r="AF26" s="284"/>
-      <c r="AG26" s="284"/>
-      <c r="AH26" s="285"/>
-    </row>
-    <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="316"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="328"/>
-      <c r="L27" s="329"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="287"/>
-      <c r="O27" s="287"/>
-      <c r="P27" s="287"/>
-      <c r="Q27" s="287"/>
-      <c r="R27" s="287"/>
-      <c r="S27" s="287"/>
-      <c r="T27" s="287"/>
-      <c r="U27" s="287"/>
-      <c r="V27" s="287"/>
-      <c r="W27" s="287"/>
-      <c r="X27" s="287"/>
-      <c r="Y27" s="287"/>
-      <c r="Z27" s="287"/>
-      <c r="AA27" s="287"/>
-      <c r="AB27" s="287"/>
-      <c r="AC27" s="287"/>
-      <c r="AD27" s="287"/>
-      <c r="AE27" s="287"/>
-      <c r="AF27" s="287"/>
-      <c r="AG27" s="287"/>
-      <c r="AH27" s="288"/>
-    </row>
-    <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="120" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="293" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="294"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="294"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="295"/>
-      <c r="K31" s="293" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="295"/>
-      <c r="M31" s="293" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="294"/>
-      <c r="O31" s="294"/>
-      <c r="P31" s="294"/>
-      <c r="Q31" s="294"/>
-      <c r="R31" s="294"/>
-      <c r="S31" s="294"/>
-      <c r="T31" s="294"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="294"/>
-      <c r="W31" s="294"/>
-      <c r="X31" s="294"/>
-      <c r="Y31" s="294"/>
-      <c r="Z31" s="294"/>
-      <c r="AA31" s="294"/>
-      <c r="AB31" s="294"/>
-      <c r="AC31" s="294"/>
-      <c r="AD31" s="294"/>
-      <c r="AE31" s="294"/>
-      <c r="AF31" s="294"/>
-      <c r="AG31" s="294"/>
-      <c r="AH31" s="295"/>
-    </row>
-    <row r="32" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="300" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="301"/>
-      <c r="G32" s="301"/>
-      <c r="H32" s="301"/>
-      <c r="I32" s="301"/>
-      <c r="J32" s="302"/>
-      <c r="K32" s="188" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32" s="189"/>
-      <c r="M32" s="308" t="s">
-        <v>139</v>
-      </c>
-      <c r="N32" s="309"/>
-      <c r="O32" s="309"/>
-      <c r="P32" s="309"/>
-      <c r="Q32" s="309"/>
-      <c r="R32" s="309"/>
-      <c r="S32" s="309"/>
-      <c r="T32" s="309"/>
-      <c r="U32" s="309"/>
-      <c r="V32" s="309"/>
-      <c r="W32" s="309"/>
-      <c r="X32" s="309"/>
-      <c r="Y32" s="309"/>
-      <c r="Z32" s="309"/>
-      <c r="AA32" s="309"/>
-      <c r="AB32" s="309"/>
-      <c r="AC32" s="309"/>
-      <c r="AD32" s="309"/>
-      <c r="AE32" s="309"/>
-      <c r="AF32" s="309"/>
-      <c r="AG32" s="309"/>
-      <c r="AH32" s="310"/>
-    </row>
-    <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="303"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="304"/>
-      <c r="H33" s="304"/>
-      <c r="I33" s="304"/>
-      <c r="J33" s="305"/>
-      <c r="K33" s="306"/>
-      <c r="L33" s="307"/>
-      <c r="M33" s="311"/>
-      <c r="N33" s="312"/>
-      <c r="O33" s="312"/>
-      <c r="P33" s="312"/>
-      <c r="Q33" s="312"/>
-      <c r="R33" s="312"/>
-      <c r="S33" s="312"/>
-      <c r="T33" s="312"/>
-      <c r="U33" s="312"/>
-      <c r="V33" s="312"/>
-      <c r="W33" s="312"/>
-      <c r="X33" s="312"/>
-      <c r="Y33" s="312"/>
-      <c r="Z33" s="312"/>
-      <c r="AA33" s="312"/>
-      <c r="AB33" s="312"/>
-      <c r="AC33" s="312"/>
-      <c r="AD33" s="312"/>
-      <c r="AE33" s="312"/>
-      <c r="AF33" s="312"/>
-      <c r="AG33" s="312"/>
-      <c r="AH33" s="313"/>
-    </row>
-    <row r="34" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="320" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="318"/>
-      <c r="G34" s="318"/>
-      <c r="H34" s="318"/>
-      <c r="I34" s="318"/>
-      <c r="J34" s="315"/>
-      <c r="K34" s="324" t="s">
-        <v>75</v>
-      </c>
-      <c r="L34" s="325"/>
-      <c r="M34" s="280" t="s">
-        <v>141</v>
-      </c>
-      <c r="N34" s="281"/>
-      <c r="O34" s="281"/>
-      <c r="P34" s="281"/>
-      <c r="Q34" s="281"/>
-      <c r="R34" s="281"/>
-      <c r="S34" s="281"/>
-      <c r="T34" s="281"/>
-      <c r="U34" s="281"/>
-      <c r="V34" s="281"/>
-      <c r="W34" s="281"/>
-      <c r="X34" s="281"/>
-      <c r="Y34" s="281"/>
-      <c r="Z34" s="281"/>
-      <c r="AA34" s="281"/>
-      <c r="AB34" s="281"/>
-      <c r="AC34" s="281"/>
-      <c r="AD34" s="281"/>
-      <c r="AE34" s="281"/>
-      <c r="AF34" s="281"/>
-      <c r="AG34" s="281"/>
-      <c r="AH34" s="282"/>
-    </row>
-    <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="321"/>
-      <c r="F35" s="322"/>
-      <c r="G35" s="322"/>
-      <c r="H35" s="322"/>
-      <c r="I35" s="322"/>
-      <c r="J35" s="323"/>
-      <c r="K35" s="326"/>
-      <c r="L35" s="327"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="284"/>
-      <c r="O35" s="284"/>
-      <c r="P35" s="284"/>
-      <c r="Q35" s="284"/>
-      <c r="R35" s="284"/>
-      <c r="S35" s="284"/>
-      <c r="T35" s="284"/>
-      <c r="U35" s="284"/>
-      <c r="V35" s="284"/>
-      <c r="W35" s="284"/>
-      <c r="X35" s="284"/>
-      <c r="Y35" s="284"/>
-      <c r="Z35" s="284"/>
-      <c r="AA35" s="284"/>
-      <c r="AB35" s="284"/>
-      <c r="AC35" s="284"/>
-      <c r="AD35" s="284"/>
-      <c r="AE35" s="284"/>
-      <c r="AF35" s="284"/>
-      <c r="AG35" s="284"/>
-      <c r="AH35" s="285"/>
-    </row>
-    <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="321"/>
-      <c r="F36" s="322"/>
-      <c r="G36" s="322"/>
-      <c r="H36" s="322"/>
-      <c r="I36" s="322"/>
-      <c r="J36" s="323"/>
-      <c r="K36" s="326"/>
-      <c r="L36" s="327"/>
-      <c r="M36" s="283"/>
-      <c r="N36" s="284"/>
-      <c r="O36" s="284"/>
-      <c r="P36" s="284"/>
-      <c r="Q36" s="284"/>
-      <c r="R36" s="284"/>
-      <c r="S36" s="284"/>
-      <c r="T36" s="284"/>
-      <c r="U36" s="284"/>
-      <c r="V36" s="284"/>
-      <c r="W36" s="284"/>
-      <c r="X36" s="284"/>
-      <c r="Y36" s="284"/>
-      <c r="Z36" s="284"/>
-      <c r="AA36" s="284"/>
-      <c r="AB36" s="284"/>
-      <c r="AC36" s="284"/>
-      <c r="AD36" s="284"/>
-      <c r="AE36" s="284"/>
-      <c r="AF36" s="284"/>
-      <c r="AG36" s="284"/>
-      <c r="AH36" s="285"/>
-    </row>
-    <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="316"/>
-      <c r="F37" s="319"/>
-      <c r="G37" s="319"/>
-      <c r="H37" s="319"/>
-      <c r="I37" s="319"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="328"/>
-      <c r="L37" s="329"/>
-      <c r="M37" s="286"/>
-      <c r="N37" s="287"/>
-      <c r="O37" s="287"/>
-      <c r="P37" s="287"/>
-      <c r="Q37" s="287"/>
-      <c r="R37" s="287"/>
-      <c r="S37" s="287"/>
-      <c r="T37" s="287"/>
-      <c r="U37" s="287"/>
-      <c r="V37" s="287"/>
-      <c r="W37" s="287"/>
-      <c r="X37" s="287"/>
-      <c r="Y37" s="287"/>
-      <c r="Z37" s="287"/>
-      <c r="AA37" s="287"/>
-      <c r="AB37" s="287"/>
-      <c r="AC37" s="287"/>
-      <c r="AD37" s="287"/>
-      <c r="AE37" s="287"/>
-      <c r="AF37" s="287"/>
-      <c r="AG37" s="287"/>
-      <c r="AH37" s="288"/>
-    </row>
-    <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="314" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="318"/>
-      <c r="G38" s="318"/>
-      <c r="H38" s="318"/>
-      <c r="I38" s="318"/>
-      <c r="J38" s="315"/>
-      <c r="K38" s="324" t="s">
-        <v>77</v>
-      </c>
-      <c r="L38" s="325"/>
-      <c r="M38" s="280" t="s">
-        <v>142</v>
-      </c>
-      <c r="N38" s="281"/>
-      <c r="O38" s="281"/>
-      <c r="P38" s="281"/>
-      <c r="Q38" s="281"/>
-      <c r="R38" s="281"/>
-      <c r="S38" s="281"/>
-      <c r="T38" s="281"/>
-      <c r="U38" s="281"/>
-      <c r="V38" s="281"/>
-      <c r="W38" s="281"/>
-      <c r="X38" s="281"/>
-      <c r="Y38" s="281"/>
-      <c r="Z38" s="281"/>
-      <c r="AA38" s="281"/>
-      <c r="AB38" s="281"/>
-      <c r="AC38" s="281"/>
-      <c r="AD38" s="281"/>
-      <c r="AE38" s="281"/>
-      <c r="AF38" s="281"/>
-      <c r="AG38" s="281"/>
-      <c r="AH38" s="282"/>
-    </row>
-    <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="321"/>
-      <c r="F39" s="322"/>
-      <c r="G39" s="322"/>
-      <c r="H39" s="322"/>
-      <c r="I39" s="322"/>
-      <c r="J39" s="323"/>
-      <c r="K39" s="326"/>
-      <c r="L39" s="327"/>
-      <c r="M39" s="283"/>
-      <c r="N39" s="284"/>
-      <c r="O39" s="284"/>
-      <c r="P39" s="284"/>
-      <c r="Q39" s="284"/>
-      <c r="R39" s="284"/>
-      <c r="S39" s="284"/>
-      <c r="T39" s="284"/>
-      <c r="U39" s="284"/>
-      <c r="V39" s="284"/>
-      <c r="W39" s="284"/>
-      <c r="X39" s="284"/>
-      <c r="Y39" s="284"/>
-      <c r="Z39" s="284"/>
-      <c r="AA39" s="284"/>
-      <c r="AB39" s="284"/>
-      <c r="AC39" s="284"/>
-      <c r="AD39" s="284"/>
-      <c r="AE39" s="284"/>
-      <c r="AF39" s="284"/>
-      <c r="AG39" s="284"/>
-      <c r="AH39" s="285"/>
-    </row>
-    <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="316"/>
-      <c r="F40" s="319"/>
-      <c r="G40" s="319"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="319"/>
-      <c r="J40" s="317"/>
-      <c r="K40" s="328"/>
-      <c r="L40" s="329"/>
-      <c r="M40" s="286"/>
-      <c r="N40" s="287"/>
-      <c r="O40" s="287"/>
-      <c r="P40" s="287"/>
-      <c r="Q40" s="287"/>
-      <c r="R40" s="287"/>
-      <c r="S40" s="287"/>
-      <c r="T40" s="287"/>
-      <c r="U40" s="287"/>
-      <c r="V40" s="287"/>
-      <c r="W40" s="287"/>
-      <c r="X40" s="287"/>
-      <c r="Y40" s="287"/>
-      <c r="Z40" s="287"/>
-      <c r="AA40" s="287"/>
-      <c r="AB40" s="287"/>
-      <c r="AC40" s="287"/>
-      <c r="AD40" s="287"/>
-      <c r="AE40" s="287"/>
-      <c r="AF40" s="287"/>
-      <c r="AG40" s="287"/>
-      <c r="AH40" s="288"/>
-    </row>
-    <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="320" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="318"/>
-      <c r="G41" s="318"/>
-      <c r="H41" s="318"/>
-      <c r="I41" s="318"/>
-      <c r="J41" s="315"/>
-      <c r="K41" s="324" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="325"/>
-      <c r="M41" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="62"/>
-    </row>
-    <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="321"/>
-      <c r="F42" s="322"/>
-      <c r="G42" s="322"/>
-      <c r="H42" s="322"/>
-      <c r="I42" s="322"/>
-      <c r="J42" s="323"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="327"/>
-      <c r="M42" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="62"/>
-    </row>
-    <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="321"/>
-      <c r="F43" s="322"/>
-      <c r="G43" s="322"/>
-      <c r="H43" s="322"/>
-      <c r="I43" s="322"/>
-      <c r="J43" s="323"/>
-      <c r="K43" s="326"/>
-      <c r="L43" s="327"/>
-      <c r="M43" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="62"/>
-    </row>
-    <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="321"/>
-      <c r="F44" s="322"/>
-      <c r="G44" s="322"/>
-      <c r="H44" s="322"/>
-      <c r="I44" s="322"/>
-      <c r="J44" s="323"/>
-      <c r="K44" s="326"/>
-      <c r="L44" s="327"/>
-      <c r="M44" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="62"/>
-    </row>
-    <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="321"/>
-      <c r="F45" s="322"/>
-      <c r="G45" s="322"/>
-      <c r="H45" s="322"/>
-      <c r="I45" s="322"/>
-      <c r="J45" s="323"/>
-      <c r="K45" s="326"/>
-      <c r="L45" s="327"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="62"/>
-    </row>
-    <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="321"/>
-      <c r="F46" s="322"/>
-      <c r="G46" s="322"/>
-      <c r="H46" s="322"/>
-      <c r="I46" s="322"/>
-      <c r="J46" s="323"/>
-      <c r="K46" s="326"/>
-      <c r="L46" s="327"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="62"/>
+      <c r="L46" s="312"/>
+      <c r="M46" s="285" t="s">
+        <v>131</v>
+      </c>
+      <c r="N46" s="286"/>
+      <c r="O46" s="286"/>
+      <c r="P46" s="286"/>
+      <c r="Q46" s="286"/>
+      <c r="R46" s="286"/>
+      <c r="S46" s="286"/>
+      <c r="T46" s="286"/>
+      <c r="U46" s="286"/>
+      <c r="V46" s="286"/>
+      <c r="W46" s="286"/>
+      <c r="X46" s="286"/>
+      <c r="Y46" s="286"/>
+      <c r="Z46" s="286"/>
+      <c r="AA46" s="286"/>
+      <c r="AB46" s="286"/>
+      <c r="AC46" s="286"/>
+      <c r="AD46" s="286"/>
+      <c r="AE46" s="286"/>
+      <c r="AF46" s="286"/>
+      <c r="AG46" s="286"/>
+      <c r="AH46" s="287"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="321"/>
-      <c r="F47" s="322"/>
-      <c r="G47" s="322"/>
-      <c r="H47" s="322"/>
-      <c r="I47" s="322"/>
-      <c r="J47" s="323"/>
-      <c r="K47" s="326"/>
-      <c r="L47" s="327"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="62"/>
+      <c r="E47" s="331"/>
+      <c r="F47" s="332"/>
+      <c r="G47" s="332"/>
+      <c r="H47" s="332"/>
+      <c r="I47" s="332"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="288"/>
+      <c r="N47" s="289"/>
+      <c r="O47" s="289"/>
+      <c r="P47" s="289"/>
+      <c r="Q47" s="289"/>
+      <c r="R47" s="289"/>
+      <c r="S47" s="289"/>
+      <c r="T47" s="289"/>
+      <c r="U47" s="289"/>
+      <c r="V47" s="289"/>
+      <c r="W47" s="289"/>
+      <c r="X47" s="289"/>
+      <c r="Y47" s="289"/>
+      <c r="Z47" s="289"/>
+      <c r="AA47" s="289"/>
+      <c r="AB47" s="289"/>
+      <c r="AC47" s="289"/>
+      <c r="AD47" s="289"/>
+      <c r="AE47" s="289"/>
+      <c r="AF47" s="289"/>
+      <c r="AG47" s="289"/>
+      <c r="AH47" s="290"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="321"/>
-      <c r="F48" s="322"/>
-      <c r="G48" s="322"/>
-      <c r="H48" s="322"/>
-      <c r="I48" s="322"/>
-      <c r="J48" s="323"/>
-      <c r="K48" s="326"/>
-      <c r="L48" s="327"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="62"/>
+      <c r="E48" s="308"/>
+      <c r="F48" s="309"/>
+      <c r="G48" s="309"/>
+      <c r="H48" s="309"/>
+      <c r="I48" s="309"/>
+      <c r="J48" s="310"/>
+      <c r="K48" s="313"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="291"/>
+      <c r="N48" s="292"/>
+      <c r="O48" s="292"/>
+      <c r="P48" s="292"/>
+      <c r="Q48" s="292"/>
+      <c r="R48" s="292"/>
+      <c r="S48" s="292"/>
+      <c r="T48" s="292"/>
+      <c r="U48" s="292"/>
+      <c r="V48" s="292"/>
+      <c r="W48" s="292"/>
+      <c r="X48" s="292"/>
+      <c r="Y48" s="292"/>
+      <c r="Z48" s="292"/>
+      <c r="AA48" s="292"/>
+      <c r="AB48" s="292"/>
+      <c r="AC48" s="292"/>
+      <c r="AD48" s="292"/>
+      <c r="AE48" s="292"/>
+      <c r="AF48" s="292"/>
+      <c r="AG48" s="292"/>
+      <c r="AH48" s="293"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="321"/>
-      <c r="F49" s="322"/>
-      <c r="G49" s="322"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="322"/>
-      <c r="J49" s="323"/>
-      <c r="K49" s="326"/>
-      <c r="L49" s="327"/>
-      <c r="M49" s="61"/>
+      <c r="E49" s="305" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="306"/>
+      <c r="G49" s="306"/>
+      <c r="H49" s="306"/>
+      <c r="I49" s="306"/>
+      <c r="J49" s="307"/>
+      <c r="K49" s="311" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" s="312"/>
+      <c r="M49" s="61" t="s">
+        <v>19</v>
+      </c>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
-      <c r="P49" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -15130,18 +15503,20 @@
       <c r="AH49" s="62"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="321"/>
-      <c r="F50" s="322"/>
-      <c r="G50" s="322"/>
-      <c r="H50" s="322"/>
-      <c r="I50" s="322"/>
-      <c r="J50" s="323"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="327"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="E50" s="331"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="332"/>
+      <c r="H50" s="332"/>
+      <c r="I50" s="332"/>
+      <c r="J50" s="333"/>
+      <c r="K50" s="334"/>
+      <c r="L50" s="335"/>
+      <c r="M50" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -15162,18 +15537,18 @@
       <c r="AH50" s="62"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="321"/>
-      <c r="F51" s="322"/>
-      <c r="G51" s="322"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="323"/>
-      <c r="K51" s="326"/>
-      <c r="L51" s="327"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="E51" s="331"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="333"/>
+      <c r="K51" s="334"/>
+      <c r="L51" s="335"/>
+      <c r="M51" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -15196,29 +15571,17 @@
       <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="321"/>
-      <c r="F52" s="322"/>
-      <c r="G52" s="322"/>
-      <c r="H52" s="322"/>
-      <c r="I52" s="322"/>
-      <c r="J52" s="323"/>
-      <c r="K52" s="326"/>
-      <c r="L52" s="327"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="56"/>
+      <c r="E52" s="331"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="333"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="335"/>
+      <c r="M52" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
       <c r="AB52" s="19"/>
@@ -15230,29 +15593,18 @@
       <c r="AH52" s="62"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="321"/>
-      <c r="F53" s="322"/>
-      <c r="G53" s="322"/>
-      <c r="H53" s="322"/>
-      <c r="I53" s="322"/>
-      <c r="J53" s="323"/>
-      <c r="K53" s="326"/>
-      <c r="L53" s="327"/>
+      <c r="E53" s="331"/>
+      <c r="F53" s="332"/>
+      <c r="G53" s="332"/>
+      <c r="H53" s="332"/>
+      <c r="I53" s="332"/>
+      <c r="J53" s="333"/>
+      <c r="K53" s="334"/>
+      <c r="L53" s="335"/>
       <c r="M53" s="61"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="56"/>
+      <c r="N53" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="Z53" s="56"/>
       <c r="AA53" s="56"/>
       <c r="AB53" s="19"/>
@@ -15264,20 +15616,20 @@
       <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="316"/>
-      <c r="F54" s="319"/>
-      <c r="G54" s="319"/>
-      <c r="H54" s="319"/>
-      <c r="I54" s="319"/>
-      <c r="J54" s="317"/>
-      <c r="K54" s="328"/>
-      <c r="L54" s="329"/>
+      <c r="E54" s="331"/>
+      <c r="F54" s="332"/>
+      <c r="G54" s="332"/>
+      <c r="H54" s="332"/>
+      <c r="I54" s="332"/>
+      <c r="J54" s="333"/>
+      <c r="K54" s="334"/>
+      <c r="L54" s="335"/>
       <c r="M54" s="61"/>
-      <c r="N54" s="19"/>
+      <c r="N54" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="O54" s="19"/>
-      <c r="P54" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
@@ -15298,693 +15650,986 @@
       <c r="AH54" s="62"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="300" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="301"/>
-      <c r="G55" s="301"/>
-      <c r="H55" s="301"/>
-      <c r="I55" s="301"/>
-      <c r="J55" s="302"/>
-      <c r="K55" s="300" t="s">
-        <v>165</v>
-      </c>
-      <c r="L55" s="302"/>
-      <c r="M55" s="308" t="s">
-        <v>143</v>
-      </c>
-      <c r="N55" s="309"/>
-      <c r="O55" s="309"/>
-      <c r="P55" s="309"/>
-      <c r="Q55" s="309"/>
-      <c r="R55" s="309"/>
-      <c r="S55" s="309"/>
-      <c r="T55" s="309"/>
-      <c r="U55" s="309"/>
-      <c r="V55" s="309"/>
-      <c r="W55" s="309"/>
-      <c r="X55" s="309"/>
-      <c r="Y55" s="309"/>
-      <c r="Z55" s="309"/>
-      <c r="AA55" s="309"/>
-      <c r="AB55" s="309"/>
-      <c r="AC55" s="309"/>
-      <c r="AD55" s="309"/>
-      <c r="AE55" s="309"/>
-      <c r="AF55" s="309"/>
-      <c r="AG55" s="309"/>
-      <c r="AH55" s="310"/>
+      <c r="E55" s="331"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="332"/>
+      <c r="I55" s="332"/>
+      <c r="J55" s="333"/>
+      <c r="K55" s="334"/>
+      <c r="L55" s="335"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="62"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="303"/>
-      <c r="F56" s="304"/>
-      <c r="G56" s="304"/>
-      <c r="H56" s="304"/>
-      <c r="I56" s="304"/>
-      <c r="J56" s="305"/>
-      <c r="K56" s="303"/>
-      <c r="L56" s="305"/>
-      <c r="M56" s="311"/>
-      <c r="N56" s="312"/>
-      <c r="O56" s="312"/>
-      <c r="P56" s="312"/>
-      <c r="Q56" s="312"/>
-      <c r="R56" s="312"/>
-      <c r="S56" s="312"/>
-      <c r="T56" s="312"/>
-      <c r="U56" s="312"/>
-      <c r="V56" s="312"/>
-      <c r="W56" s="312"/>
-      <c r="X56" s="312"/>
-      <c r="Y56" s="312"/>
-      <c r="Z56" s="312"/>
-      <c r="AA56" s="312"/>
-      <c r="AB56" s="312"/>
-      <c r="AC56" s="312"/>
-      <c r="AD56" s="312"/>
-      <c r="AE56" s="312"/>
-      <c r="AF56" s="312"/>
-      <c r="AG56" s="312"/>
-      <c r="AH56" s="313"/>
+      <c r="E56" s="331"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
+      <c r="H56" s="332"/>
+      <c r="I56" s="332"/>
+      <c r="J56" s="333"/>
+      <c r="K56" s="334"/>
+      <c r="L56" s="335"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="280" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="281"/>
-      <c r="G57" s="281"/>
-      <c r="H57" s="281"/>
-      <c r="I57" s="281"/>
-      <c r="J57" s="282"/>
-      <c r="K57" s="314" t="s">
-        <v>165</v>
-      </c>
-      <c r="L57" s="315"/>
-      <c r="M57" s="314" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="332"/>
+      <c r="G57" s="332"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="332"/>
+      <c r="J57" s="333"/>
+      <c r="K57" s="334"/>
+      <c r="L57" s="335"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="62"/>
+    </row>
+    <row r="58" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="331"/>
+      <c r="F58" s="332"/>
+      <c r="G58" s="332"/>
+      <c r="H58" s="332"/>
+      <c r="I58" s="332"/>
+      <c r="J58" s="333"/>
+      <c r="K58" s="334"/>
+      <c r="L58" s="335"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="62"/>
+    </row>
+    <row r="59" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="331"/>
+      <c r="F59" s="332"/>
+      <c r="G59" s="332"/>
+      <c r="H59" s="332"/>
+      <c r="I59" s="332"/>
+      <c r="J59" s="333"/>
+      <c r="K59" s="334"/>
+      <c r="L59" s="335"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="56"/>
+      <c r="Z59" s="56"/>
+      <c r="AA59" s="56"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="62"/>
+    </row>
+    <row r="60" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E60" s="331"/>
+      <c r="F60" s="332"/>
+      <c r="G60" s="332"/>
+      <c r="H60" s="332"/>
+      <c r="I60" s="332"/>
+      <c r="J60" s="333"/>
+      <c r="K60" s="334"/>
+      <c r="L60" s="335"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="56"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="62"/>
+    </row>
+    <row r="61" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="331"/>
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
+      <c r="H61" s="332"/>
+      <c r="I61" s="332"/>
+      <c r="J61" s="333"/>
+      <c r="K61" s="334"/>
+      <c r="L61" s="335"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="62"/>
+    </row>
+    <row r="62" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="308"/>
+      <c r="F62" s="309"/>
+      <c r="G62" s="309"/>
+      <c r="H62" s="309"/>
+      <c r="I62" s="309"/>
+      <c r="J62" s="310"/>
+      <c r="K62" s="313"/>
+      <c r="L62" s="314"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="56"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+      <c r="AF62" s="19"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="62"/>
+    </row>
+    <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="316" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="317"/>
+      <c r="G63" s="317"/>
+      <c r="H63" s="317"/>
+      <c r="I63" s="317"/>
+      <c r="J63" s="318"/>
+      <c r="K63" s="316" t="s">
+        <v>154</v>
+      </c>
+      <c r="L63" s="318"/>
+      <c r="M63" s="219" t="s">
+        <v>132</v>
+      </c>
+      <c r="N63" s="325"/>
+      <c r="O63" s="325"/>
+      <c r="P63" s="325"/>
+      <c r="Q63" s="325"/>
+      <c r="R63" s="325"/>
+      <c r="S63" s="325"/>
+      <c r="T63" s="325"/>
+      <c r="U63" s="325"/>
+      <c r="V63" s="325"/>
+      <c r="W63" s="325"/>
+      <c r="X63" s="325"/>
+      <c r="Y63" s="325"/>
+      <c r="Z63" s="325"/>
+      <c r="AA63" s="325"/>
+      <c r="AB63" s="325"/>
+      <c r="AC63" s="325"/>
+      <c r="AD63" s="325"/>
+      <c r="AE63" s="325"/>
+      <c r="AF63" s="325"/>
+      <c r="AG63" s="325"/>
+      <c r="AH63" s="326"/>
+    </row>
+    <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="319"/>
+      <c r="F64" s="320"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="320"/>
+      <c r="I64" s="320"/>
+      <c r="J64" s="321"/>
+      <c r="K64" s="319"/>
+      <c r="L64" s="321"/>
+      <c r="M64" s="327"/>
+      <c r="N64" s="328"/>
+      <c r="O64" s="328"/>
+      <c r="P64" s="328"/>
+      <c r="Q64" s="328"/>
+      <c r="R64" s="328"/>
+      <c r="S64" s="328"/>
+      <c r="T64" s="328"/>
+      <c r="U64" s="328"/>
+      <c r="V64" s="328"/>
+      <c r="W64" s="328"/>
+      <c r="X64" s="328"/>
+      <c r="Y64" s="328"/>
+      <c r="Z64" s="328"/>
+      <c r="AA64" s="328"/>
+      <c r="AB64" s="328"/>
+      <c r="AC64" s="328"/>
+      <c r="AD64" s="328"/>
+      <c r="AE64" s="328"/>
+      <c r="AF64" s="328"/>
+      <c r="AG64" s="328"/>
+      <c r="AH64" s="329"/>
+    </row>
+    <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="285" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="286"/>
+      <c r="G65" s="286"/>
+      <c r="H65" s="286"/>
+      <c r="I65" s="286"/>
+      <c r="J65" s="287"/>
+      <c r="K65" s="330" t="s">
+        <v>154</v>
+      </c>
+      <c r="L65" s="307"/>
+      <c r="M65" s="305" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" s="306"/>
+      <c r="O65" s="306"/>
+      <c r="P65" s="306"/>
+      <c r="Q65" s="306"/>
+      <c r="R65" s="306"/>
+      <c r="S65" s="306"/>
+      <c r="T65" s="306"/>
+      <c r="U65" s="306"/>
+      <c r="V65" s="306"/>
+      <c r="W65" s="306"/>
+      <c r="X65" s="306"/>
+      <c r="Y65" s="306"/>
+      <c r="Z65" s="306"/>
+      <c r="AA65" s="306"/>
+      <c r="AB65" s="306"/>
+      <c r="AC65" s="306"/>
+      <c r="AD65" s="306"/>
+      <c r="AE65" s="306"/>
+      <c r="AF65" s="306"/>
+      <c r="AG65" s="306"/>
+      <c r="AH65" s="307"/>
+    </row>
+    <row r="66" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="291"/>
+      <c r="F66" s="292"/>
+      <c r="G66" s="292"/>
+      <c r="H66" s="292"/>
+      <c r="I66" s="292"/>
+      <c r="J66" s="293"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="310"/>
+      <c r="M66" s="308"/>
+      <c r="N66" s="309"/>
+      <c r="O66" s="309"/>
+      <c r="P66" s="309"/>
+      <c r="Q66" s="309"/>
+      <c r="R66" s="309"/>
+      <c r="S66" s="309"/>
+      <c r="T66" s="309"/>
+      <c r="U66" s="309"/>
+      <c r="V66" s="309"/>
+      <c r="W66" s="309"/>
+      <c r="X66" s="309"/>
+      <c r="Y66" s="309"/>
+      <c r="Z66" s="309"/>
+      <c r="AA66" s="309"/>
+      <c r="AB66" s="309"/>
+      <c r="AC66" s="309"/>
+      <c r="AD66" s="309"/>
+      <c r="AE66" s="309"/>
+      <c r="AF66" s="309"/>
+      <c r="AG66" s="309"/>
+      <c r="AH66" s="310"/>
+    </row>
+    <row r="67" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="115"/>
+      <c r="M67" s="115"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="115"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="115"/>
+      <c r="T67" s="115"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="115"/>
+      <c r="Y67" s="115"/>
+      <c r="Z67" s="115"/>
+      <c r="AA67" s="115"/>
+      <c r="AB67" s="115"/>
+      <c r="AC67" s="115"/>
+      <c r="AD67" s="115"/>
+      <c r="AE67" s="115"/>
+      <c r="AF67" s="115"/>
+      <c r="AG67" s="115"/>
+      <c r="AH67" s="115"/>
+    </row>
+    <row r="68" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="115"/>
+      <c r="P68" s="115"/>
+      <c r="Q68" s="115"/>
+      <c r="R68" s="115"/>
+      <c r="S68" s="115"/>
+      <c r="T68" s="115"/>
+      <c r="U68" s="115"/>
+      <c r="V68" s="115"/>
+      <c r="W68" s="115"/>
+      <c r="X68" s="115"/>
+      <c r="Y68" s="115"/>
+      <c r="Z68" s="115"/>
+      <c r="AA68" s="115"/>
+      <c r="AB68" s="115"/>
+      <c r="AC68" s="115"/>
+      <c r="AD68" s="115"/>
+      <c r="AE68" s="115"/>
+      <c r="AF68" s="115"/>
+      <c r="AG68" s="115"/>
+      <c r="AH68" s="115"/>
+    </row>
+    <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="298" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="299"/>
+      <c r="G69" s="299"/>
+      <c r="H69" s="299"/>
+      <c r="I69" s="299"/>
+      <c r="J69" s="300"/>
+      <c r="K69" s="298" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" s="300"/>
+      <c r="M69" s="298" t="s">
+        <v>60</v>
+      </c>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="299"/>
+      <c r="R69" s="299"/>
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="299"/>
+      <c r="Z69" s="299"/>
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="299"/>
+      <c r="AE69" s="299"/>
+      <c r="AF69" s="299"/>
+      <c r="AG69" s="299"/>
+      <c r="AH69" s="300"/>
+    </row>
+    <row r="70" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="316" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="317"/>
+      <c r="G70" s="317"/>
+      <c r="H70" s="317"/>
+      <c r="I70" s="317"/>
+      <c r="J70" s="318"/>
+      <c r="K70" s="193" t="s">
+        <v>181</v>
+      </c>
+      <c r="L70" s="194"/>
+      <c r="M70" s="324" t="s">
+        <v>128</v>
+      </c>
+      <c r="N70" s="325"/>
+      <c r="O70" s="325"/>
+      <c r="P70" s="325"/>
+      <c r="Q70" s="325"/>
+      <c r="R70" s="325"/>
+      <c r="S70" s="325"/>
+      <c r="T70" s="325"/>
+      <c r="U70" s="325"/>
+      <c r="V70" s="325"/>
+      <c r="W70" s="325"/>
+      <c r="X70" s="325"/>
+      <c r="Y70" s="325"/>
+      <c r="Z70" s="325"/>
+      <c r="AA70" s="325"/>
+      <c r="AB70" s="325"/>
+      <c r="AC70" s="325"/>
+      <c r="AD70" s="325"/>
+      <c r="AE70" s="325"/>
+      <c r="AF70" s="325"/>
+      <c r="AG70" s="325"/>
+      <c r="AH70" s="326"/>
+    </row>
+    <row r="71" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="319"/>
+      <c r="F71" s="320"/>
+      <c r="G71" s="320"/>
+      <c r="H71" s="320"/>
+      <c r="I71" s="320"/>
+      <c r="J71" s="321"/>
+      <c r="K71" s="322"/>
+      <c r="L71" s="323"/>
+      <c r="M71" s="327"/>
+      <c r="N71" s="328"/>
+      <c r="O71" s="328"/>
+      <c r="P71" s="328"/>
+      <c r="Q71" s="328"/>
+      <c r="R71" s="328"/>
+      <c r="S71" s="328"/>
+      <c r="T71" s="328"/>
+      <c r="U71" s="328"/>
+      <c r="V71" s="328"/>
+      <c r="W71" s="328"/>
+      <c r="X71" s="328"/>
+      <c r="Y71" s="328"/>
+      <c r="Z71" s="328"/>
+      <c r="AA71" s="328"/>
+      <c r="AB71" s="328"/>
+      <c r="AC71" s="328"/>
+      <c r="AD71" s="328"/>
+      <c r="AE71" s="328"/>
+      <c r="AF71" s="328"/>
+      <c r="AG71" s="328"/>
+      <c r="AH71" s="329"/>
+    </row>
+    <row r="72" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="115"/>
+      <c r="L72" s="115"/>
+      <c r="M72" s="115"/>
+      <c r="N72" s="115"/>
+      <c r="O72" s="115"/>
+      <c r="P72" s="115"/>
+      <c r="Q72" s="115"/>
+      <c r="R72" s="115"/>
+      <c r="S72" s="115"/>
+      <c r="T72" s="115"/>
+      <c r="U72" s="115"/>
+      <c r="V72" s="115"/>
+      <c r="W72" s="115"/>
+      <c r="X72" s="115"/>
+      <c r="Y72" s="115"/>
+      <c r="Z72" s="115"/>
+      <c r="AA72" s="115"/>
+      <c r="AB72" s="115"/>
+      <c r="AC72" s="115"/>
+      <c r="AD72" s="115"/>
+      <c r="AE72" s="115"/>
+      <c r="AF72" s="115"/>
+      <c r="AG72" s="115"/>
+      <c r="AH72" s="115"/>
+    </row>
+    <row r="73" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N57" s="318"/>
-      <c r="O57" s="318"/>
-      <c r="P57" s="318"/>
-      <c r="Q57" s="318"/>
-      <c r="R57" s="318"/>
-      <c r="S57" s="318"/>
-      <c r="T57" s="318"/>
-      <c r="U57" s="318"/>
-      <c r="V57" s="318"/>
-      <c r="W57" s="318"/>
-      <c r="X57" s="318"/>
-      <c r="Y57" s="318"/>
-      <c r="Z57" s="318"/>
-      <c r="AA57" s="318"/>
-      <c r="AB57" s="318"/>
-      <c r="AC57" s="318"/>
-      <c r="AD57" s="318"/>
-      <c r="AE57" s="318"/>
-      <c r="AF57" s="318"/>
-      <c r="AG57" s="318"/>
-      <c r="AH57" s="315"/>
-    </row>
-    <row r="58" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="286"/>
-      <c r="F58" s="287"/>
-      <c r="G58" s="287"/>
-      <c r="H58" s="287"/>
-      <c r="I58" s="287"/>
-      <c r="J58" s="288"/>
-      <c r="K58" s="316"/>
-      <c r="L58" s="317"/>
-      <c r="M58" s="316"/>
-      <c r="N58" s="319"/>
-      <c r="O58" s="319"/>
-      <c r="P58" s="319"/>
-      <c r="Q58" s="319"/>
-      <c r="R58" s="319"/>
-      <c r="S58" s="319"/>
-      <c r="T58" s="319"/>
-      <c r="U58" s="319"/>
-      <c r="V58" s="319"/>
-      <c r="W58" s="319"/>
-      <c r="X58" s="319"/>
-      <c r="Y58" s="319"/>
-      <c r="Z58" s="319"/>
-      <c r="AA58" s="319"/>
-      <c r="AB58" s="319"/>
-      <c r="AC58" s="319"/>
-      <c r="AD58" s="319"/>
-      <c r="AE58" s="319"/>
-      <c r="AF58" s="319"/>
-      <c r="AG58" s="319"/>
-      <c r="AH58" s="317"/>
-    </row>
-    <row r="59" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="117"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="117"/>
-      <c r="Q59" s="117"/>
-      <c r="R59" s="117"/>
-      <c r="S59" s="117"/>
-      <c r="T59" s="117"/>
-      <c r="U59" s="117"/>
-      <c r="V59" s="117"/>
-      <c r="W59" s="117"/>
-      <c r="X59" s="117"/>
-      <c r="Y59" s="117"/>
-      <c r="Z59" s="117"/>
-      <c r="AA59" s="117"/>
-      <c r="AB59" s="117"/>
-      <c r="AC59" s="117"/>
-      <c r="AD59" s="117"/>
-      <c r="AE59" s="117"/>
-      <c r="AF59" s="117"/>
-      <c r="AG59" s="117"/>
-      <c r="AH59" s="117"/>
-    </row>
-    <row r="60" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="117"/>
-      <c r="S60" s="117"/>
-      <c r="T60" s="117"/>
-      <c r="U60" s="117"/>
-      <c r="V60" s="117"/>
-      <c r="W60" s="117"/>
-      <c r="X60" s="117"/>
-      <c r="Y60" s="117"/>
-      <c r="Z60" s="117"/>
-      <c r="AA60" s="117"/>
-      <c r="AB60" s="117"/>
-      <c r="AC60" s="117"/>
-      <c r="AD60" s="117"/>
-      <c r="AE60" s="117"/>
-      <c r="AF60" s="117"/>
-      <c r="AG60" s="117"/>
-      <c r="AH60" s="117"/>
-    </row>
-    <row r="61" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="293" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="294"/>
-      <c r="G61" s="294"/>
-      <c r="H61" s="294"/>
-      <c r="I61" s="294"/>
-      <c r="J61" s="295"/>
-      <c r="K61" s="293" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="295"/>
-      <c r="M61" s="293" t="s">
-        <v>69</v>
-      </c>
-      <c r="N61" s="294"/>
-      <c r="O61" s="294"/>
-      <c r="P61" s="294"/>
-      <c r="Q61" s="294"/>
-      <c r="R61" s="294"/>
-      <c r="S61" s="294"/>
-      <c r="T61" s="294"/>
-      <c r="U61" s="294"/>
-      <c r="V61" s="294"/>
-      <c r="W61" s="294"/>
-      <c r="X61" s="294"/>
-      <c r="Y61" s="294"/>
-      <c r="Z61" s="294"/>
-      <c r="AA61" s="294"/>
-      <c r="AB61" s="294"/>
-      <c r="AC61" s="294"/>
-      <c r="AD61" s="294"/>
-      <c r="AE61" s="294"/>
-      <c r="AF61" s="294"/>
-      <c r="AG61" s="294"/>
-      <c r="AH61" s="295"/>
-    </row>
-    <row r="62" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="300" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="301"/>
-      <c r="G62" s="301"/>
-      <c r="H62" s="301"/>
-      <c r="I62" s="301"/>
-      <c r="J62" s="302"/>
-      <c r="K62" s="188" t="s">
-        <v>195</v>
-      </c>
-      <c r="L62" s="189"/>
-      <c r="M62" s="308" t="s">
-        <v>139</v>
-      </c>
-      <c r="N62" s="309"/>
-      <c r="O62" s="309"/>
-      <c r="P62" s="309"/>
-      <c r="Q62" s="309"/>
-      <c r="R62" s="309"/>
-      <c r="S62" s="309"/>
-      <c r="T62" s="309"/>
-      <c r="U62" s="309"/>
-      <c r="V62" s="309"/>
-      <c r="W62" s="309"/>
-      <c r="X62" s="309"/>
-      <c r="Y62" s="309"/>
-      <c r="Z62" s="309"/>
-      <c r="AA62" s="309"/>
-      <c r="AB62" s="309"/>
-      <c r="AC62" s="309"/>
-      <c r="AD62" s="309"/>
-      <c r="AE62" s="309"/>
-      <c r="AF62" s="309"/>
-      <c r="AG62" s="309"/>
-      <c r="AH62" s="310"/>
-    </row>
-    <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="303"/>
-      <c r="F63" s="304"/>
-      <c r="G63" s="304"/>
-      <c r="H63" s="304"/>
-      <c r="I63" s="304"/>
-      <c r="J63" s="305"/>
-      <c r="K63" s="306"/>
-      <c r="L63" s="307"/>
-      <c r="M63" s="311"/>
-      <c r="N63" s="312"/>
-      <c r="O63" s="312"/>
-      <c r="P63" s="312"/>
-      <c r="Q63" s="312"/>
-      <c r="R63" s="312"/>
-      <c r="S63" s="312"/>
-      <c r="T63" s="312"/>
-      <c r="U63" s="312"/>
-      <c r="V63" s="312"/>
-      <c r="W63" s="312"/>
-      <c r="X63" s="312"/>
-      <c r="Y63" s="312"/>
-      <c r="Z63" s="312"/>
-      <c r="AA63" s="312"/>
-      <c r="AB63" s="312"/>
-      <c r="AC63" s="312"/>
-      <c r="AD63" s="312"/>
-      <c r="AE63" s="312"/>
-      <c r="AF63" s="312"/>
-      <c r="AG63" s="312"/>
-      <c r="AH63" s="313"/>
-    </row>
-    <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117"/>
-      <c r="AC64" s="117"/>
-      <c r="AD64" s="117"/>
-      <c r="AE64" s="117"/>
-      <c r="AF64" s="117"/>
-      <c r="AG64" s="117"/>
-      <c r="AH64" s="117"/>
-    </row>
-    <row r="65" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D65" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="4:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="4:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="65"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="65"/>
-      <c r="X71" s="65"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="65"/>
-      <c r="AA71" s="65"/>
-      <c r="AB71" s="65"/>
-      <c r="AC71" s="65"/>
-      <c r="AD71" s="65"/>
-      <c r="AE71" s="66"/>
-    </row>
-    <row r="72" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="67"/>
-      <c r="F72" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="68"/>
-    </row>
-    <row r="73" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="67"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="68"/>
-    </row>
-    <row r="74" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="69"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="S74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="68"/>
-    </row>
-    <row r="75" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="69"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="115" t="s">
-        <v>189</v>
-      </c>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="68"/>
-    </row>
-    <row r="76" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="69"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="W76" s="19"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="19"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="19"/>
-      <c r="AB76" s="19"/>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="68"/>
-    </row>
-    <row r="77" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="69"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="115" t="s">
-        <v>188</v>
-      </c>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19" t="s">
+    </row>
+    <row r="76" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="4:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="4:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
+      <c r="R79" s="64"/>
+      <c r="S79" s="64"/>
+      <c r="T79" s="64"/>
+      <c r="U79" s="64"/>
+      <c r="V79" s="64"/>
+      <c r="W79" s="64"/>
+      <c r="X79" s="64"/>
+      <c r="Y79" s="64"/>
+      <c r="Z79" s="64"/>
+      <c r="AA79" s="64"/>
+      <c r="AB79" s="64"/>
+      <c r="AC79" s="64"/>
+      <c r="AD79" s="64"/>
+      <c r="AE79" s="65"/>
+    </row>
+    <row r="80" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="66"/>
+      <c r="F80" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="67"/>
+    </row>
+    <row r="81" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="68"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S81" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="67"/>
+    </row>
+    <row r="82" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E82" s="68"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="67"/>
+    </row>
+    <row r="83" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="68"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="67"/>
+    </row>
+    <row r="84" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E84" s="68"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="19"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="19"/>
-      <c r="AB77" s="19"/>
-      <c r="AC77" s="19"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="68"/>
-    </row>
-    <row r="78" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="69"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="19"/>
-      <c r="W78" s="19"/>
-      <c r="X78" s="19"/>
-      <c r="Y78" s="19"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="19"/>
-      <c r="AB78" s="19"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="19"/>
-      <c r="AE78" s="68"/>
-    </row>
-    <row r="79" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="69"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="68"/>
-    </row>
-    <row r="80" spans="4:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="71"/>
-      <c r="W80" s="71"/>
-      <c r="X80" s="71"/>
-      <c r="Y80" s="71"/>
-      <c r="Z80" s="71"/>
-      <c r="AA80" s="71"/>
-      <c r="AB80" s="71"/>
-      <c r="AC80" s="71"/>
-      <c r="AD80" s="71"/>
-      <c r="AE80" s="72"/>
-    </row>
-    <row r="81" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="19"/>
+      <c r="AE84" s="67"/>
+    </row>
+    <row r="85" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="68"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19"/>
+      <c r="AE85" s="67"/>
+    </row>
+    <row r="86" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="68"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="67"/>
+    </row>
+    <row r="87" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="68"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="67"/>
+    </row>
+    <row r="88" spans="5:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E88" s="68"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="67"/>
+    </row>
+    <row r="89" spans="5:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="69"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="70"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="70"/>
+      <c r="X89" s="70"/>
+      <c r="Y89" s="70"/>
+      <c r="Z89" s="70"/>
+      <c r="AA89" s="70"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="70"/>
+      <c r="AD89" s="70"/>
+      <c r="AE89" s="71"/>
+    </row>
+    <row r="90" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="64">
     <mergeCell ref="M22:AH22"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -16009,34 +16654,46 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E34:J37"/>
-    <mergeCell ref="K34:L37"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="M57:AH58"/>
-    <mergeCell ref="E41:J54"/>
-    <mergeCell ref="K41:L54"/>
-    <mergeCell ref="E55:J56"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="M55:AH56"/>
+    <mergeCell ref="E38:J41"/>
+    <mergeCell ref="K38:L41"/>
+    <mergeCell ref="E46:J48"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="E42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E49:J62"/>
+    <mergeCell ref="K49:L62"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
     <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="M34:AH37"/>
-    <mergeCell ref="M32:AH33"/>
-    <mergeCell ref="M31:AH31"/>
+    <mergeCell ref="M46:AH48"/>
+    <mergeCell ref="M38:AH41"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="M35:AH35"/>
     <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:AH61"/>
-    <mergeCell ref="E62:J63"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="M62:AH63"/>
+    <mergeCell ref="M42:AH43"/>
+    <mergeCell ref="M44:AH45"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="E70:J71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="M70:AH71"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -16045,10 +16702,11 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="28" max="16383" man="1"/>
-    <brk id="64" max="16383" man="1"/>
-    <brk id="215" max="16383" man="1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="32" max="16383" man="1"/>
+    <brk id="67" max="16383" man="1"/>
+    <brk id="72" max="16383" man="1"/>
+    <brk id="224" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0249BF4-21BB-4A74-B29A-0A63DEC7ED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D65DAA-D50F-431D-80C1-6122BA361BD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="232">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -591,13 +591,6 @@
     <t>取引単体テスト</t>
     <rPh sb="0" eb="4">
       <t>トリヒキタンタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>打鍵テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ダケン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2144,10 +2137,6 @@
       </rPr>
       <t>EST</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3462,6 +3451,15 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3480,24 +3478,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3564,12 +3619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3595,15 +3644,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3613,58 +3653,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3702,18 +3691,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3723,9 +3781,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3762,71 +3817,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3873,57 +3973,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3933,65 +3982,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4002,6 +4015,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4017,74 +4039,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5730,7 +5719,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="39"/>
       <c r="J23" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -6386,57 +6375,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="174" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="s">
-        <v>153</v>
-      </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -6444,53 +6433,53 @@
       <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="186" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="152" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="149">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -6498,45 +6487,45 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="161" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="A3" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="183" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
@@ -6673,1044 +6662,1044 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="129"/>
+      <c r="D7" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="130"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="193" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="193" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="193" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="193" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="195"/>
-      <c r="S7" s="195"/>
-      <c r="T7" s="195"/>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="195"/>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="194"/>
-      <c r="AF7" s="193" t="s">
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="195"/>
-      <c r="AH7" s="195"/>
-      <c r="AI7" s="194"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="129"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="99">
         <v>1</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166">
-        <v>43643</v>
-      </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172" t="s">
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175" t="s">
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="172" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="174"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="160"/>
     </row>
     <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="120">
         <v>2</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="140" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137">
+        <v>43850</v>
+      </c>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="145"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="195" t="s">
+        <v>204</v>
+      </c>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="161" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="136">
-        <v>43850</v>
-      </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="192" t="s">
-        <v>203</v>
-      </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="178" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="179" t="s">
-        <v>206</v>
-      </c>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="178" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="130"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="120"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="120"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="120"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="120"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="133"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="120"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="120"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="120"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="120"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="120"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="120"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="133"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="120"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="120"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="133"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="120"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="120"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="120"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="120"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="120"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="120"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="120"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="131"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="120"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="130"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="131"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="120"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="130"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="120"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="130"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="131"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="120"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="130"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="120"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="130"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
       <c r="AJ33" s="48"/>
       <c r="AK33" s="48"/>
       <c r="AL33" s="48"/>
@@ -7719,16 +7708,151 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -7753,151 +7877,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7928,31 +7917,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="A1" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -7964,23 +7953,23 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AA1" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -7997,29 +7986,29 @@
       <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="A2" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -8028,23 +8017,23 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AA2" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -8061,29 +8050,29 @@
       <c r="AW2" s="42"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="A3" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -8092,21 +8081,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -8189,7 +8178,7 @@
       <c r="M5" s="46"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
@@ -8278,7 +8267,7 @@
     <row r="7" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="19"/>
@@ -8330,7 +8319,7 @@
     <row r="8" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="C8" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8432,7 +8421,7 @@
     <row r="10" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -8485,7 +8474,7 @@
     <row r="11" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="C11" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8537,7 +8526,7 @@
     <row r="12" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="C12" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8588,7 +8577,7 @@
     <row r="13" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="C13" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8691,7 +8680,7 @@
     <row r="15" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -8742,7 +8731,7 @@
     <row r="16" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="C16" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
@@ -8793,7 +8782,7 @@
     <row r="17" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="C17" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8845,7 +8834,7 @@
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
       <c r="C18" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="1"/>
@@ -11299,14 +11288,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11316,6 +11297,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11345,31 +11334,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="A1" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11381,48 +11370,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AA1" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="A2" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -11431,48 +11420,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AA2" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="A3" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -11481,21 +11470,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11536,7 +11525,7 @@
     </row>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B5" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11575,7 +11564,7 @@
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="C6" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -11760,7 +11749,7 @@
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -11798,7 +11787,7 @@
       <c r="A12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -11871,14 +11860,6 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11888,6 +11869,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11919,31 +11908,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="A1" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11955,48 +11944,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AA1" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="A2" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12005,48 +11994,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AA2" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="A3" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12055,32 +12044,32 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>29</v>
@@ -12092,7 +12081,7 @@
     </row>
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D8" s="74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12131,7 +12120,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D21" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12141,363 +12130,363 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="212" t="s">
+      <c r="D24" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="212" t="s">
+      <c r="E24" s="236"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="236"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="237"/>
+      <c r="J24" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="213"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="213"/>
-      <c r="AH24" s="214"/>
+      <c r="K24" s="236"/>
+      <c r="L24" s="236"/>
+      <c r="M24" s="236"/>
+      <c r="N24" s="236"/>
+      <c r="O24" s="236"/>
+      <c r="P24" s="236"/>
+      <c r="Q24" s="236"/>
+      <c r="R24" s="236"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="236"/>
+      <c r="U24" s="236"/>
+      <c r="V24" s="236"/>
+      <c r="W24" s="236"/>
+      <c r="X24" s="236"/>
+      <c r="Y24" s="236"/>
+      <c r="Z24" s="236"/>
+      <c r="AA24" s="236"/>
+      <c r="AB24" s="236"/>
+      <c r="AC24" s="236"/>
+      <c r="AD24" s="236"/>
+      <c r="AE24" s="236"/>
+      <c r="AF24" s="236"/>
+      <c r="AG24" s="236"/>
+      <c r="AH24" s="237"/>
     </row>
     <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="237" t="s">
+      <c r="D25" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="238"/>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="219" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
-      <c r="T25" s="220"/>
-      <c r="U25" s="220"/>
-      <c r="V25" s="220"/>
-      <c r="W25" s="220"/>
-      <c r="X25" s="220"/>
-      <c r="Y25" s="220"/>
-      <c r="Z25" s="220"/>
-      <c r="AA25" s="220"/>
-      <c r="AB25" s="220"/>
-      <c r="AC25" s="220"/>
-      <c r="AD25" s="220"/>
-      <c r="AE25" s="220"/>
-      <c r="AF25" s="220"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="221"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="241" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="242"/>
+      <c r="L25" s="242"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="242"/>
+      <c r="O25" s="242"/>
+      <c r="P25" s="242"/>
+      <c r="Q25" s="242"/>
+      <c r="R25" s="242"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="242"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="242"/>
+      <c r="W25" s="242"/>
+      <c r="X25" s="242"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="242"/>
+      <c r="AA25" s="242"/>
+      <c r="AB25" s="242"/>
+      <c r="AC25" s="242"/>
+      <c r="AD25" s="242"/>
+      <c r="AE25" s="242"/>
+      <c r="AF25" s="242"/>
+      <c r="AG25" s="242"/>
+      <c r="AH25" s="243"/>
     </row>
     <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="240"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="223"/>
-      <c r="O26" s="223"/>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="223"/>
-      <c r="S26" s="223"/>
-      <c r="T26" s="223"/>
-      <c r="U26" s="223"/>
-      <c r="V26" s="223"/>
-      <c r="W26" s="223"/>
-      <c r="X26" s="223"/>
-      <c r="Y26" s="223"/>
-      <c r="Z26" s="223"/>
-      <c r="AA26" s="223"/>
-      <c r="AB26" s="223"/>
-      <c r="AC26" s="223"/>
-      <c r="AD26" s="223"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="223"/>
-      <c r="AH26" s="224"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="245"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="245"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="245"/>
+      <c r="R26" s="245"/>
+      <c r="S26" s="245"/>
+      <c r="T26" s="245"/>
+      <c r="U26" s="245"/>
+      <c r="V26" s="245"/>
+      <c r="W26" s="245"/>
+      <c r="X26" s="245"/>
+      <c r="Y26" s="245"/>
+      <c r="Z26" s="245"/>
+      <c r="AA26" s="245"/>
+      <c r="AB26" s="245"/>
+      <c r="AC26" s="245"/>
+      <c r="AD26" s="245"/>
+      <c r="AE26" s="245"/>
+      <c r="AF26" s="245"/>
+      <c r="AG26" s="245"/>
+      <c r="AH26" s="246"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="225"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="226"/>
-      <c r="AA27" s="226"/>
-      <c r="AB27" s="226"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="226"/>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="226"/>
-      <c r="AH27" s="227"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
+      <c r="S27" s="248"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="248"/>
+      <c r="W27" s="248"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="248"/>
+      <c r="AA27" s="248"/>
+      <c r="AB27" s="248"/>
+      <c r="AC27" s="248"/>
+      <c r="AD27" s="248"/>
+      <c r="AE27" s="248"/>
+      <c r="AF27" s="248"/>
+      <c r="AG27" s="248"/>
+      <c r="AH27" s="249"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="237" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="228" t="s">
+      <c r="D28" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="229"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="229"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="229"/>
-      <c r="U28" s="229"/>
-      <c r="V28" s="229"/>
-      <c r="W28" s="229"/>
-      <c r="X28" s="229"/>
-      <c r="Y28" s="229"/>
-      <c r="Z28" s="229"/>
-      <c r="AA28" s="229"/>
-      <c r="AB28" s="229"/>
-      <c r="AC28" s="229"/>
-      <c r="AD28" s="229"/>
-      <c r="AE28" s="229"/>
-      <c r="AF28" s="229"/>
-      <c r="AG28" s="229"/>
-      <c r="AH28" s="230"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="225" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="226"/>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="226"/>
+      <c r="P28" s="226"/>
+      <c r="Q28" s="226"/>
+      <c r="R28" s="226"/>
+      <c r="S28" s="226"/>
+      <c r="T28" s="226"/>
+      <c r="U28" s="226"/>
+      <c r="V28" s="226"/>
+      <c r="W28" s="226"/>
+      <c r="X28" s="226"/>
+      <c r="Y28" s="226"/>
+      <c r="Z28" s="226"/>
+      <c r="AA28" s="226"/>
+      <c r="AB28" s="226"/>
+      <c r="AC28" s="226"/>
+      <c r="AD28" s="226"/>
+      <c r="AE28" s="226"/>
+      <c r="AF28" s="226"/>
+      <c r="AG28" s="226"/>
+      <c r="AH28" s="227"/>
     </row>
     <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="240"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="232"/>
-      <c r="Q29" s="232"/>
-      <c r="R29" s="232"/>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="232"/>
-      <c r="W29" s="232"/>
-      <c r="X29" s="232"/>
-      <c r="Y29" s="232"/>
-      <c r="Z29" s="232"/>
-      <c r="AA29" s="232"/>
-      <c r="AB29" s="232"/>
-      <c r="AC29" s="232"/>
-      <c r="AD29" s="232"/>
-      <c r="AE29" s="232"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="232"/>
-      <c r="AH29" s="233"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="229"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="229"/>
+      <c r="N29" s="229"/>
+      <c r="O29" s="229"/>
+      <c r="P29" s="229"/>
+      <c r="Q29" s="229"/>
+      <c r="R29" s="229"/>
+      <c r="S29" s="229"/>
+      <c r="T29" s="229"/>
+      <c r="U29" s="229"/>
+      <c r="V29" s="229"/>
+      <c r="W29" s="229"/>
+      <c r="X29" s="229"/>
+      <c r="Y29" s="229"/>
+      <c r="Z29" s="229"/>
+      <c r="AA29" s="229"/>
+      <c r="AB29" s="229"/>
+      <c r="AC29" s="229"/>
+      <c r="AD29" s="229"/>
+      <c r="AE29" s="229"/>
+      <c r="AF29" s="229"/>
+      <c r="AG29" s="229"/>
+      <c r="AH29" s="230"/>
     </row>
     <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="243"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="234"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="235"/>
-      <c r="M30" s="235"/>
-      <c r="N30" s="235"/>
-      <c r="O30" s="235"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="235"/>
-      <c r="R30" s="235"/>
-      <c r="S30" s="235"/>
-      <c r="T30" s="235"/>
-      <c r="U30" s="235"/>
-      <c r="V30" s="235"/>
-      <c r="W30" s="235"/>
-      <c r="X30" s="235"/>
-      <c r="Y30" s="235"/>
-      <c r="Z30" s="235"/>
-      <c r="AA30" s="235"/>
-      <c r="AB30" s="235"/>
-      <c r="AC30" s="235"/>
-      <c r="AD30" s="235"/>
-      <c r="AE30" s="235"/>
-      <c r="AF30" s="235"/>
-      <c r="AG30" s="235"/>
-      <c r="AH30" s="236"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="232"/>
+      <c r="Q30" s="232"/>
+      <c r="R30" s="232"/>
+      <c r="S30" s="232"/>
+      <c r="T30" s="232"/>
+      <c r="U30" s="232"/>
+      <c r="V30" s="232"/>
+      <c r="W30" s="232"/>
+      <c r="X30" s="232"/>
+      <c r="Y30" s="232"/>
+      <c r="Z30" s="232"/>
+      <c r="AA30" s="232"/>
+      <c r="AB30" s="232"/>
+      <c r="AC30" s="232"/>
+      <c r="AD30" s="232"/>
+      <c r="AE30" s="232"/>
+      <c r="AF30" s="232"/>
+      <c r="AG30" s="232"/>
+      <c r="AH30" s="233"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="246" t="s">
+      <c r="D31" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="228" t="s">
-        <v>198</v>
-      </c>
-      <c r="K31" s="229"/>
-      <c r="L31" s="229"/>
-      <c r="M31" s="229"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="229"/>
-      <c r="P31" s="229"/>
-      <c r="Q31" s="229"/>
-      <c r="R31" s="229"/>
-      <c r="S31" s="229"/>
-      <c r="T31" s="229"/>
-      <c r="U31" s="229"/>
-      <c r="V31" s="229"/>
-      <c r="W31" s="229"/>
-      <c r="X31" s="229"/>
-      <c r="Y31" s="229"/>
-      <c r="Z31" s="229"/>
-      <c r="AA31" s="229"/>
-      <c r="AB31" s="229"/>
-      <c r="AC31" s="229"/>
-      <c r="AD31" s="229"/>
-      <c r="AE31" s="229"/>
-      <c r="AF31" s="229"/>
-      <c r="AG31" s="229"/>
-      <c r="AH31" s="230"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="225" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="226"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="226"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="226"/>
+      <c r="S31" s="226"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="226"/>
+      <c r="V31" s="226"/>
+      <c r="W31" s="226"/>
+      <c r="X31" s="226"/>
+      <c r="Y31" s="226"/>
+      <c r="Z31" s="226"/>
+      <c r="AA31" s="226"/>
+      <c r="AB31" s="226"/>
+      <c r="AC31" s="226"/>
+      <c r="AD31" s="226"/>
+      <c r="AE31" s="226"/>
+      <c r="AF31" s="226"/>
+      <c r="AG31" s="226"/>
+      <c r="AH31" s="227"/>
     </row>
     <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="240"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="232"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
-      <c r="W32" s="232"/>
-      <c r="X32" s="232"/>
-      <c r="Y32" s="232"/>
-      <c r="Z32" s="232"/>
-      <c r="AA32" s="232"/>
-      <c r="AB32" s="232"/>
-      <c r="AC32" s="232"/>
-      <c r="AD32" s="232"/>
-      <c r="AE32" s="232"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="233"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="228"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="229"/>
+      <c r="N32" s="229"/>
+      <c r="O32" s="229"/>
+      <c r="P32" s="229"/>
+      <c r="Q32" s="229"/>
+      <c r="R32" s="229"/>
+      <c r="S32" s="229"/>
+      <c r="T32" s="229"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="229"/>
+      <c r="W32" s="229"/>
+      <c r="X32" s="229"/>
+      <c r="Y32" s="229"/>
+      <c r="Z32" s="229"/>
+      <c r="AA32" s="229"/>
+      <c r="AB32" s="229"/>
+      <c r="AC32" s="229"/>
+      <c r="AD32" s="229"/>
+      <c r="AE32" s="229"/>
+      <c r="AF32" s="229"/>
+      <c r="AG32" s="229"/>
+      <c r="AH32" s="230"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="245"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="235"/>
-      <c r="M33" s="235"/>
-      <c r="N33" s="235"/>
-      <c r="O33" s="235"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="235"/>
-      <c r="V33" s="235"/>
-      <c r="W33" s="235"/>
-      <c r="X33" s="235"/>
-      <c r="Y33" s="235"/>
-      <c r="Z33" s="235"/>
-      <c r="AA33" s="235"/>
-      <c r="AB33" s="235"/>
-      <c r="AC33" s="235"/>
-      <c r="AD33" s="235"/>
-      <c r="AE33" s="235"/>
-      <c r="AF33" s="235"/>
-      <c r="AG33" s="235"/>
-      <c r="AH33" s="236"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="232"/>
+      <c r="N33" s="232"/>
+      <c r="O33" s="232"/>
+      <c r="P33" s="232"/>
+      <c r="Q33" s="232"/>
+      <c r="R33" s="232"/>
+      <c r="S33" s="232"/>
+      <c r="T33" s="232"/>
+      <c r="U33" s="232"/>
+      <c r="V33" s="232"/>
+      <c r="W33" s="232"/>
+      <c r="X33" s="232"/>
+      <c r="Y33" s="232"/>
+      <c r="Z33" s="232"/>
+      <c r="AA33" s="232"/>
+      <c r="AB33" s="232"/>
+      <c r="AC33" s="232"/>
+      <c r="AD33" s="232"/>
+      <c r="AE33" s="232"/>
+      <c r="AF33" s="232"/>
+      <c r="AG33" s="232"/>
+      <c r="AH33" s="233"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D36" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12507,42 +12496,42 @@
     </row>
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="247" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="248"/>
-      <c r="F39" s="248"/>
-      <c r="G39" s="249"/>
-      <c r="H39" s="215" t="s">
+      <c r="D39" s="222" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="223"/>
+      <c r="F39" s="223"/>
+      <c r="G39" s="224"/>
+      <c r="H39" s="218" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="215" t="s">
+      <c r="M39" s="238"/>
+      <c r="N39" s="238"/>
+      <c r="O39" s="239"/>
+      <c r="P39" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="M39" s="216"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="215" t="s">
+      <c r="Q39" s="135"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="136"/>
+      <c r="T39" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="215" t="s">
-        <v>80</v>
-      </c>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="218" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="132"/>
-      <c r="AA39" s="133"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
+      <c r="W39" s="136"/>
+      <c r="X39" s="240" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y39" s="135"/>
+      <c r="Z39" s="135"/>
+      <c r="AA39" s="136"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D40" s="205" t="s">
@@ -12583,20 +12572,20 @@
       <c r="AA40" s="207"/>
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="210"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="209" t="s">
-        <v>185</v>
+      <c r="D41" s="219" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="219" t="s">
+        <v>184</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
-      <c r="L41" s="209" t="s">
-        <v>186</v>
+      <c r="L41" s="219" t="s">
+        <v>185</v>
       </c>
       <c r="M41" s="206"/>
       <c r="N41" s="206"/>
@@ -12613,8 +12602,8 @@
       <c r="U41" s="206"/>
       <c r="V41" s="206"/>
       <c r="W41" s="207"/>
-      <c r="X41" s="208" t="s">
-        <v>195</v>
+      <c r="X41" s="205" t="s">
+        <v>34</v>
       </c>
       <c r="Y41" s="206"/>
       <c r="Z41" s="206"/>
@@ -12627,32 +12616,32 @@
       <c r="E42" s="206"/>
       <c r="F42" s="206"/>
       <c r="G42" s="207"/>
-      <c r="H42" s="209" t="s">
-        <v>221</v>
-      </c>
-      <c r="I42" s="210"/>
-      <c r="J42" s="210"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="209" t="s">
-        <v>221</v>
-      </c>
-      <c r="M42" s="210"/>
-      <c r="N42" s="210"/>
-      <c r="O42" s="211"/>
-      <c r="P42" s="208" t="s">
+      <c r="H42" s="219" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="219" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
+      <c r="O42" s="221"/>
+      <c r="P42" s="234" t="s">
         <v>34</v>
       </c>
       <c r="Q42" s="206"/>
       <c r="R42" s="206"/>
       <c r="S42" s="207"/>
-      <c r="T42" s="208" t="s">
+      <c r="T42" s="234" t="s">
         <v>34</v>
       </c>
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
-      <c r="X42" s="205" t="s">
-        <v>49</v>
+      <c r="X42" s="234" t="s">
+        <v>34</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
@@ -12660,7 +12649,7 @@
     </row>
     <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D43" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>42</v>
@@ -12668,15 +12657,15 @@
     </row>
     <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D44" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C45" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="19"/>
     </row>
@@ -12686,7 +12675,7 @@
     </row>
     <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D47" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12695,7 +12684,7 @@
     <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C50" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -12705,7 +12694,7 @@
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D52" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
@@ -12713,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
@@ -12721,11 +12710,44 @@
         <v>46</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="J24:AH24"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J25:AH27"/>
+    <mergeCell ref="J31:AH33"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D25:I27"/>
     <mergeCell ref="D31:I33"/>
@@ -12742,39 +12764,6 @@
     <mergeCell ref="X40:AA40"/>
     <mergeCell ref="X41:AA41"/>
     <mergeCell ref="P42:S42"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12809,31 +12798,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="A1" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -12845,48 +12834,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AA1" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="A2" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12895,48 +12884,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AA2" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="A3" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12945,35 +12934,35 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12982,7 +12971,7 @@
     <row r="8" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
       <c r="D8" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -13004,7 +12993,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="22"/>
       <c r="D9" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -13026,7 +13015,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -13070,7 +13059,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13079,7 +13068,7 @@
     <row r="14" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13094,29 +13083,29 @@
     <row r="17" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="22"/>
       <c r="E18" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D21" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E22" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
@@ -13125,7 +13114,7 @@
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E24" s="56"/>
       <c r="F24" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
@@ -13166,42 +13155,42 @@
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E26" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D28" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="298" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="300"/>
-      <c r="I28" s="268" t="s">
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="286"/>
+      <c r="I28" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="269"/>
-      <c r="K28" s="270"/>
-      <c r="L28" s="280" t="s">
+      <c r="J28" s="263"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="280"/>
-      <c r="N28" s="280"/>
-      <c r="O28" s="280"/>
-      <c r="P28" s="280"/>
-      <c r="Q28" s="268" t="s">
+      <c r="M28" s="283"/>
+      <c r="N28" s="283"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="283"/>
+      <c r="Q28" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="269"/>
-      <c r="S28" s="269"/>
-      <c r="T28" s="270"/>
-      <c r="U28" s="268" t="s">
+      <c r="R28" s="263"/>
+      <c r="S28" s="263"/>
+      <c r="T28" s="264"/>
+      <c r="U28" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="269"/>
-      <c r="W28" s="270"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
       <c r="X28" s="72" t="s">
         <v>39</v>
       </c>
@@ -13222,31 +13211,31 @@
       <c r="D29" s="81">
         <v>1</v>
       </c>
-      <c r="E29" s="285" t="s">
+      <c r="E29" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="286"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="301" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="302"/>
-      <c r="K29" s="302"/>
-      <c r="L29" s="297" t="s">
+      <c r="F29" s="278"/>
+      <c r="G29" s="278"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="271" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="272"/>
+      <c r="K29" s="272"/>
+      <c r="L29" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="297"/>
-      <c r="N29" s="297"/>
-      <c r="O29" s="297"/>
-      <c r="P29" s="297"/>
-      <c r="Q29" s="288"/>
-      <c r="R29" s="289"/>
-      <c r="S29" s="289"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="288"/>
-      <c r="V29" s="289"/>
-      <c r="W29" s="290"/>
+      <c r="M29" s="273"/>
+      <c r="N29" s="273"/>
+      <c r="O29" s="273"/>
+      <c r="P29" s="273"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="266"/>
+      <c r="S29" s="266"/>
+      <c r="T29" s="267"/>
+      <c r="U29" s="265"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="267"/>
       <c r="X29" s="82" t="s">
         <v>8</v>
       </c>
@@ -13267,27 +13256,27 @@
       <c r="D30" s="81">
         <v>2</v>
       </c>
-      <c r="E30" s="288"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="302"/>
-      <c r="J30" s="302"/>
-      <c r="K30" s="302"/>
-      <c r="L30" s="297" t="s">
+      <c r="E30" s="265"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="272"/>
+      <c r="K30" s="272"/>
+      <c r="L30" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="297"/>
-      <c r="N30" s="297"/>
-      <c r="O30" s="297"/>
-      <c r="P30" s="297"/>
-      <c r="Q30" s="288"/>
-      <c r="R30" s="289"/>
-      <c r="S30" s="289"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="288"/>
-      <c r="V30" s="289"/>
-      <c r="W30" s="290"/>
+      <c r="M30" s="273"/>
+      <c r="N30" s="273"/>
+      <c r="O30" s="273"/>
+      <c r="P30" s="273"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="266"/>
+      <c r="S30" s="266"/>
+      <c r="T30" s="267"/>
+      <c r="U30" s="265"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="267"/>
       <c r="X30" s="82" t="s">
         <v>3</v>
       </c>
@@ -13306,27 +13295,27 @@
       <c r="D31" s="88">
         <v>3</v>
       </c>
-      <c r="E31" s="291"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="293"/>
-      <c r="I31" s="302"/>
-      <c r="J31" s="302"/>
-      <c r="K31" s="302"/>
-      <c r="L31" s="297" t="s">
+      <c r="E31" s="280"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="281"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="272"/>
+      <c r="L31" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="297"/>
-      <c r="N31" s="297"/>
-      <c r="O31" s="297"/>
-      <c r="P31" s="297"/>
-      <c r="Q31" s="294"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="295"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="295"/>
-      <c r="W31" s="296"/>
+      <c r="M31" s="273"/>
+      <c r="N31" s="273"/>
+      <c r="O31" s="273"/>
+      <c r="P31" s="273"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="269"/>
+      <c r="T31" s="270"/>
+      <c r="U31" s="268"/>
+      <c r="V31" s="269"/>
+      <c r="W31" s="270"/>
       <c r="X31" s="89" t="s">
         <v>4</v>
       </c>
@@ -13364,7 +13353,7 @@
     <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -13407,7 +13396,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="58"/>
       <c r="F35" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -13447,7 +13436,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E37" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.15">
@@ -13472,52 +13461,52 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="262" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="264"/>
-      <c r="I39" s="268" t="s">
+      <c r="F39" s="300"/>
+      <c r="G39" s="300"/>
+      <c r="H39" s="301"/>
+      <c r="I39" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="269"/>
-      <c r="K39" s="270"/>
-      <c r="L39" s="280" t="s">
+      <c r="J39" s="263"/>
+      <c r="K39" s="264"/>
+      <c r="L39" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="280"/>
-      <c r="N39" s="280"/>
-      <c r="O39" s="280"/>
-      <c r="P39" s="280"/>
-      <c r="Q39" s="282" t="s">
+      <c r="M39" s="283"/>
+      <c r="N39" s="283"/>
+      <c r="O39" s="283"/>
+      <c r="P39" s="283"/>
+      <c r="Q39" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="283"/>
-      <c r="S39" s="283"/>
-      <c r="T39" s="284"/>
-      <c r="U39" s="268" t="s">
+      <c r="R39" s="303"/>
+      <c r="S39" s="303"/>
+      <c r="T39" s="304"/>
+      <c r="U39" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="269"/>
-      <c r="W39" s="270"/>
-      <c r="X39" s="262" t="s">
+      <c r="V39" s="263"/>
+      <c r="W39" s="264"/>
+      <c r="X39" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="Y39" s="263"/>
-      <c r="Z39" s="263"/>
-      <c r="AA39" s="263"/>
-      <c r="AB39" s="263"/>
-      <c r="AC39" s="263"/>
-      <c r="AD39" s="263"/>
-      <c r="AE39" s="264"/>
-      <c r="AF39" s="250" t="s">
+      <c r="Y39" s="300"/>
+      <c r="Z39" s="300"/>
+      <c r="AA39" s="300"/>
+      <c r="AB39" s="300"/>
+      <c r="AC39" s="300"/>
+      <c r="AD39" s="300"/>
+      <c r="AE39" s="301"/>
+      <c r="AF39" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="AG39" s="251"/>
-      <c r="AH39" s="252"/>
+      <c r="AG39" s="288"/>
+      <c r="AH39" s="289"/>
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
@@ -13530,47 +13519,47 @@
       <c r="D40" s="81">
         <v>1</v>
       </c>
-      <c r="E40" s="253" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="254"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="255"/>
-      <c r="I40" s="271" t="s">
+      <c r="E40" s="290" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="291"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="292"/>
+      <c r="I40" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="272"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="281" t="s">
-        <v>83</v>
-      </c>
-      <c r="M40" s="281"/>
-      <c r="N40" s="281"/>
-      <c r="O40" s="281"/>
-      <c r="P40" s="281"/>
-      <c r="Q40" s="253" t="s">
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="275" t="s">
+        <v>82</v>
+      </c>
+      <c r="M40" s="275"/>
+      <c r="N40" s="275"/>
+      <c r="O40" s="275"/>
+      <c r="P40" s="275"/>
+      <c r="Q40" s="290" t="s">
+        <v>137</v>
+      </c>
+      <c r="R40" s="291"/>
+      <c r="S40" s="291"/>
+      <c r="T40" s="292"/>
+      <c r="U40" s="253" t="s">
         <v>138</v>
       </c>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="255"/>
-      <c r="U40" s="271" t="s">
-        <v>139</v>
-      </c>
-      <c r="V40" s="272"/>
-      <c r="W40" s="273"/>
-      <c r="X40" s="265" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y40" s="266"/>
-      <c r="Z40" s="266"/>
-      <c r="AA40" s="266"/>
-      <c r="AB40" s="266"/>
-      <c r="AC40" s="266"/>
-      <c r="AD40" s="266"/>
-      <c r="AE40" s="267"/>
+      <c r="V40" s="254"/>
+      <c r="W40" s="255"/>
+      <c r="X40" s="250" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y40" s="251"/>
+      <c r="Z40" s="251"/>
+      <c r="AA40" s="251"/>
+      <c r="AB40" s="251"/>
+      <c r="AC40" s="251"/>
+      <c r="AD40" s="251"/>
+      <c r="AE40" s="252"/>
       <c r="AF40" s="100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG40" s="101"/>
       <c r="AH40" s="102"/>
@@ -13586,37 +13575,37 @@
       <c r="D41" s="81">
         <v>2</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="258"/>
-      <c r="I41" s="274"/>
-      <c r="J41" s="275"/>
-      <c r="K41" s="276"/>
-      <c r="L41" s="281" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" s="281"/>
-      <c r="N41" s="281"/>
-      <c r="O41" s="281"/>
-      <c r="P41" s="281"/>
-      <c r="Q41" s="256"/>
-      <c r="R41" s="257"/>
-      <c r="S41" s="257"/>
-      <c r="T41" s="258"/>
-      <c r="U41" s="274"/>
-      <c r="V41" s="275"/>
-      <c r="W41" s="276"/>
-      <c r="X41" s="265" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y41" s="266"/>
-      <c r="Z41" s="266"/>
-      <c r="AA41" s="266"/>
-      <c r="AB41" s="266"/>
-      <c r="AC41" s="266"/>
-      <c r="AD41" s="266"/>
-      <c r="AE41" s="267"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="256"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="258"/>
+      <c r="L41" s="275" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="275"/>
+      <c r="N41" s="275"/>
+      <c r="O41" s="275"/>
+      <c r="P41" s="275"/>
+      <c r="Q41" s="293"/>
+      <c r="R41" s="294"/>
+      <c r="S41" s="294"/>
+      <c r="T41" s="295"/>
+      <c r="U41" s="256"/>
+      <c r="V41" s="257"/>
+      <c r="W41" s="258"/>
+      <c r="X41" s="250" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y41" s="251"/>
+      <c r="Z41" s="251"/>
+      <c r="AA41" s="251"/>
+      <c r="AB41" s="251"/>
+      <c r="AC41" s="251"/>
+      <c r="AD41" s="251"/>
+      <c r="AE41" s="252"/>
       <c r="AF41" s="103"/>
       <c r="AG41" s="104"/>
       <c r="AH41" s="105"/>
@@ -13632,37 +13621,37 @@
       <c r="D42" s="81">
         <v>3</v>
       </c>
-      <c r="E42" s="256"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="257"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="274"/>
-      <c r="J42" s="275"/>
-      <c r="K42" s="276"/>
-      <c r="L42" s="281" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="281"/>
-      <c r="N42" s="281"/>
-      <c r="O42" s="281"/>
-      <c r="P42" s="281"/>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="257"/>
-      <c r="S42" s="257"/>
-      <c r="T42" s="258"/>
-      <c r="U42" s="274"/>
-      <c r="V42" s="275"/>
-      <c r="W42" s="276"/>
-      <c r="X42" s="265" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y42" s="266"/>
-      <c r="Z42" s="266"/>
-      <c r="AA42" s="266"/>
-      <c r="AB42" s="266"/>
-      <c r="AC42" s="266"/>
-      <c r="AD42" s="266"/>
-      <c r="AE42" s="267"/>
+      <c r="E42" s="293"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="295"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="257"/>
+      <c r="K42" s="258"/>
+      <c r="L42" s="275" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="275"/>
+      <c r="N42" s="275"/>
+      <c r="O42" s="275"/>
+      <c r="P42" s="275"/>
+      <c r="Q42" s="293"/>
+      <c r="R42" s="294"/>
+      <c r="S42" s="294"/>
+      <c r="T42" s="295"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="257"/>
+      <c r="W42" s="258"/>
+      <c r="X42" s="250" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y42" s="251"/>
+      <c r="Z42" s="251"/>
+      <c r="AA42" s="251"/>
+      <c r="AB42" s="251"/>
+      <c r="AC42" s="251"/>
+      <c r="AD42" s="251"/>
+      <c r="AE42" s="252"/>
       <c r="AF42" s="103"/>
       <c r="AG42" s="104"/>
       <c r="AH42" s="105"/>
@@ -13678,37 +13667,37 @@
       <c r="D43" s="81">
         <v>4</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="257"/>
-      <c r="G43" s="257"/>
-      <c r="H43" s="258"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="275"/>
-      <c r="K43" s="276"/>
-      <c r="L43" s="304" t="s">
-        <v>81</v>
-      </c>
-      <c r="M43" s="281"/>
-      <c r="N43" s="281"/>
-      <c r="O43" s="281"/>
-      <c r="P43" s="281"/>
-      <c r="Q43" s="256"/>
-      <c r="R43" s="257"/>
-      <c r="S43" s="257"/>
-      <c r="T43" s="258"/>
-      <c r="U43" s="274"/>
-      <c r="V43" s="275"/>
-      <c r="W43" s="276"/>
-      <c r="X43" s="265" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y43" s="266"/>
-      <c r="Z43" s="266"/>
-      <c r="AA43" s="266"/>
-      <c r="AB43" s="266"/>
-      <c r="AC43" s="266"/>
-      <c r="AD43" s="266"/>
-      <c r="AE43" s="267"/>
+      <c r="E43" s="293"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="294"/>
+      <c r="H43" s="295"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="257"/>
+      <c r="K43" s="258"/>
+      <c r="L43" s="276" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" s="275"/>
+      <c r="N43" s="275"/>
+      <c r="O43" s="275"/>
+      <c r="P43" s="275"/>
+      <c r="Q43" s="293"/>
+      <c r="R43" s="294"/>
+      <c r="S43" s="294"/>
+      <c r="T43" s="295"/>
+      <c r="U43" s="256"/>
+      <c r="V43" s="257"/>
+      <c r="W43" s="258"/>
+      <c r="X43" s="250" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y43" s="251"/>
+      <c r="Z43" s="251"/>
+      <c r="AA43" s="251"/>
+      <c r="AB43" s="251"/>
+      <c r="AC43" s="251"/>
+      <c r="AD43" s="251"/>
+      <c r="AE43" s="252"/>
       <c r="AF43" s="103"/>
       <c r="AG43" s="104"/>
       <c r="AH43" s="105"/>
@@ -13724,37 +13713,37 @@
       <c r="D44" s="81">
         <v>5</v>
       </c>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="277"/>
-      <c r="J44" s="278"/>
-      <c r="K44" s="279"/>
-      <c r="L44" s="303" t="s">
-        <v>82</v>
-      </c>
-      <c r="M44" s="303"/>
-      <c r="N44" s="303"/>
-      <c r="O44" s="303"/>
-      <c r="P44" s="303"/>
-      <c r="Q44" s="259"/>
-      <c r="R44" s="260"/>
-      <c r="S44" s="260"/>
-      <c r="T44" s="261"/>
-      <c r="U44" s="277"/>
-      <c r="V44" s="278"/>
-      <c r="W44" s="279"/>
-      <c r="X44" s="265" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y44" s="266"/>
-      <c r="Z44" s="266"/>
-      <c r="AA44" s="266"/>
-      <c r="AB44" s="266"/>
-      <c r="AC44" s="266"/>
-      <c r="AD44" s="266"/>
-      <c r="AE44" s="267"/>
+      <c r="E44" s="296"/>
+      <c r="F44" s="297"/>
+      <c r="G44" s="297"/>
+      <c r="H44" s="298"/>
+      <c r="I44" s="259"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="261"/>
+      <c r="L44" s="274" t="s">
+        <v>81</v>
+      </c>
+      <c r="M44" s="274"/>
+      <c r="N44" s="274"/>
+      <c r="O44" s="274"/>
+      <c r="P44" s="274"/>
+      <c r="Q44" s="296"/>
+      <c r="R44" s="297"/>
+      <c r="S44" s="297"/>
+      <c r="T44" s="298"/>
+      <c r="U44" s="259"/>
+      <c r="V44" s="260"/>
+      <c r="W44" s="261"/>
+      <c r="X44" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y44" s="251"/>
+      <c r="Z44" s="251"/>
+      <c r="AA44" s="251"/>
+      <c r="AB44" s="251"/>
+      <c r="AC44" s="251"/>
+      <c r="AD44" s="251"/>
+      <c r="AE44" s="252"/>
       <c r="AF44" s="106"/>
       <c r="AG44" s="107"/>
       <c r="AH44" s="108"/>
@@ -13765,7 +13754,7 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D45" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="117"/>
       <c r="F45" s="117"/>
@@ -13816,7 +13805,7 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -13841,12 +13830,12 @@
     </row>
     <row r="49" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E49" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D52" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="4:22" x14ac:dyDescent="0.15">
@@ -13871,7 +13860,7 @@
     </row>
     <row r="54" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E54" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -13914,7 +13903,7 @@
     <row r="56" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E56" s="35"/>
       <c r="F56" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -13975,12 +13964,12 @@
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D59" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E61" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F61" s="35"/>
     </row>
@@ -13991,7 +13980,7 @@
     <row r="63" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E63" s="35"/>
       <c r="F63" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="4:22" x14ac:dyDescent="0.15">
@@ -14000,12 +13989,12 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D66" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E68" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F68" s="35"/>
     </row>
@@ -14016,45 +14005,11 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E70" s="35"/>
       <c r="F70" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -14071,6 +14026,40 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14104,31 +14093,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="A1" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14140,48 +14129,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AA1" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="A2" s="162" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -14190,48 +14179,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AA2" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="A3" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -14240,27 +14229,27 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14270,7 +14259,7 @@
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -14302,7 +14291,7 @@
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C8" s="55"/>
       <c r="D8" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -14364,7 +14353,7 @@
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C10" s="55"/>
       <c r="D10" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -14427,7 +14416,7 @@
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
@@ -14488,7 +14477,7 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C14" s="55"/>
       <c r="D14" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="117"/>
@@ -14551,7 +14540,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -14611,872 +14600,872 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="298" t="s">
+      <c r="E22" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="284" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="286"/>
+      <c r="M22" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="298" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="300"/>
-      <c r="M22" s="298" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="299"/>
-      <c r="Q22" s="299"/>
-      <c r="R22" s="299"/>
-      <c r="S22" s="299"/>
-      <c r="T22" s="299"/>
-      <c r="U22" s="299"/>
-      <c r="V22" s="299"/>
-      <c r="W22" s="299"/>
-      <c r="X22" s="299"/>
-      <c r="Y22" s="299"/>
-      <c r="Z22" s="299"/>
-      <c r="AA22" s="299"/>
-      <c r="AB22" s="299"/>
-      <c r="AC22" s="299"/>
-      <c r="AD22" s="299"/>
-      <c r="AE22" s="299"/>
-      <c r="AF22" s="299"/>
-      <c r="AG22" s="299"/>
-      <c r="AH22" s="300"/>
+      <c r="N22" s="285"/>
+      <c r="O22" s="285"/>
+      <c r="P22" s="285"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="285"/>
+      <c r="S22" s="285"/>
+      <c r="T22" s="285"/>
+      <c r="U22" s="285"/>
+      <c r="V22" s="285"/>
+      <c r="W22" s="285"/>
+      <c r="X22" s="285"/>
+      <c r="Y22" s="285"/>
+      <c r="Z22" s="285"/>
+      <c r="AA22" s="285"/>
+      <c r="AB22" s="285"/>
+      <c r="AC22" s="285"/>
+      <c r="AD22" s="285"/>
+      <c r="AE22" s="285"/>
+      <c r="AF22" s="285"/>
+      <c r="AG22" s="285"/>
+      <c r="AH22" s="286"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="316" t="s">
+      <c r="E23" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="317"/>
-      <c r="G23" s="317"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="194"/>
-      <c r="M23" s="324" t="s">
+      <c r="F23" s="306"/>
+      <c r="G23" s="306"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="307"/>
+      <c r="K23" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="129"/>
+      <c r="M23" s="334" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+      <c r="P23" s="329"/>
+      <c r="Q23" s="329"/>
+      <c r="R23" s="329"/>
+      <c r="S23" s="329"/>
+      <c r="T23" s="329"/>
+      <c r="U23" s="329"/>
+      <c r="V23" s="329"/>
+      <c r="W23" s="329"/>
+      <c r="X23" s="329"/>
+      <c r="Y23" s="329"/>
+      <c r="Z23" s="329"/>
+      <c r="AA23" s="329"/>
+      <c r="AB23" s="329"/>
+      <c r="AC23" s="329"/>
+      <c r="AD23" s="329"/>
+      <c r="AE23" s="329"/>
+      <c r="AF23" s="329"/>
+      <c r="AG23" s="329"/>
+      <c r="AH23" s="330"/>
+    </row>
+    <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="308"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="309"/>
+      <c r="I24" s="309"/>
+      <c r="J24" s="310"/>
+      <c r="K24" s="311"/>
+      <c r="L24" s="312"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="332"/>
+      <c r="U24" s="332"/>
+      <c r="V24" s="332"/>
+      <c r="W24" s="332"/>
+      <c r="X24" s="332"/>
+      <c r="Y24" s="332"/>
+      <c r="Z24" s="332"/>
+      <c r="AA24" s="332"/>
+      <c r="AB24" s="332"/>
+      <c r="AC24" s="332"/>
+      <c r="AD24" s="332"/>
+      <c r="AE24" s="332"/>
+      <c r="AF24" s="332"/>
+      <c r="AG24" s="332"/>
+      <c r="AH24" s="333"/>
+    </row>
+    <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="314"/>
+      <c r="G25" s="314"/>
+      <c r="H25" s="314"/>
+      <c r="I25" s="314"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="322" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="323"/>
+      <c r="M25" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="325"/>
-      <c r="O23" s="325"/>
-      <c r="P23" s="325"/>
-      <c r="Q23" s="325"/>
-      <c r="R23" s="325"/>
-      <c r="S23" s="325"/>
-      <c r="T23" s="325"/>
-      <c r="U23" s="325"/>
-      <c r="V23" s="325"/>
-      <c r="W23" s="325"/>
-      <c r="X23" s="325"/>
-      <c r="Y23" s="325"/>
-      <c r="Z23" s="325"/>
-      <c r="AA23" s="325"/>
-      <c r="AB23" s="325"/>
-      <c r="AC23" s="325"/>
-      <c r="AD23" s="325"/>
-      <c r="AE23" s="325"/>
-      <c r="AF23" s="325"/>
-      <c r="AG23" s="325"/>
-      <c r="AH23" s="326"/>
-    </row>
-    <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="319"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="320"/>
-      <c r="I24" s="320"/>
-      <c r="J24" s="321"/>
-      <c r="K24" s="322"/>
-      <c r="L24" s="323"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="328"/>
-      <c r="U24" s="328"/>
-      <c r="V24" s="328"/>
-      <c r="W24" s="328"/>
-      <c r="X24" s="328"/>
-      <c r="Y24" s="328"/>
-      <c r="Z24" s="328"/>
-      <c r="AA24" s="328"/>
-      <c r="AB24" s="328"/>
-      <c r="AC24" s="328"/>
-      <c r="AD24" s="328"/>
-      <c r="AE24" s="328"/>
-      <c r="AF24" s="328"/>
-      <c r="AG24" s="328"/>
-      <c r="AH24" s="329"/>
-    </row>
-    <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="305" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="306"/>
-      <c r="G25" s="306"/>
-      <c r="H25" s="306"/>
-      <c r="I25" s="306"/>
-      <c r="J25" s="307"/>
-      <c r="K25" s="311" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" s="312"/>
-      <c r="M25" s="315" t="s">
-        <v>129</v>
-      </c>
-      <c r="N25" s="286"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="286"/>
-      <c r="R25" s="286"/>
-      <c r="S25" s="286"/>
-      <c r="T25" s="286"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="286"/>
-      <c r="W25" s="286"/>
-      <c r="X25" s="286"/>
-      <c r="Y25" s="286"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="286"/>
-      <c r="AD25" s="286"/>
-      <c r="AE25" s="286"/>
-      <c r="AF25" s="286"/>
-      <c r="AG25" s="286"/>
-      <c r="AH25" s="287"/>
+      <c r="N25" s="278"/>
+      <c r="O25" s="278"/>
+      <c r="P25" s="278"/>
+      <c r="Q25" s="278"/>
+      <c r="R25" s="278"/>
+      <c r="S25" s="278"/>
+      <c r="T25" s="278"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="278"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="278"/>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="278"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="278"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="278"/>
+      <c r="AF25" s="278"/>
+      <c r="AG25" s="278"/>
+      <c r="AH25" s="279"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="331"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="333"/>
-      <c r="K26" s="334"/>
-      <c r="L26" s="335"/>
-      <c r="M26" s="288"/>
-      <c r="N26" s="289"/>
-      <c r="O26" s="289"/>
-      <c r="P26" s="289"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="289"/>
-      <c r="S26" s="289"/>
-      <c r="T26" s="289"/>
-      <c r="U26" s="289"/>
-      <c r="V26" s="289"/>
-      <c r="W26" s="289"/>
-      <c r="X26" s="289"/>
-      <c r="Y26" s="289"/>
-      <c r="Z26" s="289"/>
-      <c r="AA26" s="289"/>
-      <c r="AB26" s="289"/>
-      <c r="AC26" s="289"/>
-      <c r="AD26" s="289"/>
-      <c r="AE26" s="289"/>
-      <c r="AF26" s="289"/>
-      <c r="AG26" s="289"/>
-      <c r="AH26" s="290"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="318"/>
+      <c r="K26" s="324"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="265"/>
+      <c r="N26" s="266"/>
+      <c r="O26" s="266"/>
+      <c r="P26" s="266"/>
+      <c r="Q26" s="266"/>
+      <c r="R26" s="266"/>
+      <c r="S26" s="266"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="266"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="266"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="266"/>
+      <c r="Z26" s="266"/>
+      <c r="AA26" s="266"/>
+      <c r="AB26" s="266"/>
+      <c r="AC26" s="266"/>
+      <c r="AD26" s="266"/>
+      <c r="AE26" s="266"/>
+      <c r="AF26" s="266"/>
+      <c r="AG26" s="266"/>
+      <c r="AH26" s="267"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="308"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="309"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="314"/>
-      <c r="M27" s="291"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="292"/>
-      <c r="P27" s="292"/>
-      <c r="Q27" s="292"/>
-      <c r="R27" s="292"/>
-      <c r="S27" s="292"/>
-      <c r="T27" s="292"/>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="292"/>
-      <c r="Y27" s="292"/>
-      <c r="Z27" s="292"/>
-      <c r="AA27" s="292"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="292"/>
-      <c r="AE27" s="292"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="292"/>
-      <c r="AH27" s="293"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="320"/>
+      <c r="G27" s="320"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="320"/>
+      <c r="J27" s="321"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="281"/>
+      <c r="P27" s="281"/>
+      <c r="Q27" s="281"/>
+      <c r="R27" s="281"/>
+      <c r="S27" s="281"/>
+      <c r="T27" s="281"/>
+      <c r="U27" s="281"/>
+      <c r="V27" s="281"/>
+      <c r="W27" s="281"/>
+      <c r="X27" s="281"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="281"/>
+      <c r="AA27" s="281"/>
+      <c r="AB27" s="281"/>
+      <c r="AC27" s="281"/>
+      <c r="AD27" s="281"/>
+      <c r="AE27" s="281"/>
+      <c r="AF27" s="281"/>
+      <c r="AG27" s="281"/>
+      <c r="AH27" s="282"/>
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="305" t="s">
+      <c r="E28" s="313" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="314"/>
+      <c r="G28" s="314"/>
+      <c r="H28" s="314"/>
+      <c r="I28" s="314"/>
+      <c r="J28" s="315"/>
+      <c r="K28" s="322" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="323"/>
+      <c r="M28" s="335" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" s="278"/>
+      <c r="O28" s="278"/>
+      <c r="P28" s="278"/>
+      <c r="Q28" s="278"/>
+      <c r="R28" s="278"/>
+      <c r="S28" s="278"/>
+      <c r="T28" s="278"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="278"/>
+      <c r="W28" s="278"/>
+      <c r="X28" s="278"/>
+      <c r="Y28" s="278"/>
+      <c r="Z28" s="278"/>
+      <c r="AA28" s="278"/>
+      <c r="AB28" s="278"/>
+      <c r="AC28" s="278"/>
+      <c r="AD28" s="278"/>
+      <c r="AE28" s="278"/>
+      <c r="AF28" s="278"/>
+      <c r="AG28" s="278"/>
+      <c r="AH28" s="279"/>
+    </row>
+    <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="319"/>
+      <c r="F29" s="320"/>
+      <c r="G29" s="320"/>
+      <c r="H29" s="320"/>
+      <c r="I29" s="320"/>
+      <c r="J29" s="321"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="327"/>
+      <c r="M29" s="280"/>
+      <c r="N29" s="281"/>
+      <c r="O29" s="281"/>
+      <c r="P29" s="281"/>
+      <c r="Q29" s="281"/>
+      <c r="R29" s="281"/>
+      <c r="S29" s="281"/>
+      <c r="T29" s="281"/>
+      <c r="U29" s="281"/>
+      <c r="V29" s="281"/>
+      <c r="W29" s="281"/>
+      <c r="X29" s="281"/>
+      <c r="Y29" s="281"/>
+      <c r="Z29" s="281"/>
+      <c r="AA29" s="281"/>
+      <c r="AB29" s="281"/>
+      <c r="AC29" s="281"/>
+      <c r="AD29" s="281"/>
+      <c r="AE29" s="281"/>
+      <c r="AF29" s="281"/>
+      <c r="AG29" s="281"/>
+      <c r="AH29" s="282"/>
+    </row>
+    <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="313" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="314"/>
+      <c r="G30" s="314"/>
+      <c r="H30" s="314"/>
+      <c r="I30" s="314"/>
+      <c r="J30" s="315"/>
+      <c r="K30" s="322" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="323"/>
+      <c r="M30" s="335" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="306"/>
-      <c r="G28" s="306"/>
-      <c r="H28" s="306"/>
-      <c r="I28" s="306"/>
-      <c r="J28" s="307"/>
-      <c r="K28" s="311" t="s">
-        <v>178</v>
-      </c>
-      <c r="L28" s="312"/>
-      <c r="M28" s="315" t="s">
-        <v>200</v>
-      </c>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="286"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="286"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="286"/>
-      <c r="W28" s="286"/>
-      <c r="X28" s="286"/>
-      <c r="Y28" s="286"/>
-      <c r="Z28" s="286"/>
-      <c r="AA28" s="286"/>
-      <c r="AB28" s="286"/>
-      <c r="AC28" s="286"/>
-      <c r="AD28" s="286"/>
-      <c r="AE28" s="286"/>
-      <c r="AF28" s="286"/>
-      <c r="AG28" s="286"/>
-      <c r="AH28" s="287"/>
-    </row>
-    <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="308"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="314"/>
-      <c r="M29" s="291"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="292"/>
-      <c r="Q29" s="292"/>
-      <c r="R29" s="292"/>
-      <c r="S29" s="292"/>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="292"/>
-      <c r="W29" s="292"/>
-      <c r="X29" s="292"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="292"/>
-      <c r="AA29" s="292"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="292"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="292"/>
-      <c r="AH29" s="293"/>
-    </row>
-    <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="305" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" s="306"/>
-      <c r="G30" s="306"/>
-      <c r="H30" s="306"/>
-      <c r="I30" s="306"/>
-      <c r="J30" s="307"/>
-      <c r="K30" s="311" t="s">
-        <v>178</v>
-      </c>
-      <c r="L30" s="312"/>
-      <c r="M30" s="315" t="s">
-        <v>201</v>
-      </c>
-      <c r="N30" s="286"/>
-      <c r="O30" s="286"/>
-      <c r="P30" s="286"/>
-      <c r="Q30" s="286"/>
-      <c r="R30" s="286"/>
-      <c r="S30" s="286"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="286"/>
-      <c r="V30" s="286"/>
-      <c r="W30" s="286"/>
-      <c r="X30" s="286"/>
-      <c r="Y30" s="286"/>
-      <c r="Z30" s="286"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="286"/>
-      <c r="AC30" s="286"/>
-      <c r="AD30" s="286"/>
-      <c r="AE30" s="286"/>
-      <c r="AF30" s="286"/>
-      <c r="AG30" s="286"/>
-      <c r="AH30" s="287"/>
+      <c r="N30" s="278"/>
+      <c r="O30" s="278"/>
+      <c r="P30" s="278"/>
+      <c r="Q30" s="278"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="278"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="278"/>
+      <c r="Y30" s="278"/>
+      <c r="Z30" s="278"/>
+      <c r="AA30" s="278"/>
+      <c r="AB30" s="278"/>
+      <c r="AC30" s="278"/>
+      <c r="AD30" s="278"/>
+      <c r="AE30" s="278"/>
+      <c r="AF30" s="278"/>
+      <c r="AG30" s="278"/>
+      <c r="AH30" s="279"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="308"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="313"/>
-      <c r="L31" s="314"/>
-      <c r="M31" s="291"/>
-      <c r="N31" s="292"/>
-      <c r="O31" s="292"/>
-      <c r="P31" s="292"/>
-      <c r="Q31" s="292"/>
-      <c r="R31" s="292"/>
-      <c r="S31" s="292"/>
-      <c r="T31" s="292"/>
-      <c r="U31" s="292"/>
-      <c r="V31" s="292"/>
-      <c r="W31" s="292"/>
-      <c r="X31" s="292"/>
-      <c r="Y31" s="292"/>
-      <c r="Z31" s="292"/>
-      <c r="AA31" s="292"/>
-      <c r="AB31" s="292"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="292"/>
-      <c r="AE31" s="292"/>
-      <c r="AF31" s="292"/>
-      <c r="AG31" s="292"/>
-      <c r="AH31" s="293"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="320"/>
+      <c r="J31" s="321"/>
+      <c r="K31" s="326"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="281"/>
+      <c r="O31" s="281"/>
+      <c r="P31" s="281"/>
+      <c r="Q31" s="281"/>
+      <c r="R31" s="281"/>
+      <c r="S31" s="281"/>
+      <c r="T31" s="281"/>
+      <c r="U31" s="281"/>
+      <c r="V31" s="281"/>
+      <c r="W31" s="281"/>
+      <c r="X31" s="281"/>
+      <c r="Y31" s="281"/>
+      <c r="Z31" s="281"/>
+      <c r="AA31" s="281"/>
+      <c r="AB31" s="281"/>
+      <c r="AC31" s="281"/>
+      <c r="AD31" s="281"/>
+      <c r="AE31" s="281"/>
+      <c r="AF31" s="281"/>
+      <c r="AG31" s="281"/>
+      <c r="AH31" s="282"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="298" t="s">
+      <c r="E35" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="285"/>
+      <c r="G35" s="285"/>
+      <c r="H35" s="285"/>
+      <c r="I35" s="285"/>
+      <c r="J35" s="286"/>
+      <c r="K35" s="284" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="286"/>
+      <c r="M35" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="300"/>
-      <c r="K35" s="298" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="300"/>
-      <c r="M35" s="298" t="s">
-        <v>60</v>
-      </c>
-      <c r="N35" s="299"/>
-      <c r="O35" s="299"/>
-      <c r="P35" s="299"/>
-      <c r="Q35" s="299"/>
-      <c r="R35" s="299"/>
-      <c r="S35" s="299"/>
-      <c r="T35" s="299"/>
-      <c r="U35" s="299"/>
-      <c r="V35" s="299"/>
-      <c r="W35" s="299"/>
-      <c r="X35" s="299"/>
-      <c r="Y35" s="299"/>
-      <c r="Z35" s="299"/>
-      <c r="AA35" s="299"/>
-      <c r="AB35" s="299"/>
-      <c r="AC35" s="299"/>
-      <c r="AD35" s="299"/>
-      <c r="AE35" s="299"/>
-      <c r="AF35" s="299"/>
-      <c r="AG35" s="299"/>
-      <c r="AH35" s="300"/>
+      <c r="N35" s="285"/>
+      <c r="O35" s="285"/>
+      <c r="P35" s="285"/>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="285"/>
+      <c r="S35" s="285"/>
+      <c r="T35" s="285"/>
+      <c r="U35" s="285"/>
+      <c r="V35" s="285"/>
+      <c r="W35" s="285"/>
+      <c r="X35" s="285"/>
+      <c r="Y35" s="285"/>
+      <c r="Z35" s="285"/>
+      <c r="AA35" s="285"/>
+      <c r="AB35" s="285"/>
+      <c r="AC35" s="285"/>
+      <c r="AD35" s="285"/>
+      <c r="AE35" s="285"/>
+      <c r="AF35" s="285"/>
+      <c r="AG35" s="285"/>
+      <c r="AH35" s="286"/>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="316" t="s">
+      <c r="E36" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="317"/>
-      <c r="G36" s="317"/>
-      <c r="H36" s="317"/>
-      <c r="I36" s="317"/>
-      <c r="J36" s="318"/>
-      <c r="K36" s="193" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="194"/>
-      <c r="M36" s="324" t="s">
-        <v>128</v>
-      </c>
-      <c r="N36" s="325"/>
-      <c r="O36" s="325"/>
-      <c r="P36" s="325"/>
-      <c r="Q36" s="325"/>
-      <c r="R36" s="325"/>
-      <c r="S36" s="325"/>
-      <c r="T36" s="325"/>
-      <c r="U36" s="325"/>
-      <c r="V36" s="325"/>
-      <c r="W36" s="325"/>
-      <c r="X36" s="325"/>
-      <c r="Y36" s="325"/>
-      <c r="Z36" s="325"/>
-      <c r="AA36" s="325"/>
-      <c r="AB36" s="325"/>
-      <c r="AC36" s="325"/>
-      <c r="AD36" s="325"/>
-      <c r="AE36" s="325"/>
-      <c r="AF36" s="325"/>
-      <c r="AG36" s="325"/>
-      <c r="AH36" s="326"/>
+      <c r="F36" s="306"/>
+      <c r="G36" s="306"/>
+      <c r="H36" s="306"/>
+      <c r="I36" s="306"/>
+      <c r="J36" s="307"/>
+      <c r="K36" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="129"/>
+      <c r="M36" s="334" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="329"/>
+      <c r="O36" s="329"/>
+      <c r="P36" s="329"/>
+      <c r="Q36" s="329"/>
+      <c r="R36" s="329"/>
+      <c r="S36" s="329"/>
+      <c r="T36" s="329"/>
+      <c r="U36" s="329"/>
+      <c r="V36" s="329"/>
+      <c r="W36" s="329"/>
+      <c r="X36" s="329"/>
+      <c r="Y36" s="329"/>
+      <c r="Z36" s="329"/>
+      <c r="AA36" s="329"/>
+      <c r="AB36" s="329"/>
+      <c r="AC36" s="329"/>
+      <c r="AD36" s="329"/>
+      <c r="AE36" s="329"/>
+      <c r="AF36" s="329"/>
+      <c r="AG36" s="329"/>
+      <c r="AH36" s="330"/>
     </row>
     <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="319"/>
-      <c r="F37" s="320"/>
-      <c r="G37" s="320"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="322"/>
-      <c r="L37" s="323"/>
-      <c r="M37" s="327"/>
-      <c r="N37" s="328"/>
-      <c r="O37" s="328"/>
-      <c r="P37" s="328"/>
-      <c r="Q37" s="328"/>
-      <c r="R37" s="328"/>
-      <c r="S37" s="328"/>
-      <c r="T37" s="328"/>
-      <c r="U37" s="328"/>
-      <c r="V37" s="328"/>
-      <c r="W37" s="328"/>
-      <c r="X37" s="328"/>
-      <c r="Y37" s="328"/>
-      <c r="Z37" s="328"/>
-      <c r="AA37" s="328"/>
-      <c r="AB37" s="328"/>
-      <c r="AC37" s="328"/>
-      <c r="AD37" s="328"/>
-      <c r="AE37" s="328"/>
-      <c r="AF37" s="328"/>
-      <c r="AG37" s="328"/>
-      <c r="AH37" s="329"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="309"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="310"/>
+      <c r="K37" s="311"/>
+      <c r="L37" s="312"/>
+      <c r="M37" s="331"/>
+      <c r="N37" s="332"/>
+      <c r="O37" s="332"/>
+      <c r="P37" s="332"/>
+      <c r="Q37" s="332"/>
+      <c r="R37" s="332"/>
+      <c r="S37" s="332"/>
+      <c r="T37" s="332"/>
+      <c r="U37" s="332"/>
+      <c r="V37" s="332"/>
+      <c r="W37" s="332"/>
+      <c r="X37" s="332"/>
+      <c r="Y37" s="332"/>
+      <c r="Z37" s="332"/>
+      <c r="AA37" s="332"/>
+      <c r="AB37" s="332"/>
+      <c r="AC37" s="332"/>
+      <c r="AD37" s="332"/>
+      <c r="AE37" s="332"/>
+      <c r="AF37" s="332"/>
+      <c r="AG37" s="332"/>
+      <c r="AH37" s="333"/>
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="305" t="s">
+      <c r="E38" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="306"/>
-      <c r="G38" s="306"/>
-      <c r="H38" s="306"/>
-      <c r="I38" s="306"/>
-      <c r="J38" s="307"/>
-      <c r="K38" s="311" t="s">
+      <c r="F38" s="314"/>
+      <c r="G38" s="314"/>
+      <c r="H38" s="314"/>
+      <c r="I38" s="314"/>
+      <c r="J38" s="315"/>
+      <c r="K38" s="322" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="323"/>
+      <c r="M38" s="277" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="278"/>
+      <c r="O38" s="278"/>
+      <c r="P38" s="278"/>
+      <c r="Q38" s="278"/>
+      <c r="R38" s="278"/>
+      <c r="S38" s="278"/>
+      <c r="T38" s="278"/>
+      <c r="U38" s="278"/>
+      <c r="V38" s="278"/>
+      <c r="W38" s="278"/>
+      <c r="X38" s="278"/>
+      <c r="Y38" s="278"/>
+      <c r="Z38" s="278"/>
+      <c r="AA38" s="278"/>
+      <c r="AB38" s="278"/>
+      <c r="AC38" s="278"/>
+      <c r="AD38" s="278"/>
+      <c r="AE38" s="278"/>
+      <c r="AF38" s="278"/>
+      <c r="AG38" s="278"/>
+      <c r="AH38" s="279"/>
+    </row>
+    <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="316"/>
+      <c r="F39" s="317"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="317"/>
+      <c r="J39" s="318"/>
+      <c r="K39" s="324"/>
+      <c r="L39" s="325"/>
+      <c r="M39" s="265"/>
+      <c r="N39" s="266"/>
+      <c r="O39" s="266"/>
+      <c r="P39" s="266"/>
+      <c r="Q39" s="266"/>
+      <c r="R39" s="266"/>
+      <c r="S39" s="266"/>
+      <c r="T39" s="266"/>
+      <c r="U39" s="266"/>
+      <c r="V39" s="266"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="266"/>
+      <c r="Z39" s="266"/>
+      <c r="AA39" s="266"/>
+      <c r="AB39" s="266"/>
+      <c r="AC39" s="266"/>
+      <c r="AD39" s="266"/>
+      <c r="AE39" s="266"/>
+      <c r="AF39" s="266"/>
+      <c r="AG39" s="266"/>
+      <c r="AH39" s="267"/>
+    </row>
+    <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="316"/>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="317"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="324"/>
+      <c r="L40" s="325"/>
+      <c r="M40" s="265"/>
+      <c r="N40" s="266"/>
+      <c r="O40" s="266"/>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="266"/>
+      <c r="T40" s="266"/>
+      <c r="U40" s="266"/>
+      <c r="V40" s="266"/>
+      <c r="W40" s="266"/>
+      <c r="X40" s="266"/>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266"/>
+      <c r="AB40" s="266"/>
+      <c r="AC40" s="266"/>
+      <c r="AD40" s="266"/>
+      <c r="AE40" s="266"/>
+      <c r="AF40" s="266"/>
+      <c r="AG40" s="266"/>
+      <c r="AH40" s="267"/>
+    </row>
+    <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="319"/>
+      <c r="F41" s="320"/>
+      <c r="G41" s="320"/>
+      <c r="H41" s="320"/>
+      <c r="I41" s="320"/>
+      <c r="J41" s="321"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="327"/>
+      <c r="M41" s="280"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="281"/>
+      <c r="Q41" s="281"/>
+      <c r="R41" s="281"/>
+      <c r="S41" s="281"/>
+      <c r="T41" s="281"/>
+      <c r="U41" s="281"/>
+      <c r="V41" s="281"/>
+      <c r="W41" s="281"/>
+      <c r="X41" s="281"/>
+      <c r="Y41" s="281"/>
+      <c r="Z41" s="281"/>
+      <c r="AA41" s="281"/>
+      <c r="AB41" s="281"/>
+      <c r="AC41" s="281"/>
+      <c r="AD41" s="281"/>
+      <c r="AE41" s="281"/>
+      <c r="AF41" s="281"/>
+      <c r="AG41" s="281"/>
+      <c r="AH41" s="282"/>
+    </row>
+    <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="313" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="314"/>
+      <c r="G42" s="314"/>
+      <c r="H42" s="314"/>
+      <c r="I42" s="314"/>
+      <c r="J42" s="315"/>
+      <c r="K42" s="322" t="s">
+        <v>177</v>
+      </c>
+      <c r="L42" s="323"/>
+      <c r="M42" s="335" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" s="278"/>
+      <c r="O42" s="278"/>
+      <c r="P42" s="278"/>
+      <c r="Q42" s="278"/>
+      <c r="R42" s="278"/>
+      <c r="S42" s="278"/>
+      <c r="T42" s="278"/>
+      <c r="U42" s="278"/>
+      <c r="V42" s="278"/>
+      <c r="W42" s="278"/>
+      <c r="X42" s="278"/>
+      <c r="Y42" s="278"/>
+      <c r="Z42" s="278"/>
+      <c r="AA42" s="278"/>
+      <c r="AB42" s="278"/>
+      <c r="AC42" s="278"/>
+      <c r="AD42" s="278"/>
+      <c r="AE42" s="278"/>
+      <c r="AF42" s="278"/>
+      <c r="AG42" s="278"/>
+      <c r="AH42" s="279"/>
+    </row>
+    <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="319"/>
+      <c r="F43" s="320"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="320"/>
+      <c r="I43" s="320"/>
+      <c r="J43" s="321"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="327"/>
+      <c r="M43" s="280"/>
+      <c r="N43" s="281"/>
+      <c r="O43" s="281"/>
+      <c r="P43" s="281"/>
+      <c r="Q43" s="281"/>
+      <c r="R43" s="281"/>
+      <c r="S43" s="281"/>
+      <c r="T43" s="281"/>
+      <c r="U43" s="281"/>
+      <c r="V43" s="281"/>
+      <c r="W43" s="281"/>
+      <c r="X43" s="281"/>
+      <c r="Y43" s="281"/>
+      <c r="Z43" s="281"/>
+      <c r="AA43" s="281"/>
+      <c r="AB43" s="281"/>
+      <c r="AC43" s="281"/>
+      <c r="AD43" s="281"/>
+      <c r="AE43" s="281"/>
+      <c r="AF43" s="281"/>
+      <c r="AG43" s="281"/>
+      <c r="AH43" s="282"/>
+    </row>
+    <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="313" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="314"/>
+      <c r="G44" s="314"/>
+      <c r="H44" s="314"/>
+      <c r="I44" s="314"/>
+      <c r="J44" s="315"/>
+      <c r="K44" s="322" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="323"/>
+      <c r="M44" s="335" t="s">
+        <v>199</v>
+      </c>
+      <c r="N44" s="278"/>
+      <c r="O44" s="278"/>
+      <c r="P44" s="278"/>
+      <c r="Q44" s="278"/>
+      <c r="R44" s="278"/>
+      <c r="S44" s="278"/>
+      <c r="T44" s="278"/>
+      <c r="U44" s="278"/>
+      <c r="V44" s="278"/>
+      <c r="W44" s="278"/>
+      <c r="X44" s="278"/>
+      <c r="Y44" s="278"/>
+      <c r="Z44" s="278"/>
+      <c r="AA44" s="278"/>
+      <c r="AB44" s="278"/>
+      <c r="AC44" s="278"/>
+      <c r="AD44" s="278"/>
+      <c r="AE44" s="278"/>
+      <c r="AF44" s="278"/>
+      <c r="AG44" s="278"/>
+      <c r="AH44" s="279"/>
+    </row>
+    <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="319"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="320"/>
+      <c r="I45" s="320"/>
+      <c r="J45" s="321"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="327"/>
+      <c r="M45" s="280"/>
+      <c r="N45" s="281"/>
+      <c r="O45" s="281"/>
+      <c r="P45" s="281"/>
+      <c r="Q45" s="281"/>
+      <c r="R45" s="281"/>
+      <c r="S45" s="281"/>
+      <c r="T45" s="281"/>
+      <c r="U45" s="281"/>
+      <c r="V45" s="281"/>
+      <c r="W45" s="281"/>
+      <c r="X45" s="281"/>
+      <c r="Y45" s="281"/>
+      <c r="Z45" s="281"/>
+      <c r="AA45" s="281"/>
+      <c r="AB45" s="281"/>
+      <c r="AC45" s="281"/>
+      <c r="AD45" s="281"/>
+      <c r="AE45" s="281"/>
+      <c r="AF45" s="281"/>
+      <c r="AG45" s="281"/>
+      <c r="AH45" s="282"/>
+    </row>
+    <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="312"/>
-      <c r="M38" s="285" t="s">
+      <c r="F46" s="314"/>
+      <c r="G46" s="314"/>
+      <c r="H46" s="314"/>
+      <c r="I46" s="314"/>
+      <c r="J46" s="315"/>
+      <c r="K46" s="322" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="323"/>
+      <c r="M46" s="277" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="286"/>
-      <c r="O38" s="286"/>
-      <c r="P38" s="286"/>
-      <c r="Q38" s="286"/>
-      <c r="R38" s="286"/>
-      <c r="S38" s="286"/>
-      <c r="T38" s="286"/>
-      <c r="U38" s="286"/>
-      <c r="V38" s="286"/>
-      <c r="W38" s="286"/>
-      <c r="X38" s="286"/>
-      <c r="Y38" s="286"/>
-      <c r="Z38" s="286"/>
-      <c r="AA38" s="286"/>
-      <c r="AB38" s="286"/>
-      <c r="AC38" s="286"/>
-      <c r="AD38" s="286"/>
-      <c r="AE38" s="286"/>
-      <c r="AF38" s="286"/>
-      <c r="AG38" s="286"/>
-      <c r="AH38" s="287"/>
-    </row>
-    <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="331"/>
-      <c r="F39" s="332"/>
-      <c r="G39" s="332"/>
-      <c r="H39" s="332"/>
-      <c r="I39" s="332"/>
-      <c r="J39" s="333"/>
-      <c r="K39" s="334"/>
-      <c r="L39" s="335"/>
-      <c r="M39" s="288"/>
-      <c r="N39" s="289"/>
-      <c r="O39" s="289"/>
-      <c r="P39" s="289"/>
-      <c r="Q39" s="289"/>
-      <c r="R39" s="289"/>
-      <c r="S39" s="289"/>
-      <c r="T39" s="289"/>
-      <c r="U39" s="289"/>
-      <c r="V39" s="289"/>
-      <c r="W39" s="289"/>
-      <c r="X39" s="289"/>
-      <c r="Y39" s="289"/>
-      <c r="Z39" s="289"/>
-      <c r="AA39" s="289"/>
-      <c r="AB39" s="289"/>
-      <c r="AC39" s="289"/>
-      <c r="AD39" s="289"/>
-      <c r="AE39" s="289"/>
-      <c r="AF39" s="289"/>
-      <c r="AG39" s="289"/>
-      <c r="AH39" s="290"/>
-    </row>
-    <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="331"/>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
-      <c r="J40" s="333"/>
-      <c r="K40" s="334"/>
-      <c r="L40" s="335"/>
-      <c r="M40" s="288"/>
-      <c r="N40" s="289"/>
-      <c r="O40" s="289"/>
-      <c r="P40" s="289"/>
-      <c r="Q40" s="289"/>
-      <c r="R40" s="289"/>
-      <c r="S40" s="289"/>
-      <c r="T40" s="289"/>
-      <c r="U40" s="289"/>
-      <c r="V40" s="289"/>
-      <c r="W40" s="289"/>
-      <c r="X40" s="289"/>
-      <c r="Y40" s="289"/>
-      <c r="Z40" s="289"/>
-      <c r="AA40" s="289"/>
-      <c r="AB40" s="289"/>
-      <c r="AC40" s="289"/>
-      <c r="AD40" s="289"/>
-      <c r="AE40" s="289"/>
-      <c r="AF40" s="289"/>
-      <c r="AG40" s="289"/>
-      <c r="AH40" s="290"/>
-    </row>
-    <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="308"/>
-      <c r="F41" s="309"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="309"/>
-      <c r="I41" s="309"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="313"/>
-      <c r="L41" s="314"/>
-      <c r="M41" s="291"/>
-      <c r="N41" s="292"/>
-      <c r="O41" s="292"/>
-      <c r="P41" s="292"/>
-      <c r="Q41" s="292"/>
-      <c r="R41" s="292"/>
-      <c r="S41" s="292"/>
-      <c r="T41" s="292"/>
-      <c r="U41" s="292"/>
-      <c r="V41" s="292"/>
-      <c r="W41" s="292"/>
-      <c r="X41" s="292"/>
-      <c r="Y41" s="292"/>
-      <c r="Z41" s="292"/>
-      <c r="AA41" s="292"/>
-      <c r="AB41" s="292"/>
-      <c r="AC41" s="292"/>
-      <c r="AD41" s="292"/>
-      <c r="AE41" s="292"/>
-      <c r="AF41" s="292"/>
-      <c r="AG41" s="292"/>
-      <c r="AH41" s="293"/>
-    </row>
-    <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="305" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="306"/>
-      <c r="G42" s="306"/>
-      <c r="H42" s="306"/>
-      <c r="I42" s="306"/>
-      <c r="J42" s="307"/>
-      <c r="K42" s="311" t="s">
-        <v>178</v>
-      </c>
-      <c r="L42" s="312"/>
-      <c r="M42" s="315" t="s">
-        <v>200</v>
-      </c>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
-      <c r="X42" s="286"/>
-      <c r="Y42" s="286"/>
-      <c r="Z42" s="286"/>
-      <c r="AA42" s="286"/>
-      <c r="AB42" s="286"/>
-      <c r="AC42" s="286"/>
-      <c r="AD42" s="286"/>
-      <c r="AE42" s="286"/>
-      <c r="AF42" s="286"/>
-      <c r="AG42" s="286"/>
-      <c r="AH42" s="287"/>
-    </row>
-    <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="308"/>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="310"/>
-      <c r="K43" s="313"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="292"/>
-      <c r="O43" s="292"/>
-      <c r="P43" s="292"/>
-      <c r="Q43" s="292"/>
-      <c r="R43" s="292"/>
-      <c r="S43" s="292"/>
-      <c r="T43" s="292"/>
-      <c r="U43" s="292"/>
-      <c r="V43" s="292"/>
-      <c r="W43" s="292"/>
-      <c r="X43" s="292"/>
-      <c r="Y43" s="292"/>
-      <c r="Z43" s="292"/>
-      <c r="AA43" s="292"/>
-      <c r="AB43" s="292"/>
-      <c r="AC43" s="292"/>
-      <c r="AD43" s="292"/>
-      <c r="AE43" s="292"/>
-      <c r="AF43" s="292"/>
-      <c r="AG43" s="292"/>
-      <c r="AH43" s="293"/>
-    </row>
-    <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="305" t="s">
-        <v>232</v>
-      </c>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
-      <c r="H44" s="306"/>
-      <c r="I44" s="306"/>
-      <c r="J44" s="307"/>
-      <c r="K44" s="311" t="s">
-        <v>178</v>
-      </c>
-      <c r="L44" s="312"/>
-      <c r="M44" s="315" t="s">
-        <v>201</v>
-      </c>
-      <c r="N44" s="286"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="286"/>
-      <c r="Q44" s="286"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="286"/>
-      <c r="T44" s="286"/>
-      <c r="U44" s="286"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="286"/>
-      <c r="X44" s="286"/>
-      <c r="Y44" s="286"/>
-      <c r="Z44" s="286"/>
-      <c r="AA44" s="286"/>
-      <c r="AB44" s="286"/>
-      <c r="AC44" s="286"/>
-      <c r="AD44" s="286"/>
-      <c r="AE44" s="286"/>
-      <c r="AF44" s="286"/>
-      <c r="AG44" s="286"/>
-      <c r="AH44" s="287"/>
-    </row>
-    <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="308"/>
-      <c r="F45" s="309"/>
-      <c r="G45" s="309"/>
-      <c r="H45" s="309"/>
-      <c r="I45" s="309"/>
-      <c r="J45" s="310"/>
-      <c r="K45" s="313"/>
-      <c r="L45" s="314"/>
-      <c r="M45" s="291"/>
-      <c r="N45" s="292"/>
-      <c r="O45" s="292"/>
-      <c r="P45" s="292"/>
-      <c r="Q45" s="292"/>
-      <c r="R45" s="292"/>
-      <c r="S45" s="292"/>
-      <c r="T45" s="292"/>
-      <c r="U45" s="292"/>
-      <c r="V45" s="292"/>
-      <c r="W45" s="292"/>
-      <c r="X45" s="292"/>
-      <c r="Y45" s="292"/>
-      <c r="Z45" s="292"/>
-      <c r="AA45" s="292"/>
-      <c r="AB45" s="292"/>
-      <c r="AC45" s="292"/>
-      <c r="AD45" s="292"/>
-      <c r="AE45" s="292"/>
-      <c r="AF45" s="292"/>
-      <c r="AG45" s="292"/>
-      <c r="AH45" s="293"/>
-    </row>
-    <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="330" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="306"/>
-      <c r="G46" s="306"/>
-      <c r="H46" s="306"/>
-      <c r="I46" s="306"/>
-      <c r="J46" s="307"/>
-      <c r="K46" s="311" t="s">
-        <v>68</v>
-      </c>
-      <c r="L46" s="312"/>
-      <c r="M46" s="285" t="s">
-        <v>131</v>
-      </c>
-      <c r="N46" s="286"/>
-      <c r="O46" s="286"/>
-      <c r="P46" s="286"/>
-      <c r="Q46" s="286"/>
-      <c r="R46" s="286"/>
-      <c r="S46" s="286"/>
-      <c r="T46" s="286"/>
-      <c r="U46" s="286"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="286"/>
-      <c r="X46" s="286"/>
-      <c r="Y46" s="286"/>
-      <c r="Z46" s="286"/>
-      <c r="AA46" s="286"/>
-      <c r="AB46" s="286"/>
-      <c r="AC46" s="286"/>
-      <c r="AD46" s="286"/>
-      <c r="AE46" s="286"/>
-      <c r="AF46" s="286"/>
-      <c r="AG46" s="286"/>
-      <c r="AH46" s="287"/>
+      <c r="N46" s="278"/>
+      <c r="O46" s="278"/>
+      <c r="P46" s="278"/>
+      <c r="Q46" s="278"/>
+      <c r="R46" s="278"/>
+      <c r="S46" s="278"/>
+      <c r="T46" s="278"/>
+      <c r="U46" s="278"/>
+      <c r="V46" s="278"/>
+      <c r="W46" s="278"/>
+      <c r="X46" s="278"/>
+      <c r="Y46" s="278"/>
+      <c r="Z46" s="278"/>
+      <c r="AA46" s="278"/>
+      <c r="AB46" s="278"/>
+      <c r="AC46" s="278"/>
+      <c r="AD46" s="278"/>
+      <c r="AE46" s="278"/>
+      <c r="AF46" s="278"/>
+      <c r="AG46" s="278"/>
+      <c r="AH46" s="279"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="331"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
-      <c r="H47" s="332"/>
-      <c r="I47" s="332"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="335"/>
-      <c r="M47" s="288"/>
-      <c r="N47" s="289"/>
-      <c r="O47" s="289"/>
-      <c r="P47" s="289"/>
-      <c r="Q47" s="289"/>
-      <c r="R47" s="289"/>
-      <c r="S47" s="289"/>
-      <c r="T47" s="289"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="289"/>
-      <c r="W47" s="289"/>
-      <c r="X47" s="289"/>
-      <c r="Y47" s="289"/>
-      <c r="Z47" s="289"/>
-      <c r="AA47" s="289"/>
-      <c r="AB47" s="289"/>
-      <c r="AC47" s="289"/>
-      <c r="AD47" s="289"/>
-      <c r="AE47" s="289"/>
-      <c r="AF47" s="289"/>
-      <c r="AG47" s="289"/>
-      <c r="AH47" s="290"/>
+      <c r="E47" s="316"/>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="317"/>
+      <c r="I47" s="317"/>
+      <c r="J47" s="318"/>
+      <c r="K47" s="324"/>
+      <c r="L47" s="325"/>
+      <c r="M47" s="265"/>
+      <c r="N47" s="266"/>
+      <c r="O47" s="266"/>
+      <c r="P47" s="266"/>
+      <c r="Q47" s="266"/>
+      <c r="R47" s="266"/>
+      <c r="S47" s="266"/>
+      <c r="T47" s="266"/>
+      <c r="U47" s="266"/>
+      <c r="V47" s="266"/>
+      <c r="W47" s="266"/>
+      <c r="X47" s="266"/>
+      <c r="Y47" s="266"/>
+      <c r="Z47" s="266"/>
+      <c r="AA47" s="266"/>
+      <c r="AB47" s="266"/>
+      <c r="AC47" s="266"/>
+      <c r="AD47" s="266"/>
+      <c r="AE47" s="266"/>
+      <c r="AF47" s="266"/>
+      <c r="AG47" s="266"/>
+      <c r="AH47" s="267"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="308"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="309"/>
-      <c r="H48" s="309"/>
-      <c r="I48" s="309"/>
-      <c r="J48" s="310"/>
-      <c r="K48" s="313"/>
-      <c r="L48" s="314"/>
-      <c r="M48" s="291"/>
-      <c r="N48" s="292"/>
-      <c r="O48" s="292"/>
-      <c r="P48" s="292"/>
-      <c r="Q48" s="292"/>
-      <c r="R48" s="292"/>
-      <c r="S48" s="292"/>
-      <c r="T48" s="292"/>
-      <c r="U48" s="292"/>
-      <c r="V48" s="292"/>
-      <c r="W48" s="292"/>
-      <c r="X48" s="292"/>
-      <c r="Y48" s="292"/>
-      <c r="Z48" s="292"/>
-      <c r="AA48" s="292"/>
-      <c r="AB48" s="292"/>
-      <c r="AC48" s="292"/>
-      <c r="AD48" s="292"/>
-      <c r="AE48" s="292"/>
-      <c r="AF48" s="292"/>
-      <c r="AG48" s="292"/>
-      <c r="AH48" s="293"/>
+      <c r="E48" s="319"/>
+      <c r="F48" s="320"/>
+      <c r="G48" s="320"/>
+      <c r="H48" s="320"/>
+      <c r="I48" s="320"/>
+      <c r="J48" s="321"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="327"/>
+      <c r="M48" s="280"/>
+      <c r="N48" s="281"/>
+      <c r="O48" s="281"/>
+      <c r="P48" s="281"/>
+      <c r="Q48" s="281"/>
+      <c r="R48" s="281"/>
+      <c r="S48" s="281"/>
+      <c r="T48" s="281"/>
+      <c r="U48" s="281"/>
+      <c r="V48" s="281"/>
+      <c r="W48" s="281"/>
+      <c r="X48" s="281"/>
+      <c r="Y48" s="281"/>
+      <c r="Z48" s="281"/>
+      <c r="AA48" s="281"/>
+      <c r="AB48" s="281"/>
+      <c r="AC48" s="281"/>
+      <c r="AD48" s="281"/>
+      <c r="AE48" s="281"/>
+      <c r="AF48" s="281"/>
+      <c r="AG48" s="281"/>
+      <c r="AH48" s="282"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="305" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="306"/>
-      <c r="G49" s="306"/>
-      <c r="H49" s="306"/>
-      <c r="I49" s="306"/>
-      <c r="J49" s="307"/>
-      <c r="K49" s="311" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="312"/>
+      <c r="E49" s="313" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="314"/>
+      <c r="G49" s="314"/>
+      <c r="H49" s="314"/>
+      <c r="I49" s="314"/>
+      <c r="J49" s="315"/>
+      <c r="K49" s="322" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="323"/>
       <c r="M49" s="61" t="s">
         <v>19</v>
       </c>
@@ -15503,16 +15492,16 @@
       <c r="AH49" s="62"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="331"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
-      <c r="J50" s="333"/>
-      <c r="K50" s="334"/>
-      <c r="L50" s="335"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="317"/>
+      <c r="G50" s="317"/>
+      <c r="H50" s="317"/>
+      <c r="I50" s="317"/>
+      <c r="J50" s="318"/>
+      <c r="K50" s="324"/>
+      <c r="L50" s="325"/>
       <c r="M50" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
@@ -15537,14 +15526,14 @@
       <c r="AH50" s="62"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="331"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="333"/>
-      <c r="K51" s="334"/>
-      <c r="L51" s="335"/>
+      <c r="E51" s="316"/>
+      <c r="F51" s="317"/>
+      <c r="G51" s="317"/>
+      <c r="H51" s="317"/>
+      <c r="I51" s="317"/>
+      <c r="J51" s="318"/>
+      <c r="K51" s="324"/>
+      <c r="L51" s="325"/>
       <c r="M51" s="61" t="s">
         <v>20</v>
       </c>
@@ -15571,16 +15560,16 @@
       <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="331"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="333"/>
-      <c r="K52" s="334"/>
-      <c r="L52" s="335"/>
+      <c r="E52" s="316"/>
+      <c r="F52" s="317"/>
+      <c r="G52" s="317"/>
+      <c r="H52" s="317"/>
+      <c r="I52" s="317"/>
+      <c r="J52" s="318"/>
+      <c r="K52" s="324"/>
+      <c r="L52" s="325"/>
       <c r="M52" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
@@ -15593,17 +15582,17 @@
       <c r="AH52" s="62"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="331"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
-      <c r="H53" s="332"/>
-      <c r="I53" s="332"/>
-      <c r="J53" s="333"/>
-      <c r="K53" s="334"/>
-      <c r="L53" s="335"/>
+      <c r="E53" s="316"/>
+      <c r="F53" s="317"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
+      <c r="I53" s="317"/>
+      <c r="J53" s="318"/>
+      <c r="K53" s="324"/>
+      <c r="L53" s="325"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z53" s="56"/>
       <c r="AA53" s="56"/>
@@ -15616,17 +15605,17 @@
       <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="331"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
-      <c r="J54" s="333"/>
-      <c r="K54" s="334"/>
-      <c r="L54" s="335"/>
+      <c r="E54" s="316"/>
+      <c r="F54" s="317"/>
+      <c r="G54" s="317"/>
+      <c r="H54" s="317"/>
+      <c r="I54" s="317"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="325"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -15650,18 +15639,18 @@
       <c r="AH54" s="62"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="331"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="332"/>
-      <c r="I55" s="332"/>
-      <c r="J55" s="333"/>
-      <c r="K55" s="334"/>
-      <c r="L55" s="335"/>
+      <c r="E55" s="316"/>
+      <c r="F55" s="317"/>
+      <c r="G55" s="317"/>
+      <c r="H55" s="317"/>
+      <c r="I55" s="317"/>
+      <c r="J55" s="318"/>
+      <c r="K55" s="324"/>
+      <c r="L55" s="325"/>
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -15684,14 +15673,14 @@
       <c r="AH55" s="62"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="331"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
-      <c r="H56" s="332"/>
-      <c r="I56" s="332"/>
-      <c r="J56" s="333"/>
-      <c r="K56" s="334"/>
-      <c r="L56" s="335"/>
+      <c r="E56" s="316"/>
+      <c r="F56" s="317"/>
+      <c r="G56" s="317"/>
+      <c r="H56" s="317"/>
+      <c r="I56" s="317"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="324"/>
+      <c r="L56" s="325"/>
       <c r="M56" s="61"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
@@ -15718,14 +15707,14 @@
       <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="331"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="332"/>
-      <c r="J57" s="333"/>
-      <c r="K57" s="334"/>
-      <c r="L57" s="335"/>
+      <c r="E57" s="316"/>
+      <c r="F57" s="317"/>
+      <c r="G57" s="317"/>
+      <c r="H57" s="317"/>
+      <c r="I57" s="317"/>
+      <c r="J57" s="318"/>
+      <c r="K57" s="324"/>
+      <c r="L57" s="325"/>
       <c r="M57" s="61"/>
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
@@ -15752,17 +15741,17 @@
       <c r="AH57" s="62"/>
     </row>
     <row r="58" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="331"/>
-      <c r="F58" s="332"/>
-      <c r="G58" s="332"/>
-      <c r="H58" s="332"/>
-      <c r="I58" s="332"/>
-      <c r="J58" s="333"/>
-      <c r="K58" s="334"/>
-      <c r="L58" s="335"/>
+      <c r="E58" s="316"/>
+      <c r="F58" s="317"/>
+      <c r="G58" s="317"/>
+      <c r="H58" s="317"/>
+      <c r="I58" s="317"/>
+      <c r="J58" s="318"/>
+      <c r="K58" s="324"/>
+      <c r="L58" s="325"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -15784,17 +15773,17 @@
       <c r="AH58" s="62"/>
     </row>
     <row r="59" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="331"/>
-      <c r="F59" s="332"/>
-      <c r="G59" s="332"/>
-      <c r="H59" s="332"/>
-      <c r="I59" s="332"/>
-      <c r="J59" s="333"/>
-      <c r="K59" s="334"/>
-      <c r="L59" s="335"/>
+      <c r="E59" s="316"/>
+      <c r="F59" s="317"/>
+      <c r="G59" s="317"/>
+      <c r="H59" s="317"/>
+      <c r="I59" s="317"/>
+      <c r="J59" s="318"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="325"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
@@ -15818,18 +15807,18 @@
       <c r="AH59" s="62"/>
     </row>
     <row r="60" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="331"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="332"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="332"/>
-      <c r="J60" s="333"/>
-      <c r="K60" s="334"/>
-      <c r="L60" s="335"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="317"/>
+      <c r="G60" s="317"/>
+      <c r="H60" s="317"/>
+      <c r="I60" s="317"/>
+      <c r="J60" s="318"/>
+      <c r="K60" s="324"/>
+      <c r="L60" s="325"/>
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -15852,14 +15841,14 @@
       <c r="AH60" s="62"/>
     </row>
     <row r="61" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="331"/>
-      <c r="F61" s="332"/>
-      <c r="G61" s="332"/>
-      <c r="H61" s="332"/>
-      <c r="I61" s="332"/>
-      <c r="J61" s="333"/>
-      <c r="K61" s="334"/>
-      <c r="L61" s="335"/>
+      <c r="E61" s="316"/>
+      <c r="F61" s="317"/>
+      <c r="G61" s="317"/>
+      <c r="H61" s="317"/>
+      <c r="I61" s="317"/>
+      <c r="J61" s="318"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="325"/>
       <c r="M61" s="61"/>
       <c r="N61" s="19"/>
       <c r="O61" s="19" t="s">
@@ -15886,14 +15875,14 @@
       <c r="AH61" s="62"/>
     </row>
     <row r="62" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="308"/>
-      <c r="F62" s="309"/>
-      <c r="G62" s="309"/>
-      <c r="H62" s="309"/>
-      <c r="I62" s="309"/>
-      <c r="J62" s="310"/>
-      <c r="K62" s="313"/>
-      <c r="L62" s="314"/>
+      <c r="E62" s="319"/>
+      <c r="F62" s="320"/>
+      <c r="G62" s="320"/>
+      <c r="H62" s="320"/>
+      <c r="I62" s="320"/>
+      <c r="J62" s="321"/>
+      <c r="K62" s="326"/>
+      <c r="L62" s="327"/>
       <c r="M62" s="61"/>
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
@@ -15920,144 +15909,144 @@
       <c r="AH62" s="62"/>
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="316" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="317"/>
-      <c r="G63" s="317"/>
-      <c r="H63" s="317"/>
-      <c r="I63" s="317"/>
-      <c r="J63" s="318"/>
-      <c r="K63" s="316" t="s">
-        <v>154</v>
-      </c>
-      <c r="L63" s="318"/>
-      <c r="M63" s="219" t="s">
+      <c r="E63" s="305" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="306"/>
+      <c r="G63" s="306"/>
+      <c r="H63" s="306"/>
+      <c r="I63" s="306"/>
+      <c r="J63" s="307"/>
+      <c r="K63" s="305" t="s">
+        <v>153</v>
+      </c>
+      <c r="L63" s="307"/>
+      <c r="M63" s="241" t="s">
+        <v>131</v>
+      </c>
+      <c r="N63" s="329"/>
+      <c r="O63" s="329"/>
+      <c r="P63" s="329"/>
+      <c r="Q63" s="329"/>
+      <c r="R63" s="329"/>
+      <c r="S63" s="329"/>
+      <c r="T63" s="329"/>
+      <c r="U63" s="329"/>
+      <c r="V63" s="329"/>
+      <c r="W63" s="329"/>
+      <c r="X63" s="329"/>
+      <c r="Y63" s="329"/>
+      <c r="Z63" s="329"/>
+      <c r="AA63" s="329"/>
+      <c r="AB63" s="329"/>
+      <c r="AC63" s="329"/>
+      <c r="AD63" s="329"/>
+      <c r="AE63" s="329"/>
+      <c r="AF63" s="329"/>
+      <c r="AG63" s="329"/>
+      <c r="AH63" s="330"/>
+    </row>
+    <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="308"/>
+      <c r="F64" s="309"/>
+      <c r="G64" s="309"/>
+      <c r="H64" s="309"/>
+      <c r="I64" s="309"/>
+      <c r="J64" s="310"/>
+      <c r="K64" s="308"/>
+      <c r="L64" s="310"/>
+      <c r="M64" s="331"/>
+      <c r="N64" s="332"/>
+      <c r="O64" s="332"/>
+      <c r="P64" s="332"/>
+      <c r="Q64" s="332"/>
+      <c r="R64" s="332"/>
+      <c r="S64" s="332"/>
+      <c r="T64" s="332"/>
+      <c r="U64" s="332"/>
+      <c r="V64" s="332"/>
+      <c r="W64" s="332"/>
+      <c r="X64" s="332"/>
+      <c r="Y64" s="332"/>
+      <c r="Z64" s="332"/>
+      <c r="AA64" s="332"/>
+      <c r="AB64" s="332"/>
+      <c r="AC64" s="332"/>
+      <c r="AD64" s="332"/>
+      <c r="AE64" s="332"/>
+      <c r="AF64" s="332"/>
+      <c r="AG64" s="332"/>
+      <c r="AH64" s="333"/>
+    </row>
+    <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="N63" s="325"/>
-      <c r="O63" s="325"/>
-      <c r="P63" s="325"/>
-      <c r="Q63" s="325"/>
-      <c r="R63" s="325"/>
-      <c r="S63" s="325"/>
-      <c r="T63" s="325"/>
-      <c r="U63" s="325"/>
-      <c r="V63" s="325"/>
-      <c r="W63" s="325"/>
-      <c r="X63" s="325"/>
-      <c r="Y63" s="325"/>
-      <c r="Z63" s="325"/>
-      <c r="AA63" s="325"/>
-      <c r="AB63" s="325"/>
-      <c r="AC63" s="325"/>
-      <c r="AD63" s="325"/>
-      <c r="AE63" s="325"/>
-      <c r="AF63" s="325"/>
-      <c r="AG63" s="325"/>
-      <c r="AH63" s="326"/>
-    </row>
-    <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="319"/>
-      <c r="F64" s="320"/>
-      <c r="G64" s="320"/>
-      <c r="H64" s="320"/>
-      <c r="I64" s="320"/>
-      <c r="J64" s="321"/>
-      <c r="K64" s="319"/>
-      <c r="L64" s="321"/>
-      <c r="M64" s="327"/>
-      <c r="N64" s="328"/>
-      <c r="O64" s="328"/>
-      <c r="P64" s="328"/>
-      <c r="Q64" s="328"/>
-      <c r="R64" s="328"/>
-      <c r="S64" s="328"/>
-      <c r="T64" s="328"/>
-      <c r="U64" s="328"/>
-      <c r="V64" s="328"/>
-      <c r="W64" s="328"/>
-      <c r="X64" s="328"/>
-      <c r="Y64" s="328"/>
-      <c r="Z64" s="328"/>
-      <c r="AA64" s="328"/>
-      <c r="AB64" s="328"/>
-      <c r="AC64" s="328"/>
-      <c r="AD64" s="328"/>
-      <c r="AE64" s="328"/>
-      <c r="AF64" s="328"/>
-      <c r="AG64" s="328"/>
-      <c r="AH64" s="329"/>
-    </row>
-    <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="285" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="286"/>
-      <c r="G65" s="286"/>
-      <c r="H65" s="286"/>
-      <c r="I65" s="286"/>
-      <c r="J65" s="287"/>
-      <c r="K65" s="330" t="s">
-        <v>154</v>
-      </c>
-      <c r="L65" s="307"/>
-      <c r="M65" s="305" t="s">
+      <c r="F65" s="278"/>
+      <c r="G65" s="278"/>
+      <c r="H65" s="278"/>
+      <c r="I65" s="278"/>
+      <c r="J65" s="279"/>
+      <c r="K65" s="328" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="315"/>
+      <c r="M65" s="313" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="306"/>
-      <c r="O65" s="306"/>
-      <c r="P65" s="306"/>
-      <c r="Q65" s="306"/>
-      <c r="R65" s="306"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="306"/>
-      <c r="V65" s="306"/>
-      <c r="W65" s="306"/>
-      <c r="X65" s="306"/>
-      <c r="Y65" s="306"/>
-      <c r="Z65" s="306"/>
-      <c r="AA65" s="306"/>
-      <c r="AB65" s="306"/>
-      <c r="AC65" s="306"/>
-      <c r="AD65" s="306"/>
-      <c r="AE65" s="306"/>
-      <c r="AF65" s="306"/>
-      <c r="AG65" s="306"/>
-      <c r="AH65" s="307"/>
+      <c r="N65" s="314"/>
+      <c r="O65" s="314"/>
+      <c r="P65" s="314"/>
+      <c r="Q65" s="314"/>
+      <c r="R65" s="314"/>
+      <c r="S65" s="314"/>
+      <c r="T65" s="314"/>
+      <c r="U65" s="314"/>
+      <c r="V65" s="314"/>
+      <c r="W65" s="314"/>
+      <c r="X65" s="314"/>
+      <c r="Y65" s="314"/>
+      <c r="Z65" s="314"/>
+      <c r="AA65" s="314"/>
+      <c r="AB65" s="314"/>
+      <c r="AC65" s="314"/>
+      <c r="AD65" s="314"/>
+      <c r="AE65" s="314"/>
+      <c r="AF65" s="314"/>
+      <c r="AG65" s="314"/>
+      <c r="AH65" s="315"/>
     </row>
     <row r="66" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="291"/>
-      <c r="F66" s="292"/>
-      <c r="G66" s="292"/>
-      <c r="H66" s="292"/>
-      <c r="I66" s="292"/>
-      <c r="J66" s="293"/>
-      <c r="K66" s="308"/>
-      <c r="L66" s="310"/>
-      <c r="M66" s="308"/>
-      <c r="N66" s="309"/>
-      <c r="O66" s="309"/>
-      <c r="P66" s="309"/>
-      <c r="Q66" s="309"/>
-      <c r="R66" s="309"/>
-      <c r="S66" s="309"/>
-      <c r="T66" s="309"/>
-      <c r="U66" s="309"/>
-      <c r="V66" s="309"/>
-      <c r="W66" s="309"/>
-      <c r="X66" s="309"/>
-      <c r="Y66" s="309"/>
-      <c r="Z66" s="309"/>
-      <c r="AA66" s="309"/>
-      <c r="AB66" s="309"/>
-      <c r="AC66" s="309"/>
-      <c r="AD66" s="309"/>
-      <c r="AE66" s="309"/>
-      <c r="AF66" s="309"/>
-      <c r="AG66" s="309"/>
-      <c r="AH66" s="310"/>
+      <c r="E66" s="280"/>
+      <c r="F66" s="281"/>
+      <c r="G66" s="281"/>
+      <c r="H66" s="281"/>
+      <c r="I66" s="281"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="319"/>
+      <c r="L66" s="321"/>
+      <c r="M66" s="319"/>
+      <c r="N66" s="320"/>
+      <c r="O66" s="320"/>
+      <c r="P66" s="320"/>
+      <c r="Q66" s="320"/>
+      <c r="R66" s="320"/>
+      <c r="S66" s="320"/>
+      <c r="T66" s="320"/>
+      <c r="U66" s="320"/>
+      <c r="V66" s="320"/>
+      <c r="W66" s="320"/>
+      <c r="X66" s="320"/>
+      <c r="Y66" s="320"/>
+      <c r="Z66" s="320"/>
+      <c r="AA66" s="320"/>
+      <c r="AB66" s="320"/>
+      <c r="AC66" s="320"/>
+      <c r="AD66" s="320"/>
+      <c r="AE66" s="320"/>
+      <c r="AF66" s="320"/>
+      <c r="AG66" s="320"/>
+      <c r="AH66" s="321"/>
     </row>
     <row r="67" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="114"/>
@@ -16093,7 +16082,7 @@
     </row>
     <row r="68" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F68" s="114"/>
       <c r="G68" s="114"/>
@@ -16126,112 +16115,112 @@
       <c r="AH68" s="115"/>
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="298" t="s">
+      <c r="E69" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="285"/>
+      <c r="G69" s="285"/>
+      <c r="H69" s="285"/>
+      <c r="I69" s="285"/>
+      <c r="J69" s="286"/>
+      <c r="K69" s="284" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" s="286"/>
+      <c r="M69" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="299"/>
-      <c r="G69" s="299"/>
-      <c r="H69" s="299"/>
-      <c r="I69" s="299"/>
-      <c r="J69" s="300"/>
-      <c r="K69" s="298" t="s">
-        <v>13</v>
-      </c>
-      <c r="L69" s="300"/>
-      <c r="M69" s="298" t="s">
-        <v>60</v>
-      </c>
-      <c r="N69" s="299"/>
-      <c r="O69" s="299"/>
-      <c r="P69" s="299"/>
-      <c r="Q69" s="299"/>
-      <c r="R69" s="299"/>
-      <c r="S69" s="299"/>
-      <c r="T69" s="299"/>
-      <c r="U69" s="299"/>
-      <c r="V69" s="299"/>
-      <c r="W69" s="299"/>
-      <c r="X69" s="299"/>
-      <c r="Y69" s="299"/>
-      <c r="Z69" s="299"/>
-      <c r="AA69" s="299"/>
-      <c r="AB69" s="299"/>
-      <c r="AC69" s="299"/>
-      <c r="AD69" s="299"/>
-      <c r="AE69" s="299"/>
-      <c r="AF69" s="299"/>
-      <c r="AG69" s="299"/>
-      <c r="AH69" s="300"/>
+      <c r="N69" s="285"/>
+      <c r="O69" s="285"/>
+      <c r="P69" s="285"/>
+      <c r="Q69" s="285"/>
+      <c r="R69" s="285"/>
+      <c r="S69" s="285"/>
+      <c r="T69" s="285"/>
+      <c r="U69" s="285"/>
+      <c r="V69" s="285"/>
+      <c r="W69" s="285"/>
+      <c r="X69" s="285"/>
+      <c r="Y69" s="285"/>
+      <c r="Z69" s="285"/>
+      <c r="AA69" s="285"/>
+      <c r="AB69" s="285"/>
+      <c r="AC69" s="285"/>
+      <c r="AD69" s="285"/>
+      <c r="AE69" s="285"/>
+      <c r="AF69" s="285"/>
+      <c r="AG69" s="285"/>
+      <c r="AH69" s="286"/>
     </row>
     <row r="70" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="316" t="s">
+      <c r="E70" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="317"/>
-      <c r="G70" s="317"/>
-      <c r="H70" s="317"/>
-      <c r="I70" s="317"/>
-      <c r="J70" s="318"/>
-      <c r="K70" s="193" t="s">
-        <v>181</v>
-      </c>
-      <c r="L70" s="194"/>
-      <c r="M70" s="324" t="s">
-        <v>128</v>
-      </c>
-      <c r="N70" s="325"/>
-      <c r="O70" s="325"/>
-      <c r="P70" s="325"/>
-      <c r="Q70" s="325"/>
-      <c r="R70" s="325"/>
-      <c r="S70" s="325"/>
-      <c r="T70" s="325"/>
-      <c r="U70" s="325"/>
-      <c r="V70" s="325"/>
-      <c r="W70" s="325"/>
-      <c r="X70" s="325"/>
-      <c r="Y70" s="325"/>
-      <c r="Z70" s="325"/>
-      <c r="AA70" s="325"/>
-      <c r="AB70" s="325"/>
-      <c r="AC70" s="325"/>
-      <c r="AD70" s="325"/>
-      <c r="AE70" s="325"/>
-      <c r="AF70" s="325"/>
-      <c r="AG70" s="325"/>
-      <c r="AH70" s="326"/>
+      <c r="F70" s="306"/>
+      <c r="G70" s="306"/>
+      <c r="H70" s="306"/>
+      <c r="I70" s="306"/>
+      <c r="J70" s="307"/>
+      <c r="K70" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="L70" s="129"/>
+      <c r="M70" s="334" t="s">
+        <v>127</v>
+      </c>
+      <c r="N70" s="329"/>
+      <c r="O70" s="329"/>
+      <c r="P70" s="329"/>
+      <c r="Q70" s="329"/>
+      <c r="R70" s="329"/>
+      <c r="S70" s="329"/>
+      <c r="T70" s="329"/>
+      <c r="U70" s="329"/>
+      <c r="V70" s="329"/>
+      <c r="W70" s="329"/>
+      <c r="X70" s="329"/>
+      <c r="Y70" s="329"/>
+      <c r="Z70" s="329"/>
+      <c r="AA70" s="329"/>
+      <c r="AB70" s="329"/>
+      <c r="AC70" s="329"/>
+      <c r="AD70" s="329"/>
+      <c r="AE70" s="329"/>
+      <c r="AF70" s="329"/>
+      <c r="AG70" s="329"/>
+      <c r="AH70" s="330"/>
     </row>
     <row r="71" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="319"/>
-      <c r="F71" s="320"/>
-      <c r="G71" s="320"/>
-      <c r="H71" s="320"/>
-      <c r="I71" s="320"/>
-      <c r="J71" s="321"/>
-      <c r="K71" s="322"/>
-      <c r="L71" s="323"/>
-      <c r="M71" s="327"/>
-      <c r="N71" s="328"/>
-      <c r="O71" s="328"/>
-      <c r="P71" s="328"/>
-      <c r="Q71" s="328"/>
-      <c r="R71" s="328"/>
-      <c r="S71" s="328"/>
-      <c r="T71" s="328"/>
-      <c r="U71" s="328"/>
-      <c r="V71" s="328"/>
-      <c r="W71" s="328"/>
-      <c r="X71" s="328"/>
-      <c r="Y71" s="328"/>
-      <c r="Z71" s="328"/>
-      <c r="AA71" s="328"/>
-      <c r="AB71" s="328"/>
-      <c r="AC71" s="328"/>
-      <c r="AD71" s="328"/>
-      <c r="AE71" s="328"/>
-      <c r="AF71" s="328"/>
-      <c r="AG71" s="328"/>
-      <c r="AH71" s="329"/>
+      <c r="E71" s="308"/>
+      <c r="F71" s="309"/>
+      <c r="G71" s="309"/>
+      <c r="H71" s="309"/>
+      <c r="I71" s="309"/>
+      <c r="J71" s="310"/>
+      <c r="K71" s="311"/>
+      <c r="L71" s="312"/>
+      <c r="M71" s="331"/>
+      <c r="N71" s="332"/>
+      <c r="O71" s="332"/>
+      <c r="P71" s="332"/>
+      <c r="Q71" s="332"/>
+      <c r="R71" s="332"/>
+      <c r="S71" s="332"/>
+      <c r="T71" s="332"/>
+      <c r="U71" s="332"/>
+      <c r="V71" s="332"/>
+      <c r="W71" s="332"/>
+      <c r="X71" s="332"/>
+      <c r="Y71" s="332"/>
+      <c r="Z71" s="332"/>
+      <c r="AA71" s="332"/>
+      <c r="AB71" s="332"/>
+      <c r="AC71" s="332"/>
+      <c r="AD71" s="332"/>
+      <c r="AE71" s="332"/>
+      <c r="AF71" s="332"/>
+      <c r="AG71" s="332"/>
+      <c r="AH71" s="333"/>
     </row>
     <row r="72" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="114"/>
@@ -16267,7 +16256,7 @@
     </row>
     <row r="73" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16277,18 +16266,18 @@
     </row>
     <row r="76" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="4:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="4:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="E79" s="121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F79" s="63"/>
       <c r="G79" s="63"/>
@@ -16320,7 +16309,7 @@
     <row r="80" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="66"/>
       <c r="F80" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G80" s="56"/>
       <c r="H80" s="56"/>
@@ -16352,7 +16341,7 @@
       <c r="E81" s="68"/>
       <c r="F81" s="19"/>
       <c r="G81" s="113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
@@ -16362,10 +16351,10 @@
       <c r="M81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S81" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
@@ -16386,13 +16375,13 @@
       <c r="G82" s="56"/>
       <c r="H82" s="56"/>
       <c r="I82" s="113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J82" s="56"/>
       <c r="K82" s="56"/>
       <c r="L82" s="19"/>
       <c r="M82" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
@@ -16416,18 +16405,18 @@
       <c r="G83" s="56"/>
       <c r="H83" s="56"/>
       <c r="I83" s="113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J83" s="56"/>
       <c r="K83" s="56"/>
       <c r="L83" s="19"/>
       <c r="M83" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -16448,13 +16437,13 @@
       <c r="G84" s="56"/>
       <c r="H84" s="56"/>
       <c r="I84" s="113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J84" s="56"/>
       <c r="K84" s="56"/>
       <c r="L84" s="19"/>
       <c r="M84" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
@@ -16480,13 +16469,13 @@
       <c r="G85" s="56"/>
       <c r="H85" s="56"/>
       <c r="I85" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J85" s="56"/>
       <c r="K85" s="56"/>
       <c r="L85" s="19"/>
       <c r="M85" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
@@ -16510,18 +16499,18 @@
       <c r="G86" s="56"/>
       <c r="H86" s="56"/>
       <c r="I86" s="113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J86" s="56"/>
       <c r="K86" s="56"/>
       <c r="L86" s="19"/>
       <c r="M86" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T86" s="19"/>
       <c r="U86" s="19"/>
@@ -16542,18 +16531,18 @@
       <c r="G87" s="56"/>
       <c r="H87" s="56"/>
       <c r="I87" s="113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J87" s="56"/>
       <c r="K87" s="56"/>
       <c r="L87" s="19"/>
       <c r="M87" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
@@ -16574,13 +16563,13 @@
       <c r="G88" s="56"/>
       <c r="H88" s="56"/>
       <c r="I88" s="113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J88" s="56"/>
       <c r="K88" s="56"/>
       <c r="L88" s="19"/>
       <c r="M88" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
@@ -16630,30 +16619,34 @@
     <row r="90" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M22:AH22"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="E70:J71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="M70:AH71"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="M46:AH48"/>
+    <mergeCell ref="M38:AH41"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="M42:AH43"/>
+    <mergeCell ref="M44:AH45"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E49:J62"/>
+    <mergeCell ref="K49:L62"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
     <mergeCell ref="E38:J41"/>
     <mergeCell ref="K38:L41"/>
     <mergeCell ref="E46:J48"/>
@@ -16666,34 +16659,30 @@
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="E44:J45"/>
     <mergeCell ref="K44:L45"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E49:J62"/>
-    <mergeCell ref="K49:L62"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M46:AH48"/>
-    <mergeCell ref="M38:AH41"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="M42:AH43"/>
-    <mergeCell ref="M44:AH45"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:AH69"/>
-    <mergeCell ref="E70:J71"/>
-    <mergeCell ref="K70:L71"/>
-    <mergeCell ref="M70:AH71"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D65DAA-D50F-431D-80C1-6122BA361BD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350042B-0484-4A3C-824A-4F465F5B70FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15255" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="DBアクセスを伴う精査">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -2515,6 +2515,30 @@
   </si>
   <si>
     <t>(レスポンス)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>- ※3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RESTの取引は1リクエストで完結するため、リクエスト単体テストのみ実施する。</t>
+    <rPh sb="5" eb="7">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッシ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3136,7 +3160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3451,6 +3475,201 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3460,201 +3679,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3691,6 +3715,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3721,18 +3832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3742,80 +3841,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3826,6 +3895,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3853,14 +3931,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3871,6 +3964,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3880,107 +3982,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4006,13 +4063,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4024,56 +4093,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -6375,57 +6402,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="155" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="174" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="162" t="s">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -6433,53 +6460,53 @@
       <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="155" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="162" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="183">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -6487,45 +6514,45 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="183" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="161" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
@@ -6664,1042 +6691,1042 @@
       <c r="A7" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="194"/>
+      <c r="D7" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="128" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="128" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="128" t="s">
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="195"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="129"/>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="195"/>
+      <c r="AI7" s="194"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="99">
         <v>1</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186">
+      <c r="C8" s="165"/>
+      <c r="D8" s="166">
         <v>43643</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="158" t="s">
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="192" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
-      <c r="AC8" s="193"/>
-      <c r="AD8" s="193"/>
-      <c r="AE8" s="194"/>
-      <c r="AF8" s="158" t="s">
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="159"/>
-      <c r="AI8" s="160"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="174"/>
     </row>
     <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="120">
         <v>2</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137">
+      <c r="C9" s="191"/>
+      <c r="D9" s="136">
         <v>43850</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="144" t="s">
+      <c r="E9" s="137"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="161" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="195" t="s">
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="161" t="s">
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="178" t="s">
         <v>202</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="120"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="120"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="120"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="120"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="120"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="120"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="120"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="120"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="133"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="120"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="120"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="120"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="120"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="120"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="120"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="120"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="129"/>
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="120"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="120"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="120"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="129"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="120"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="133"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="129"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="120"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="129"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="120"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="120"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="133"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="129"/>
+      <c r="AH31" s="129"/>
+      <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="120"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="133"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="120"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="133"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="129"/>
+      <c r="AI33" s="130"/>
       <c r="AJ33" s="48"/>
       <c r="AK33" s="48"/>
       <c r="AL33" s="48"/>
@@ -7708,45 +7735,122 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D25:F25"/>
@@ -7771,122 +7875,45 @@
     <mergeCell ref="Q9:AE9"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7917,31 +7944,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -7953,23 +7980,23 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -7986,29 +8013,29 @@
       <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -8017,23 +8044,23 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="162" t="s">
+      <c r="AA2" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -8050,29 +8077,29 @@
       <c r="AW2" s="42"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -8081,21 +8108,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="146" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -11288,6 +11315,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11297,14 +11332,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11334,31 +11361,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11370,48 +11397,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -11420,48 +11447,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="162" t="s">
+      <c r="AA2" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -11470,21 +11497,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="146" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11860,6 +11887,14 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11869,14 +11904,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11896,7 +11923,7 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11908,31 +11935,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11944,48 +11971,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -11994,48 +12021,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="162" t="s">
+      <c r="AA2" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12044,21 +12071,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="146" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12130,350 +12157,350 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="235" t="s">
+      <c r="D24" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="236"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="236"/>
-      <c r="H24" s="236"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="235" t="s">
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="236"/>
-      <c r="L24" s="236"/>
-      <c r="M24" s="236"/>
-      <c r="N24" s="236"/>
-      <c r="O24" s="236"/>
-      <c r="P24" s="236"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="236"/>
-      <c r="S24" s="236"/>
-      <c r="T24" s="236"/>
-      <c r="U24" s="236"/>
-      <c r="V24" s="236"/>
-      <c r="W24" s="236"/>
-      <c r="X24" s="236"/>
-      <c r="Y24" s="236"/>
-      <c r="Z24" s="236"/>
-      <c r="AA24" s="236"/>
-      <c r="AB24" s="236"/>
-      <c r="AC24" s="236"/>
-      <c r="AD24" s="236"/>
-      <c r="AE24" s="236"/>
-      <c r="AF24" s="236"/>
-      <c r="AG24" s="236"/>
-      <c r="AH24" s="237"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="213"/>
+      <c r="Z24" s="213"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="214"/>
     </row>
     <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="208" t="s">
+      <c r="D25" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="241" t="s">
+      <c r="E25" s="238"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="219" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="242"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="242"/>
-      <c r="N25" s="242"/>
-      <c r="O25" s="242"/>
-      <c r="P25" s="242"/>
-      <c r="Q25" s="242"/>
-      <c r="R25" s="242"/>
-      <c r="S25" s="242"/>
-      <c r="T25" s="242"/>
-      <c r="U25" s="242"/>
-      <c r="V25" s="242"/>
-      <c r="W25" s="242"/>
-      <c r="X25" s="242"/>
-      <c r="Y25" s="242"/>
-      <c r="Z25" s="242"/>
-      <c r="AA25" s="242"/>
-      <c r="AB25" s="242"/>
-      <c r="AC25" s="242"/>
-      <c r="AD25" s="242"/>
-      <c r="AE25" s="242"/>
-      <c r="AF25" s="242"/>
-      <c r="AG25" s="242"/>
-      <c r="AH25" s="243"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="220"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="220"/>
+      <c r="Z25" s="220"/>
+      <c r="AA25" s="220"/>
+      <c r="AB25" s="220"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="220"/>
+      <c r="AE25" s="220"/>
+      <c r="AF25" s="220"/>
+      <c r="AG25" s="220"/>
+      <c r="AH25" s="221"/>
     </row>
     <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="211"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="245"/>
-      <c r="S26" s="245"/>
-      <c r="T26" s="245"/>
-      <c r="U26" s="245"/>
-      <c r="V26" s="245"/>
-      <c r="W26" s="245"/>
-      <c r="X26" s="245"/>
-      <c r="Y26" s="245"/>
-      <c r="Z26" s="245"/>
-      <c r="AA26" s="245"/>
-      <c r="AB26" s="245"/>
-      <c r="AC26" s="245"/>
-      <c r="AD26" s="245"/>
-      <c r="AE26" s="245"/>
-      <c r="AF26" s="245"/>
-      <c r="AG26" s="245"/>
-      <c r="AH26" s="246"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="223"/>
+      <c r="Z26" s="223"/>
+      <c r="AA26" s="223"/>
+      <c r="AB26" s="223"/>
+      <c r="AC26" s="223"/>
+      <c r="AD26" s="223"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="223"/>
+      <c r="AH26" s="224"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="248"/>
-      <c r="L27" s="248"/>
-      <c r="M27" s="248"/>
-      <c r="N27" s="248"/>
-      <c r="O27" s="248"/>
-      <c r="P27" s="248"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="248"/>
-      <c r="S27" s="248"/>
-      <c r="T27" s="248"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="248"/>
-      <c r="X27" s="248"/>
-      <c r="Y27" s="248"/>
-      <c r="Z27" s="248"/>
-      <c r="AA27" s="248"/>
-      <c r="AB27" s="248"/>
-      <c r="AC27" s="248"/>
-      <c r="AD27" s="248"/>
-      <c r="AE27" s="248"/>
-      <c r="AF27" s="248"/>
-      <c r="AG27" s="248"/>
-      <c r="AH27" s="249"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="226"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="226"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="226"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="226"/>
+      <c r="AH27" s="227"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="208" t="s">
+      <c r="D28" s="237" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="225" t="s">
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="226"/>
-      <c r="L28" s="226"/>
-      <c r="M28" s="226"/>
-      <c r="N28" s="226"/>
-      <c r="O28" s="226"/>
-      <c r="P28" s="226"/>
-      <c r="Q28" s="226"/>
-      <c r="R28" s="226"/>
-      <c r="S28" s="226"/>
-      <c r="T28" s="226"/>
-      <c r="U28" s="226"/>
-      <c r="V28" s="226"/>
-      <c r="W28" s="226"/>
-      <c r="X28" s="226"/>
-      <c r="Y28" s="226"/>
-      <c r="Z28" s="226"/>
-      <c r="AA28" s="226"/>
-      <c r="AB28" s="226"/>
-      <c r="AC28" s="226"/>
-      <c r="AD28" s="226"/>
-      <c r="AE28" s="226"/>
-      <c r="AF28" s="226"/>
-      <c r="AG28" s="226"/>
-      <c r="AH28" s="227"/>
+      <c r="K28" s="229"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="229"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="229"/>
+      <c r="Q28" s="229"/>
+      <c r="R28" s="229"/>
+      <c r="S28" s="229"/>
+      <c r="T28" s="229"/>
+      <c r="U28" s="229"/>
+      <c r="V28" s="229"/>
+      <c r="W28" s="229"/>
+      <c r="X28" s="229"/>
+      <c r="Y28" s="229"/>
+      <c r="Z28" s="229"/>
+      <c r="AA28" s="229"/>
+      <c r="AB28" s="229"/>
+      <c r="AC28" s="229"/>
+      <c r="AD28" s="229"/>
+      <c r="AE28" s="229"/>
+      <c r="AF28" s="229"/>
+      <c r="AG28" s="229"/>
+      <c r="AH28" s="230"/>
     </row>
     <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="211"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="229"/>
-      <c r="L29" s="229"/>
-      <c r="M29" s="229"/>
-      <c r="N29" s="229"/>
-      <c r="O29" s="229"/>
-      <c r="P29" s="229"/>
-      <c r="Q29" s="229"/>
-      <c r="R29" s="229"/>
-      <c r="S29" s="229"/>
-      <c r="T29" s="229"/>
-      <c r="U29" s="229"/>
-      <c r="V29" s="229"/>
-      <c r="W29" s="229"/>
-      <c r="X29" s="229"/>
-      <c r="Y29" s="229"/>
-      <c r="Z29" s="229"/>
-      <c r="AA29" s="229"/>
-      <c r="AB29" s="229"/>
-      <c r="AC29" s="229"/>
-      <c r="AD29" s="229"/>
-      <c r="AE29" s="229"/>
-      <c r="AF29" s="229"/>
-      <c r="AG29" s="229"/>
-      <c r="AH29" s="230"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="232"/>
+      <c r="Y29" s="232"/>
+      <c r="Z29" s="232"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="232"/>
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="233"/>
     </row>
     <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="232"/>
-      <c r="L30" s="232"/>
-      <c r="M30" s="232"/>
-      <c r="N30" s="232"/>
-      <c r="O30" s="232"/>
-      <c r="P30" s="232"/>
-      <c r="Q30" s="232"/>
-      <c r="R30" s="232"/>
-      <c r="S30" s="232"/>
-      <c r="T30" s="232"/>
-      <c r="U30" s="232"/>
-      <c r="V30" s="232"/>
-      <c r="W30" s="232"/>
-      <c r="X30" s="232"/>
-      <c r="Y30" s="232"/>
-      <c r="Z30" s="232"/>
-      <c r="AA30" s="232"/>
-      <c r="AB30" s="232"/>
-      <c r="AC30" s="232"/>
-      <c r="AD30" s="232"/>
-      <c r="AE30" s="232"/>
-      <c r="AF30" s="232"/>
-      <c r="AG30" s="232"/>
-      <c r="AH30" s="233"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="234"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="235"/>
+      <c r="M30" s="235"/>
+      <c r="N30" s="235"/>
+      <c r="O30" s="235"/>
+      <c r="P30" s="235"/>
+      <c r="Q30" s="235"/>
+      <c r="R30" s="235"/>
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="235"/>
+      <c r="V30" s="235"/>
+      <c r="W30" s="235"/>
+      <c r="X30" s="235"/>
+      <c r="Y30" s="235"/>
+      <c r="Z30" s="235"/>
+      <c r="AA30" s="235"/>
+      <c r="AB30" s="235"/>
+      <c r="AC30" s="235"/>
+      <c r="AD30" s="235"/>
+      <c r="AE30" s="235"/>
+      <c r="AF30" s="235"/>
+      <c r="AG30" s="235"/>
+      <c r="AH30" s="236"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="217" t="s">
+      <c r="D31" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="225" t="s">
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="228" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="226"/>
-      <c r="O31" s="226"/>
-      <c r="P31" s="226"/>
-      <c r="Q31" s="226"/>
-      <c r="R31" s="226"/>
-      <c r="S31" s="226"/>
-      <c r="T31" s="226"/>
-      <c r="U31" s="226"/>
-      <c r="V31" s="226"/>
-      <c r="W31" s="226"/>
-      <c r="X31" s="226"/>
-      <c r="Y31" s="226"/>
-      <c r="Z31" s="226"/>
-      <c r="AA31" s="226"/>
-      <c r="AB31" s="226"/>
-      <c r="AC31" s="226"/>
-      <c r="AD31" s="226"/>
-      <c r="AE31" s="226"/>
-      <c r="AF31" s="226"/>
-      <c r="AG31" s="226"/>
-      <c r="AH31" s="227"/>
+      <c r="K31" s="229"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="229"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="229"/>
+      <c r="P31" s="229"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="229"/>
+      <c r="S31" s="229"/>
+      <c r="T31" s="229"/>
+      <c r="U31" s="229"/>
+      <c r="V31" s="229"/>
+      <c r="W31" s="229"/>
+      <c r="X31" s="229"/>
+      <c r="Y31" s="229"/>
+      <c r="Z31" s="229"/>
+      <c r="AA31" s="229"/>
+      <c r="AB31" s="229"/>
+      <c r="AC31" s="229"/>
+      <c r="AD31" s="229"/>
+      <c r="AE31" s="229"/>
+      <c r="AF31" s="229"/>
+      <c r="AG31" s="229"/>
+      <c r="AH31" s="230"/>
     </row>
     <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="211"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="229"/>
-      <c r="L32" s="229"/>
-      <c r="M32" s="229"/>
-      <c r="N32" s="229"/>
-      <c r="O32" s="229"/>
-      <c r="P32" s="229"/>
-      <c r="Q32" s="229"/>
-      <c r="R32" s="229"/>
-      <c r="S32" s="229"/>
-      <c r="T32" s="229"/>
-      <c r="U32" s="229"/>
-      <c r="V32" s="229"/>
-      <c r="W32" s="229"/>
-      <c r="X32" s="229"/>
-      <c r="Y32" s="229"/>
-      <c r="Z32" s="229"/>
-      <c r="AA32" s="229"/>
-      <c r="AB32" s="229"/>
-      <c r="AC32" s="229"/>
-      <c r="AD32" s="229"/>
-      <c r="AE32" s="229"/>
-      <c r="AF32" s="229"/>
-      <c r="AG32" s="229"/>
-      <c r="AH32" s="230"/>
+      <c r="D32" s="240"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="233"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="232"/>
-      <c r="N33" s="232"/>
-      <c r="O33" s="232"/>
-      <c r="P33" s="232"/>
-      <c r="Q33" s="232"/>
-      <c r="R33" s="232"/>
-      <c r="S33" s="232"/>
-      <c r="T33" s="232"/>
-      <c r="U33" s="232"/>
-      <c r="V33" s="232"/>
-      <c r="W33" s="232"/>
-      <c r="X33" s="232"/>
-      <c r="Y33" s="232"/>
-      <c r="Z33" s="232"/>
-      <c r="AA33" s="232"/>
-      <c r="AB33" s="232"/>
-      <c r="AC33" s="232"/>
-      <c r="AD33" s="232"/>
-      <c r="AE33" s="232"/>
-      <c r="AF33" s="232"/>
-      <c r="AG33" s="232"/>
-      <c r="AH33" s="233"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="245"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
+      <c r="M33" s="235"/>
+      <c r="N33" s="235"/>
+      <c r="O33" s="235"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="235"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="235"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="235"/>
+      <c r="AA33" s="235"/>
+      <c r="AB33" s="235"/>
+      <c r="AC33" s="235"/>
+      <c r="AD33" s="235"/>
+      <c r="AE33" s="235"/>
+      <c r="AF33" s="235"/>
+      <c r="AG33" s="235"/>
+      <c r="AH33" s="236"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
@@ -12496,42 +12523,42 @@
     </row>
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="222" t="s">
+      <c r="D39" s="247" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="224"/>
-      <c r="H39" s="218" t="s">
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="249"/>
+      <c r="H39" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="218" t="s">
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="238"/>
-      <c r="N39" s="238"/>
-      <c r="O39" s="239"/>
-      <c r="P39" s="218" t="s">
+      <c r="M39" s="216"/>
+      <c r="N39" s="216"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="Q39" s="135"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="136"/>
-      <c r="T39" s="218" t="s">
+      <c r="Q39" s="132"/>
+      <c r="R39" s="132"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="U39" s="135"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="240" t="s">
+      <c r="U39" s="132"/>
+      <c r="V39" s="132"/>
+      <c r="W39" s="133"/>
+      <c r="X39" s="218" t="s">
         <v>193</v>
       </c>
-      <c r="Y39" s="135"/>
-      <c r="Z39" s="135"/>
-      <c r="AA39" s="136"/>
+      <c r="Y39" s="132"/>
+      <c r="Z39" s="132"/>
+      <c r="AA39" s="133"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D40" s="205" t="s">
@@ -12572,19 +12599,19 @@
       <c r="AA40" s="207"/>
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="219" t="s">
+      <c r="D41" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="219" t="s">
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="209" t="s">
         <v>184</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
-      <c r="L41" s="219" t="s">
+      <c r="L41" s="209" t="s">
         <v>185</v>
       </c>
       <c r="M41" s="206"/>
@@ -12616,32 +12643,32 @@
       <c r="E42" s="206"/>
       <c r="F42" s="206"/>
       <c r="G42" s="207"/>
-      <c r="H42" s="219" t="s">
+      <c r="H42" s="209" t="s">
         <v>219</v>
       </c>
-      <c r="I42" s="220"/>
-      <c r="J42" s="220"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="219" t="s">
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="209" t="s">
         <v>219</v>
       </c>
-      <c r="M42" s="220"/>
-      <c r="N42" s="220"/>
-      <c r="O42" s="221"/>
-      <c r="P42" s="234" t="s">
+      <c r="M42" s="210"/>
+      <c r="N42" s="210"/>
+      <c r="O42" s="211"/>
+      <c r="P42" s="208" t="s">
         <v>34</v>
       </c>
       <c r="Q42" s="206"/>
       <c r="R42" s="206"/>
       <c r="S42" s="207"/>
-      <c r="T42" s="234" t="s">
+      <c r="T42" s="208" t="s">
         <v>34</v>
       </c>
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
-      <c r="X42" s="234" t="s">
-        <v>34</v>
+      <c r="X42" s="336" t="s">
+        <v>232</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
@@ -12664,74 +12691,81 @@
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="76" t="s">
+      <c r="D45" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C46" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="76"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D47" s="31" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D48" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C50" s="76" t="s">
+    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="76"/>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D52" s="15" t="s">
+      <c r="C52" s="76"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D53" s="15" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D53" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D25:I27"/>
+    <mergeCell ref="D31:I33"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="J28:AH30"/>
+    <mergeCell ref="D28:I30"/>
+    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="X40:AA40"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="P42:S42"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AC1:AF1"/>
@@ -12748,22 +12782,23 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D25:I27"/>
-    <mergeCell ref="D31:I33"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="J28:AH30"/>
-    <mergeCell ref="D28:I30"/>
-    <mergeCell ref="X42:AA42"/>
-    <mergeCell ref="X40:AA40"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="J24:AH24"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J25:AH27"/>
+    <mergeCell ref="J31:AH33"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12773,8 +12808,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="34" man="1"/>
-    <brk id="230" max="16383" man="1"/>
+    <brk id="45" max="34" man="1"/>
+    <brk id="231" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12798,31 +12833,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -12834,48 +12869,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12884,48 +12919,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="162" t="s">
+      <c r="AA2" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12934,21 +12969,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="146" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13162,35 +13197,35 @@
       <c r="D28" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="284" t="s">
+      <c r="E28" s="298" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="285"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="286"/>
-      <c r="I28" s="262" t="s">
+      <c r="F28" s="299"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="263"/>
-      <c r="K28" s="264"/>
-      <c r="L28" s="283" t="s">
+      <c r="J28" s="269"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="283"/>
-      <c r="N28" s="283"/>
-      <c r="O28" s="283"/>
-      <c r="P28" s="283"/>
-      <c r="Q28" s="262" t="s">
+      <c r="M28" s="280"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="280"/>
+      <c r="Q28" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="263"/>
-      <c r="S28" s="263"/>
-      <c r="T28" s="264"/>
-      <c r="U28" s="262" t="s">
+      <c r="R28" s="269"/>
+      <c r="S28" s="269"/>
+      <c r="T28" s="270"/>
+      <c r="U28" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="263"/>
-      <c r="W28" s="264"/>
+      <c r="V28" s="269"/>
+      <c r="W28" s="270"/>
       <c r="X28" s="72" t="s">
         <v>39</v>
       </c>
@@ -13211,31 +13246,31 @@
       <c r="D29" s="81">
         <v>1</v>
       </c>
-      <c r="E29" s="277" t="s">
+      <c r="E29" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="278"/>
-      <c r="G29" s="278"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="271" t="s">
+      <c r="F29" s="286"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="301" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="272"/>
-      <c r="K29" s="272"/>
-      <c r="L29" s="273" t="s">
+      <c r="J29" s="302"/>
+      <c r="K29" s="302"/>
+      <c r="L29" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="273"/>
-      <c r="N29" s="273"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="273"/>
-      <c r="Q29" s="265"/>
-      <c r="R29" s="266"/>
-      <c r="S29" s="266"/>
-      <c r="T29" s="267"/>
-      <c r="U29" s="265"/>
-      <c r="V29" s="266"/>
-      <c r="W29" s="267"/>
+      <c r="M29" s="297"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297"/>
+      <c r="P29" s="297"/>
+      <c r="Q29" s="288"/>
+      <c r="R29" s="289"/>
+      <c r="S29" s="289"/>
+      <c r="T29" s="290"/>
+      <c r="U29" s="288"/>
+      <c r="V29" s="289"/>
+      <c r="W29" s="290"/>
       <c r="X29" s="82" t="s">
         <v>8</v>
       </c>
@@ -13256,27 +13291,27 @@
       <c r="D30" s="81">
         <v>2</v>
       </c>
-      <c r="E30" s="265"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="272"/>
-      <c r="J30" s="272"/>
-      <c r="K30" s="272"/>
-      <c r="L30" s="273" t="s">
+      <c r="E30" s="288"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="302"/>
+      <c r="J30" s="302"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="273"/>
-      <c r="N30" s="273"/>
-      <c r="O30" s="273"/>
-      <c r="P30" s="273"/>
-      <c r="Q30" s="265"/>
-      <c r="R30" s="266"/>
-      <c r="S30" s="266"/>
-      <c r="T30" s="267"/>
-      <c r="U30" s="265"/>
-      <c r="V30" s="266"/>
-      <c r="W30" s="267"/>
+      <c r="M30" s="297"/>
+      <c r="N30" s="297"/>
+      <c r="O30" s="297"/>
+      <c r="P30" s="297"/>
+      <c r="Q30" s="288"/>
+      <c r="R30" s="289"/>
+      <c r="S30" s="289"/>
+      <c r="T30" s="290"/>
+      <c r="U30" s="288"/>
+      <c r="V30" s="289"/>
+      <c r="W30" s="290"/>
       <c r="X30" s="82" t="s">
         <v>3</v>
       </c>
@@ -13295,27 +13330,27 @@
       <c r="D31" s="88">
         <v>3</v>
       </c>
-      <c r="E31" s="280"/>
-      <c r="F31" s="281"/>
-      <c r="G31" s="281"/>
-      <c r="H31" s="282"/>
-      <c r="I31" s="272"/>
-      <c r="J31" s="272"/>
-      <c r="K31" s="272"/>
-      <c r="L31" s="273" t="s">
+      <c r="E31" s="291"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="302"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="273"/>
-      <c r="N31" s="273"/>
-      <c r="O31" s="273"/>
-      <c r="P31" s="273"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="269"/>
-      <c r="S31" s="269"/>
-      <c r="T31" s="270"/>
-      <c r="U31" s="268"/>
-      <c r="V31" s="269"/>
-      <c r="W31" s="270"/>
+      <c r="M31" s="297"/>
+      <c r="N31" s="297"/>
+      <c r="O31" s="297"/>
+      <c r="P31" s="297"/>
+      <c r="Q31" s="294"/>
+      <c r="R31" s="295"/>
+      <c r="S31" s="295"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="294"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="296"/>
       <c r="X31" s="89" t="s">
         <v>4</v>
       </c>
@@ -13463,50 +13498,50 @@
       <c r="D39" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="299" t="s">
+      <c r="E39" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="300"/>
-      <c r="G39" s="300"/>
-      <c r="H39" s="301"/>
-      <c r="I39" s="262" t="s">
+      <c r="F39" s="263"/>
+      <c r="G39" s="263"/>
+      <c r="H39" s="264"/>
+      <c r="I39" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="263"/>
-      <c r="K39" s="264"/>
-      <c r="L39" s="283" t="s">
+      <c r="J39" s="269"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="283"/>
-      <c r="N39" s="283"/>
-      <c r="O39" s="283"/>
-      <c r="P39" s="283"/>
-      <c r="Q39" s="302" t="s">
+      <c r="M39" s="280"/>
+      <c r="N39" s="280"/>
+      <c r="O39" s="280"/>
+      <c r="P39" s="280"/>
+      <c r="Q39" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="303"/>
-      <c r="S39" s="303"/>
-      <c r="T39" s="304"/>
-      <c r="U39" s="262" t="s">
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="284"/>
+      <c r="U39" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="263"/>
-      <c r="W39" s="264"/>
-      <c r="X39" s="299" t="s">
+      <c r="V39" s="269"/>
+      <c r="W39" s="270"/>
+      <c r="X39" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="Y39" s="300"/>
-      <c r="Z39" s="300"/>
-      <c r="AA39" s="300"/>
-      <c r="AB39" s="300"/>
-      <c r="AC39" s="300"/>
-      <c r="AD39" s="300"/>
-      <c r="AE39" s="301"/>
-      <c r="AF39" s="287" t="s">
+      <c r="Y39" s="263"/>
+      <c r="Z39" s="263"/>
+      <c r="AA39" s="263"/>
+      <c r="AB39" s="263"/>
+      <c r="AC39" s="263"/>
+      <c r="AD39" s="263"/>
+      <c r="AE39" s="264"/>
+      <c r="AF39" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="AG39" s="288"/>
-      <c r="AH39" s="289"/>
+      <c r="AG39" s="251"/>
+      <c r="AH39" s="252"/>
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
@@ -13519,45 +13554,45 @@
       <c r="D40" s="81">
         <v>1</v>
       </c>
-      <c r="E40" s="290" t="s">
+      <c r="E40" s="253" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="291"/>
-      <c r="G40" s="291"/>
-      <c r="H40" s="292"/>
-      <c r="I40" s="253" t="s">
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="254"/>
-      <c r="K40" s="255"/>
-      <c r="L40" s="275" t="s">
+      <c r="J40" s="272"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="M40" s="275"/>
-      <c r="N40" s="275"/>
-      <c r="O40" s="275"/>
-      <c r="P40" s="275"/>
-      <c r="Q40" s="290" t="s">
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="281"/>
+      <c r="P40" s="281"/>
+      <c r="Q40" s="253" t="s">
         <v>137</v>
       </c>
-      <c r="R40" s="291"/>
-      <c r="S40" s="291"/>
-      <c r="T40" s="292"/>
-      <c r="U40" s="253" t="s">
+      <c r="R40" s="254"/>
+      <c r="S40" s="254"/>
+      <c r="T40" s="255"/>
+      <c r="U40" s="271" t="s">
         <v>138</v>
       </c>
-      <c r="V40" s="254"/>
-      <c r="W40" s="255"/>
-      <c r="X40" s="250" t="s">
+      <c r="V40" s="272"/>
+      <c r="W40" s="273"/>
+      <c r="X40" s="265" t="s">
         <v>136</v>
       </c>
-      <c r="Y40" s="251"/>
-      <c r="Z40" s="251"/>
-      <c r="AA40" s="251"/>
-      <c r="AB40" s="251"/>
-      <c r="AC40" s="251"/>
-      <c r="AD40" s="251"/>
-      <c r="AE40" s="252"/>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266"/>
+      <c r="AB40" s="266"/>
+      <c r="AC40" s="266"/>
+      <c r="AD40" s="266"/>
+      <c r="AE40" s="267"/>
       <c r="AF40" s="100" t="s">
         <v>85</v>
       </c>
@@ -13575,37 +13610,37 @@
       <c r="D41" s="81">
         <v>2</v>
       </c>
-      <c r="E41" s="293"/>
-      <c r="F41" s="294"/>
-      <c r="G41" s="294"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="256"/>
-      <c r="J41" s="257"/>
-      <c r="K41" s="258"/>
-      <c r="L41" s="275" t="s">
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="258"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="275"/>
+      <c r="K41" s="276"/>
+      <c r="L41" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="275"/>
-      <c r="N41" s="275"/>
-      <c r="O41" s="275"/>
-      <c r="P41" s="275"/>
-      <c r="Q41" s="293"/>
-      <c r="R41" s="294"/>
-      <c r="S41" s="294"/>
-      <c r="T41" s="295"/>
-      <c r="U41" s="256"/>
-      <c r="V41" s="257"/>
-      <c r="W41" s="258"/>
-      <c r="X41" s="250" t="s">
+      <c r="M41" s="281"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="281"/>
+      <c r="Q41" s="256"/>
+      <c r="R41" s="257"/>
+      <c r="S41" s="257"/>
+      <c r="T41" s="258"/>
+      <c r="U41" s="274"/>
+      <c r="V41" s="275"/>
+      <c r="W41" s="276"/>
+      <c r="X41" s="265" t="s">
         <v>135</v>
       </c>
-      <c r="Y41" s="251"/>
-      <c r="Z41" s="251"/>
-      <c r="AA41" s="251"/>
-      <c r="AB41" s="251"/>
-      <c r="AC41" s="251"/>
-      <c r="AD41" s="251"/>
-      <c r="AE41" s="252"/>
+      <c r="Y41" s="266"/>
+      <c r="Z41" s="266"/>
+      <c r="AA41" s="266"/>
+      <c r="AB41" s="266"/>
+      <c r="AC41" s="266"/>
+      <c r="AD41" s="266"/>
+      <c r="AE41" s="267"/>
       <c r="AF41" s="103"/>
       <c r="AG41" s="104"/>
       <c r="AH41" s="105"/>
@@ -13621,37 +13656,37 @@
       <c r="D42" s="81">
         <v>3</v>
       </c>
-      <c r="E42" s="293"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="295"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="257"/>
-      <c r="K42" s="258"/>
-      <c r="L42" s="275" t="s">
+      <c r="E42" s="256"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="258"/>
+      <c r="I42" s="274"/>
+      <c r="J42" s="275"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="281" t="s">
         <v>84</v>
       </c>
-      <c r="M42" s="275"/>
-      <c r="N42" s="275"/>
-      <c r="O42" s="275"/>
-      <c r="P42" s="275"/>
-      <c r="Q42" s="293"/>
-      <c r="R42" s="294"/>
-      <c r="S42" s="294"/>
-      <c r="T42" s="295"/>
-      <c r="U42" s="256"/>
-      <c r="V42" s="257"/>
-      <c r="W42" s="258"/>
-      <c r="X42" s="250" t="s">
+      <c r="M42" s="281"/>
+      <c r="N42" s="281"/>
+      <c r="O42" s="281"/>
+      <c r="P42" s="281"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="257"/>
+      <c r="S42" s="257"/>
+      <c r="T42" s="258"/>
+      <c r="U42" s="274"/>
+      <c r="V42" s="275"/>
+      <c r="W42" s="276"/>
+      <c r="X42" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="Y42" s="251"/>
-      <c r="Z42" s="251"/>
-      <c r="AA42" s="251"/>
-      <c r="AB42" s="251"/>
-      <c r="AC42" s="251"/>
-      <c r="AD42" s="251"/>
-      <c r="AE42" s="252"/>
+      <c r="Y42" s="266"/>
+      <c r="Z42" s="266"/>
+      <c r="AA42" s="266"/>
+      <c r="AB42" s="266"/>
+      <c r="AC42" s="266"/>
+      <c r="AD42" s="266"/>
+      <c r="AE42" s="267"/>
       <c r="AF42" s="103"/>
       <c r="AG42" s="104"/>
       <c r="AH42" s="105"/>
@@ -13667,37 +13702,37 @@
       <c r="D43" s="81">
         <v>4</v>
       </c>
-      <c r="E43" s="293"/>
-      <c r="F43" s="294"/>
-      <c r="G43" s="294"/>
-      <c r="H43" s="295"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="257"/>
-      <c r="K43" s="258"/>
-      <c r="L43" s="276" t="s">
+      <c r="E43" s="256"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="257"/>
+      <c r="H43" s="258"/>
+      <c r="I43" s="274"/>
+      <c r="J43" s="275"/>
+      <c r="K43" s="276"/>
+      <c r="L43" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="M43" s="275"/>
-      <c r="N43" s="275"/>
-      <c r="O43" s="275"/>
-      <c r="P43" s="275"/>
-      <c r="Q43" s="293"/>
-      <c r="R43" s="294"/>
-      <c r="S43" s="294"/>
-      <c r="T43" s="295"/>
-      <c r="U43" s="256"/>
-      <c r="V43" s="257"/>
-      <c r="W43" s="258"/>
-      <c r="X43" s="250" t="s">
+      <c r="M43" s="281"/>
+      <c r="N43" s="281"/>
+      <c r="O43" s="281"/>
+      <c r="P43" s="281"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="257"/>
+      <c r="S43" s="257"/>
+      <c r="T43" s="258"/>
+      <c r="U43" s="274"/>
+      <c r="V43" s="275"/>
+      <c r="W43" s="276"/>
+      <c r="X43" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="Y43" s="251"/>
-      <c r="Z43" s="251"/>
-      <c r="AA43" s="251"/>
-      <c r="AB43" s="251"/>
-      <c r="AC43" s="251"/>
-      <c r="AD43" s="251"/>
-      <c r="AE43" s="252"/>
+      <c r="Y43" s="266"/>
+      <c r="Z43" s="266"/>
+      <c r="AA43" s="266"/>
+      <c r="AB43" s="266"/>
+      <c r="AC43" s="266"/>
+      <c r="AD43" s="266"/>
+      <c r="AE43" s="267"/>
       <c r="AF43" s="103"/>
       <c r="AG43" s="104"/>
       <c r="AH43" s="105"/>
@@ -13713,37 +13748,37 @@
       <c r="D44" s="81">
         <v>5</v>
       </c>
-      <c r="E44" s="296"/>
-      <c r="F44" s="297"/>
-      <c r="G44" s="297"/>
-      <c r="H44" s="298"/>
-      <c r="I44" s="259"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="261"/>
-      <c r="L44" s="274" t="s">
+      <c r="E44" s="259"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="261"/>
+      <c r="I44" s="277"/>
+      <c r="J44" s="278"/>
+      <c r="K44" s="279"/>
+      <c r="L44" s="303" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="274"/>
-      <c r="N44" s="274"/>
-      <c r="O44" s="274"/>
-      <c r="P44" s="274"/>
-      <c r="Q44" s="296"/>
-      <c r="R44" s="297"/>
-      <c r="S44" s="297"/>
-      <c r="T44" s="298"/>
-      <c r="U44" s="259"/>
-      <c r="V44" s="260"/>
-      <c r="W44" s="261"/>
-      <c r="X44" s="250" t="s">
+      <c r="M44" s="303"/>
+      <c r="N44" s="303"/>
+      <c r="O44" s="303"/>
+      <c r="P44" s="303"/>
+      <c r="Q44" s="259"/>
+      <c r="R44" s="260"/>
+      <c r="S44" s="260"/>
+      <c r="T44" s="261"/>
+      <c r="U44" s="277"/>
+      <c r="V44" s="278"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="265" t="s">
         <v>93</v>
       </c>
-      <c r="Y44" s="251"/>
-      <c r="Z44" s="251"/>
-      <c r="AA44" s="251"/>
-      <c r="AB44" s="251"/>
-      <c r="AC44" s="251"/>
-      <c r="AD44" s="251"/>
-      <c r="AE44" s="252"/>
+      <c r="Y44" s="266"/>
+      <c r="Z44" s="266"/>
+      <c r="AA44" s="266"/>
+      <c r="AB44" s="266"/>
+      <c r="AC44" s="266"/>
+      <c r="AD44" s="266"/>
+      <c r="AE44" s="267"/>
       <c r="AF44" s="106"/>
       <c r="AG44" s="107"/>
       <c r="AH44" s="108"/>
@@ -14010,6 +14045,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -14026,40 +14095,6 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14093,31 +14128,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="155" t="str">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14129,48 +14164,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="155" t="str">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -14179,48 +14214,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="162" t="s">
+      <c r="AA2" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="155" t="str">
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -14229,21 +14264,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="146" t="str">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14612,354 +14647,354 @@
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="284" t="s">
+      <c r="E22" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="285"/>
-      <c r="G22" s="285"/>
-      <c r="H22" s="285"/>
-      <c r="I22" s="285"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="284" t="s">
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="286"/>
-      <c r="M22" s="284" t="s">
+      <c r="L22" s="300"/>
+      <c r="M22" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="285"/>
-      <c r="O22" s="285"/>
-      <c r="P22" s="285"/>
-      <c r="Q22" s="285"/>
-      <c r="R22" s="285"/>
-      <c r="S22" s="285"/>
-      <c r="T22" s="285"/>
-      <c r="U22" s="285"/>
-      <c r="V22" s="285"/>
-      <c r="W22" s="285"/>
-      <c r="X22" s="285"/>
-      <c r="Y22" s="285"/>
-      <c r="Z22" s="285"/>
-      <c r="AA22" s="285"/>
-      <c r="AB22" s="285"/>
-      <c r="AC22" s="285"/>
-      <c r="AD22" s="285"/>
-      <c r="AE22" s="285"/>
-      <c r="AF22" s="285"/>
-      <c r="AG22" s="285"/>
-      <c r="AH22" s="286"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="299"/>
+      <c r="Q22" s="299"/>
+      <c r="R22" s="299"/>
+      <c r="S22" s="299"/>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="299"/>
+      <c r="X22" s="299"/>
+      <c r="Y22" s="299"/>
+      <c r="Z22" s="299"/>
+      <c r="AA22" s="299"/>
+      <c r="AB22" s="299"/>
+      <c r="AC22" s="299"/>
+      <c r="AD22" s="299"/>
+      <c r="AE22" s="299"/>
+      <c r="AF22" s="299"/>
+      <c r="AG22" s="299"/>
+      <c r="AH22" s="300"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="305" t="s">
+      <c r="E23" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="306"/>
-      <c r="G23" s="306"/>
-      <c r="H23" s="306"/>
-      <c r="I23" s="306"/>
-      <c r="J23" s="307"/>
-      <c r="K23" s="128" t="s">
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="334" t="s">
+      <c r="L23" s="194"/>
+      <c r="M23" s="324" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="329"/>
-      <c r="O23" s="329"/>
-      <c r="P23" s="329"/>
-      <c r="Q23" s="329"/>
-      <c r="R23" s="329"/>
-      <c r="S23" s="329"/>
-      <c r="T23" s="329"/>
-      <c r="U23" s="329"/>
-      <c r="V23" s="329"/>
-      <c r="W23" s="329"/>
-      <c r="X23" s="329"/>
-      <c r="Y23" s="329"/>
-      <c r="Z23" s="329"/>
-      <c r="AA23" s="329"/>
-      <c r="AB23" s="329"/>
-      <c r="AC23" s="329"/>
-      <c r="AD23" s="329"/>
-      <c r="AE23" s="329"/>
-      <c r="AF23" s="329"/>
-      <c r="AG23" s="329"/>
-      <c r="AH23" s="330"/>
+      <c r="N23" s="325"/>
+      <c r="O23" s="325"/>
+      <c r="P23" s="325"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="325"/>
+      <c r="S23" s="325"/>
+      <c r="T23" s="325"/>
+      <c r="U23" s="325"/>
+      <c r="V23" s="325"/>
+      <c r="W23" s="325"/>
+      <c r="X23" s="325"/>
+      <c r="Y23" s="325"/>
+      <c r="Z23" s="325"/>
+      <c r="AA23" s="325"/>
+      <c r="AB23" s="325"/>
+      <c r="AC23" s="325"/>
+      <c r="AD23" s="325"/>
+      <c r="AE23" s="325"/>
+      <c r="AF23" s="325"/>
+      <c r="AG23" s="325"/>
+      <c r="AH23" s="326"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="308"/>
-      <c r="F24" s="309"/>
-      <c r="G24" s="309"/>
-      <c r="H24" s="309"/>
-      <c r="I24" s="309"/>
-      <c r="J24" s="310"/>
-      <c r="K24" s="311"/>
-      <c r="L24" s="312"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="332"/>
-      <c r="O24" s="332"/>
-      <c r="P24" s="332"/>
-      <c r="Q24" s="332"/>
-      <c r="R24" s="332"/>
-      <c r="S24" s="332"/>
-      <c r="T24" s="332"/>
-      <c r="U24" s="332"/>
-      <c r="V24" s="332"/>
-      <c r="W24" s="332"/>
-      <c r="X24" s="332"/>
-      <c r="Y24" s="332"/>
-      <c r="Z24" s="332"/>
-      <c r="AA24" s="332"/>
-      <c r="AB24" s="332"/>
-      <c r="AC24" s="332"/>
-      <c r="AD24" s="332"/>
-      <c r="AE24" s="332"/>
-      <c r="AF24" s="332"/>
-      <c r="AG24" s="332"/>
-      <c r="AH24" s="333"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="320"/>
+      <c r="J24" s="321"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="323"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="328"/>
+      <c r="U24" s="328"/>
+      <c r="V24" s="328"/>
+      <c r="W24" s="328"/>
+      <c r="X24" s="328"/>
+      <c r="Y24" s="328"/>
+      <c r="Z24" s="328"/>
+      <c r="AA24" s="328"/>
+      <c r="AB24" s="328"/>
+      <c r="AC24" s="328"/>
+      <c r="AD24" s="328"/>
+      <c r="AE24" s="328"/>
+      <c r="AF24" s="328"/>
+      <c r="AG24" s="328"/>
+      <c r="AH24" s="329"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="313" t="s">
+      <c r="E25" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="315"/>
-      <c r="K25" s="322" t="s">
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="306"/>
+      <c r="I25" s="306"/>
+      <c r="J25" s="307"/>
+      <c r="K25" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="L25" s="323"/>
-      <c r="M25" s="335" t="s">
+      <c r="L25" s="312"/>
+      <c r="M25" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="N25" s="278"/>
-      <c r="O25" s="278"/>
-      <c r="P25" s="278"/>
-      <c r="Q25" s="278"/>
-      <c r="R25" s="278"/>
-      <c r="S25" s="278"/>
-      <c r="T25" s="278"/>
-      <c r="U25" s="278"/>
-      <c r="V25" s="278"/>
-      <c r="W25" s="278"/>
-      <c r="X25" s="278"/>
-      <c r="Y25" s="278"/>
-      <c r="Z25" s="278"/>
-      <c r="AA25" s="278"/>
-      <c r="AB25" s="278"/>
-      <c r="AC25" s="278"/>
-      <c r="AD25" s="278"/>
-      <c r="AE25" s="278"/>
-      <c r="AF25" s="278"/>
-      <c r="AG25" s="278"/>
-      <c r="AH25" s="279"/>
+      <c r="N25" s="286"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="286"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="286"/>
+      <c r="X25" s="286"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="286"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="286"/>
+      <c r="AD25" s="286"/>
+      <c r="AE25" s="286"/>
+      <c r="AF25" s="286"/>
+      <c r="AG25" s="286"/>
+      <c r="AH25" s="287"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="316"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="318"/>
-      <c r="K26" s="324"/>
-      <c r="L26" s="325"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266"/>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="266"/>
-      <c r="R26" s="266"/>
-      <c r="S26" s="266"/>
-      <c r="T26" s="266"/>
-      <c r="U26" s="266"/>
-      <c r="V26" s="266"/>
-      <c r="W26" s="266"/>
-      <c r="X26" s="266"/>
-      <c r="Y26" s="266"/>
-      <c r="Z26" s="266"/>
-      <c r="AA26" s="266"/>
-      <c r="AB26" s="266"/>
-      <c r="AC26" s="266"/>
-      <c r="AD26" s="266"/>
-      <c r="AE26" s="266"/>
-      <c r="AF26" s="266"/>
-      <c r="AG26" s="266"/>
-      <c r="AH26" s="267"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="333"/>
+      <c r="K26" s="334"/>
+      <c r="L26" s="335"/>
+      <c r="M26" s="288"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="289"/>
+      <c r="S26" s="289"/>
+      <c r="T26" s="289"/>
+      <c r="U26" s="289"/>
+      <c r="V26" s="289"/>
+      <c r="W26" s="289"/>
+      <c r="X26" s="289"/>
+      <c r="Y26" s="289"/>
+      <c r="Z26" s="289"/>
+      <c r="AA26" s="289"/>
+      <c r="AB26" s="289"/>
+      <c r="AC26" s="289"/>
+      <c r="AD26" s="289"/>
+      <c r="AE26" s="289"/>
+      <c r="AF26" s="289"/>
+      <c r="AG26" s="289"/>
+      <c r="AH26" s="290"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="319"/>
-      <c r="F27" s="320"/>
-      <c r="G27" s="320"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="320"/>
-      <c r="J27" s="321"/>
-      <c r="K27" s="326"/>
-      <c r="L27" s="327"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="281"/>
-      <c r="Q27" s="281"/>
-      <c r="R27" s="281"/>
-      <c r="S27" s="281"/>
-      <c r="T27" s="281"/>
-      <c r="U27" s="281"/>
-      <c r="V27" s="281"/>
-      <c r="W27" s="281"/>
-      <c r="X27" s="281"/>
-      <c r="Y27" s="281"/>
-      <c r="Z27" s="281"/>
-      <c r="AA27" s="281"/>
-      <c r="AB27" s="281"/>
-      <c r="AC27" s="281"/>
-      <c r="AD27" s="281"/>
-      <c r="AE27" s="281"/>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="281"/>
-      <c r="AH27" s="282"/>
+      <c r="E27" s="308"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="309"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="310"/>
+      <c r="K27" s="313"/>
+      <c r="L27" s="314"/>
+      <c r="M27" s="291"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
+      <c r="Q27" s="292"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="292"/>
+      <c r="Z27" s="292"/>
+      <c r="AA27" s="292"/>
+      <c r="AB27" s="292"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="292"/>
+      <c r="AE27" s="292"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="293"/>
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="313" t="s">
+      <c r="E28" s="305" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="314"/>
-      <c r="G28" s="314"/>
-      <c r="H28" s="314"/>
-      <c r="I28" s="314"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="322" t="s">
+      <c r="F28" s="306"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="307"/>
+      <c r="K28" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="L28" s="323"/>
-      <c r="M28" s="335" t="s">
+      <c r="L28" s="312"/>
+      <c r="M28" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="N28" s="278"/>
-      <c r="O28" s="278"/>
-      <c r="P28" s="278"/>
-      <c r="Q28" s="278"/>
-      <c r="R28" s="278"/>
-      <c r="S28" s="278"/>
-      <c r="T28" s="278"/>
-      <c r="U28" s="278"/>
-      <c r="V28" s="278"/>
-      <c r="W28" s="278"/>
-      <c r="X28" s="278"/>
-      <c r="Y28" s="278"/>
-      <c r="Z28" s="278"/>
-      <c r="AA28" s="278"/>
-      <c r="AB28" s="278"/>
-      <c r="AC28" s="278"/>
-      <c r="AD28" s="278"/>
-      <c r="AE28" s="278"/>
-      <c r="AF28" s="278"/>
-      <c r="AG28" s="278"/>
-      <c r="AH28" s="279"/>
+      <c r="N28" s="286"/>
+      <c r="O28" s="286"/>
+      <c r="P28" s="286"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="286"/>
+      <c r="S28" s="286"/>
+      <c r="T28" s="286"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="286"/>
+      <c r="W28" s="286"/>
+      <c r="X28" s="286"/>
+      <c r="Y28" s="286"/>
+      <c r="Z28" s="286"/>
+      <c r="AA28" s="286"/>
+      <c r="AB28" s="286"/>
+      <c r="AC28" s="286"/>
+      <c r="AD28" s="286"/>
+      <c r="AE28" s="286"/>
+      <c r="AF28" s="286"/>
+      <c r="AG28" s="286"/>
+      <c r="AH28" s="287"/>
     </row>
     <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="319"/>
-      <c r="F29" s="320"/>
-      <c r="G29" s="320"/>
-      <c r="H29" s="320"/>
-      <c r="I29" s="320"/>
-      <c r="J29" s="321"/>
-      <c r="K29" s="326"/>
-      <c r="L29" s="327"/>
-      <c r="M29" s="280"/>
-      <c r="N29" s="281"/>
-      <c r="O29" s="281"/>
-      <c r="P29" s="281"/>
-      <c r="Q29" s="281"/>
-      <c r="R29" s="281"/>
-      <c r="S29" s="281"/>
-      <c r="T29" s="281"/>
-      <c r="U29" s="281"/>
-      <c r="V29" s="281"/>
-      <c r="W29" s="281"/>
-      <c r="X29" s="281"/>
-      <c r="Y29" s="281"/>
-      <c r="Z29" s="281"/>
-      <c r="AA29" s="281"/>
-      <c r="AB29" s="281"/>
-      <c r="AC29" s="281"/>
-      <c r="AD29" s="281"/>
-      <c r="AE29" s="281"/>
-      <c r="AF29" s="281"/>
-      <c r="AG29" s="281"/>
-      <c r="AH29" s="282"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="313"/>
+      <c r="L29" s="314"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="292"/>
+      <c r="Q29" s="292"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="292"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="293"/>
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="313" t="s">
+      <c r="E30" s="305" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="314"/>
-      <c r="G30" s="314"/>
-      <c r="H30" s="314"/>
-      <c r="I30" s="314"/>
-      <c r="J30" s="315"/>
-      <c r="K30" s="322" t="s">
+      <c r="F30" s="306"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="306"/>
+      <c r="I30" s="306"/>
+      <c r="J30" s="307"/>
+      <c r="K30" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="L30" s="323"/>
-      <c r="M30" s="335" t="s">
+      <c r="L30" s="312"/>
+      <c r="M30" s="315" t="s">
         <v>199</v>
       </c>
-      <c r="N30" s="278"/>
-      <c r="O30" s="278"/>
-      <c r="P30" s="278"/>
-      <c r="Q30" s="278"/>
-      <c r="R30" s="278"/>
-      <c r="S30" s="278"/>
-      <c r="T30" s="278"/>
-      <c r="U30" s="278"/>
-      <c r="V30" s="278"/>
-      <c r="W30" s="278"/>
-      <c r="X30" s="278"/>
-      <c r="Y30" s="278"/>
-      <c r="Z30" s="278"/>
-      <c r="AA30" s="278"/>
-      <c r="AB30" s="278"/>
-      <c r="AC30" s="278"/>
-      <c r="AD30" s="278"/>
-      <c r="AE30" s="278"/>
-      <c r="AF30" s="278"/>
-      <c r="AG30" s="278"/>
-      <c r="AH30" s="279"/>
+      <c r="N30" s="286"/>
+      <c r="O30" s="286"/>
+      <c r="P30" s="286"/>
+      <c r="Q30" s="286"/>
+      <c r="R30" s="286"/>
+      <c r="S30" s="286"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="286"/>
+      <c r="V30" s="286"/>
+      <c r="W30" s="286"/>
+      <c r="X30" s="286"/>
+      <c r="Y30" s="286"/>
+      <c r="Z30" s="286"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="286"/>
+      <c r="AC30" s="286"/>
+      <c r="AD30" s="286"/>
+      <c r="AE30" s="286"/>
+      <c r="AF30" s="286"/>
+      <c r="AG30" s="286"/>
+      <c r="AH30" s="287"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="319"/>
-      <c r="F31" s="320"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="321"/>
-      <c r="K31" s="326"/>
-      <c r="L31" s="327"/>
-      <c r="M31" s="280"/>
-      <c r="N31" s="281"/>
-      <c r="O31" s="281"/>
-      <c r="P31" s="281"/>
-      <c r="Q31" s="281"/>
-      <c r="R31" s="281"/>
-      <c r="S31" s="281"/>
-      <c r="T31" s="281"/>
-      <c r="U31" s="281"/>
-      <c r="V31" s="281"/>
-      <c r="W31" s="281"/>
-      <c r="X31" s="281"/>
-      <c r="Y31" s="281"/>
-      <c r="Z31" s="281"/>
-      <c r="AA31" s="281"/>
-      <c r="AB31" s="281"/>
-      <c r="AC31" s="281"/>
-      <c r="AD31" s="281"/>
-      <c r="AE31" s="281"/>
-      <c r="AF31" s="281"/>
-      <c r="AG31" s="281"/>
-      <c r="AH31" s="282"/>
+      <c r="E31" s="308"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="313"/>
+      <c r="L31" s="314"/>
+      <c r="M31" s="291"/>
+      <c r="N31" s="292"/>
+      <c r="O31" s="292"/>
+      <c r="P31" s="292"/>
+      <c r="Q31" s="292"/>
+      <c r="R31" s="292"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="292"/>
+      <c r="W31" s="292"/>
+      <c r="X31" s="292"/>
+      <c r="Y31" s="292"/>
+      <c r="Z31" s="292"/>
+      <c r="AA31" s="292"/>
+      <c r="AB31" s="292"/>
+      <c r="AC31" s="292"/>
+      <c r="AD31" s="292"/>
+      <c r="AE31" s="292"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="292"/>
+      <c r="AH31" s="293"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="118" t="s">
@@ -14970,502 +15005,502 @@
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="284" t="s">
+      <c r="E35" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="285"/>
-      <c r="G35" s="285"/>
-      <c r="H35" s="285"/>
-      <c r="I35" s="285"/>
-      <c r="J35" s="286"/>
-      <c r="K35" s="284" t="s">
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
+      <c r="I35" s="299"/>
+      <c r="J35" s="300"/>
+      <c r="K35" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="286"/>
-      <c r="M35" s="284" t="s">
+      <c r="L35" s="300"/>
+      <c r="M35" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="N35" s="285"/>
-      <c r="O35" s="285"/>
-      <c r="P35" s="285"/>
-      <c r="Q35" s="285"/>
-      <c r="R35" s="285"/>
-      <c r="S35" s="285"/>
-      <c r="T35" s="285"/>
-      <c r="U35" s="285"/>
-      <c r="V35" s="285"/>
-      <c r="W35" s="285"/>
-      <c r="X35" s="285"/>
-      <c r="Y35" s="285"/>
-      <c r="Z35" s="285"/>
-      <c r="AA35" s="285"/>
-      <c r="AB35" s="285"/>
-      <c r="AC35" s="285"/>
-      <c r="AD35" s="285"/>
-      <c r="AE35" s="285"/>
-      <c r="AF35" s="285"/>
-      <c r="AG35" s="285"/>
-      <c r="AH35" s="286"/>
+      <c r="N35" s="299"/>
+      <c r="O35" s="299"/>
+      <c r="P35" s="299"/>
+      <c r="Q35" s="299"/>
+      <c r="R35" s="299"/>
+      <c r="S35" s="299"/>
+      <c r="T35" s="299"/>
+      <c r="U35" s="299"/>
+      <c r="V35" s="299"/>
+      <c r="W35" s="299"/>
+      <c r="X35" s="299"/>
+      <c r="Y35" s="299"/>
+      <c r="Z35" s="299"/>
+      <c r="AA35" s="299"/>
+      <c r="AB35" s="299"/>
+      <c r="AC35" s="299"/>
+      <c r="AD35" s="299"/>
+      <c r="AE35" s="299"/>
+      <c r="AF35" s="299"/>
+      <c r="AG35" s="299"/>
+      <c r="AH35" s="300"/>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="305" t="s">
+      <c r="E36" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="306"/>
-      <c r="G36" s="306"/>
-      <c r="H36" s="306"/>
-      <c r="I36" s="306"/>
-      <c r="J36" s="307"/>
-      <c r="K36" s="128" t="s">
+      <c r="F36" s="317"/>
+      <c r="G36" s="317"/>
+      <c r="H36" s="317"/>
+      <c r="I36" s="317"/>
+      <c r="J36" s="318"/>
+      <c r="K36" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="129"/>
-      <c r="M36" s="334" t="s">
+      <c r="L36" s="194"/>
+      <c r="M36" s="324" t="s">
         <v>127</v>
       </c>
-      <c r="N36" s="329"/>
-      <c r="O36" s="329"/>
-      <c r="P36" s="329"/>
-      <c r="Q36" s="329"/>
-      <c r="R36" s="329"/>
-      <c r="S36" s="329"/>
-      <c r="T36" s="329"/>
-      <c r="U36" s="329"/>
-      <c r="V36" s="329"/>
-      <c r="W36" s="329"/>
-      <c r="X36" s="329"/>
-      <c r="Y36" s="329"/>
-      <c r="Z36" s="329"/>
-      <c r="AA36" s="329"/>
-      <c r="AB36" s="329"/>
-      <c r="AC36" s="329"/>
-      <c r="AD36" s="329"/>
-      <c r="AE36" s="329"/>
-      <c r="AF36" s="329"/>
-      <c r="AG36" s="329"/>
-      <c r="AH36" s="330"/>
+      <c r="N36" s="325"/>
+      <c r="O36" s="325"/>
+      <c r="P36" s="325"/>
+      <c r="Q36" s="325"/>
+      <c r="R36" s="325"/>
+      <c r="S36" s="325"/>
+      <c r="T36" s="325"/>
+      <c r="U36" s="325"/>
+      <c r="V36" s="325"/>
+      <c r="W36" s="325"/>
+      <c r="X36" s="325"/>
+      <c r="Y36" s="325"/>
+      <c r="Z36" s="325"/>
+      <c r="AA36" s="325"/>
+      <c r="AB36" s="325"/>
+      <c r="AC36" s="325"/>
+      <c r="AD36" s="325"/>
+      <c r="AE36" s="325"/>
+      <c r="AF36" s="325"/>
+      <c r="AG36" s="325"/>
+      <c r="AH36" s="326"/>
     </row>
     <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="308"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="309"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="310"/>
-      <c r="K37" s="311"/>
-      <c r="L37" s="312"/>
-      <c r="M37" s="331"/>
-      <c r="N37" s="332"/>
-      <c r="O37" s="332"/>
-      <c r="P37" s="332"/>
-      <c r="Q37" s="332"/>
-      <c r="R37" s="332"/>
-      <c r="S37" s="332"/>
-      <c r="T37" s="332"/>
-      <c r="U37" s="332"/>
-      <c r="V37" s="332"/>
-      <c r="W37" s="332"/>
-      <c r="X37" s="332"/>
-      <c r="Y37" s="332"/>
-      <c r="Z37" s="332"/>
-      <c r="AA37" s="332"/>
-      <c r="AB37" s="332"/>
-      <c r="AC37" s="332"/>
-      <c r="AD37" s="332"/>
-      <c r="AE37" s="332"/>
-      <c r="AF37" s="332"/>
-      <c r="AG37" s="332"/>
-      <c r="AH37" s="333"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="323"/>
+      <c r="M37" s="327"/>
+      <c r="N37" s="328"/>
+      <c r="O37" s="328"/>
+      <c r="P37" s="328"/>
+      <c r="Q37" s="328"/>
+      <c r="R37" s="328"/>
+      <c r="S37" s="328"/>
+      <c r="T37" s="328"/>
+      <c r="U37" s="328"/>
+      <c r="V37" s="328"/>
+      <c r="W37" s="328"/>
+      <c r="X37" s="328"/>
+      <c r="Y37" s="328"/>
+      <c r="Z37" s="328"/>
+      <c r="AA37" s="328"/>
+      <c r="AB37" s="328"/>
+      <c r="AC37" s="328"/>
+      <c r="AD37" s="328"/>
+      <c r="AE37" s="328"/>
+      <c r="AF37" s="328"/>
+      <c r="AG37" s="328"/>
+      <c r="AH37" s="329"/>
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="313" t="s">
+      <c r="E38" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="314"/>
-      <c r="G38" s="314"/>
-      <c r="H38" s="314"/>
-      <c r="I38" s="314"/>
-      <c r="J38" s="315"/>
-      <c r="K38" s="322" t="s">
+      <c r="F38" s="306"/>
+      <c r="G38" s="306"/>
+      <c r="H38" s="306"/>
+      <c r="I38" s="306"/>
+      <c r="J38" s="307"/>
+      <c r="K38" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="323"/>
-      <c r="M38" s="277" t="s">
+      <c r="L38" s="312"/>
+      <c r="M38" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="N38" s="278"/>
-      <c r="O38" s="278"/>
-      <c r="P38" s="278"/>
-      <c r="Q38" s="278"/>
-      <c r="R38" s="278"/>
-      <c r="S38" s="278"/>
-      <c r="T38" s="278"/>
-      <c r="U38" s="278"/>
-      <c r="V38" s="278"/>
-      <c r="W38" s="278"/>
-      <c r="X38" s="278"/>
-      <c r="Y38" s="278"/>
-      <c r="Z38" s="278"/>
-      <c r="AA38" s="278"/>
-      <c r="AB38" s="278"/>
-      <c r="AC38" s="278"/>
-      <c r="AD38" s="278"/>
-      <c r="AE38" s="278"/>
-      <c r="AF38" s="278"/>
-      <c r="AG38" s="278"/>
-      <c r="AH38" s="279"/>
+      <c r="N38" s="286"/>
+      <c r="O38" s="286"/>
+      <c r="P38" s="286"/>
+      <c r="Q38" s="286"/>
+      <c r="R38" s="286"/>
+      <c r="S38" s="286"/>
+      <c r="T38" s="286"/>
+      <c r="U38" s="286"/>
+      <c r="V38" s="286"/>
+      <c r="W38" s="286"/>
+      <c r="X38" s="286"/>
+      <c r="Y38" s="286"/>
+      <c r="Z38" s="286"/>
+      <c r="AA38" s="286"/>
+      <c r="AB38" s="286"/>
+      <c r="AC38" s="286"/>
+      <c r="AD38" s="286"/>
+      <c r="AE38" s="286"/>
+      <c r="AF38" s="286"/>
+      <c r="AG38" s="286"/>
+      <c r="AH38" s="287"/>
     </row>
     <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="316"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="318"/>
-      <c r="K39" s="324"/>
-      <c r="L39" s="325"/>
-      <c r="M39" s="265"/>
-      <c r="N39" s="266"/>
-      <c r="O39" s="266"/>
-      <c r="P39" s="266"/>
-      <c r="Q39" s="266"/>
-      <c r="R39" s="266"/>
-      <c r="S39" s="266"/>
-      <c r="T39" s="266"/>
-      <c r="U39" s="266"/>
-      <c r="V39" s="266"/>
-      <c r="W39" s="266"/>
-      <c r="X39" s="266"/>
-      <c r="Y39" s="266"/>
-      <c r="Z39" s="266"/>
-      <c r="AA39" s="266"/>
-      <c r="AB39" s="266"/>
-      <c r="AC39" s="266"/>
-      <c r="AD39" s="266"/>
-      <c r="AE39" s="266"/>
-      <c r="AF39" s="266"/>
-      <c r="AG39" s="266"/>
-      <c r="AH39" s="267"/>
+      <c r="E39" s="331"/>
+      <c r="F39" s="332"/>
+      <c r="G39" s="332"/>
+      <c r="H39" s="332"/>
+      <c r="I39" s="332"/>
+      <c r="J39" s="333"/>
+      <c r="K39" s="334"/>
+      <c r="L39" s="335"/>
+      <c r="M39" s="288"/>
+      <c r="N39" s="289"/>
+      <c r="O39" s="289"/>
+      <c r="P39" s="289"/>
+      <c r="Q39" s="289"/>
+      <c r="R39" s="289"/>
+      <c r="S39" s="289"/>
+      <c r="T39" s="289"/>
+      <c r="U39" s="289"/>
+      <c r="V39" s="289"/>
+      <c r="W39" s="289"/>
+      <c r="X39" s="289"/>
+      <c r="Y39" s="289"/>
+      <c r="Z39" s="289"/>
+      <c r="AA39" s="289"/>
+      <c r="AB39" s="289"/>
+      <c r="AC39" s="289"/>
+      <c r="AD39" s="289"/>
+      <c r="AE39" s="289"/>
+      <c r="AF39" s="289"/>
+      <c r="AG39" s="289"/>
+      <c r="AH39" s="290"/>
     </row>
     <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="316"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="324"/>
-      <c r="L40" s="325"/>
-      <c r="M40" s="265"/>
-      <c r="N40" s="266"/>
-      <c r="O40" s="266"/>
-      <c r="P40" s="266"/>
-      <c r="Q40" s="266"/>
-      <c r="R40" s="266"/>
-      <c r="S40" s="266"/>
-      <c r="T40" s="266"/>
-      <c r="U40" s="266"/>
-      <c r="V40" s="266"/>
-      <c r="W40" s="266"/>
-      <c r="X40" s="266"/>
-      <c r="Y40" s="266"/>
-      <c r="Z40" s="266"/>
-      <c r="AA40" s="266"/>
-      <c r="AB40" s="266"/>
-      <c r="AC40" s="266"/>
-      <c r="AD40" s="266"/>
-      <c r="AE40" s="266"/>
-      <c r="AF40" s="266"/>
-      <c r="AG40" s="266"/>
-      <c r="AH40" s="267"/>
+      <c r="E40" s="331"/>
+      <c r="F40" s="332"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="333"/>
+      <c r="K40" s="334"/>
+      <c r="L40" s="335"/>
+      <c r="M40" s="288"/>
+      <c r="N40" s="289"/>
+      <c r="O40" s="289"/>
+      <c r="P40" s="289"/>
+      <c r="Q40" s="289"/>
+      <c r="R40" s="289"/>
+      <c r="S40" s="289"/>
+      <c r="T40" s="289"/>
+      <c r="U40" s="289"/>
+      <c r="V40" s="289"/>
+      <c r="W40" s="289"/>
+      <c r="X40" s="289"/>
+      <c r="Y40" s="289"/>
+      <c r="Z40" s="289"/>
+      <c r="AA40" s="289"/>
+      <c r="AB40" s="289"/>
+      <c r="AC40" s="289"/>
+      <c r="AD40" s="289"/>
+      <c r="AE40" s="289"/>
+      <c r="AF40" s="289"/>
+      <c r="AG40" s="289"/>
+      <c r="AH40" s="290"/>
     </row>
     <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="319"/>
-      <c r="F41" s="320"/>
-      <c r="G41" s="320"/>
-      <c r="H41" s="320"/>
-      <c r="I41" s="320"/>
-      <c r="J41" s="321"/>
-      <c r="K41" s="326"/>
-      <c r="L41" s="327"/>
-      <c r="M41" s="280"/>
-      <c r="N41" s="281"/>
-      <c r="O41" s="281"/>
-      <c r="P41" s="281"/>
-      <c r="Q41" s="281"/>
-      <c r="R41" s="281"/>
-      <c r="S41" s="281"/>
-      <c r="T41" s="281"/>
-      <c r="U41" s="281"/>
-      <c r="V41" s="281"/>
-      <c r="W41" s="281"/>
-      <c r="X41" s="281"/>
-      <c r="Y41" s="281"/>
-      <c r="Z41" s="281"/>
-      <c r="AA41" s="281"/>
-      <c r="AB41" s="281"/>
-      <c r="AC41" s="281"/>
-      <c r="AD41" s="281"/>
-      <c r="AE41" s="281"/>
-      <c r="AF41" s="281"/>
-      <c r="AG41" s="281"/>
-      <c r="AH41" s="282"/>
+      <c r="E41" s="308"/>
+      <c r="F41" s="309"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="310"/>
+      <c r="K41" s="313"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="291"/>
+      <c r="N41" s="292"/>
+      <c r="O41" s="292"/>
+      <c r="P41" s="292"/>
+      <c r="Q41" s="292"/>
+      <c r="R41" s="292"/>
+      <c r="S41" s="292"/>
+      <c r="T41" s="292"/>
+      <c r="U41" s="292"/>
+      <c r="V41" s="292"/>
+      <c r="W41" s="292"/>
+      <c r="X41" s="292"/>
+      <c r="Y41" s="292"/>
+      <c r="Z41" s="292"/>
+      <c r="AA41" s="292"/>
+      <c r="AB41" s="292"/>
+      <c r="AC41" s="292"/>
+      <c r="AD41" s="292"/>
+      <c r="AE41" s="292"/>
+      <c r="AF41" s="292"/>
+      <c r="AG41" s="292"/>
+      <c r="AH41" s="293"/>
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="313" t="s">
+      <c r="E42" s="305" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="314"/>
-      <c r="G42" s="314"/>
-      <c r="H42" s="314"/>
-      <c r="I42" s="314"/>
-      <c r="J42" s="315"/>
-      <c r="K42" s="322" t="s">
+      <c r="F42" s="306"/>
+      <c r="G42" s="306"/>
+      <c r="H42" s="306"/>
+      <c r="I42" s="306"/>
+      <c r="J42" s="307"/>
+      <c r="K42" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="L42" s="323"/>
-      <c r="M42" s="335" t="s">
+      <c r="L42" s="312"/>
+      <c r="M42" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="N42" s="278"/>
-      <c r="O42" s="278"/>
-      <c r="P42" s="278"/>
-      <c r="Q42" s="278"/>
-      <c r="R42" s="278"/>
-      <c r="S42" s="278"/>
-      <c r="T42" s="278"/>
-      <c r="U42" s="278"/>
-      <c r="V42" s="278"/>
-      <c r="W42" s="278"/>
-      <c r="X42" s="278"/>
-      <c r="Y42" s="278"/>
-      <c r="Z42" s="278"/>
-      <c r="AA42" s="278"/>
-      <c r="AB42" s="278"/>
-      <c r="AC42" s="278"/>
-      <c r="AD42" s="278"/>
-      <c r="AE42" s="278"/>
-      <c r="AF42" s="278"/>
-      <c r="AG42" s="278"/>
-      <c r="AH42" s="279"/>
+      <c r="N42" s="286"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="286"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
+      <c r="S42" s="286"/>
+      <c r="T42" s="286"/>
+      <c r="U42" s="286"/>
+      <c r="V42" s="286"/>
+      <c r="W42" s="286"/>
+      <c r="X42" s="286"/>
+      <c r="Y42" s="286"/>
+      <c r="Z42" s="286"/>
+      <c r="AA42" s="286"/>
+      <c r="AB42" s="286"/>
+      <c r="AC42" s="286"/>
+      <c r="AD42" s="286"/>
+      <c r="AE42" s="286"/>
+      <c r="AF42" s="286"/>
+      <c r="AG42" s="286"/>
+      <c r="AH42" s="287"/>
     </row>
     <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="319"/>
-      <c r="F43" s="320"/>
-      <c r="G43" s="320"/>
-      <c r="H43" s="320"/>
-      <c r="I43" s="320"/>
-      <c r="J43" s="321"/>
-      <c r="K43" s="326"/>
-      <c r="L43" s="327"/>
-      <c r="M43" s="280"/>
-      <c r="N43" s="281"/>
-      <c r="O43" s="281"/>
-      <c r="P43" s="281"/>
-      <c r="Q43" s="281"/>
-      <c r="R43" s="281"/>
-      <c r="S43" s="281"/>
-      <c r="T43" s="281"/>
-      <c r="U43" s="281"/>
-      <c r="V43" s="281"/>
-      <c r="W43" s="281"/>
-      <c r="X43" s="281"/>
-      <c r="Y43" s="281"/>
-      <c r="Z43" s="281"/>
-      <c r="AA43" s="281"/>
-      <c r="AB43" s="281"/>
-      <c r="AC43" s="281"/>
-      <c r="AD43" s="281"/>
-      <c r="AE43" s="281"/>
-      <c r="AF43" s="281"/>
-      <c r="AG43" s="281"/>
-      <c r="AH43" s="282"/>
+      <c r="E43" s="308"/>
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="310"/>
+      <c r="K43" s="313"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="292"/>
+      <c r="O43" s="292"/>
+      <c r="P43" s="292"/>
+      <c r="Q43" s="292"/>
+      <c r="R43" s="292"/>
+      <c r="S43" s="292"/>
+      <c r="T43" s="292"/>
+      <c r="U43" s="292"/>
+      <c r="V43" s="292"/>
+      <c r="W43" s="292"/>
+      <c r="X43" s="292"/>
+      <c r="Y43" s="292"/>
+      <c r="Z43" s="292"/>
+      <c r="AA43" s="292"/>
+      <c r="AB43" s="292"/>
+      <c r="AC43" s="292"/>
+      <c r="AD43" s="292"/>
+      <c r="AE43" s="292"/>
+      <c r="AF43" s="292"/>
+      <c r="AG43" s="292"/>
+      <c r="AH43" s="293"/>
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="313" t="s">
+      <c r="E44" s="305" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="314"/>
-      <c r="G44" s="314"/>
-      <c r="H44" s="314"/>
-      <c r="I44" s="314"/>
-      <c r="J44" s="315"/>
-      <c r="K44" s="322" t="s">
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="306"/>
+      <c r="I44" s="306"/>
+      <c r="J44" s="307"/>
+      <c r="K44" s="311" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="323"/>
-      <c r="M44" s="335" t="s">
+      <c r="L44" s="312"/>
+      <c r="M44" s="315" t="s">
         <v>199</v>
       </c>
-      <c r="N44" s="278"/>
-      <c r="O44" s="278"/>
-      <c r="P44" s="278"/>
-      <c r="Q44" s="278"/>
-      <c r="R44" s="278"/>
-      <c r="S44" s="278"/>
-      <c r="T44" s="278"/>
-      <c r="U44" s="278"/>
-      <c r="V44" s="278"/>
-      <c r="W44" s="278"/>
-      <c r="X44" s="278"/>
-      <c r="Y44" s="278"/>
-      <c r="Z44" s="278"/>
-      <c r="AA44" s="278"/>
-      <c r="AB44" s="278"/>
-      <c r="AC44" s="278"/>
-      <c r="AD44" s="278"/>
-      <c r="AE44" s="278"/>
-      <c r="AF44" s="278"/>
-      <c r="AG44" s="278"/>
-      <c r="AH44" s="279"/>
+      <c r="N44" s="286"/>
+      <c r="O44" s="286"/>
+      <c r="P44" s="286"/>
+      <c r="Q44" s="286"/>
+      <c r="R44" s="286"/>
+      <c r="S44" s="286"/>
+      <c r="T44" s="286"/>
+      <c r="U44" s="286"/>
+      <c r="V44" s="286"/>
+      <c r="W44" s="286"/>
+      <c r="X44" s="286"/>
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="286"/>
+      <c r="AA44" s="286"/>
+      <c r="AB44" s="286"/>
+      <c r="AC44" s="286"/>
+      <c r="AD44" s="286"/>
+      <c r="AE44" s="286"/>
+      <c r="AF44" s="286"/>
+      <c r="AG44" s="286"/>
+      <c r="AH44" s="287"/>
     </row>
     <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="319"/>
-      <c r="F45" s="320"/>
-      <c r="G45" s="320"/>
-      <c r="H45" s="320"/>
-      <c r="I45" s="320"/>
-      <c r="J45" s="321"/>
-      <c r="K45" s="326"/>
-      <c r="L45" s="327"/>
-      <c r="M45" s="280"/>
-      <c r="N45" s="281"/>
-      <c r="O45" s="281"/>
-      <c r="P45" s="281"/>
-      <c r="Q45" s="281"/>
-      <c r="R45" s="281"/>
-      <c r="S45" s="281"/>
-      <c r="T45" s="281"/>
-      <c r="U45" s="281"/>
-      <c r="V45" s="281"/>
-      <c r="W45" s="281"/>
-      <c r="X45" s="281"/>
-      <c r="Y45" s="281"/>
-      <c r="Z45" s="281"/>
-      <c r="AA45" s="281"/>
-      <c r="AB45" s="281"/>
-      <c r="AC45" s="281"/>
-      <c r="AD45" s="281"/>
-      <c r="AE45" s="281"/>
-      <c r="AF45" s="281"/>
-      <c r="AG45" s="281"/>
-      <c r="AH45" s="282"/>
+      <c r="E45" s="308"/>
+      <c r="F45" s="309"/>
+      <c r="G45" s="309"/>
+      <c r="H45" s="309"/>
+      <c r="I45" s="309"/>
+      <c r="J45" s="310"/>
+      <c r="K45" s="313"/>
+      <c r="L45" s="314"/>
+      <c r="M45" s="291"/>
+      <c r="N45" s="292"/>
+      <c r="O45" s="292"/>
+      <c r="P45" s="292"/>
+      <c r="Q45" s="292"/>
+      <c r="R45" s="292"/>
+      <c r="S45" s="292"/>
+      <c r="T45" s="292"/>
+      <c r="U45" s="292"/>
+      <c r="V45" s="292"/>
+      <c r="W45" s="292"/>
+      <c r="X45" s="292"/>
+      <c r="Y45" s="292"/>
+      <c r="Z45" s="292"/>
+      <c r="AA45" s="292"/>
+      <c r="AB45" s="292"/>
+      <c r="AC45" s="292"/>
+      <c r="AD45" s="292"/>
+      <c r="AE45" s="292"/>
+      <c r="AF45" s="292"/>
+      <c r="AG45" s="292"/>
+      <c r="AH45" s="293"/>
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="328" t="s">
+      <c r="E46" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="314"/>
-      <c r="G46" s="314"/>
-      <c r="H46" s="314"/>
-      <c r="I46" s="314"/>
-      <c r="J46" s="315"/>
-      <c r="K46" s="322" t="s">
+      <c r="F46" s="306"/>
+      <c r="G46" s="306"/>
+      <c r="H46" s="306"/>
+      <c r="I46" s="306"/>
+      <c r="J46" s="307"/>
+      <c r="K46" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="L46" s="323"/>
-      <c r="M46" s="277" t="s">
+      <c r="L46" s="312"/>
+      <c r="M46" s="285" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="278"/>
-      <c r="O46" s="278"/>
-      <c r="P46" s="278"/>
-      <c r="Q46" s="278"/>
-      <c r="R46" s="278"/>
-      <c r="S46" s="278"/>
-      <c r="T46" s="278"/>
-      <c r="U46" s="278"/>
-      <c r="V46" s="278"/>
-      <c r="W46" s="278"/>
-      <c r="X46" s="278"/>
-      <c r="Y46" s="278"/>
-      <c r="Z46" s="278"/>
-      <c r="AA46" s="278"/>
-      <c r="AB46" s="278"/>
-      <c r="AC46" s="278"/>
-      <c r="AD46" s="278"/>
-      <c r="AE46" s="278"/>
-      <c r="AF46" s="278"/>
-      <c r="AG46" s="278"/>
-      <c r="AH46" s="279"/>
+      <c r="N46" s="286"/>
+      <c r="O46" s="286"/>
+      <c r="P46" s="286"/>
+      <c r="Q46" s="286"/>
+      <c r="R46" s="286"/>
+      <c r="S46" s="286"/>
+      <c r="T46" s="286"/>
+      <c r="U46" s="286"/>
+      <c r="V46" s="286"/>
+      <c r="W46" s="286"/>
+      <c r="X46" s="286"/>
+      <c r="Y46" s="286"/>
+      <c r="Z46" s="286"/>
+      <c r="AA46" s="286"/>
+      <c r="AB46" s="286"/>
+      <c r="AC46" s="286"/>
+      <c r="AD46" s="286"/>
+      <c r="AE46" s="286"/>
+      <c r="AF46" s="286"/>
+      <c r="AG46" s="286"/>
+      <c r="AH46" s="287"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="316"/>
-      <c r="F47" s="317"/>
-      <c r="G47" s="317"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="317"/>
-      <c r="J47" s="318"/>
-      <c r="K47" s="324"/>
-      <c r="L47" s="325"/>
-      <c r="M47" s="265"/>
-      <c r="N47" s="266"/>
-      <c r="O47" s="266"/>
-      <c r="P47" s="266"/>
-      <c r="Q47" s="266"/>
-      <c r="R47" s="266"/>
-      <c r="S47" s="266"/>
-      <c r="T47" s="266"/>
-      <c r="U47" s="266"/>
-      <c r="V47" s="266"/>
-      <c r="W47" s="266"/>
-      <c r="X47" s="266"/>
-      <c r="Y47" s="266"/>
-      <c r="Z47" s="266"/>
-      <c r="AA47" s="266"/>
-      <c r="AB47" s="266"/>
-      <c r="AC47" s="266"/>
-      <c r="AD47" s="266"/>
-      <c r="AE47" s="266"/>
-      <c r="AF47" s="266"/>
-      <c r="AG47" s="266"/>
-      <c r="AH47" s="267"/>
+      <c r="E47" s="331"/>
+      <c r="F47" s="332"/>
+      <c r="G47" s="332"/>
+      <c r="H47" s="332"/>
+      <c r="I47" s="332"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="288"/>
+      <c r="N47" s="289"/>
+      <c r="O47" s="289"/>
+      <c r="P47" s="289"/>
+      <c r="Q47" s="289"/>
+      <c r="R47" s="289"/>
+      <c r="S47" s="289"/>
+      <c r="T47" s="289"/>
+      <c r="U47" s="289"/>
+      <c r="V47" s="289"/>
+      <c r="W47" s="289"/>
+      <c r="X47" s="289"/>
+      <c r="Y47" s="289"/>
+      <c r="Z47" s="289"/>
+      <c r="AA47" s="289"/>
+      <c r="AB47" s="289"/>
+      <c r="AC47" s="289"/>
+      <c r="AD47" s="289"/>
+      <c r="AE47" s="289"/>
+      <c r="AF47" s="289"/>
+      <c r="AG47" s="289"/>
+      <c r="AH47" s="290"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="319"/>
-      <c r="F48" s="320"/>
-      <c r="G48" s="320"/>
-      <c r="H48" s="320"/>
-      <c r="I48" s="320"/>
-      <c r="J48" s="321"/>
-      <c r="K48" s="326"/>
-      <c r="L48" s="327"/>
-      <c r="M48" s="280"/>
-      <c r="N48" s="281"/>
-      <c r="O48" s="281"/>
-      <c r="P48" s="281"/>
-      <c r="Q48" s="281"/>
-      <c r="R48" s="281"/>
-      <c r="S48" s="281"/>
-      <c r="T48" s="281"/>
-      <c r="U48" s="281"/>
-      <c r="V48" s="281"/>
-      <c r="W48" s="281"/>
-      <c r="X48" s="281"/>
-      <c r="Y48" s="281"/>
-      <c r="Z48" s="281"/>
-      <c r="AA48" s="281"/>
-      <c r="AB48" s="281"/>
-      <c r="AC48" s="281"/>
-      <c r="AD48" s="281"/>
-      <c r="AE48" s="281"/>
-      <c r="AF48" s="281"/>
-      <c r="AG48" s="281"/>
-      <c r="AH48" s="282"/>
+      <c r="E48" s="308"/>
+      <c r="F48" s="309"/>
+      <c r="G48" s="309"/>
+      <c r="H48" s="309"/>
+      <c r="I48" s="309"/>
+      <c r="J48" s="310"/>
+      <c r="K48" s="313"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="291"/>
+      <c r="N48" s="292"/>
+      <c r="O48" s="292"/>
+      <c r="P48" s="292"/>
+      <c r="Q48" s="292"/>
+      <c r="R48" s="292"/>
+      <c r="S48" s="292"/>
+      <c r="T48" s="292"/>
+      <c r="U48" s="292"/>
+      <c r="V48" s="292"/>
+      <c r="W48" s="292"/>
+      <c r="X48" s="292"/>
+      <c r="Y48" s="292"/>
+      <c r="Z48" s="292"/>
+      <c r="AA48" s="292"/>
+      <c r="AB48" s="292"/>
+      <c r="AC48" s="292"/>
+      <c r="AD48" s="292"/>
+      <c r="AE48" s="292"/>
+      <c r="AF48" s="292"/>
+      <c r="AG48" s="292"/>
+      <c r="AH48" s="293"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="313" t="s">
+      <c r="E49" s="305" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="314"/>
-      <c r="G49" s="314"/>
-      <c r="H49" s="314"/>
-      <c r="I49" s="314"/>
-      <c r="J49" s="315"/>
-      <c r="K49" s="322" t="s">
+      <c r="F49" s="306"/>
+      <c r="G49" s="306"/>
+      <c r="H49" s="306"/>
+      <c r="I49" s="306"/>
+      <c r="J49" s="307"/>
+      <c r="K49" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="L49" s="323"/>
+      <c r="L49" s="312"/>
       <c r="M49" s="61" t="s">
         <v>19</v>
       </c>
@@ -15492,14 +15527,14 @@
       <c r="AH49" s="62"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="316"/>
-      <c r="F50" s="317"/>
-      <c r="G50" s="317"/>
-      <c r="H50" s="317"/>
-      <c r="I50" s="317"/>
-      <c r="J50" s="318"/>
-      <c r="K50" s="324"/>
-      <c r="L50" s="325"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="332"/>
+      <c r="H50" s="332"/>
+      <c r="I50" s="332"/>
+      <c r="J50" s="333"/>
+      <c r="K50" s="334"/>
+      <c r="L50" s="335"/>
       <c r="M50" s="61" t="s">
         <v>55</v>
       </c>
@@ -15526,14 +15561,14 @@
       <c r="AH50" s="62"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="316"/>
-      <c r="F51" s="317"/>
-      <c r="G51" s="317"/>
-      <c r="H51" s="317"/>
-      <c r="I51" s="317"/>
-      <c r="J51" s="318"/>
-      <c r="K51" s="324"/>
-      <c r="L51" s="325"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="333"/>
+      <c r="K51" s="334"/>
+      <c r="L51" s="335"/>
       <c r="M51" s="61" t="s">
         <v>20</v>
       </c>
@@ -15560,14 +15595,14 @@
       <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="316"/>
-      <c r="F52" s="317"/>
-      <c r="G52" s="317"/>
-      <c r="H52" s="317"/>
-      <c r="I52" s="317"/>
-      <c r="J52" s="318"/>
-      <c r="K52" s="324"/>
-      <c r="L52" s="325"/>
+      <c r="E52" s="331"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="333"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="335"/>
       <c r="M52" s="61" t="s">
         <v>53</v>
       </c>
@@ -15582,14 +15617,14 @@
       <c r="AH52" s="62"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="316"/>
-      <c r="F53" s="317"/>
-      <c r="G53" s="317"/>
-      <c r="H53" s="317"/>
-      <c r="I53" s="317"/>
-      <c r="J53" s="318"/>
-      <c r="K53" s="324"/>
-      <c r="L53" s="325"/>
+      <c r="E53" s="331"/>
+      <c r="F53" s="332"/>
+      <c r="G53" s="332"/>
+      <c r="H53" s="332"/>
+      <c r="I53" s="332"/>
+      <c r="J53" s="333"/>
+      <c r="K53" s="334"/>
+      <c r="L53" s="335"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
         <v>54</v>
@@ -15605,14 +15640,14 @@
       <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="316"/>
-      <c r="F54" s="317"/>
-      <c r="G54" s="317"/>
-      <c r="H54" s="317"/>
-      <c r="I54" s="317"/>
-      <c r="J54" s="318"/>
-      <c r="K54" s="324"/>
-      <c r="L54" s="325"/>
+      <c r="E54" s="331"/>
+      <c r="F54" s="332"/>
+      <c r="G54" s="332"/>
+      <c r="H54" s="332"/>
+      <c r="I54" s="332"/>
+      <c r="J54" s="333"/>
+      <c r="K54" s="334"/>
+      <c r="L54" s="335"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
         <v>68</v>
@@ -15639,14 +15674,14 @@
       <c r="AH54" s="62"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="316"/>
-      <c r="F55" s="317"/>
-      <c r="G55" s="317"/>
-      <c r="H55" s="317"/>
-      <c r="I55" s="317"/>
-      <c r="J55" s="318"/>
-      <c r="K55" s="324"/>
-      <c r="L55" s="325"/>
+      <c r="E55" s="331"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="332"/>
+      <c r="I55" s="332"/>
+      <c r="J55" s="333"/>
+      <c r="K55" s="334"/>
+      <c r="L55" s="335"/>
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
@@ -15673,14 +15708,14 @@
       <c r="AH55" s="62"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="316"/>
-      <c r="F56" s="317"/>
-      <c r="G56" s="317"/>
-      <c r="H56" s="317"/>
-      <c r="I56" s="317"/>
-      <c r="J56" s="318"/>
-      <c r="K56" s="324"/>
-      <c r="L56" s="325"/>
+      <c r="E56" s="331"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
+      <c r="H56" s="332"/>
+      <c r="I56" s="332"/>
+      <c r="J56" s="333"/>
+      <c r="K56" s="334"/>
+      <c r="L56" s="335"/>
       <c r="M56" s="61"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
@@ -15707,14 +15742,14 @@
       <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="316"/>
-      <c r="F57" s="317"/>
-      <c r="G57" s="317"/>
-      <c r="H57" s="317"/>
-      <c r="I57" s="317"/>
-      <c r="J57" s="318"/>
-      <c r="K57" s="324"/>
-      <c r="L57" s="325"/>
+      <c r="E57" s="331"/>
+      <c r="F57" s="332"/>
+      <c r="G57" s="332"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="332"/>
+      <c r="J57" s="333"/>
+      <c r="K57" s="334"/>
+      <c r="L57" s="335"/>
       <c r="M57" s="61"/>
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
@@ -15741,14 +15776,14 @@
       <c r="AH57" s="62"/>
     </row>
     <row r="58" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="316"/>
-      <c r="F58" s="317"/>
-      <c r="G58" s="317"/>
-      <c r="H58" s="317"/>
-      <c r="I58" s="317"/>
-      <c r="J58" s="318"/>
-      <c r="K58" s="324"/>
-      <c r="L58" s="325"/>
+      <c r="E58" s="331"/>
+      <c r="F58" s="332"/>
+      <c r="G58" s="332"/>
+      <c r="H58" s="332"/>
+      <c r="I58" s="332"/>
+      <c r="J58" s="333"/>
+      <c r="K58" s="334"/>
+      <c r="L58" s="335"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
         <v>56</v>
@@ -15773,14 +15808,14 @@
       <c r="AH58" s="62"/>
     </row>
     <row r="59" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="316"/>
-      <c r="F59" s="317"/>
-      <c r="G59" s="317"/>
-      <c r="H59" s="317"/>
-      <c r="I59" s="317"/>
-      <c r="J59" s="318"/>
-      <c r="K59" s="324"/>
-      <c r="L59" s="325"/>
+      <c r="E59" s="331"/>
+      <c r="F59" s="332"/>
+      <c r="G59" s="332"/>
+      <c r="H59" s="332"/>
+      <c r="I59" s="332"/>
+      <c r="J59" s="333"/>
+      <c r="K59" s="334"/>
+      <c r="L59" s="335"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
         <v>57</v>
@@ -15807,14 +15842,14 @@
       <c r="AH59" s="62"/>
     </row>
     <row r="60" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="316"/>
-      <c r="F60" s="317"/>
-      <c r="G60" s="317"/>
-      <c r="H60" s="317"/>
-      <c r="I60" s="317"/>
-      <c r="J60" s="318"/>
-      <c r="K60" s="324"/>
-      <c r="L60" s="325"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="332"/>
+      <c r="G60" s="332"/>
+      <c r="H60" s="332"/>
+      <c r="I60" s="332"/>
+      <c r="J60" s="333"/>
+      <c r="K60" s="334"/>
+      <c r="L60" s="335"/>
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
@@ -15841,14 +15876,14 @@
       <c r="AH60" s="62"/>
     </row>
     <row r="61" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="316"/>
-      <c r="F61" s="317"/>
-      <c r="G61" s="317"/>
-      <c r="H61" s="317"/>
-      <c r="I61" s="317"/>
-      <c r="J61" s="318"/>
-      <c r="K61" s="324"/>
-      <c r="L61" s="325"/>
+      <c r="E61" s="331"/>
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
+      <c r="H61" s="332"/>
+      <c r="I61" s="332"/>
+      <c r="J61" s="333"/>
+      <c r="K61" s="334"/>
+      <c r="L61" s="335"/>
       <c r="M61" s="61"/>
       <c r="N61" s="19"/>
       <c r="O61" s="19" t="s">
@@ -15875,14 +15910,14 @@
       <c r="AH61" s="62"/>
     </row>
     <row r="62" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="319"/>
-      <c r="F62" s="320"/>
-      <c r="G62" s="320"/>
-      <c r="H62" s="320"/>
-      <c r="I62" s="320"/>
-      <c r="J62" s="321"/>
-      <c r="K62" s="326"/>
-      <c r="L62" s="327"/>
+      <c r="E62" s="308"/>
+      <c r="F62" s="309"/>
+      <c r="G62" s="309"/>
+      <c r="H62" s="309"/>
+      <c r="I62" s="309"/>
+      <c r="J62" s="310"/>
+      <c r="K62" s="313"/>
+      <c r="L62" s="314"/>
       <c r="M62" s="61"/>
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
@@ -15909,144 +15944,144 @@
       <c r="AH62" s="62"/>
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="305" t="s">
+      <c r="E63" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="306"/>
-      <c r="G63" s="306"/>
-      <c r="H63" s="306"/>
-      <c r="I63" s="306"/>
-      <c r="J63" s="307"/>
-      <c r="K63" s="305" t="s">
+      <c r="F63" s="317"/>
+      <c r="G63" s="317"/>
+      <c r="H63" s="317"/>
+      <c r="I63" s="317"/>
+      <c r="J63" s="318"/>
+      <c r="K63" s="316" t="s">
         <v>153</v>
       </c>
-      <c r="L63" s="307"/>
-      <c r="M63" s="241" t="s">
+      <c r="L63" s="318"/>
+      <c r="M63" s="219" t="s">
         <v>131</v>
       </c>
-      <c r="N63" s="329"/>
-      <c r="O63" s="329"/>
-      <c r="P63" s="329"/>
-      <c r="Q63" s="329"/>
-      <c r="R63" s="329"/>
-      <c r="S63" s="329"/>
-      <c r="T63" s="329"/>
-      <c r="U63" s="329"/>
-      <c r="V63" s="329"/>
-      <c r="W63" s="329"/>
-      <c r="X63" s="329"/>
-      <c r="Y63" s="329"/>
-      <c r="Z63" s="329"/>
-      <c r="AA63" s="329"/>
-      <c r="AB63" s="329"/>
-      <c r="AC63" s="329"/>
-      <c r="AD63" s="329"/>
-      <c r="AE63" s="329"/>
-      <c r="AF63" s="329"/>
-      <c r="AG63" s="329"/>
-      <c r="AH63" s="330"/>
+      <c r="N63" s="325"/>
+      <c r="O63" s="325"/>
+      <c r="P63" s="325"/>
+      <c r="Q63" s="325"/>
+      <c r="R63" s="325"/>
+      <c r="S63" s="325"/>
+      <c r="T63" s="325"/>
+      <c r="U63" s="325"/>
+      <c r="V63" s="325"/>
+      <c r="W63" s="325"/>
+      <c r="X63" s="325"/>
+      <c r="Y63" s="325"/>
+      <c r="Z63" s="325"/>
+      <c r="AA63" s="325"/>
+      <c r="AB63" s="325"/>
+      <c r="AC63" s="325"/>
+      <c r="AD63" s="325"/>
+      <c r="AE63" s="325"/>
+      <c r="AF63" s="325"/>
+      <c r="AG63" s="325"/>
+      <c r="AH63" s="326"/>
     </row>
     <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="308"/>
-      <c r="F64" s="309"/>
-      <c r="G64" s="309"/>
-      <c r="H64" s="309"/>
-      <c r="I64" s="309"/>
-      <c r="J64" s="310"/>
-      <c r="K64" s="308"/>
-      <c r="L64" s="310"/>
-      <c r="M64" s="331"/>
-      <c r="N64" s="332"/>
-      <c r="O64" s="332"/>
-      <c r="P64" s="332"/>
-      <c r="Q64" s="332"/>
-      <c r="R64" s="332"/>
-      <c r="S64" s="332"/>
-      <c r="T64" s="332"/>
-      <c r="U64" s="332"/>
-      <c r="V64" s="332"/>
-      <c r="W64" s="332"/>
-      <c r="X64" s="332"/>
-      <c r="Y64" s="332"/>
-      <c r="Z64" s="332"/>
-      <c r="AA64" s="332"/>
-      <c r="AB64" s="332"/>
-      <c r="AC64" s="332"/>
-      <c r="AD64" s="332"/>
-      <c r="AE64" s="332"/>
-      <c r="AF64" s="332"/>
-      <c r="AG64" s="332"/>
-      <c r="AH64" s="333"/>
+      <c r="E64" s="319"/>
+      <c r="F64" s="320"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="320"/>
+      <c r="I64" s="320"/>
+      <c r="J64" s="321"/>
+      <c r="K64" s="319"/>
+      <c r="L64" s="321"/>
+      <c r="M64" s="327"/>
+      <c r="N64" s="328"/>
+      <c r="O64" s="328"/>
+      <c r="P64" s="328"/>
+      <c r="Q64" s="328"/>
+      <c r="R64" s="328"/>
+      <c r="S64" s="328"/>
+      <c r="T64" s="328"/>
+      <c r="U64" s="328"/>
+      <c r="V64" s="328"/>
+      <c r="W64" s="328"/>
+      <c r="X64" s="328"/>
+      <c r="Y64" s="328"/>
+      <c r="Z64" s="328"/>
+      <c r="AA64" s="328"/>
+      <c r="AB64" s="328"/>
+      <c r="AC64" s="328"/>
+      <c r="AD64" s="328"/>
+      <c r="AE64" s="328"/>
+      <c r="AF64" s="328"/>
+      <c r="AG64" s="328"/>
+      <c r="AH64" s="329"/>
     </row>
     <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="277" t="s">
+      <c r="E65" s="285" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="278"/>
-      <c r="G65" s="278"/>
-      <c r="H65" s="278"/>
-      <c r="I65" s="278"/>
-      <c r="J65" s="279"/>
-      <c r="K65" s="328" t="s">
+      <c r="F65" s="286"/>
+      <c r="G65" s="286"/>
+      <c r="H65" s="286"/>
+      <c r="I65" s="286"/>
+      <c r="J65" s="287"/>
+      <c r="K65" s="330" t="s">
         <v>153</v>
       </c>
-      <c r="L65" s="315"/>
-      <c r="M65" s="313" t="s">
+      <c r="L65" s="307"/>
+      <c r="M65" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="314"/>
-      <c r="O65" s="314"/>
-      <c r="P65" s="314"/>
-      <c r="Q65" s="314"/>
-      <c r="R65" s="314"/>
-      <c r="S65" s="314"/>
-      <c r="T65" s="314"/>
-      <c r="U65" s="314"/>
-      <c r="V65" s="314"/>
-      <c r="W65" s="314"/>
-      <c r="X65" s="314"/>
-      <c r="Y65" s="314"/>
-      <c r="Z65" s="314"/>
-      <c r="AA65" s="314"/>
-      <c r="AB65" s="314"/>
-      <c r="AC65" s="314"/>
-      <c r="AD65" s="314"/>
-      <c r="AE65" s="314"/>
-      <c r="AF65" s="314"/>
-      <c r="AG65" s="314"/>
-      <c r="AH65" s="315"/>
+      <c r="N65" s="306"/>
+      <c r="O65" s="306"/>
+      <c r="P65" s="306"/>
+      <c r="Q65" s="306"/>
+      <c r="R65" s="306"/>
+      <c r="S65" s="306"/>
+      <c r="T65" s="306"/>
+      <c r="U65" s="306"/>
+      <c r="V65" s="306"/>
+      <c r="W65" s="306"/>
+      <c r="X65" s="306"/>
+      <c r="Y65" s="306"/>
+      <c r="Z65" s="306"/>
+      <c r="AA65" s="306"/>
+      <c r="AB65" s="306"/>
+      <c r="AC65" s="306"/>
+      <c r="AD65" s="306"/>
+      <c r="AE65" s="306"/>
+      <c r="AF65" s="306"/>
+      <c r="AG65" s="306"/>
+      <c r="AH65" s="307"/>
     </row>
     <row r="66" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="280"/>
-      <c r="F66" s="281"/>
-      <c r="G66" s="281"/>
-      <c r="H66" s="281"/>
-      <c r="I66" s="281"/>
-      <c r="J66" s="282"/>
-      <c r="K66" s="319"/>
-      <c r="L66" s="321"/>
-      <c r="M66" s="319"/>
-      <c r="N66" s="320"/>
-      <c r="O66" s="320"/>
-      <c r="P66" s="320"/>
-      <c r="Q66" s="320"/>
-      <c r="R66" s="320"/>
-      <c r="S66" s="320"/>
-      <c r="T66" s="320"/>
-      <c r="U66" s="320"/>
-      <c r="V66" s="320"/>
-      <c r="W66" s="320"/>
-      <c r="X66" s="320"/>
-      <c r="Y66" s="320"/>
-      <c r="Z66" s="320"/>
-      <c r="AA66" s="320"/>
-      <c r="AB66" s="320"/>
-      <c r="AC66" s="320"/>
-      <c r="AD66" s="320"/>
-      <c r="AE66" s="320"/>
-      <c r="AF66" s="320"/>
-      <c r="AG66" s="320"/>
-      <c r="AH66" s="321"/>
+      <c r="E66" s="291"/>
+      <c r="F66" s="292"/>
+      <c r="G66" s="292"/>
+      <c r="H66" s="292"/>
+      <c r="I66" s="292"/>
+      <c r="J66" s="293"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="310"/>
+      <c r="M66" s="308"/>
+      <c r="N66" s="309"/>
+      <c r="O66" s="309"/>
+      <c r="P66" s="309"/>
+      <c r="Q66" s="309"/>
+      <c r="R66" s="309"/>
+      <c r="S66" s="309"/>
+      <c r="T66" s="309"/>
+      <c r="U66" s="309"/>
+      <c r="V66" s="309"/>
+      <c r="W66" s="309"/>
+      <c r="X66" s="309"/>
+      <c r="Y66" s="309"/>
+      <c r="Z66" s="309"/>
+      <c r="AA66" s="309"/>
+      <c r="AB66" s="309"/>
+      <c r="AC66" s="309"/>
+      <c r="AD66" s="309"/>
+      <c r="AE66" s="309"/>
+      <c r="AF66" s="309"/>
+      <c r="AG66" s="309"/>
+      <c r="AH66" s="310"/>
     </row>
     <row r="67" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="114"/>
@@ -16115,112 +16150,112 @@
       <c r="AH68" s="115"/>
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="284" t="s">
+      <c r="E69" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="285"/>
-      <c r="G69" s="285"/>
-      <c r="H69" s="285"/>
-      <c r="I69" s="285"/>
-      <c r="J69" s="286"/>
-      <c r="K69" s="284" t="s">
+      <c r="F69" s="299"/>
+      <c r="G69" s="299"/>
+      <c r="H69" s="299"/>
+      <c r="I69" s="299"/>
+      <c r="J69" s="300"/>
+      <c r="K69" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="L69" s="286"/>
-      <c r="M69" s="284" t="s">
+      <c r="L69" s="300"/>
+      <c r="M69" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="N69" s="285"/>
-      <c r="O69" s="285"/>
-      <c r="P69" s="285"/>
-      <c r="Q69" s="285"/>
-      <c r="R69" s="285"/>
-      <c r="S69" s="285"/>
-      <c r="T69" s="285"/>
-      <c r="U69" s="285"/>
-      <c r="V69" s="285"/>
-      <c r="W69" s="285"/>
-      <c r="X69" s="285"/>
-      <c r="Y69" s="285"/>
-      <c r="Z69" s="285"/>
-      <c r="AA69" s="285"/>
-      <c r="AB69" s="285"/>
-      <c r="AC69" s="285"/>
-      <c r="AD69" s="285"/>
-      <c r="AE69" s="285"/>
-      <c r="AF69" s="285"/>
-      <c r="AG69" s="285"/>
-      <c r="AH69" s="286"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="299"/>
+      <c r="R69" s="299"/>
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="299"/>
+      <c r="Z69" s="299"/>
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="299"/>
+      <c r="AE69" s="299"/>
+      <c r="AF69" s="299"/>
+      <c r="AG69" s="299"/>
+      <c r="AH69" s="300"/>
     </row>
     <row r="70" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="305" t="s">
+      <c r="E70" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="306"/>
-      <c r="G70" s="306"/>
-      <c r="H70" s="306"/>
-      <c r="I70" s="306"/>
-      <c r="J70" s="307"/>
-      <c r="K70" s="128" t="s">
+      <c r="F70" s="317"/>
+      <c r="G70" s="317"/>
+      <c r="H70" s="317"/>
+      <c r="I70" s="317"/>
+      <c r="J70" s="318"/>
+      <c r="K70" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="L70" s="129"/>
-      <c r="M70" s="334" t="s">
+      <c r="L70" s="194"/>
+      <c r="M70" s="324" t="s">
         <v>127</v>
       </c>
-      <c r="N70" s="329"/>
-      <c r="O70" s="329"/>
-      <c r="P70" s="329"/>
-      <c r="Q70" s="329"/>
-      <c r="R70" s="329"/>
-      <c r="S70" s="329"/>
-      <c r="T70" s="329"/>
-      <c r="U70" s="329"/>
-      <c r="V70" s="329"/>
-      <c r="W70" s="329"/>
-      <c r="X70" s="329"/>
-      <c r="Y70" s="329"/>
-      <c r="Z70" s="329"/>
-      <c r="AA70" s="329"/>
-      <c r="AB70" s="329"/>
-      <c r="AC70" s="329"/>
-      <c r="AD70" s="329"/>
-      <c r="AE70" s="329"/>
-      <c r="AF70" s="329"/>
-      <c r="AG70" s="329"/>
-      <c r="AH70" s="330"/>
+      <c r="N70" s="325"/>
+      <c r="O70" s="325"/>
+      <c r="P70" s="325"/>
+      <c r="Q70" s="325"/>
+      <c r="R70" s="325"/>
+      <c r="S70" s="325"/>
+      <c r="T70" s="325"/>
+      <c r="U70" s="325"/>
+      <c r="V70" s="325"/>
+      <c r="W70" s="325"/>
+      <c r="X70" s="325"/>
+      <c r="Y70" s="325"/>
+      <c r="Z70" s="325"/>
+      <c r="AA70" s="325"/>
+      <c r="AB70" s="325"/>
+      <c r="AC70" s="325"/>
+      <c r="AD70" s="325"/>
+      <c r="AE70" s="325"/>
+      <c r="AF70" s="325"/>
+      <c r="AG70" s="325"/>
+      <c r="AH70" s="326"/>
     </row>
     <row r="71" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="308"/>
-      <c r="F71" s="309"/>
-      <c r="G71" s="309"/>
-      <c r="H71" s="309"/>
-      <c r="I71" s="309"/>
-      <c r="J71" s="310"/>
-      <c r="K71" s="311"/>
-      <c r="L71" s="312"/>
-      <c r="M71" s="331"/>
-      <c r="N71" s="332"/>
-      <c r="O71" s="332"/>
-      <c r="P71" s="332"/>
-      <c r="Q71" s="332"/>
-      <c r="R71" s="332"/>
-      <c r="S71" s="332"/>
-      <c r="T71" s="332"/>
-      <c r="U71" s="332"/>
-      <c r="V71" s="332"/>
-      <c r="W71" s="332"/>
-      <c r="X71" s="332"/>
-      <c r="Y71" s="332"/>
-      <c r="Z71" s="332"/>
-      <c r="AA71" s="332"/>
-      <c r="AB71" s="332"/>
-      <c r="AC71" s="332"/>
-      <c r="AD71" s="332"/>
-      <c r="AE71" s="332"/>
-      <c r="AF71" s="332"/>
-      <c r="AG71" s="332"/>
-      <c r="AH71" s="333"/>
+      <c r="E71" s="319"/>
+      <c r="F71" s="320"/>
+      <c r="G71" s="320"/>
+      <c r="H71" s="320"/>
+      <c r="I71" s="320"/>
+      <c r="J71" s="321"/>
+      <c r="K71" s="322"/>
+      <c r="L71" s="323"/>
+      <c r="M71" s="327"/>
+      <c r="N71" s="328"/>
+      <c r="O71" s="328"/>
+      <c r="P71" s="328"/>
+      <c r="Q71" s="328"/>
+      <c r="R71" s="328"/>
+      <c r="S71" s="328"/>
+      <c r="T71" s="328"/>
+      <c r="U71" s="328"/>
+      <c r="V71" s="328"/>
+      <c r="W71" s="328"/>
+      <c r="X71" s="328"/>
+      <c r="Y71" s="328"/>
+      <c r="Z71" s="328"/>
+      <c r="AA71" s="328"/>
+      <c r="AB71" s="328"/>
+      <c r="AC71" s="328"/>
+      <c r="AD71" s="328"/>
+      <c r="AE71" s="328"/>
+      <c r="AF71" s="328"/>
+      <c r="AG71" s="328"/>
+      <c r="AH71" s="329"/>
     </row>
     <row r="72" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="114"/>
@@ -16619,34 +16654,30 @@
     <row r="90" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:AH69"/>
-    <mergeCell ref="E70:J71"/>
-    <mergeCell ref="K70:L71"/>
-    <mergeCell ref="M70:AH71"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M46:AH48"/>
-    <mergeCell ref="M38:AH41"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="M42:AH43"/>
-    <mergeCell ref="M44:AH45"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E49:J62"/>
-    <mergeCell ref="K49:L62"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E38:J41"/>
     <mergeCell ref="K38:L41"/>
     <mergeCell ref="E46:J48"/>
@@ -16659,30 +16690,34 @@
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="E44:J45"/>
     <mergeCell ref="K44:L45"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:AH22"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E49:J62"/>
+    <mergeCell ref="K49:L62"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="M46:AH48"/>
+    <mergeCell ref="M38:AH41"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="M42:AH43"/>
+    <mergeCell ref="M44:AH45"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="E70:J71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="M70:AH71"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0249BF4-21BB-4A74-B29A-0A63DEC7ED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350042B-0484-4A3C-824A-4F465F5B70FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15255" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="DBアクセスを伴う精査">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -591,13 +591,6 @@
     <t>取引単体テスト</t>
     <rPh sb="0" eb="4">
       <t>トリヒキタンタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>打鍵テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ダケン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2147,10 +2140,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>3.2.4. REST</t>
     <phoneticPr fontId="15"/>
   </si>
@@ -2526,6 +2515,30 @@
   </si>
   <si>
     <t>(レスポンス)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>- ※3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RESTの取引は1リクエストで完結するため、リクエスト単体テストのみ実施する。</t>
+    <rPh sb="5" eb="7">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッシ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3147,7 +3160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4085,6 +4098,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5730,7 +5746,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="39"/>
       <c r="J23" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -6387,13 +6403,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
       <c r="E1" s="189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162"/>
@@ -6405,13 +6421,13 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
       <c r="S1" s="152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T1" s="153"/>
       <c r="U1" s="153"/>
@@ -6421,7 +6437,7 @@
       <c r="Y1" s="153"/>
       <c r="Z1" s="154"/>
       <c r="AA1" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -6445,13 +6461,13 @@
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
       <c r="E2" s="189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
@@ -6475,7 +6491,7 @@
       <c r="Y2" s="156"/>
       <c r="Z2" s="157"/>
       <c r="AA2" s="140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="186" t="str">
@@ -6499,13 +6515,13 @@
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
       <c r="E3" s="161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
@@ -6673,7 +6689,7 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="193" t="s">
         <v>24</v>
@@ -6690,7 +6706,7 @@
       <c r="H7" s="195"/>
       <c r="I7" s="194"/>
       <c r="J7" s="193" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="195"/>
       <c r="L7" s="195"/>
@@ -6727,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="166">
@@ -6736,12 +6752,12 @@
       <c r="E8" s="167"/>
       <c r="F8" s="168"/>
       <c r="G8" s="169" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="170"/>
       <c r="I8" s="171"/>
       <c r="J8" s="172" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="173"/>
       <c r="L8" s="173"/>
@@ -6750,7 +6766,7 @@
       <c r="O8" s="173"/>
       <c r="P8" s="174"/>
       <c r="Q8" s="175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R8" s="176"/>
       <c r="S8" s="176"/>
@@ -6767,7 +6783,7 @@
       <c r="AD8" s="176"/>
       <c r="AE8" s="177"/>
       <c r="AF8" s="172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG8" s="173"/>
       <c r="AH8" s="173"/>
@@ -6778,7 +6794,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="190" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="191"/>
       <c r="D9" s="136">
@@ -6787,12 +6803,12 @@
       <c r="E9" s="137"/>
       <c r="F9" s="138"/>
       <c r="G9" s="192" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H9" s="139"/>
       <c r="I9" s="135"/>
       <c r="J9" s="178" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
@@ -6801,7 +6817,7 @@
       <c r="O9" s="129"/>
       <c r="P9" s="130"/>
       <c r="Q9" s="179" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R9" s="132"/>
       <c r="S9" s="132"/>
@@ -6818,7 +6834,7 @@
       <c r="AD9" s="132"/>
       <c r="AE9" s="133"/>
       <c r="AF9" s="178" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG9" s="129"/>
       <c r="AH9" s="129"/>
@@ -7929,7 +7945,7 @@
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -7948,7 +7964,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -7965,7 +7981,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -7998,7 +8014,7 @@
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -8029,7 +8045,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -8062,7 +8078,7 @@
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -8189,7 +8205,7 @@
       <c r="M5" s="46"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
@@ -8278,7 +8294,7 @@
     <row r="7" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="19"/>
@@ -8330,7 +8346,7 @@
     <row r="8" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="C8" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8432,7 +8448,7 @@
     <row r="10" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -8485,7 +8501,7 @@
     <row r="11" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="C11" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8537,7 +8553,7 @@
     <row r="12" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="C12" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8588,7 +8604,7 @@
     <row r="13" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="C13" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8691,7 +8707,7 @@
     <row r="15" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -8742,7 +8758,7 @@
     <row r="16" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="C16" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
@@ -8793,7 +8809,7 @@
     <row r="17" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="C17" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8845,7 +8861,7 @@
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
       <c r="C18" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="1"/>
@@ -11346,7 +11362,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -11365,7 +11381,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -11382,7 +11398,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -11401,7 +11417,7 @@
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -11432,7 +11448,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -11451,7 +11467,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -11536,7 +11552,7 @@
     </row>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B5" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11575,7 +11591,7 @@
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="C6" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -11760,7 +11776,7 @@
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -11798,7 +11814,7 @@
       <c r="A12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -11907,7 +11923,7 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11920,7 +11936,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -11939,7 +11955,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -11956,7 +11972,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -11975,7 +11991,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -12006,7 +12022,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -12025,7 +12041,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -12075,12 +12091,12 @@
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>29</v>
@@ -12092,7 +12108,7 @@
     </row>
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D8" s="74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12131,7 +12147,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D21" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12187,7 +12203,7 @@
       <c r="H25" s="238"/>
       <c r="I25" s="239"/>
       <c r="J25" s="219" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="220"/>
       <c r="L25" s="220"/>
@@ -12282,7 +12298,7 @@
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D28" s="237" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="238"/>
       <c r="F28" s="238"/>
@@ -12290,7 +12306,7 @@
       <c r="H28" s="238"/>
       <c r="I28" s="239"/>
       <c r="J28" s="228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K28" s="229"/>
       <c r="L28" s="229"/>
@@ -12393,7 +12409,7 @@
       <c r="H31" s="238"/>
       <c r="I31" s="239"/>
       <c r="J31" s="228" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K31" s="229"/>
       <c r="L31" s="229"/>
@@ -12488,16 +12504,16 @@
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D36" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12508,37 +12524,37 @@
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="247" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="248"/>
       <c r="F39" s="248"/>
       <c r="G39" s="249"/>
       <c r="H39" s="215" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I39" s="132"/>
       <c r="J39" s="132"/>
       <c r="K39" s="133"/>
       <c r="L39" s="215" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M39" s="216"/>
       <c r="N39" s="216"/>
       <c r="O39" s="217"/>
       <c r="P39" s="215" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="132"/>
       <c r="R39" s="132"/>
       <c r="S39" s="133"/>
       <c r="T39" s="215" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U39" s="132"/>
       <c r="V39" s="132"/>
       <c r="W39" s="133"/>
       <c r="X39" s="218" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y39" s="132"/>
       <c r="Z39" s="132"/>
@@ -12584,19 +12600,19 @@
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="209" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="210"/>
       <c r="F41" s="210"/>
       <c r="G41" s="211"/>
       <c r="H41" s="209" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
       <c r="L41" s="209" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M41" s="206"/>
       <c r="N41" s="206"/>
@@ -12613,8 +12629,8 @@
       <c r="U41" s="206"/>
       <c r="V41" s="206"/>
       <c r="W41" s="207"/>
-      <c r="X41" s="208" t="s">
-        <v>195</v>
+      <c r="X41" s="205" t="s">
+        <v>34</v>
       </c>
       <c r="Y41" s="206"/>
       <c r="Z41" s="206"/>
@@ -12628,13 +12644,13 @@
       <c r="F42" s="206"/>
       <c r="G42" s="207"/>
       <c r="H42" s="209" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I42" s="210"/>
       <c r="J42" s="210"/>
       <c r="K42" s="211"/>
       <c r="L42" s="209" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M42" s="210"/>
       <c r="N42" s="210"/>
@@ -12651,8 +12667,8 @@
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
-      <c r="X42" s="205" t="s">
-        <v>49</v>
+      <c r="X42" s="336" t="s">
+        <v>232</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
@@ -12660,7 +12676,7 @@
     </row>
     <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D43" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>42</v>
@@ -12668,60 +12684,68 @@
     </row>
     <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D44" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="76" t="s">
+      <c r="D45" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C46" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C47" s="76"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D48" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="76"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D47" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C50" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="76"/>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D52" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="C52" s="76"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D53" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>76</v>
+      <c r="E55" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -12784,8 +12808,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="34" man="1"/>
-    <brk id="230" max="16383" man="1"/>
+    <brk id="45" max="34" man="1"/>
+    <brk id="231" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12810,7 +12834,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -12829,7 +12853,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -12846,7 +12870,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -12865,7 +12889,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -12896,7 +12920,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -12915,7 +12939,7 @@
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -12964,16 +12988,16 @@
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -12982,7 +13006,7 @@
     <row r="8" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
       <c r="D8" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -13004,7 +13028,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="22"/>
       <c r="D9" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -13026,7 +13050,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -13070,7 +13094,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13079,7 +13103,7 @@
     <row r="14" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13094,29 +13118,29 @@
     <row r="17" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="22"/>
       <c r="E18" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D21" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E22" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
@@ -13125,7 +13149,7 @@
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E24" s="56"/>
       <c r="F24" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
@@ -13166,12 +13190,12 @@
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E26" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D28" s="80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="298" t="s">
         <v>26</v>
@@ -13229,7 +13253,7 @@
       <c r="G29" s="286"/>
       <c r="H29" s="287"/>
       <c r="I29" s="301" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J29" s="302"/>
       <c r="K29" s="302"/>
@@ -13364,7 +13388,7 @@
     <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -13407,7 +13431,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="58"/>
       <c r="F35" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -13447,7 +13471,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E37" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.15">
@@ -13472,7 +13496,7 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="262" t="s">
         <v>26</v>
@@ -13531,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="253" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="254"/>
       <c r="G40" s="254"/>
@@ -13542,25 +13566,25 @@
       <c r="J40" s="272"/>
       <c r="K40" s="273"/>
       <c r="L40" s="281" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M40" s="281"/>
       <c r="N40" s="281"/>
       <c r="O40" s="281"/>
       <c r="P40" s="281"/>
       <c r="Q40" s="253" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R40" s="254"/>
       <c r="S40" s="254"/>
       <c r="T40" s="255"/>
       <c r="U40" s="271" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V40" s="272"/>
       <c r="W40" s="273"/>
       <c r="X40" s="265" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y40" s="266"/>
       <c r="Z40" s="266"/>
@@ -13570,7 +13594,7 @@
       <c r="AD40" s="266"/>
       <c r="AE40" s="267"/>
       <c r="AF40" s="100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG40" s="101"/>
       <c r="AH40" s="102"/>
@@ -13594,7 +13618,7 @@
       <c r="J41" s="275"/>
       <c r="K41" s="276"/>
       <c r="L41" s="281" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M41" s="281"/>
       <c r="N41" s="281"/>
@@ -13608,7 +13632,7 @@
       <c r="V41" s="275"/>
       <c r="W41" s="276"/>
       <c r="X41" s="265" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y41" s="266"/>
       <c r="Z41" s="266"/>
@@ -13640,7 +13664,7 @@
       <c r="J42" s="275"/>
       <c r="K42" s="276"/>
       <c r="L42" s="281" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M42" s="281"/>
       <c r="N42" s="281"/>
@@ -13654,7 +13678,7 @@
       <c r="V42" s="275"/>
       <c r="W42" s="276"/>
       <c r="X42" s="265" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y42" s="266"/>
       <c r="Z42" s="266"/>
@@ -13686,7 +13710,7 @@
       <c r="J43" s="275"/>
       <c r="K43" s="276"/>
       <c r="L43" s="304" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M43" s="281"/>
       <c r="N43" s="281"/>
@@ -13700,7 +13724,7 @@
       <c r="V43" s="275"/>
       <c r="W43" s="276"/>
       <c r="X43" s="265" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y43" s="266"/>
       <c r="Z43" s="266"/>
@@ -13732,7 +13756,7 @@
       <c r="J44" s="278"/>
       <c r="K44" s="279"/>
       <c r="L44" s="303" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M44" s="303"/>
       <c r="N44" s="303"/>
@@ -13746,7 +13770,7 @@
       <c r="V44" s="278"/>
       <c r="W44" s="279"/>
       <c r="X44" s="265" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y44" s="266"/>
       <c r="Z44" s="266"/>
@@ -13765,7 +13789,7 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D45" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="117"/>
       <c r="F45" s="117"/>
@@ -13816,7 +13840,7 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -13841,12 +13865,12 @@
     </row>
     <row r="49" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E49" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D52" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="4:22" x14ac:dyDescent="0.15">
@@ -13871,7 +13895,7 @@
     </row>
     <row r="54" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E54" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -13914,7 +13938,7 @@
     <row r="56" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E56" s="35"/>
       <c r="F56" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -13975,12 +13999,12 @@
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D59" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E61" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F61" s="35"/>
     </row>
@@ -13991,7 +14015,7 @@
     <row r="63" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E63" s="35"/>
       <c r="F63" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="4:22" x14ac:dyDescent="0.15">
@@ -14000,12 +14024,12 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D66" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E68" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F68" s="35"/>
     </row>
@@ -14016,7 +14040,7 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E70" s="35"/>
       <c r="F70" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -14105,7 +14129,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -14124,7 +14148,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -14141,7 +14165,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -14160,7 +14184,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -14191,7 +14215,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -14210,7 +14234,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -14260,7 +14284,7 @@
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14270,7 +14294,7 @@
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -14302,7 +14326,7 @@
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C8" s="55"/>
       <c r="D8" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -14364,7 +14388,7 @@
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C10" s="55"/>
       <c r="D10" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -14427,7 +14451,7 @@
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
@@ -14488,7 +14512,7 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C14" s="55"/>
       <c r="D14" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="117"/>
@@ -14551,7 +14575,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -14611,12 +14635,12 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14624,7 +14648,7 @@
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="299"/>
       <c r="G22" s="299"/>
@@ -14636,7 +14660,7 @@
       </c>
       <c r="L22" s="300"/>
       <c r="M22" s="298" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N22" s="299"/>
       <c r="O22" s="299"/>
@@ -14670,11 +14694,11 @@
       <c r="I23" s="317"/>
       <c r="J23" s="318"/>
       <c r="K23" s="193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" s="194"/>
       <c r="M23" s="324" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N23" s="325"/>
       <c r="O23" s="325"/>
@@ -14740,11 +14764,11 @@
       <c r="I25" s="306"/>
       <c r="J25" s="307"/>
       <c r="K25" s="311" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L25" s="312"/>
       <c r="M25" s="315" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N25" s="286"/>
       <c r="O25" s="286"/>
@@ -14834,7 +14858,7 @@
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="305" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F28" s="306"/>
       <c r="G28" s="306"/>
@@ -14842,11 +14866,11 @@
       <c r="I28" s="306"/>
       <c r="J28" s="307"/>
       <c r="K28" s="311" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L28" s="312"/>
       <c r="M28" s="315" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N28" s="286"/>
       <c r="O28" s="286"/>
@@ -14904,7 +14928,7 @@
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="305" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F30" s="306"/>
       <c r="G30" s="306"/>
@@ -14912,11 +14936,11 @@
       <c r="I30" s="306"/>
       <c r="J30" s="307"/>
       <c r="K30" s="311" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L30" s="312"/>
       <c r="M30" s="315" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N30" s="286"/>
       <c r="O30" s="286"/>
@@ -14974,7 +14998,7 @@
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14982,7 +15006,7 @@
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="299"/>
       <c r="G35" s="299"/>
@@ -14994,7 +15018,7 @@
       </c>
       <c r="L35" s="300"/>
       <c r="M35" s="298" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N35" s="299"/>
       <c r="O35" s="299"/>
@@ -15028,11 +15052,11 @@
       <c r="I36" s="317"/>
       <c r="J36" s="318"/>
       <c r="K36" s="193" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L36" s="194"/>
       <c r="M36" s="324" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" s="325"/>
       <c r="O36" s="325"/>
@@ -15098,11 +15122,11 @@
       <c r="I38" s="306"/>
       <c r="J38" s="307"/>
       <c r="K38" s="311" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="312"/>
       <c r="M38" s="285" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N38" s="286"/>
       <c r="O38" s="286"/>
@@ -15224,7 +15248,7 @@
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="305" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F42" s="306"/>
       <c r="G42" s="306"/>
@@ -15232,11 +15256,11 @@
       <c r="I42" s="306"/>
       <c r="J42" s="307"/>
       <c r="K42" s="311" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L42" s="312"/>
       <c r="M42" s="315" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N42" s="286"/>
       <c r="O42" s="286"/>
@@ -15294,7 +15318,7 @@
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="305" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F44" s="306"/>
       <c r="G44" s="306"/>
@@ -15302,11 +15326,11 @@
       <c r="I44" s="306"/>
       <c r="J44" s="307"/>
       <c r="K44" s="311" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" s="312"/>
       <c r="M44" s="315" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N44" s="286"/>
       <c r="O44" s="286"/>
@@ -15364,7 +15388,7 @@
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="330" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="306"/>
       <c r="G46" s="306"/>
@@ -15372,11 +15396,11 @@
       <c r="I46" s="306"/>
       <c r="J46" s="307"/>
       <c r="K46" s="311" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L46" s="312"/>
       <c r="M46" s="285" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N46" s="286"/>
       <c r="O46" s="286"/>
@@ -15466,7 +15490,7 @@
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="305" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F49" s="306"/>
       <c r="G49" s="306"/>
@@ -15474,7 +15498,7 @@
       <c r="I49" s="306"/>
       <c r="J49" s="307"/>
       <c r="K49" s="311" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L49" s="312"/>
       <c r="M49" s="61" t="s">
@@ -15512,7 +15536,7 @@
       <c r="K50" s="334"/>
       <c r="L50" s="335"/>
       <c r="M50" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
@@ -15580,7 +15604,7 @@
       <c r="K52" s="334"/>
       <c r="L52" s="335"/>
       <c r="M52" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
@@ -15603,7 +15627,7 @@
       <c r="L53" s="335"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z53" s="56"/>
       <c r="AA53" s="56"/>
@@ -15626,7 +15650,7 @@
       <c r="L54" s="335"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -15661,7 +15685,7 @@
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -15762,7 +15786,7 @@
       <c r="L58" s="335"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -15794,7 +15818,7 @@
       <c r="L59" s="335"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
@@ -15829,7 +15853,7 @@
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -15921,7 +15945,7 @@
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="316" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F63" s="317"/>
       <c r="G63" s="317"/>
@@ -15929,11 +15953,11 @@
       <c r="I63" s="317"/>
       <c r="J63" s="318"/>
       <c r="K63" s="316" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L63" s="318"/>
       <c r="M63" s="219" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N63" s="325"/>
       <c r="O63" s="325"/>
@@ -15991,7 +16015,7 @@
     </row>
     <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="285" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="286"/>
       <c r="G65" s="286"/>
@@ -15999,7 +16023,7 @@
       <c r="I65" s="286"/>
       <c r="J65" s="287"/>
       <c r="K65" s="330" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L65" s="307"/>
       <c r="M65" s="305" t="s">
@@ -16093,7 +16117,7 @@
     </row>
     <row r="68" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F68" s="114"/>
       <c r="G68" s="114"/>
@@ -16127,7 +16151,7 @@
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F69" s="299"/>
       <c r="G69" s="299"/>
@@ -16139,7 +16163,7 @@
       </c>
       <c r="L69" s="300"/>
       <c r="M69" s="298" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N69" s="299"/>
       <c r="O69" s="299"/>
@@ -16173,11 +16197,11 @@
       <c r="I70" s="317"/>
       <c r="J70" s="318"/>
       <c r="K70" s="193" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L70" s="194"/>
       <c r="M70" s="324" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N70" s="325"/>
       <c r="O70" s="325"/>
@@ -16267,7 +16291,7 @@
     </row>
     <row r="73" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16277,18 +16301,18 @@
     </row>
     <row r="76" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="4:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="4:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="E79" s="121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F79" s="63"/>
       <c r="G79" s="63"/>
@@ -16320,7 +16344,7 @@
     <row r="80" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="66"/>
       <c r="F80" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G80" s="56"/>
       <c r="H80" s="56"/>
@@ -16352,7 +16376,7 @@
       <c r="E81" s="68"/>
       <c r="F81" s="19"/>
       <c r="G81" s="113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
@@ -16362,10 +16386,10 @@
       <c r="M81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S81" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
@@ -16386,13 +16410,13 @@
       <c r="G82" s="56"/>
       <c r="H82" s="56"/>
       <c r="I82" s="113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J82" s="56"/>
       <c r="K82" s="56"/>
       <c r="L82" s="19"/>
       <c r="M82" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
@@ -16416,18 +16440,18 @@
       <c r="G83" s="56"/>
       <c r="H83" s="56"/>
       <c r="I83" s="113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J83" s="56"/>
       <c r="K83" s="56"/>
       <c r="L83" s="19"/>
       <c r="M83" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -16448,13 +16472,13 @@
       <c r="G84" s="56"/>
       <c r="H84" s="56"/>
       <c r="I84" s="113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J84" s="56"/>
       <c r="K84" s="56"/>
       <c r="L84" s="19"/>
       <c r="M84" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
@@ -16480,13 +16504,13 @@
       <c r="G85" s="56"/>
       <c r="H85" s="56"/>
       <c r="I85" s="113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J85" s="56"/>
       <c r="K85" s="56"/>
       <c r="L85" s="19"/>
       <c r="M85" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
@@ -16510,18 +16534,18 @@
       <c r="G86" s="56"/>
       <c r="H86" s="56"/>
       <c r="I86" s="113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J86" s="56"/>
       <c r="K86" s="56"/>
       <c r="L86" s="19"/>
       <c r="M86" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T86" s="19"/>
       <c r="U86" s="19"/>
@@ -16542,18 +16566,18 @@
       <c r="G87" s="56"/>
       <c r="H87" s="56"/>
       <c r="I87" s="113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J87" s="56"/>
       <c r="K87" s="56"/>
       <c r="L87" s="19"/>
       <c r="M87" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
@@ -16574,13 +16598,13 @@
       <c r="G88" s="56"/>
       <c r="H88" s="56"/>
       <c r="I88" s="113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J88" s="56"/>
       <c r="K88" s="56"/>
       <c r="L88" s="19"/>
       <c r="M88" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350042B-0484-4A3C-824A-4F465F5B70FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0249BF4-21BB-4A74-B29A-0A63DEC7ED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15255" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="DBアクセスを伴う精査">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="234">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -591,6 +591,13 @@
     <t>取引単体テスト</t>
     <rPh sb="0" eb="4">
       <t>トリヒキタンタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>打鍵テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ダケン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2140,6 +2147,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>3.2.4. REST</t>
     <phoneticPr fontId="15"/>
   </si>
@@ -2515,30 +2526,6 @@
   </si>
   <si>
     <t>(レスポンス)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>- ※3</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>※3</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RESTの取引は1リクエストで完結するため、リクエスト単体テストのみ実施する。</t>
-    <rPh sb="5" eb="7">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンケツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジッシ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3160,7 +3147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4098,9 +4085,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5746,7 +5730,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="39"/>
       <c r="J23" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -6403,13 +6387,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
       <c r="E1" s="189" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162"/>
@@ -6421,13 +6405,13 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
       <c r="R1" s="145"/>
       <c r="S1" s="152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T1" s="153"/>
       <c r="U1" s="153"/>
@@ -6437,7 +6421,7 @@
       <c r="Y1" s="153"/>
       <c r="Z1" s="154"/>
       <c r="AA1" s="140" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -6461,13 +6445,13 @@
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
       <c r="D2" s="142"/>
       <c r="E2" s="189" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
@@ -6491,7 +6475,7 @@
       <c r="Y2" s="156"/>
       <c r="Z2" s="157"/>
       <c r="AA2" s="140" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="186" t="str">
@@ -6515,13 +6499,13 @@
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
       <c r="D3" s="142"/>
       <c r="E3" s="161" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
@@ -6689,7 +6673,7 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="193" t="s">
         <v>24</v>
@@ -6706,7 +6690,7 @@
       <c r="H7" s="195"/>
       <c r="I7" s="194"/>
       <c r="J7" s="193" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K7" s="195"/>
       <c r="L7" s="195"/>
@@ -6743,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="165"/>
       <c r="D8" s="166">
@@ -6752,12 +6736,12 @@
       <c r="E8" s="167"/>
       <c r="F8" s="168"/>
       <c r="G8" s="169" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H8" s="170"/>
       <c r="I8" s="171"/>
       <c r="J8" s="172" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K8" s="173"/>
       <c r="L8" s="173"/>
@@ -6766,7 +6750,7 @@
       <c r="O8" s="173"/>
       <c r="P8" s="174"/>
       <c r="Q8" s="175" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R8" s="176"/>
       <c r="S8" s="176"/>
@@ -6783,7 +6767,7 @@
       <c r="AD8" s="176"/>
       <c r="AE8" s="177"/>
       <c r="AF8" s="172" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG8" s="173"/>
       <c r="AH8" s="173"/>
@@ -6794,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="190" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="191"/>
       <c r="D9" s="136">
@@ -6803,12 +6787,12 @@
       <c r="E9" s="137"/>
       <c r="F9" s="138"/>
       <c r="G9" s="192" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H9" s="139"/>
       <c r="I9" s="135"/>
       <c r="J9" s="178" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
@@ -6817,7 +6801,7 @@
       <c r="O9" s="129"/>
       <c r="P9" s="130"/>
       <c r="Q9" s="179" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R9" s="132"/>
       <c r="S9" s="132"/>
@@ -6834,7 +6818,7 @@
       <c r="AD9" s="132"/>
       <c r="AE9" s="133"/>
       <c r="AF9" s="178" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG9" s="129"/>
       <c r="AH9" s="129"/>
@@ -7945,7 +7929,7 @@
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -7964,7 +7948,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -7981,7 +7965,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -8014,7 +7998,7 @@
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -8045,7 +8029,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -8078,7 +8062,7 @@
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -8205,7 +8189,7 @@
       <c r="M5" s="46"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
@@ -8294,7 +8278,7 @@
     <row r="7" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="19"/>
@@ -8346,7 +8330,7 @@
     <row r="8" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="C8" s="76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -8448,7 +8432,7 @@
     <row r="10" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -8501,7 +8485,7 @@
     <row r="11" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="C11" s="76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8553,7 +8537,7 @@
     <row r="12" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="C12" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8604,7 +8588,7 @@
     <row r="13" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="C13" s="76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8707,7 +8691,7 @@
     <row r="15" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -8758,7 +8742,7 @@
     <row r="16" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="C16" s="76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
@@ -8809,7 +8793,7 @@
     <row r="17" spans="1:49" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="C17" s="76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8861,7 +8845,7 @@
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
       <c r="C18" s="76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="75"/>
       <c r="E18" s="1"/>
@@ -11362,7 +11346,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -11381,7 +11365,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -11398,7 +11382,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -11417,7 +11401,7 @@
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -11448,7 +11432,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -11467,7 +11451,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -11552,7 +11536,7 @@
     </row>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B5" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11591,7 +11575,7 @@
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="C6" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -11776,7 +11760,7 @@
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -11814,7 +11798,7 @@
       <c r="A12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -11923,7 +11907,7 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11936,7 +11920,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -11955,7 +11939,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -11972,7 +11956,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -11991,7 +11975,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -12022,7 +12006,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -12041,7 +12025,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -12091,12 +12075,12 @@
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>29</v>
@@ -12108,7 +12092,7 @@
     </row>
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D8" s="74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12147,7 +12131,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D21" s="74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12203,7 +12187,7 @@
       <c r="H25" s="238"/>
       <c r="I25" s="239"/>
       <c r="J25" s="219" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="220"/>
       <c r="L25" s="220"/>
@@ -12298,7 +12282,7 @@
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D28" s="237" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28" s="238"/>
       <c r="F28" s="238"/>
@@ -12306,7 +12290,7 @@
       <c r="H28" s="238"/>
       <c r="I28" s="239"/>
       <c r="J28" s="228" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K28" s="229"/>
       <c r="L28" s="229"/>
@@ -12409,7 +12393,7 @@
       <c r="H31" s="238"/>
       <c r="I31" s="239"/>
       <c r="J31" s="228" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" s="229"/>
       <c r="L31" s="229"/>
@@ -12504,16 +12488,16 @@
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D34" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D36" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
@@ -12524,37 +12508,37 @@
     <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="247" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="248"/>
       <c r="F39" s="248"/>
       <c r="G39" s="249"/>
       <c r="H39" s="215" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" s="132"/>
       <c r="J39" s="132"/>
       <c r="K39" s="133"/>
       <c r="L39" s="215" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M39" s="216"/>
       <c r="N39" s="216"/>
       <c r="O39" s="217"/>
       <c r="P39" s="215" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="132"/>
       <c r="R39" s="132"/>
       <c r="S39" s="133"/>
       <c r="T39" s="215" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U39" s="132"/>
       <c r="V39" s="132"/>
       <c r="W39" s="133"/>
       <c r="X39" s="218" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="132"/>
       <c r="Z39" s="132"/>
@@ -12600,19 +12584,19 @@
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" s="210"/>
       <c r="F41" s="210"/>
       <c r="G41" s="211"/>
       <c r="H41" s="209" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
       <c r="L41" s="209" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M41" s="206"/>
       <c r="N41" s="206"/>
@@ -12629,8 +12613,8 @@
       <c r="U41" s="206"/>
       <c r="V41" s="206"/>
       <c r="W41" s="207"/>
-      <c r="X41" s="205" t="s">
-        <v>34</v>
+      <c r="X41" s="208" t="s">
+        <v>195</v>
       </c>
       <c r="Y41" s="206"/>
       <c r="Z41" s="206"/>
@@ -12644,13 +12628,13 @@
       <c r="F42" s="206"/>
       <c r="G42" s="207"/>
       <c r="H42" s="209" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I42" s="210"/>
       <c r="J42" s="210"/>
       <c r="K42" s="211"/>
       <c r="L42" s="209" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M42" s="210"/>
       <c r="N42" s="210"/>
@@ -12667,8 +12651,8 @@
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
-      <c r="X42" s="336" t="s">
-        <v>232</v>
+      <c r="X42" s="205" t="s">
+        <v>49</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
@@ -12676,7 +12660,7 @@
     </row>
     <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D43" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>42</v>
@@ -12684,68 +12668,60 @@
     </row>
     <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D44" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D45" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>234</v>
-      </c>
+      <c r="C45" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="76" t="s">
-        <v>123</v>
-      </c>
+      <c r="C46" s="76"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C47" s="76"/>
-      <c r="D47" s="19"/>
+      <c r="D47" s="31" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D48" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C50" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
     <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="76" t="s">
-        <v>124</v>
-      </c>
+      <c r="C51" s="76"/>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C52" s="76"/>
-      <c r="D52" s="19"/>
+      <c r="D52" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D54" s="21" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D55" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12808,8 +12784,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="45" max="34" man="1"/>
-    <brk id="231" max="16383" man="1"/>
+    <brk id="44" max="34" man="1"/>
+    <brk id="230" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12834,7 +12810,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -12853,7 +12829,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -12870,7 +12846,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -12889,7 +12865,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -12920,7 +12896,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -12939,7 +12915,7 @@
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -12988,16 +12964,16 @@
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13006,7 +12982,7 @@
     <row r="8" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
       <c r="D8" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -13028,7 +13004,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="22"/>
       <c r="D9" s="30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -13050,7 +13026,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -13094,7 +13070,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13103,7 +13079,7 @@
     <row r="14" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13118,29 +13094,29 @@
     <row r="17" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="22"/>
       <c r="E18" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D21" s="55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E22" s="35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
@@ -13149,7 +13125,7 @@
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E24" s="56"/>
       <c r="F24" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
@@ -13190,12 +13166,12 @@
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E26" s="55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
       <c r="D28" s="80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="298" t="s">
         <v>26</v>
@@ -13253,7 +13229,7 @@
       <c r="G29" s="286"/>
       <c r="H29" s="287"/>
       <c r="I29" s="301" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J29" s="302"/>
       <c r="K29" s="302"/>
@@ -13388,7 +13364,7 @@
     <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -13431,7 +13407,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="58"/>
       <c r="F35" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -13471,7 +13447,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="E37" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.15">
@@ -13496,7 +13472,7 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39" s="262" t="s">
         <v>26</v>
@@ -13555,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="253" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="254"/>
       <c r="G40" s="254"/>
@@ -13566,25 +13542,25 @@
       <c r="J40" s="272"/>
       <c r="K40" s="273"/>
       <c r="L40" s="281" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M40" s="281"/>
       <c r="N40" s="281"/>
       <c r="O40" s="281"/>
       <c r="P40" s="281"/>
       <c r="Q40" s="253" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R40" s="254"/>
       <c r="S40" s="254"/>
       <c r="T40" s="255"/>
       <c r="U40" s="271" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V40" s="272"/>
       <c r="W40" s="273"/>
       <c r="X40" s="265" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="266"/>
       <c r="Z40" s="266"/>
@@ -13594,7 +13570,7 @@
       <c r="AD40" s="266"/>
       <c r="AE40" s="267"/>
       <c r="AF40" s="100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG40" s="101"/>
       <c r="AH40" s="102"/>
@@ -13618,7 +13594,7 @@
       <c r="J41" s="275"/>
       <c r="K41" s="276"/>
       <c r="L41" s="281" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M41" s="281"/>
       <c r="N41" s="281"/>
@@ -13632,7 +13608,7 @@
       <c r="V41" s="275"/>
       <c r="W41" s="276"/>
       <c r="X41" s="265" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y41" s="266"/>
       <c r="Z41" s="266"/>
@@ -13664,7 +13640,7 @@
       <c r="J42" s="275"/>
       <c r="K42" s="276"/>
       <c r="L42" s="281" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M42" s="281"/>
       <c r="N42" s="281"/>
@@ -13678,7 +13654,7 @@
       <c r="V42" s="275"/>
       <c r="W42" s="276"/>
       <c r="X42" s="265" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y42" s="266"/>
       <c r="Z42" s="266"/>
@@ -13710,7 +13686,7 @@
       <c r="J43" s="275"/>
       <c r="K43" s="276"/>
       <c r="L43" s="304" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M43" s="281"/>
       <c r="N43" s="281"/>
@@ -13724,7 +13700,7 @@
       <c r="V43" s="275"/>
       <c r="W43" s="276"/>
       <c r="X43" s="265" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y43" s="266"/>
       <c r="Z43" s="266"/>
@@ -13756,7 +13732,7 @@
       <c r="J44" s="278"/>
       <c r="K44" s="279"/>
       <c r="L44" s="303" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M44" s="303"/>
       <c r="N44" s="303"/>
@@ -13770,7 +13746,7 @@
       <c r="V44" s="278"/>
       <c r="W44" s="279"/>
       <c r="X44" s="265" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y44" s="266"/>
       <c r="Z44" s="266"/>
@@ -13789,7 +13765,7 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.15">
       <c r="D45" s="116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E45" s="117"/>
       <c r="F45" s="117"/>
@@ -13840,7 +13816,7 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -13865,12 +13841,12 @@
     </row>
     <row r="49" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E49" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D52" s="55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="4:22" x14ac:dyDescent="0.15">
@@ -13895,7 +13871,7 @@
     </row>
     <row r="54" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E54" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -13938,7 +13914,7 @@
     <row r="56" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E56" s="35"/>
       <c r="F56" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -13999,12 +13975,12 @@
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D59" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E61" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F61" s="35"/>
     </row>
@@ -14015,7 +13991,7 @@
     <row r="63" spans="4:22" x14ac:dyDescent="0.15">
       <c r="E63" s="35"/>
       <c r="F63" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="4:22" x14ac:dyDescent="0.15">
@@ -14024,12 +14000,12 @@
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D66" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E68" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F68" s="35"/>
     </row>
@@ -14040,7 +14016,7 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E70" s="35"/>
       <c r="F70" s="35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -14129,7 +14105,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -14148,7 +14124,7 @@
       <c r="M1" s="162"/>
       <c r="N1" s="163"/>
       <c r="O1" s="143" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="144"/>
       <c r="Q1" s="144"/>
@@ -14165,7 +14141,7 @@
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
       <c r="AA1" s="140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="142"/>
       <c r="AC1" s="180" t="str">
@@ -14184,7 +14160,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="140" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -14215,7 +14191,7 @@
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
       <c r="AA2" s="140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="142"/>
       <c r="AC2" s="180" t="str">
@@ -14234,7 +14210,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
@@ -14284,7 +14260,7 @@
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14294,7 +14270,7 @@
     <row r="7" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -14326,7 +14302,7 @@
     <row r="8" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C8" s="55"/>
       <c r="D8" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -14388,7 +14364,7 @@
     <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C10" s="55"/>
       <c r="D10" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -14451,7 +14427,7 @@
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
@@ -14512,7 +14488,7 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="C14" s="55"/>
       <c r="D14" s="55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="117"/>
@@ -14575,7 +14551,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -14635,12 +14611,12 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14648,7 +14624,7 @@
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="298" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="299"/>
       <c r="G22" s="299"/>
@@ -14660,7 +14636,7 @@
       </c>
       <c r="L22" s="300"/>
       <c r="M22" s="298" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N22" s="299"/>
       <c r="O22" s="299"/>
@@ -14694,11 +14670,11 @@
       <c r="I23" s="317"/>
       <c r="J23" s="318"/>
       <c r="K23" s="193" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L23" s="194"/>
       <c r="M23" s="324" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N23" s="325"/>
       <c r="O23" s="325"/>
@@ -14764,11 +14740,11 @@
       <c r="I25" s="306"/>
       <c r="J25" s="307"/>
       <c r="K25" s="311" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" s="312"/>
       <c r="M25" s="315" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N25" s="286"/>
       <c r="O25" s="286"/>
@@ -14858,7 +14834,7 @@
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="305" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F28" s="306"/>
       <c r="G28" s="306"/>
@@ -14866,11 +14842,11 @@
       <c r="I28" s="306"/>
       <c r="J28" s="307"/>
       <c r="K28" s="311" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L28" s="312"/>
       <c r="M28" s="315" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N28" s="286"/>
       <c r="O28" s="286"/>
@@ -14928,7 +14904,7 @@
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="305" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F30" s="306"/>
       <c r="G30" s="306"/>
@@ -14936,11 +14912,11 @@
       <c r="I30" s="306"/>
       <c r="J30" s="307"/>
       <c r="K30" s="311" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" s="312"/>
       <c r="M30" s="315" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N30" s="286"/>
       <c r="O30" s="286"/>
@@ -14998,7 +14974,7 @@
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15006,7 +14982,7 @@
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="298" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="299"/>
       <c r="G35" s="299"/>
@@ -15018,7 +14994,7 @@
       </c>
       <c r="L35" s="300"/>
       <c r="M35" s="298" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N35" s="299"/>
       <c r="O35" s="299"/>
@@ -15052,11 +15028,11 @@
       <c r="I36" s="317"/>
       <c r="J36" s="318"/>
       <c r="K36" s="193" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L36" s="194"/>
       <c r="M36" s="324" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N36" s="325"/>
       <c r="O36" s="325"/>
@@ -15122,11 +15098,11 @@
       <c r="I38" s="306"/>
       <c r="J38" s="307"/>
       <c r="K38" s="311" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L38" s="312"/>
       <c r="M38" s="285" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N38" s="286"/>
       <c r="O38" s="286"/>
@@ -15248,7 +15224,7 @@
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="305" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F42" s="306"/>
       <c r="G42" s="306"/>
@@ -15256,11 +15232,11 @@
       <c r="I42" s="306"/>
       <c r="J42" s="307"/>
       <c r="K42" s="311" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L42" s="312"/>
       <c r="M42" s="315" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N42" s="286"/>
       <c r="O42" s="286"/>
@@ -15318,7 +15294,7 @@
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="305" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F44" s="306"/>
       <c r="G44" s="306"/>
@@ -15326,11 +15302,11 @@
       <c r="I44" s="306"/>
       <c r="J44" s="307"/>
       <c r="K44" s="311" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L44" s="312"/>
       <c r="M44" s="315" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N44" s="286"/>
       <c r="O44" s="286"/>
@@ -15388,7 +15364,7 @@
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="330" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46" s="306"/>
       <c r="G46" s="306"/>
@@ -15396,11 +15372,11 @@
       <c r="I46" s="306"/>
       <c r="J46" s="307"/>
       <c r="K46" s="311" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46" s="312"/>
       <c r="M46" s="285" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N46" s="286"/>
       <c r="O46" s="286"/>
@@ -15490,7 +15466,7 @@
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="305" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F49" s="306"/>
       <c r="G49" s="306"/>
@@ -15498,7 +15474,7 @@
       <c r="I49" s="306"/>
       <c r="J49" s="307"/>
       <c r="K49" s="311" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L49" s="312"/>
       <c r="M49" s="61" t="s">
@@ -15536,7 +15512,7 @@
       <c r="K50" s="334"/>
       <c r="L50" s="335"/>
       <c r="M50" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
@@ -15604,7 +15580,7 @@
       <c r="K52" s="334"/>
       <c r="L52" s="335"/>
       <c r="M52" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
@@ -15627,7 +15603,7 @@
       <c r="L53" s="335"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z53" s="56"/>
       <c r="AA53" s="56"/>
@@ -15650,7 +15626,7 @@
       <c r="L54" s="335"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -15685,7 +15661,7 @@
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -15786,7 +15762,7 @@
       <c r="L58" s="335"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -15818,7 +15794,7 @@
       <c r="L59" s="335"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
@@ -15853,7 +15829,7 @@
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -15945,7 +15921,7 @@
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="316" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F63" s="317"/>
       <c r="G63" s="317"/>
@@ -15953,11 +15929,11 @@
       <c r="I63" s="317"/>
       <c r="J63" s="318"/>
       <c r="K63" s="316" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L63" s="318"/>
       <c r="M63" s="219" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N63" s="325"/>
       <c r="O63" s="325"/>
@@ -16015,7 +15991,7 @@
     </row>
     <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="285" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F65" s="286"/>
       <c r="G65" s="286"/>
@@ -16023,7 +15999,7 @@
       <c r="I65" s="286"/>
       <c r="J65" s="287"/>
       <c r="K65" s="330" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L65" s="307"/>
       <c r="M65" s="305" t="s">
@@ -16117,7 +16093,7 @@
     </row>
     <row r="68" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="118" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F68" s="114"/>
       <c r="G68" s="114"/>
@@ -16151,7 +16127,7 @@
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="298" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69" s="299"/>
       <c r="G69" s="299"/>
@@ -16163,7 +16139,7 @@
       </c>
       <c r="L69" s="300"/>
       <c r="M69" s="298" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N69" s="299"/>
       <c r="O69" s="299"/>
@@ -16197,11 +16173,11 @@
       <c r="I70" s="317"/>
       <c r="J70" s="318"/>
       <c r="K70" s="193" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L70" s="194"/>
       <c r="M70" s="324" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N70" s="325"/>
       <c r="O70" s="325"/>
@@ -16291,7 +16267,7 @@
     </row>
     <row r="73" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16301,18 +16277,18 @@
     </row>
     <row r="76" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="31" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="4:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="4:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="E79" s="121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F79" s="63"/>
       <c r="G79" s="63"/>
@@ -16344,7 +16320,7 @@
     <row r="80" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="66"/>
       <c r="F80" s="56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G80" s="56"/>
       <c r="H80" s="56"/>
@@ -16376,7 +16352,7 @@
       <c r="E81" s="68"/>
       <c r="F81" s="19"/>
       <c r="G81" s="113" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
@@ -16386,10 +16362,10 @@
       <c r="M81" s="19"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S81" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
@@ -16410,13 +16386,13 @@
       <c r="G82" s="56"/>
       <c r="H82" s="56"/>
       <c r="I82" s="113" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J82" s="56"/>
       <c r="K82" s="56"/>
       <c r="L82" s="19"/>
       <c r="M82" s="30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
@@ -16440,18 +16416,18 @@
       <c r="G83" s="56"/>
       <c r="H83" s="56"/>
       <c r="I83" s="113" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J83" s="56"/>
       <c r="K83" s="56"/>
       <c r="L83" s="19"/>
       <c r="M83" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="T83" s="19"/>
       <c r="U83" s="19"/>
@@ -16472,13 +16448,13 @@
       <c r="G84" s="56"/>
       <c r="H84" s="56"/>
       <c r="I84" s="113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J84" s="56"/>
       <c r="K84" s="56"/>
       <c r="L84" s="19"/>
       <c r="M84" s="30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
@@ -16504,13 +16480,13 @@
       <c r="G85" s="56"/>
       <c r="H85" s="56"/>
       <c r="I85" s="113" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J85" s="56"/>
       <c r="K85" s="56"/>
       <c r="L85" s="19"/>
       <c r="M85" s="30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="19"/>
@@ -16534,18 +16510,18 @@
       <c r="G86" s="56"/>
       <c r="H86" s="56"/>
       <c r="I86" s="113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J86" s="56"/>
       <c r="K86" s="56"/>
       <c r="L86" s="19"/>
       <c r="M86" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
       <c r="S86" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T86" s="19"/>
       <c r="U86" s="19"/>
@@ -16566,18 +16542,18 @@
       <c r="G87" s="56"/>
       <c r="H87" s="56"/>
       <c r="I87" s="113" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J87" s="56"/>
       <c r="K87" s="56"/>
       <c r="L87" s="19"/>
       <c r="M87" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
       <c r="S87" s="31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="T87" s="19"/>
       <c r="U87" s="19"/>
@@ -16598,13 +16574,13 @@
       <c r="G88" s="56"/>
       <c r="H88" s="56"/>
       <c r="I88" s="113" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J88" s="56"/>
       <c r="K88" s="56"/>
       <c r="L88" s="19"/>
       <c r="M88" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0249BF4-21BB-4A74-B29A-0A63DEC7ED6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1311B2D7-7650-4B75-BC25-13120434ACE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="DBアクセスを伴う精査">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
@@ -70,15 +70,7 @@
     <definedName name="文字種精査">#REF!</definedName>
     <definedName name="文字列長精査">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -3462,6 +3454,15 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3480,24 +3481,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3564,12 +3622,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3595,15 +3647,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3613,58 +3656,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3702,18 +3694,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3723,9 +3784,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3762,71 +3820,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3873,57 +3976,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3933,65 +3985,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4002,6 +4018,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4017,74 +4042,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4476,7 +4468,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4522,15 +4514,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4546,8 +4538,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7458075" y="1304925"/>
-          <a:ext cx="0" cy="1285875"/>
+          <a:off x="8010525" y="1304925"/>
+          <a:ext cx="0" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4577,9 +4569,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>141928</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>110051</xdr:rowOff>
+      <xdr:rowOff>50703</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1697131" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -4595,7 +4587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="1414976"/>
+          <a:off x="4596697" y="1384203"/>
           <a:ext cx="1697131" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4662,10 +4654,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>58029</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1273875" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -4681,7 +4673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="1438275"/>
+          <a:off x="8074269" y="1391529"/>
           <a:ext cx="1273875" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4726,13 +4718,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4747,8 +4739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3590925" y="1924050"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="3619500" y="1919655"/>
+          <a:ext cx="1392115" cy="732692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,7 +4766,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4801,16 +4793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4825,8 +4817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5248275" y="1924050"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="6403731" y="1919655"/>
+          <a:ext cx="1392115" cy="732692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4852,7 +4844,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4870,7 +4862,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>業務的な取引単位のテスト</a:t>
+            <a:t>業務的な取引単位の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>テスト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4879,10 +4879,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14801</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>112321</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="992579" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -4898,7 +4898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="1891226"/>
+          <a:off x="8122846" y="1857375"/>
           <a:ext cx="992579" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4941,9 +4941,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74092</xdr:colOff>
+      <xdr:colOff>89479</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55260</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1859483" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -4959,7 +4959,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1178992" y="1360185"/>
+          <a:off x="1203171" y="1333500"/>
           <a:ext cx="1859483" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5265,7 +5265,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5305,6 +5305,92 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101142B1-F3E2-4B08-9856-FDDA60431F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5011615" y="1919655"/>
+          <a:ext cx="1392116" cy="732692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>リクエスト単体テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>クラスの結合組み合わせの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>テスト</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6386,57 +6472,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="s">
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="174" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -6444,53 +6530,53 @@
       <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="186" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="152" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="149">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -6498,45 +6584,45 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
@@ -6675,1042 +6761,1042 @@
       <c r="A7" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="193" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="193" t="s">
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="193" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="195"/>
-      <c r="S7" s="195"/>
-      <c r="T7" s="195"/>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="195"/>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="194"/>
-      <c r="AF7" s="193" t="s">
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="195"/>
-      <c r="AH7" s="195"/>
-      <c r="AI7" s="194"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="129"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="99">
         <v>1</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="184" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166">
+      <c r="C8" s="185"/>
+      <c r="D8" s="186">
         <v>43643</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175" t="s">
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="172" t="s">
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="174"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="160"/>
     </row>
     <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="120">
         <v>2</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="136">
+      <c r="C9" s="141"/>
+      <c r="D9" s="137">
         <v>43850</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="192" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="178" t="s">
+      <c r="H9" s="145"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="179" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="195" t="s">
         <v>206</v>
       </c>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="178" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="130"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="120"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="120"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="120"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="120"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="133"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="120"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="120"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="120"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="120"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="120"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="120"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="133"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="120"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="120"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="133"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="120"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="120"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="120"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="120"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="120"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="120"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="120"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="131"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="120"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="130"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="131"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="120"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="130"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="120"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="130"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="131"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="120"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="130"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="120"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="130"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
       <c r="AJ33" s="48"/>
       <c r="AK33" s="48"/>
       <c r="AL33" s="48"/>
@@ -7719,16 +7805,151 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -7753,151 +7974,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7928,31 +8014,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -7964,23 +8050,23 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -7997,29 +8083,29 @@
       <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -8028,23 +8114,23 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -8061,29 +8147,29 @@
       <c r="AW2" s="42"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -8092,21 +8178,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -11299,14 +11385,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11316,6 +11394,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11345,31 +11431,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11381,48 +11467,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -11431,48 +11517,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -11481,21 +11567,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11871,14 +11957,6 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11888,6 +11966,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11907,9 +11993,9 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -11919,31 +12005,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11955,48 +12041,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12005,48 +12091,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12055,21 +12141,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12130,473 +12216,438 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D22" s="74" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="212" t="s">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D25" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="212" t="s">
+      <c r="E25" s="236"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="213"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="213"/>
-      <c r="AH24" s="214"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="237" t="s">
+      <c r="K25" s="236"/>
+      <c r="L25" s="236"/>
+      <c r="M25" s="236"/>
+      <c r="N25" s="236"/>
+      <c r="O25" s="236"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="236"/>
+      <c r="X25" s="236"/>
+      <c r="Y25" s="236"/>
+      <c r="Z25" s="236"/>
+      <c r="AA25" s="236"/>
+      <c r="AB25" s="236"/>
+      <c r="AC25" s="236"/>
+      <c r="AD25" s="236"/>
+      <c r="AE25" s="236"/>
+      <c r="AF25" s="236"/>
+      <c r="AG25" s="236"/>
+      <c r="AH25" s="237"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D26" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="238"/>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="219" t="s">
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="241" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
-      <c r="T25" s="220"/>
-      <c r="U25" s="220"/>
-      <c r="V25" s="220"/>
-      <c r="W25" s="220"/>
-      <c r="X25" s="220"/>
-      <c r="Y25" s="220"/>
-      <c r="Z25" s="220"/>
-      <c r="AA25" s="220"/>
-      <c r="AB25" s="220"/>
-      <c r="AC25" s="220"/>
-      <c r="AD25" s="220"/>
-      <c r="AE25" s="220"/>
-      <c r="AF25" s="220"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="221"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="240"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="223"/>
-      <c r="O26" s="223"/>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="223"/>
-      <c r="S26" s="223"/>
-      <c r="T26" s="223"/>
-      <c r="U26" s="223"/>
-      <c r="V26" s="223"/>
-      <c r="W26" s="223"/>
-      <c r="X26" s="223"/>
-      <c r="Y26" s="223"/>
-      <c r="Z26" s="223"/>
-      <c r="AA26" s="223"/>
-      <c r="AB26" s="223"/>
-      <c r="AC26" s="223"/>
-      <c r="AD26" s="223"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="223"/>
-      <c r="AH26" s="224"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="242"/>
+      <c r="N26" s="242"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="242"/>
+      <c r="Q26" s="242"/>
+      <c r="R26" s="242"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="242"/>
+      <c r="U26" s="242"/>
+      <c r="V26" s="242"/>
+      <c r="W26" s="242"/>
+      <c r="X26" s="242"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="242"/>
+      <c r="AB26" s="242"/>
+      <c r="AC26" s="242"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="242"/>
+      <c r="AF26" s="242"/>
+      <c r="AG26" s="242"/>
+      <c r="AH26" s="243"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="225"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="226"/>
-      <c r="AA27" s="226"/>
-      <c r="AB27" s="226"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="226"/>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="226"/>
-      <c r="AH27" s="227"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="245"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="245"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="245"/>
+      <c r="P27" s="245"/>
+      <c r="Q27" s="245"/>
+      <c r="R27" s="245"/>
+      <c r="S27" s="245"/>
+      <c r="T27" s="245"/>
+      <c r="U27" s="245"/>
+      <c r="V27" s="245"/>
+      <c r="W27" s="245"/>
+      <c r="X27" s="245"/>
+      <c r="Y27" s="245"/>
+      <c r="Z27" s="245"/>
+      <c r="AA27" s="245"/>
+      <c r="AB27" s="245"/>
+      <c r="AC27" s="245"/>
+      <c r="AD27" s="245"/>
+      <c r="AE27" s="245"/>
+      <c r="AF27" s="245"/>
+      <c r="AG27" s="245"/>
+      <c r="AH27" s="246"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="237" t="s">
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="248"/>
+      <c r="S28" s="248"/>
+      <c r="T28" s="248"/>
+      <c r="U28" s="248"/>
+      <c r="V28" s="248"/>
+      <c r="W28" s="248"/>
+      <c r="X28" s="248"/>
+      <c r="Y28" s="248"/>
+      <c r="Z28" s="248"/>
+      <c r="AA28" s="248"/>
+      <c r="AB28" s="248"/>
+      <c r="AC28" s="248"/>
+      <c r="AD28" s="248"/>
+      <c r="AE28" s="248"/>
+      <c r="AF28" s="248"/>
+      <c r="AG28" s="248"/>
+      <c r="AH28" s="249"/>
+    </row>
+    <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D29" s="208" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="228" t="s">
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="229"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="229"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="229"/>
-      <c r="U28" s="229"/>
-      <c r="V28" s="229"/>
-      <c r="W28" s="229"/>
-      <c r="X28" s="229"/>
-      <c r="Y28" s="229"/>
-      <c r="Z28" s="229"/>
-      <c r="AA28" s="229"/>
-      <c r="AB28" s="229"/>
-      <c r="AC28" s="229"/>
-      <c r="AD28" s="229"/>
-      <c r="AE28" s="229"/>
-      <c r="AF28" s="229"/>
-      <c r="AG28" s="229"/>
-      <c r="AH28" s="230"/>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="240"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="232"/>
-      <c r="Q29" s="232"/>
-      <c r="R29" s="232"/>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="232"/>
-      <c r="W29" s="232"/>
-      <c r="X29" s="232"/>
-      <c r="Y29" s="232"/>
-      <c r="Z29" s="232"/>
-      <c r="AA29" s="232"/>
-      <c r="AB29" s="232"/>
-      <c r="AC29" s="232"/>
-      <c r="AD29" s="232"/>
-      <c r="AE29" s="232"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="232"/>
-      <c r="AH29" s="233"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="226"/>
+      <c r="W29" s="226"/>
+      <c r="X29" s="226"/>
+      <c r="Y29" s="226"/>
+      <c r="Z29" s="226"/>
+      <c r="AA29" s="226"/>
+      <c r="AB29" s="226"/>
+      <c r="AC29" s="226"/>
+      <c r="AD29" s="226"/>
+      <c r="AE29" s="226"/>
+      <c r="AF29" s="226"/>
+      <c r="AG29" s="226"/>
+      <c r="AH29" s="227"/>
     </row>
     <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="243"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="234"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="235"/>
-      <c r="M30" s="235"/>
-      <c r="N30" s="235"/>
-      <c r="O30" s="235"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="235"/>
-      <c r="R30" s="235"/>
-      <c r="S30" s="235"/>
-      <c r="T30" s="235"/>
-      <c r="U30" s="235"/>
-      <c r="V30" s="235"/>
-      <c r="W30" s="235"/>
-      <c r="X30" s="235"/>
-      <c r="Y30" s="235"/>
-      <c r="Z30" s="235"/>
-      <c r="AA30" s="235"/>
-      <c r="AB30" s="235"/>
-      <c r="AC30" s="235"/>
-      <c r="AD30" s="235"/>
-      <c r="AE30" s="235"/>
-      <c r="AF30" s="235"/>
-      <c r="AG30" s="235"/>
-      <c r="AH30" s="236"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="229"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
+      <c r="N30" s="229"/>
+      <c r="O30" s="229"/>
+      <c r="P30" s="229"/>
+      <c r="Q30" s="229"/>
+      <c r="R30" s="229"/>
+      <c r="S30" s="229"/>
+      <c r="T30" s="229"/>
+      <c r="U30" s="229"/>
+      <c r="V30" s="229"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="229"/>
+      <c r="Y30" s="229"/>
+      <c r="Z30" s="229"/>
+      <c r="AA30" s="229"/>
+      <c r="AB30" s="229"/>
+      <c r="AC30" s="229"/>
+      <c r="AD30" s="229"/>
+      <c r="AE30" s="229"/>
+      <c r="AF30" s="229"/>
+      <c r="AG30" s="229"/>
+      <c r="AH30" s="230"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="246" t="s">
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="232"/>
+      <c r="R31" s="232"/>
+      <c r="S31" s="232"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="232"/>
+      <c r="V31" s="232"/>
+      <c r="W31" s="232"/>
+      <c r="X31" s="232"/>
+      <c r="Y31" s="232"/>
+      <c r="Z31" s="232"/>
+      <c r="AA31" s="232"/>
+      <c r="AB31" s="232"/>
+      <c r="AC31" s="232"/>
+      <c r="AD31" s="232"/>
+      <c r="AE31" s="232"/>
+      <c r="AF31" s="232"/>
+      <c r="AG31" s="232"/>
+      <c r="AH31" s="233"/>
+    </row>
+    <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D32" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="228" t="s">
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="225" t="s">
         <v>198</v>
       </c>
-      <c r="K31" s="229"/>
-      <c r="L31" s="229"/>
-      <c r="M31" s="229"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="229"/>
-      <c r="P31" s="229"/>
-      <c r="Q31" s="229"/>
-      <c r="R31" s="229"/>
-      <c r="S31" s="229"/>
-      <c r="T31" s="229"/>
-      <c r="U31" s="229"/>
-      <c r="V31" s="229"/>
-      <c r="W31" s="229"/>
-      <c r="X31" s="229"/>
-      <c r="Y31" s="229"/>
-      <c r="Z31" s="229"/>
-      <c r="AA31" s="229"/>
-      <c r="AB31" s="229"/>
-      <c r="AC31" s="229"/>
-      <c r="AD31" s="229"/>
-      <c r="AE31" s="229"/>
-      <c r="AF31" s="229"/>
-      <c r="AG31" s="229"/>
-      <c r="AH31" s="230"/>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="240"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="232"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
-      <c r="W32" s="232"/>
-      <c r="X32" s="232"/>
-      <c r="Y32" s="232"/>
-      <c r="Z32" s="232"/>
-      <c r="AA32" s="232"/>
-      <c r="AB32" s="232"/>
-      <c r="AC32" s="232"/>
-      <c r="AD32" s="232"/>
-      <c r="AE32" s="232"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="233"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="226"/>
+      <c r="P32" s="226"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="226"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="226"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="226"/>
+      <c r="X32" s="226"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="226"/>
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="226"/>
+      <c r="AC32" s="226"/>
+      <c r="AD32" s="226"/>
+      <c r="AE32" s="226"/>
+      <c r="AF32" s="226"/>
+      <c r="AG32" s="226"/>
+      <c r="AH32" s="227"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="245"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="235"/>
-      <c r="M33" s="235"/>
-      <c r="N33" s="235"/>
-      <c r="O33" s="235"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="235"/>
-      <c r="V33" s="235"/>
-      <c r="W33" s="235"/>
-      <c r="X33" s="235"/>
-      <c r="Y33" s="235"/>
-      <c r="Z33" s="235"/>
-      <c r="AA33" s="235"/>
-      <c r="AB33" s="235"/>
-      <c r="AC33" s="235"/>
-      <c r="AD33" s="235"/>
-      <c r="AE33" s="235"/>
-      <c r="AF33" s="235"/>
-      <c r="AG33" s="235"/>
-      <c r="AH33" s="236"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="229"/>
+      <c r="N33" s="229"/>
+      <c r="O33" s="229"/>
+      <c r="P33" s="229"/>
+      <c r="Q33" s="229"/>
+      <c r="R33" s="229"/>
+      <c r="S33" s="229"/>
+      <c r="T33" s="229"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="229"/>
+      <c r="X33" s="229"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="229"/>
+      <c r="AA33" s="229"/>
+      <c r="AB33" s="229"/>
+      <c r="AC33" s="229"/>
+      <c r="AD33" s="229"/>
+      <c r="AE33" s="229"/>
+      <c r="AF33" s="229"/>
+      <c r="AG33" s="229"/>
+      <c r="AH33" s="230"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="214"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="231"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="232"/>
+      <c r="M34" s="232"/>
+      <c r="N34" s="232"/>
+      <c r="O34" s="232"/>
+      <c r="P34" s="232"/>
+      <c r="Q34" s="232"/>
+      <c r="R34" s="232"/>
+      <c r="S34" s="232"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="232"/>
+      <c r="AA34" s="232"/>
+      <c r="AB34" s="232"/>
+      <c r="AC34" s="232"/>
+      <c r="AD34" s="232"/>
+      <c r="AE34" s="232"/>
+      <c r="AF34" s="232"/>
+      <c r="AG34" s="232"/>
+      <c r="AH34" s="233"/>
+    </row>
+    <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D35" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D36" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D37" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D38" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="247" t="s">
+    <row r="39" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="222" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="248"/>
-      <c r="F39" s="248"/>
-      <c r="G39" s="249"/>
-      <c r="H39" s="215" t="s">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="215" t="s">
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="M39" s="216"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="215" t="s">
+      <c r="M40" s="238"/>
+      <c r="N40" s="238"/>
+      <c r="O40" s="239"/>
+      <c r="P40" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="215" t="s">
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="136"/>
+      <c r="T40" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="218" t="s">
+      <c r="U40" s="135"/>
+      <c r="V40" s="135"/>
+      <c r="W40" s="136"/>
+      <c r="X40" s="240" t="s">
         <v>194</v>
       </c>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="132"/>
-      <c r="AA39" s="133"/>
-    </row>
-    <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D40" s="205" t="s">
+      <c r="Y40" s="135"/>
+      <c r="Z40" s="135"/>
+      <c r="AA40" s="136"/>
+    </row>
+    <row r="41" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D41" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="205" t="s">
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="205" t="s">
         <v>34</v>
-      </c>
-      <c r="I40" s="206"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="206"/>
-      <c r="N40" s="206"/>
-      <c r="O40" s="207"/>
-      <c r="P40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q40" s="206"/>
-      <c r="R40" s="206"/>
-      <c r="S40" s="207"/>
-      <c r="T40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="U40" s="206"/>
-      <c r="V40" s="206"/>
-      <c r="W40" s="207"/>
-      <c r="X40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y40" s="206"/>
-      <c r="Z40" s="206"/>
-      <c r="AA40" s="207"/>
-    </row>
-    <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="210"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="209" t="s">
-        <v>185</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
-      <c r="L41" s="209" t="s">
-        <v>186</v>
+      <c r="L41" s="205" t="s">
+        <v>34</v>
       </c>
       <c r="M41" s="206"/>
       <c r="N41" s="206"/>
@@ -12613,135 +12664,174 @@
       <c r="U41" s="206"/>
       <c r="V41" s="206"/>
       <c r="W41" s="207"/>
-      <c r="X41" s="208" t="s">
-        <v>195</v>
+      <c r="X41" s="205" t="s">
+        <v>34</v>
       </c>
       <c r="Y41" s="206"/>
       <c r="Z41" s="206"/>
       <c r="AA41" s="207"/>
     </row>
-    <row r="42" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="205" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="209" t="s">
-        <v>221</v>
-      </c>
-      <c r="I42" s="210"/>
-      <c r="J42" s="210"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="209" t="s">
-        <v>221</v>
-      </c>
-      <c r="M42" s="210"/>
-      <c r="N42" s="210"/>
-      <c r="O42" s="211"/>
-      <c r="P42" s="208" t="s">
+    <row r="42" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="219" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="219" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="219" t="s">
+        <v>186</v>
+      </c>
+      <c r="M42" s="206"/>
+      <c r="N42" s="206"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="205" t="s">
         <v>34</v>
       </c>
       <c r="Q42" s="206"/>
       <c r="R42" s="206"/>
       <c r="S42" s="207"/>
-      <c r="T42" s="208" t="s">
+      <c r="T42" s="205" t="s">
         <v>34</v>
       </c>
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
-      <c r="X42" s="205" t="s">
-        <v>49</v>
+      <c r="X42" s="234" t="s">
+        <v>195</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
       <c r="AA42" s="207"/>
     </row>
-    <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D43" s="15" t="s">
+    <row r="43" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="205" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="207"/>
+      <c r="H43" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
+      <c r="O43" s="221"/>
+      <c r="P43" s="234" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q43" s="206"/>
+      <c r="R43" s="206"/>
+      <c r="S43" s="207"/>
+      <c r="T43" s="234" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" s="206"/>
+      <c r="V43" s="206"/>
+      <c r="W43" s="207"/>
+      <c r="X43" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y43" s="206"/>
+      <c r="Z43" s="206"/>
+      <c r="AA43" s="207"/>
+    </row>
+    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D44" s="31" t="s">
+    <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D45" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E45" s="31" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C45" s="76" t="s">
+    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C46" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="76"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D47" s="31" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D48" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C50" s="76" t="s">
+    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="76"/>
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D52" s="15" t="s">
+      <c r="C52" s="76"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D53" s="15" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D53" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D25:I27"/>
-    <mergeCell ref="D31:I33"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="J28:AH30"/>
-    <mergeCell ref="D28:I30"/>
-    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="J25:AH25"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="X40:AA40"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J26:AH28"/>
+    <mergeCell ref="J32:AH34"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T40:W40"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AC1:AF1"/>
@@ -12758,23 +12848,22 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D26:I28"/>
+    <mergeCell ref="D32:I34"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="J29:AH31"/>
+    <mergeCell ref="D29:I31"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="P43:S43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12784,8 +12873,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="34" man="1"/>
-    <brk id="230" max="16383" man="1"/>
+    <brk id="45" max="34" man="1"/>
+    <brk id="231" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12809,31 +12898,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -12845,48 +12934,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12895,48 +12984,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12945,21 +13034,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13173,35 +13262,35 @@
       <c r="D28" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="298" t="s">
+      <c r="E28" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="300"/>
-      <c r="I28" s="268" t="s">
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="286"/>
+      <c r="I28" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="269"/>
-      <c r="K28" s="270"/>
-      <c r="L28" s="280" t="s">
+      <c r="J28" s="263"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="280"/>
-      <c r="N28" s="280"/>
-      <c r="O28" s="280"/>
-      <c r="P28" s="280"/>
-      <c r="Q28" s="268" t="s">
+      <c r="M28" s="283"/>
+      <c r="N28" s="283"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="283"/>
+      <c r="Q28" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="269"/>
-      <c r="S28" s="269"/>
-      <c r="T28" s="270"/>
-      <c r="U28" s="268" t="s">
+      <c r="R28" s="263"/>
+      <c r="S28" s="263"/>
+      <c r="T28" s="264"/>
+      <c r="U28" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="269"/>
-      <c r="W28" s="270"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
       <c r="X28" s="72" t="s">
         <v>39</v>
       </c>
@@ -13222,31 +13311,31 @@
       <c r="D29" s="81">
         <v>1</v>
       </c>
-      <c r="E29" s="285" t="s">
+      <c r="E29" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="286"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="301" t="s">
+      <c r="F29" s="278"/>
+      <c r="G29" s="278"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="271" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="302"/>
-      <c r="K29" s="302"/>
-      <c r="L29" s="297" t="s">
+      <c r="J29" s="272"/>
+      <c r="K29" s="272"/>
+      <c r="L29" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="297"/>
-      <c r="N29" s="297"/>
-      <c r="O29" s="297"/>
-      <c r="P29" s="297"/>
-      <c r="Q29" s="288"/>
-      <c r="R29" s="289"/>
-      <c r="S29" s="289"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="288"/>
-      <c r="V29" s="289"/>
-      <c r="W29" s="290"/>
+      <c r="M29" s="273"/>
+      <c r="N29" s="273"/>
+      <c r="O29" s="273"/>
+      <c r="P29" s="273"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="266"/>
+      <c r="S29" s="266"/>
+      <c r="T29" s="267"/>
+      <c r="U29" s="265"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="267"/>
       <c r="X29" s="82" t="s">
         <v>8</v>
       </c>
@@ -13267,27 +13356,27 @@
       <c r="D30" s="81">
         <v>2</v>
       </c>
-      <c r="E30" s="288"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="302"/>
-      <c r="J30" s="302"/>
-      <c r="K30" s="302"/>
-      <c r="L30" s="297" t="s">
+      <c r="E30" s="265"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="272"/>
+      <c r="K30" s="272"/>
+      <c r="L30" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="297"/>
-      <c r="N30" s="297"/>
-      <c r="O30" s="297"/>
-      <c r="P30" s="297"/>
-      <c r="Q30" s="288"/>
-      <c r="R30" s="289"/>
-      <c r="S30" s="289"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="288"/>
-      <c r="V30" s="289"/>
-      <c r="W30" s="290"/>
+      <c r="M30" s="273"/>
+      <c r="N30" s="273"/>
+      <c r="O30" s="273"/>
+      <c r="P30" s="273"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="266"/>
+      <c r="S30" s="266"/>
+      <c r="T30" s="267"/>
+      <c r="U30" s="265"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="267"/>
       <c r="X30" s="82" t="s">
         <v>3</v>
       </c>
@@ -13306,27 +13395,27 @@
       <c r="D31" s="88">
         <v>3</v>
       </c>
-      <c r="E31" s="291"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="293"/>
-      <c r="I31" s="302"/>
-      <c r="J31" s="302"/>
-      <c r="K31" s="302"/>
-      <c r="L31" s="297" t="s">
+      <c r="E31" s="280"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="281"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="272"/>
+      <c r="L31" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="297"/>
-      <c r="N31" s="297"/>
-      <c r="O31" s="297"/>
-      <c r="P31" s="297"/>
-      <c r="Q31" s="294"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="295"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="295"/>
-      <c r="W31" s="296"/>
+      <c r="M31" s="273"/>
+      <c r="N31" s="273"/>
+      <c r="O31" s="273"/>
+      <c r="P31" s="273"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="269"/>
+      <c r="T31" s="270"/>
+      <c r="U31" s="268"/>
+      <c r="V31" s="269"/>
+      <c r="W31" s="270"/>
       <c r="X31" s="89" t="s">
         <v>4</v>
       </c>
@@ -13474,50 +13563,50 @@
       <c r="D39" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="262" t="s">
+      <c r="E39" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="264"/>
-      <c r="I39" s="268" t="s">
+      <c r="F39" s="300"/>
+      <c r="G39" s="300"/>
+      <c r="H39" s="301"/>
+      <c r="I39" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="269"/>
-      <c r="K39" s="270"/>
-      <c r="L39" s="280" t="s">
+      <c r="J39" s="263"/>
+      <c r="K39" s="264"/>
+      <c r="L39" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="280"/>
-      <c r="N39" s="280"/>
-      <c r="O39" s="280"/>
-      <c r="P39" s="280"/>
-      <c r="Q39" s="282" t="s">
+      <c r="M39" s="283"/>
+      <c r="N39" s="283"/>
+      <c r="O39" s="283"/>
+      <c r="P39" s="283"/>
+      <c r="Q39" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="283"/>
-      <c r="S39" s="283"/>
-      <c r="T39" s="284"/>
-      <c r="U39" s="268" t="s">
+      <c r="R39" s="303"/>
+      <c r="S39" s="303"/>
+      <c r="T39" s="304"/>
+      <c r="U39" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="269"/>
-      <c r="W39" s="270"/>
-      <c r="X39" s="262" t="s">
+      <c r="V39" s="263"/>
+      <c r="W39" s="264"/>
+      <c r="X39" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="Y39" s="263"/>
-      <c r="Z39" s="263"/>
-      <c r="AA39" s="263"/>
-      <c r="AB39" s="263"/>
-      <c r="AC39" s="263"/>
-      <c r="AD39" s="263"/>
-      <c r="AE39" s="264"/>
-      <c r="AF39" s="250" t="s">
+      <c r="Y39" s="300"/>
+      <c r="Z39" s="300"/>
+      <c r="AA39" s="300"/>
+      <c r="AB39" s="300"/>
+      <c r="AC39" s="300"/>
+      <c r="AD39" s="300"/>
+      <c r="AE39" s="301"/>
+      <c r="AF39" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="AG39" s="251"/>
-      <c r="AH39" s="252"/>
+      <c r="AG39" s="288"/>
+      <c r="AH39" s="289"/>
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
@@ -13530,45 +13619,45 @@
       <c r="D40" s="81">
         <v>1</v>
       </c>
-      <c r="E40" s="253" t="s">
+      <c r="E40" s="290" t="s">
         <v>167</v>
       </c>
-      <c r="F40" s="254"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="255"/>
-      <c r="I40" s="271" t="s">
+      <c r="F40" s="291"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="292"/>
+      <c r="I40" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="272"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="281" t="s">
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="275" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="281"/>
-      <c r="N40" s="281"/>
-      <c r="O40" s="281"/>
-      <c r="P40" s="281"/>
-      <c r="Q40" s="253" t="s">
+      <c r="M40" s="275"/>
+      <c r="N40" s="275"/>
+      <c r="O40" s="275"/>
+      <c r="P40" s="275"/>
+      <c r="Q40" s="290" t="s">
         <v>138</v>
       </c>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="255"/>
-      <c r="U40" s="271" t="s">
+      <c r="R40" s="291"/>
+      <c r="S40" s="291"/>
+      <c r="T40" s="292"/>
+      <c r="U40" s="253" t="s">
         <v>139</v>
       </c>
-      <c r="V40" s="272"/>
-      <c r="W40" s="273"/>
-      <c r="X40" s="265" t="s">
+      <c r="V40" s="254"/>
+      <c r="W40" s="255"/>
+      <c r="X40" s="250" t="s">
         <v>137</v>
       </c>
-      <c r="Y40" s="266"/>
-      <c r="Z40" s="266"/>
-      <c r="AA40" s="266"/>
-      <c r="AB40" s="266"/>
-      <c r="AC40" s="266"/>
-      <c r="AD40" s="266"/>
-      <c r="AE40" s="267"/>
+      <c r="Y40" s="251"/>
+      <c r="Z40" s="251"/>
+      <c r="AA40" s="251"/>
+      <c r="AB40" s="251"/>
+      <c r="AC40" s="251"/>
+      <c r="AD40" s="251"/>
+      <c r="AE40" s="252"/>
       <c r="AF40" s="100" t="s">
         <v>86</v>
       </c>
@@ -13586,37 +13675,37 @@
       <c r="D41" s="81">
         <v>2</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="258"/>
-      <c r="I41" s="274"/>
-      <c r="J41" s="275"/>
-      <c r="K41" s="276"/>
-      <c r="L41" s="281" t="s">
+      <c r="E41" s="293"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="256"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="258"/>
+      <c r="L41" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="M41" s="281"/>
-      <c r="N41" s="281"/>
-      <c r="O41" s="281"/>
-      <c r="P41" s="281"/>
-      <c r="Q41" s="256"/>
-      <c r="R41" s="257"/>
-      <c r="S41" s="257"/>
-      <c r="T41" s="258"/>
-      <c r="U41" s="274"/>
-      <c r="V41" s="275"/>
-      <c r="W41" s="276"/>
-      <c r="X41" s="265" t="s">
+      <c r="M41" s="275"/>
+      <c r="N41" s="275"/>
+      <c r="O41" s="275"/>
+      <c r="P41" s="275"/>
+      <c r="Q41" s="293"/>
+      <c r="R41" s="294"/>
+      <c r="S41" s="294"/>
+      <c r="T41" s="295"/>
+      <c r="U41" s="256"/>
+      <c r="V41" s="257"/>
+      <c r="W41" s="258"/>
+      <c r="X41" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="Y41" s="266"/>
-      <c r="Z41" s="266"/>
-      <c r="AA41" s="266"/>
-      <c r="AB41" s="266"/>
-      <c r="AC41" s="266"/>
-      <c r="AD41" s="266"/>
-      <c r="AE41" s="267"/>
+      <c r="Y41" s="251"/>
+      <c r="Z41" s="251"/>
+      <c r="AA41" s="251"/>
+      <c r="AB41" s="251"/>
+      <c r="AC41" s="251"/>
+      <c r="AD41" s="251"/>
+      <c r="AE41" s="252"/>
       <c r="AF41" s="103"/>
       <c r="AG41" s="104"/>
       <c r="AH41" s="105"/>
@@ -13632,37 +13721,37 @@
       <c r="D42" s="81">
         <v>3</v>
       </c>
-      <c r="E42" s="256"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="257"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="274"/>
-      <c r="J42" s="275"/>
-      <c r="K42" s="276"/>
-      <c r="L42" s="281" t="s">
+      <c r="E42" s="293"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="295"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="257"/>
+      <c r="K42" s="258"/>
+      <c r="L42" s="275" t="s">
         <v>85</v>
       </c>
-      <c r="M42" s="281"/>
-      <c r="N42" s="281"/>
-      <c r="O42" s="281"/>
-      <c r="P42" s="281"/>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="257"/>
-      <c r="S42" s="257"/>
-      <c r="T42" s="258"/>
-      <c r="U42" s="274"/>
-      <c r="V42" s="275"/>
-      <c r="W42" s="276"/>
-      <c r="X42" s="265" t="s">
+      <c r="M42" s="275"/>
+      <c r="N42" s="275"/>
+      <c r="O42" s="275"/>
+      <c r="P42" s="275"/>
+      <c r="Q42" s="293"/>
+      <c r="R42" s="294"/>
+      <c r="S42" s="294"/>
+      <c r="T42" s="295"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="257"/>
+      <c r="W42" s="258"/>
+      <c r="X42" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="Y42" s="266"/>
-      <c r="Z42" s="266"/>
-      <c r="AA42" s="266"/>
-      <c r="AB42" s="266"/>
-      <c r="AC42" s="266"/>
-      <c r="AD42" s="266"/>
-      <c r="AE42" s="267"/>
+      <c r="Y42" s="251"/>
+      <c r="Z42" s="251"/>
+      <c r="AA42" s="251"/>
+      <c r="AB42" s="251"/>
+      <c r="AC42" s="251"/>
+      <c r="AD42" s="251"/>
+      <c r="AE42" s="252"/>
       <c r="AF42" s="103"/>
       <c r="AG42" s="104"/>
       <c r="AH42" s="105"/>
@@ -13678,37 +13767,37 @@
       <c r="D43" s="81">
         <v>4</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="257"/>
-      <c r="G43" s="257"/>
-      <c r="H43" s="258"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="275"/>
-      <c r="K43" s="276"/>
-      <c r="L43" s="304" t="s">
+      <c r="E43" s="293"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="294"/>
+      <c r="H43" s="295"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="257"/>
+      <c r="K43" s="258"/>
+      <c r="L43" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="281"/>
-      <c r="N43" s="281"/>
-      <c r="O43" s="281"/>
-      <c r="P43" s="281"/>
-      <c r="Q43" s="256"/>
-      <c r="R43" s="257"/>
-      <c r="S43" s="257"/>
-      <c r="T43" s="258"/>
-      <c r="U43" s="274"/>
-      <c r="V43" s="275"/>
-      <c r="W43" s="276"/>
-      <c r="X43" s="265" t="s">
+      <c r="M43" s="275"/>
+      <c r="N43" s="275"/>
+      <c r="O43" s="275"/>
+      <c r="P43" s="275"/>
+      <c r="Q43" s="293"/>
+      <c r="R43" s="294"/>
+      <c r="S43" s="294"/>
+      <c r="T43" s="295"/>
+      <c r="U43" s="256"/>
+      <c r="V43" s="257"/>
+      <c r="W43" s="258"/>
+      <c r="X43" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="Y43" s="266"/>
-      <c r="Z43" s="266"/>
-      <c r="AA43" s="266"/>
-      <c r="AB43" s="266"/>
-      <c r="AC43" s="266"/>
-      <c r="AD43" s="266"/>
-      <c r="AE43" s="267"/>
+      <c r="Y43" s="251"/>
+      <c r="Z43" s="251"/>
+      <c r="AA43" s="251"/>
+      <c r="AB43" s="251"/>
+      <c r="AC43" s="251"/>
+      <c r="AD43" s="251"/>
+      <c r="AE43" s="252"/>
       <c r="AF43" s="103"/>
       <c r="AG43" s="104"/>
       <c r="AH43" s="105"/>
@@ -13724,37 +13813,37 @@
       <c r="D44" s="81">
         <v>5</v>
       </c>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="277"/>
-      <c r="J44" s="278"/>
-      <c r="K44" s="279"/>
-      <c r="L44" s="303" t="s">
+      <c r="E44" s="296"/>
+      <c r="F44" s="297"/>
+      <c r="G44" s="297"/>
+      <c r="H44" s="298"/>
+      <c r="I44" s="259"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="261"/>
+      <c r="L44" s="274" t="s">
         <v>82</v>
       </c>
-      <c r="M44" s="303"/>
-      <c r="N44" s="303"/>
-      <c r="O44" s="303"/>
-      <c r="P44" s="303"/>
-      <c r="Q44" s="259"/>
-      <c r="R44" s="260"/>
-      <c r="S44" s="260"/>
-      <c r="T44" s="261"/>
-      <c r="U44" s="277"/>
-      <c r="V44" s="278"/>
-      <c r="W44" s="279"/>
-      <c r="X44" s="265" t="s">
+      <c r="M44" s="274"/>
+      <c r="N44" s="274"/>
+      <c r="O44" s="274"/>
+      <c r="P44" s="274"/>
+      <c r="Q44" s="296"/>
+      <c r="R44" s="297"/>
+      <c r="S44" s="297"/>
+      <c r="T44" s="298"/>
+      <c r="U44" s="259"/>
+      <c r="V44" s="260"/>
+      <c r="W44" s="261"/>
+      <c r="X44" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="Y44" s="266"/>
-      <c r="Z44" s="266"/>
-      <c r="AA44" s="266"/>
-      <c r="AB44" s="266"/>
-      <c r="AC44" s="266"/>
-      <c r="AD44" s="266"/>
-      <c r="AE44" s="267"/>
+      <c r="Y44" s="251"/>
+      <c r="Z44" s="251"/>
+      <c r="AA44" s="251"/>
+      <c r="AB44" s="251"/>
+      <c r="AC44" s="251"/>
+      <c r="AD44" s="251"/>
+      <c r="AE44" s="252"/>
       <c r="AF44" s="106"/>
       <c r="AG44" s="107"/>
       <c r="AH44" s="108"/>
@@ -14021,40 +14110,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -14071,6 +14126,40 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14104,31 +14193,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14140,48 +14229,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -14190,48 +14279,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -14240,21 +14329,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14623,354 +14712,354 @@
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="298" t="s">
+      <c r="E22" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="298" t="s">
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="300"/>
-      <c r="M22" s="298" t="s">
+      <c r="L22" s="286"/>
+      <c r="M22" s="284" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="299"/>
-      <c r="Q22" s="299"/>
-      <c r="R22" s="299"/>
-      <c r="S22" s="299"/>
-      <c r="T22" s="299"/>
-      <c r="U22" s="299"/>
-      <c r="V22" s="299"/>
-      <c r="W22" s="299"/>
-      <c r="X22" s="299"/>
-      <c r="Y22" s="299"/>
-      <c r="Z22" s="299"/>
-      <c r="AA22" s="299"/>
-      <c r="AB22" s="299"/>
-      <c r="AC22" s="299"/>
-      <c r="AD22" s="299"/>
-      <c r="AE22" s="299"/>
-      <c r="AF22" s="299"/>
-      <c r="AG22" s="299"/>
-      <c r="AH22" s="300"/>
+      <c r="N22" s="285"/>
+      <c r="O22" s="285"/>
+      <c r="P22" s="285"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="285"/>
+      <c r="S22" s="285"/>
+      <c r="T22" s="285"/>
+      <c r="U22" s="285"/>
+      <c r="V22" s="285"/>
+      <c r="W22" s="285"/>
+      <c r="X22" s="285"/>
+      <c r="Y22" s="285"/>
+      <c r="Z22" s="285"/>
+      <c r="AA22" s="285"/>
+      <c r="AB22" s="285"/>
+      <c r="AC22" s="285"/>
+      <c r="AD22" s="285"/>
+      <c r="AE22" s="285"/>
+      <c r="AF22" s="285"/>
+      <c r="AG22" s="285"/>
+      <c r="AH22" s="286"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="316" t="s">
+      <c r="E23" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="317"/>
-      <c r="G23" s="317"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="193" t="s">
+      <c r="F23" s="306"/>
+      <c r="G23" s="306"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="307"/>
+      <c r="K23" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="194"/>
-      <c r="M23" s="324" t="s">
+      <c r="L23" s="129"/>
+      <c r="M23" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="325"/>
-      <c r="O23" s="325"/>
-      <c r="P23" s="325"/>
-      <c r="Q23" s="325"/>
-      <c r="R23" s="325"/>
-      <c r="S23" s="325"/>
-      <c r="T23" s="325"/>
-      <c r="U23" s="325"/>
-      <c r="V23" s="325"/>
-      <c r="W23" s="325"/>
-      <c r="X23" s="325"/>
-      <c r="Y23" s="325"/>
-      <c r="Z23" s="325"/>
-      <c r="AA23" s="325"/>
-      <c r="AB23" s="325"/>
-      <c r="AC23" s="325"/>
-      <c r="AD23" s="325"/>
-      <c r="AE23" s="325"/>
-      <c r="AF23" s="325"/>
-      <c r="AG23" s="325"/>
-      <c r="AH23" s="326"/>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+      <c r="P23" s="329"/>
+      <c r="Q23" s="329"/>
+      <c r="R23" s="329"/>
+      <c r="S23" s="329"/>
+      <c r="T23" s="329"/>
+      <c r="U23" s="329"/>
+      <c r="V23" s="329"/>
+      <c r="W23" s="329"/>
+      <c r="X23" s="329"/>
+      <c r="Y23" s="329"/>
+      <c r="Z23" s="329"/>
+      <c r="AA23" s="329"/>
+      <c r="AB23" s="329"/>
+      <c r="AC23" s="329"/>
+      <c r="AD23" s="329"/>
+      <c r="AE23" s="329"/>
+      <c r="AF23" s="329"/>
+      <c r="AG23" s="329"/>
+      <c r="AH23" s="330"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="319"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="320"/>
-      <c r="I24" s="320"/>
-      <c r="J24" s="321"/>
-      <c r="K24" s="322"/>
-      <c r="L24" s="323"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="328"/>
-      <c r="U24" s="328"/>
-      <c r="V24" s="328"/>
-      <c r="W24" s="328"/>
-      <c r="X24" s="328"/>
-      <c r="Y24" s="328"/>
-      <c r="Z24" s="328"/>
-      <c r="AA24" s="328"/>
-      <c r="AB24" s="328"/>
-      <c r="AC24" s="328"/>
-      <c r="AD24" s="328"/>
-      <c r="AE24" s="328"/>
-      <c r="AF24" s="328"/>
-      <c r="AG24" s="328"/>
-      <c r="AH24" s="329"/>
+      <c r="E24" s="308"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="309"/>
+      <c r="I24" s="309"/>
+      <c r="J24" s="310"/>
+      <c r="K24" s="311"/>
+      <c r="L24" s="312"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="332"/>
+      <c r="U24" s="332"/>
+      <c r="V24" s="332"/>
+      <c r="W24" s="332"/>
+      <c r="X24" s="332"/>
+      <c r="Y24" s="332"/>
+      <c r="Z24" s="332"/>
+      <c r="AA24" s="332"/>
+      <c r="AB24" s="332"/>
+      <c r="AC24" s="332"/>
+      <c r="AD24" s="332"/>
+      <c r="AE24" s="332"/>
+      <c r="AF24" s="332"/>
+      <c r="AG24" s="332"/>
+      <c r="AH24" s="333"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="305" t="s">
+      <c r="E25" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="306"/>
-      <c r="G25" s="306"/>
-      <c r="H25" s="306"/>
-      <c r="I25" s="306"/>
-      <c r="J25" s="307"/>
-      <c r="K25" s="311" t="s">
+      <c r="F25" s="314"/>
+      <c r="G25" s="314"/>
+      <c r="H25" s="314"/>
+      <c r="I25" s="314"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="L25" s="312"/>
-      <c r="M25" s="315" t="s">
+      <c r="L25" s="323"/>
+      <c r="M25" s="335" t="s">
         <v>129</v>
       </c>
-      <c r="N25" s="286"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="286"/>
-      <c r="R25" s="286"/>
-      <c r="S25" s="286"/>
-      <c r="T25" s="286"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="286"/>
-      <c r="W25" s="286"/>
-      <c r="X25" s="286"/>
-      <c r="Y25" s="286"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="286"/>
-      <c r="AD25" s="286"/>
-      <c r="AE25" s="286"/>
-      <c r="AF25" s="286"/>
-      <c r="AG25" s="286"/>
-      <c r="AH25" s="287"/>
+      <c r="N25" s="278"/>
+      <c r="O25" s="278"/>
+      <c r="P25" s="278"/>
+      <c r="Q25" s="278"/>
+      <c r="R25" s="278"/>
+      <c r="S25" s="278"/>
+      <c r="T25" s="278"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="278"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="278"/>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="278"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="278"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="278"/>
+      <c r="AF25" s="278"/>
+      <c r="AG25" s="278"/>
+      <c r="AH25" s="279"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="331"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="333"/>
-      <c r="K26" s="334"/>
-      <c r="L26" s="335"/>
-      <c r="M26" s="288"/>
-      <c r="N26" s="289"/>
-      <c r="O26" s="289"/>
-      <c r="P26" s="289"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="289"/>
-      <c r="S26" s="289"/>
-      <c r="T26" s="289"/>
-      <c r="U26" s="289"/>
-      <c r="V26" s="289"/>
-      <c r="W26" s="289"/>
-      <c r="X26" s="289"/>
-      <c r="Y26" s="289"/>
-      <c r="Z26" s="289"/>
-      <c r="AA26" s="289"/>
-      <c r="AB26" s="289"/>
-      <c r="AC26" s="289"/>
-      <c r="AD26" s="289"/>
-      <c r="AE26" s="289"/>
-      <c r="AF26" s="289"/>
-      <c r="AG26" s="289"/>
-      <c r="AH26" s="290"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="318"/>
+      <c r="K26" s="324"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="265"/>
+      <c r="N26" s="266"/>
+      <c r="O26" s="266"/>
+      <c r="P26" s="266"/>
+      <c r="Q26" s="266"/>
+      <c r="R26" s="266"/>
+      <c r="S26" s="266"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="266"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="266"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="266"/>
+      <c r="Z26" s="266"/>
+      <c r="AA26" s="266"/>
+      <c r="AB26" s="266"/>
+      <c r="AC26" s="266"/>
+      <c r="AD26" s="266"/>
+      <c r="AE26" s="266"/>
+      <c r="AF26" s="266"/>
+      <c r="AG26" s="266"/>
+      <c r="AH26" s="267"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="308"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="309"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="314"/>
-      <c r="M27" s="291"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="292"/>
-      <c r="P27" s="292"/>
-      <c r="Q27" s="292"/>
-      <c r="R27" s="292"/>
-      <c r="S27" s="292"/>
-      <c r="T27" s="292"/>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="292"/>
-      <c r="Y27" s="292"/>
-      <c r="Z27" s="292"/>
-      <c r="AA27" s="292"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="292"/>
-      <c r="AE27" s="292"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="292"/>
-      <c r="AH27" s="293"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="320"/>
+      <c r="G27" s="320"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="320"/>
+      <c r="J27" s="321"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="281"/>
+      <c r="P27" s="281"/>
+      <c r="Q27" s="281"/>
+      <c r="R27" s="281"/>
+      <c r="S27" s="281"/>
+      <c r="T27" s="281"/>
+      <c r="U27" s="281"/>
+      <c r="V27" s="281"/>
+      <c r="W27" s="281"/>
+      <c r="X27" s="281"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="281"/>
+      <c r="AA27" s="281"/>
+      <c r="AB27" s="281"/>
+      <c r="AC27" s="281"/>
+      <c r="AD27" s="281"/>
+      <c r="AE27" s="281"/>
+      <c r="AF27" s="281"/>
+      <c r="AG27" s="281"/>
+      <c r="AH27" s="282"/>
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="305" t="s">
+      <c r="E28" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="306"/>
-      <c r="G28" s="306"/>
-      <c r="H28" s="306"/>
-      <c r="I28" s="306"/>
-      <c r="J28" s="307"/>
-      <c r="K28" s="311" t="s">
+      <c r="F28" s="314"/>
+      <c r="G28" s="314"/>
+      <c r="H28" s="314"/>
+      <c r="I28" s="314"/>
+      <c r="J28" s="315"/>
+      <c r="K28" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="L28" s="312"/>
-      <c r="M28" s="315" t="s">
+      <c r="L28" s="323"/>
+      <c r="M28" s="335" t="s">
         <v>200</v>
       </c>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="286"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="286"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="286"/>
-      <c r="W28" s="286"/>
-      <c r="X28" s="286"/>
-      <c r="Y28" s="286"/>
-      <c r="Z28" s="286"/>
-      <c r="AA28" s="286"/>
-      <c r="AB28" s="286"/>
-      <c r="AC28" s="286"/>
-      <c r="AD28" s="286"/>
-      <c r="AE28" s="286"/>
-      <c r="AF28" s="286"/>
-      <c r="AG28" s="286"/>
-      <c r="AH28" s="287"/>
+      <c r="N28" s="278"/>
+      <c r="O28" s="278"/>
+      <c r="P28" s="278"/>
+      <c r="Q28" s="278"/>
+      <c r="R28" s="278"/>
+      <c r="S28" s="278"/>
+      <c r="T28" s="278"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="278"/>
+      <c r="W28" s="278"/>
+      <c r="X28" s="278"/>
+      <c r="Y28" s="278"/>
+      <c r="Z28" s="278"/>
+      <c r="AA28" s="278"/>
+      <c r="AB28" s="278"/>
+      <c r="AC28" s="278"/>
+      <c r="AD28" s="278"/>
+      <c r="AE28" s="278"/>
+      <c r="AF28" s="278"/>
+      <c r="AG28" s="278"/>
+      <c r="AH28" s="279"/>
     </row>
     <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="308"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="314"/>
-      <c r="M29" s="291"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="292"/>
-      <c r="Q29" s="292"/>
-      <c r="R29" s="292"/>
-      <c r="S29" s="292"/>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="292"/>
-      <c r="W29" s="292"/>
-      <c r="X29" s="292"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="292"/>
-      <c r="AA29" s="292"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="292"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="292"/>
-      <c r="AH29" s="293"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="320"/>
+      <c r="G29" s="320"/>
+      <c r="H29" s="320"/>
+      <c r="I29" s="320"/>
+      <c r="J29" s="321"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="327"/>
+      <c r="M29" s="280"/>
+      <c r="N29" s="281"/>
+      <c r="O29" s="281"/>
+      <c r="P29" s="281"/>
+      <c r="Q29" s="281"/>
+      <c r="R29" s="281"/>
+      <c r="S29" s="281"/>
+      <c r="T29" s="281"/>
+      <c r="U29" s="281"/>
+      <c r="V29" s="281"/>
+      <c r="W29" s="281"/>
+      <c r="X29" s="281"/>
+      <c r="Y29" s="281"/>
+      <c r="Z29" s="281"/>
+      <c r="AA29" s="281"/>
+      <c r="AB29" s="281"/>
+      <c r="AC29" s="281"/>
+      <c r="AD29" s="281"/>
+      <c r="AE29" s="281"/>
+      <c r="AF29" s="281"/>
+      <c r="AG29" s="281"/>
+      <c r="AH29" s="282"/>
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="305" t="s">
+      <c r="E30" s="313" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="306"/>
-      <c r="G30" s="306"/>
-      <c r="H30" s="306"/>
-      <c r="I30" s="306"/>
-      <c r="J30" s="307"/>
-      <c r="K30" s="311" t="s">
+      <c r="F30" s="314"/>
+      <c r="G30" s="314"/>
+      <c r="H30" s="314"/>
+      <c r="I30" s="314"/>
+      <c r="J30" s="315"/>
+      <c r="K30" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="L30" s="312"/>
-      <c r="M30" s="315" t="s">
+      <c r="L30" s="323"/>
+      <c r="M30" s="335" t="s">
         <v>201</v>
       </c>
-      <c r="N30" s="286"/>
-      <c r="O30" s="286"/>
-      <c r="P30" s="286"/>
-      <c r="Q30" s="286"/>
-      <c r="R30" s="286"/>
-      <c r="S30" s="286"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="286"/>
-      <c r="V30" s="286"/>
-      <c r="W30" s="286"/>
-      <c r="X30" s="286"/>
-      <c r="Y30" s="286"/>
-      <c r="Z30" s="286"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="286"/>
-      <c r="AC30" s="286"/>
-      <c r="AD30" s="286"/>
-      <c r="AE30" s="286"/>
-      <c r="AF30" s="286"/>
-      <c r="AG30" s="286"/>
-      <c r="AH30" s="287"/>
+      <c r="N30" s="278"/>
+      <c r="O30" s="278"/>
+      <c r="P30" s="278"/>
+      <c r="Q30" s="278"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="278"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="278"/>
+      <c r="Y30" s="278"/>
+      <c r="Z30" s="278"/>
+      <c r="AA30" s="278"/>
+      <c r="AB30" s="278"/>
+      <c r="AC30" s="278"/>
+      <c r="AD30" s="278"/>
+      <c r="AE30" s="278"/>
+      <c r="AF30" s="278"/>
+      <c r="AG30" s="278"/>
+      <c r="AH30" s="279"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="308"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="313"/>
-      <c r="L31" s="314"/>
-      <c r="M31" s="291"/>
-      <c r="N31" s="292"/>
-      <c r="O31" s="292"/>
-      <c r="P31" s="292"/>
-      <c r="Q31" s="292"/>
-      <c r="R31" s="292"/>
-      <c r="S31" s="292"/>
-      <c r="T31" s="292"/>
-      <c r="U31" s="292"/>
-      <c r="V31" s="292"/>
-      <c r="W31" s="292"/>
-      <c r="X31" s="292"/>
-      <c r="Y31" s="292"/>
-      <c r="Z31" s="292"/>
-      <c r="AA31" s="292"/>
-      <c r="AB31" s="292"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="292"/>
-      <c r="AE31" s="292"/>
-      <c r="AF31" s="292"/>
-      <c r="AG31" s="292"/>
-      <c r="AH31" s="293"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="320"/>
+      <c r="J31" s="321"/>
+      <c r="K31" s="326"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="281"/>
+      <c r="O31" s="281"/>
+      <c r="P31" s="281"/>
+      <c r="Q31" s="281"/>
+      <c r="R31" s="281"/>
+      <c r="S31" s="281"/>
+      <c r="T31" s="281"/>
+      <c r="U31" s="281"/>
+      <c r="V31" s="281"/>
+      <c r="W31" s="281"/>
+      <c r="X31" s="281"/>
+      <c r="Y31" s="281"/>
+      <c r="Z31" s="281"/>
+      <c r="AA31" s="281"/>
+      <c r="AB31" s="281"/>
+      <c r="AC31" s="281"/>
+      <c r="AD31" s="281"/>
+      <c r="AE31" s="281"/>
+      <c r="AF31" s="281"/>
+      <c r="AG31" s="281"/>
+      <c r="AH31" s="282"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="118" t="s">
@@ -14981,502 +15070,502 @@
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="298" t="s">
+      <c r="E35" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="300"/>
-      <c r="K35" s="298" t="s">
+      <c r="F35" s="285"/>
+      <c r="G35" s="285"/>
+      <c r="H35" s="285"/>
+      <c r="I35" s="285"/>
+      <c r="J35" s="286"/>
+      <c r="K35" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="300"/>
-      <c r="M35" s="298" t="s">
+      <c r="L35" s="286"/>
+      <c r="M35" s="284" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="299"/>
-      <c r="O35" s="299"/>
-      <c r="P35" s="299"/>
-      <c r="Q35" s="299"/>
-      <c r="R35" s="299"/>
-      <c r="S35" s="299"/>
-      <c r="T35" s="299"/>
-      <c r="U35" s="299"/>
-      <c r="V35" s="299"/>
-      <c r="W35" s="299"/>
-      <c r="X35" s="299"/>
-      <c r="Y35" s="299"/>
-      <c r="Z35" s="299"/>
-      <c r="AA35" s="299"/>
-      <c r="AB35" s="299"/>
-      <c r="AC35" s="299"/>
-      <c r="AD35" s="299"/>
-      <c r="AE35" s="299"/>
-      <c r="AF35" s="299"/>
-      <c r="AG35" s="299"/>
-      <c r="AH35" s="300"/>
+      <c r="N35" s="285"/>
+      <c r="O35" s="285"/>
+      <c r="P35" s="285"/>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="285"/>
+      <c r="S35" s="285"/>
+      <c r="T35" s="285"/>
+      <c r="U35" s="285"/>
+      <c r="V35" s="285"/>
+      <c r="W35" s="285"/>
+      <c r="X35" s="285"/>
+      <c r="Y35" s="285"/>
+      <c r="Z35" s="285"/>
+      <c r="AA35" s="285"/>
+      <c r="AB35" s="285"/>
+      <c r="AC35" s="285"/>
+      <c r="AD35" s="285"/>
+      <c r="AE35" s="285"/>
+      <c r="AF35" s="285"/>
+      <c r="AG35" s="285"/>
+      <c r="AH35" s="286"/>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="316" t="s">
+      <c r="E36" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="317"/>
-      <c r="G36" s="317"/>
-      <c r="H36" s="317"/>
-      <c r="I36" s="317"/>
-      <c r="J36" s="318"/>
-      <c r="K36" s="193" t="s">
+      <c r="F36" s="306"/>
+      <c r="G36" s="306"/>
+      <c r="H36" s="306"/>
+      <c r="I36" s="306"/>
+      <c r="J36" s="307"/>
+      <c r="K36" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="194"/>
-      <c r="M36" s="324" t="s">
+      <c r="L36" s="129"/>
+      <c r="M36" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="N36" s="325"/>
-      <c r="O36" s="325"/>
-      <c r="P36" s="325"/>
-      <c r="Q36" s="325"/>
-      <c r="R36" s="325"/>
-      <c r="S36" s="325"/>
-      <c r="T36" s="325"/>
-      <c r="U36" s="325"/>
-      <c r="V36" s="325"/>
-      <c r="W36" s="325"/>
-      <c r="X36" s="325"/>
-      <c r="Y36" s="325"/>
-      <c r="Z36" s="325"/>
-      <c r="AA36" s="325"/>
-      <c r="AB36" s="325"/>
-      <c r="AC36" s="325"/>
-      <c r="AD36" s="325"/>
-      <c r="AE36" s="325"/>
-      <c r="AF36" s="325"/>
-      <c r="AG36" s="325"/>
-      <c r="AH36" s="326"/>
+      <c r="N36" s="329"/>
+      <c r="O36" s="329"/>
+      <c r="P36" s="329"/>
+      <c r="Q36" s="329"/>
+      <c r="R36" s="329"/>
+      <c r="S36" s="329"/>
+      <c r="T36" s="329"/>
+      <c r="U36" s="329"/>
+      <c r="V36" s="329"/>
+      <c r="W36" s="329"/>
+      <c r="X36" s="329"/>
+      <c r="Y36" s="329"/>
+      <c r="Z36" s="329"/>
+      <c r="AA36" s="329"/>
+      <c r="AB36" s="329"/>
+      <c r="AC36" s="329"/>
+      <c r="AD36" s="329"/>
+      <c r="AE36" s="329"/>
+      <c r="AF36" s="329"/>
+      <c r="AG36" s="329"/>
+      <c r="AH36" s="330"/>
     </row>
     <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="319"/>
-      <c r="F37" s="320"/>
-      <c r="G37" s="320"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="322"/>
-      <c r="L37" s="323"/>
-      <c r="M37" s="327"/>
-      <c r="N37" s="328"/>
-      <c r="O37" s="328"/>
-      <c r="P37" s="328"/>
-      <c r="Q37" s="328"/>
-      <c r="R37" s="328"/>
-      <c r="S37" s="328"/>
-      <c r="T37" s="328"/>
-      <c r="U37" s="328"/>
-      <c r="V37" s="328"/>
-      <c r="W37" s="328"/>
-      <c r="X37" s="328"/>
-      <c r="Y37" s="328"/>
-      <c r="Z37" s="328"/>
-      <c r="AA37" s="328"/>
-      <c r="AB37" s="328"/>
-      <c r="AC37" s="328"/>
-      <c r="AD37" s="328"/>
-      <c r="AE37" s="328"/>
-      <c r="AF37" s="328"/>
-      <c r="AG37" s="328"/>
-      <c r="AH37" s="329"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="309"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="310"/>
+      <c r="K37" s="311"/>
+      <c r="L37" s="312"/>
+      <c r="M37" s="331"/>
+      <c r="N37" s="332"/>
+      <c r="O37" s="332"/>
+      <c r="P37" s="332"/>
+      <c r="Q37" s="332"/>
+      <c r="R37" s="332"/>
+      <c r="S37" s="332"/>
+      <c r="T37" s="332"/>
+      <c r="U37" s="332"/>
+      <c r="V37" s="332"/>
+      <c r="W37" s="332"/>
+      <c r="X37" s="332"/>
+      <c r="Y37" s="332"/>
+      <c r="Z37" s="332"/>
+      <c r="AA37" s="332"/>
+      <c r="AB37" s="332"/>
+      <c r="AC37" s="332"/>
+      <c r="AD37" s="332"/>
+      <c r="AE37" s="332"/>
+      <c r="AF37" s="332"/>
+      <c r="AG37" s="332"/>
+      <c r="AH37" s="333"/>
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="305" t="s">
+      <c r="E38" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="306"/>
-      <c r="G38" s="306"/>
-      <c r="H38" s="306"/>
-      <c r="I38" s="306"/>
-      <c r="J38" s="307"/>
-      <c r="K38" s="311" t="s">
+      <c r="F38" s="314"/>
+      <c r="G38" s="314"/>
+      <c r="H38" s="314"/>
+      <c r="I38" s="314"/>
+      <c r="J38" s="315"/>
+      <c r="K38" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="312"/>
-      <c r="M38" s="285" t="s">
+      <c r="L38" s="323"/>
+      <c r="M38" s="277" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="286"/>
-      <c r="O38" s="286"/>
-      <c r="P38" s="286"/>
-      <c r="Q38" s="286"/>
-      <c r="R38" s="286"/>
-      <c r="S38" s="286"/>
-      <c r="T38" s="286"/>
-      <c r="U38" s="286"/>
-      <c r="V38" s="286"/>
-      <c r="W38" s="286"/>
-      <c r="X38" s="286"/>
-      <c r="Y38" s="286"/>
-      <c r="Z38" s="286"/>
-      <c r="AA38" s="286"/>
-      <c r="AB38" s="286"/>
-      <c r="AC38" s="286"/>
-      <c r="AD38" s="286"/>
-      <c r="AE38" s="286"/>
-      <c r="AF38" s="286"/>
-      <c r="AG38" s="286"/>
-      <c r="AH38" s="287"/>
+      <c r="N38" s="278"/>
+      <c r="O38" s="278"/>
+      <c r="P38" s="278"/>
+      <c r="Q38" s="278"/>
+      <c r="R38" s="278"/>
+      <c r="S38" s="278"/>
+      <c r="T38" s="278"/>
+      <c r="U38" s="278"/>
+      <c r="V38" s="278"/>
+      <c r="W38" s="278"/>
+      <c r="X38" s="278"/>
+      <c r="Y38" s="278"/>
+      <c r="Z38" s="278"/>
+      <c r="AA38" s="278"/>
+      <c r="AB38" s="278"/>
+      <c r="AC38" s="278"/>
+      <c r="AD38" s="278"/>
+      <c r="AE38" s="278"/>
+      <c r="AF38" s="278"/>
+      <c r="AG38" s="278"/>
+      <c r="AH38" s="279"/>
     </row>
     <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="331"/>
-      <c r="F39" s="332"/>
-      <c r="G39" s="332"/>
-      <c r="H39" s="332"/>
-      <c r="I39" s="332"/>
-      <c r="J39" s="333"/>
-      <c r="K39" s="334"/>
-      <c r="L39" s="335"/>
-      <c r="M39" s="288"/>
-      <c r="N39" s="289"/>
-      <c r="O39" s="289"/>
-      <c r="P39" s="289"/>
-      <c r="Q39" s="289"/>
-      <c r="R39" s="289"/>
-      <c r="S39" s="289"/>
-      <c r="T39" s="289"/>
-      <c r="U39" s="289"/>
-      <c r="V39" s="289"/>
-      <c r="W39" s="289"/>
-      <c r="X39" s="289"/>
-      <c r="Y39" s="289"/>
-      <c r="Z39" s="289"/>
-      <c r="AA39" s="289"/>
-      <c r="AB39" s="289"/>
-      <c r="AC39" s="289"/>
-      <c r="AD39" s="289"/>
-      <c r="AE39" s="289"/>
-      <c r="AF39" s="289"/>
-      <c r="AG39" s="289"/>
-      <c r="AH39" s="290"/>
+      <c r="E39" s="316"/>
+      <c r="F39" s="317"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="317"/>
+      <c r="J39" s="318"/>
+      <c r="K39" s="324"/>
+      <c r="L39" s="325"/>
+      <c r="M39" s="265"/>
+      <c r="N39" s="266"/>
+      <c r="O39" s="266"/>
+      <c r="P39" s="266"/>
+      <c r="Q39" s="266"/>
+      <c r="R39" s="266"/>
+      <c r="S39" s="266"/>
+      <c r="T39" s="266"/>
+      <c r="U39" s="266"/>
+      <c r="V39" s="266"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="266"/>
+      <c r="Z39" s="266"/>
+      <c r="AA39" s="266"/>
+      <c r="AB39" s="266"/>
+      <c r="AC39" s="266"/>
+      <c r="AD39" s="266"/>
+      <c r="AE39" s="266"/>
+      <c r="AF39" s="266"/>
+      <c r="AG39" s="266"/>
+      <c r="AH39" s="267"/>
     </row>
     <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="331"/>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
-      <c r="J40" s="333"/>
-      <c r="K40" s="334"/>
-      <c r="L40" s="335"/>
-      <c r="M40" s="288"/>
-      <c r="N40" s="289"/>
-      <c r="O40" s="289"/>
-      <c r="P40" s="289"/>
-      <c r="Q40" s="289"/>
-      <c r="R40" s="289"/>
-      <c r="S40" s="289"/>
-      <c r="T40" s="289"/>
-      <c r="U40" s="289"/>
-      <c r="V40" s="289"/>
-      <c r="W40" s="289"/>
-      <c r="X40" s="289"/>
-      <c r="Y40" s="289"/>
-      <c r="Z40" s="289"/>
-      <c r="AA40" s="289"/>
-      <c r="AB40" s="289"/>
-      <c r="AC40" s="289"/>
-      <c r="AD40" s="289"/>
-      <c r="AE40" s="289"/>
-      <c r="AF40" s="289"/>
-      <c r="AG40" s="289"/>
-      <c r="AH40" s="290"/>
+      <c r="E40" s="316"/>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="317"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="324"/>
+      <c r="L40" s="325"/>
+      <c r="M40" s="265"/>
+      <c r="N40" s="266"/>
+      <c r="O40" s="266"/>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="266"/>
+      <c r="T40" s="266"/>
+      <c r="U40" s="266"/>
+      <c r="V40" s="266"/>
+      <c r="W40" s="266"/>
+      <c r="X40" s="266"/>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266"/>
+      <c r="AB40" s="266"/>
+      <c r="AC40" s="266"/>
+      <c r="AD40" s="266"/>
+      <c r="AE40" s="266"/>
+      <c r="AF40" s="266"/>
+      <c r="AG40" s="266"/>
+      <c r="AH40" s="267"/>
     </row>
     <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="308"/>
-      <c r="F41" s="309"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="309"/>
-      <c r="I41" s="309"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="313"/>
-      <c r="L41" s="314"/>
-      <c r="M41" s="291"/>
-      <c r="N41" s="292"/>
-      <c r="O41" s="292"/>
-      <c r="P41" s="292"/>
-      <c r="Q41" s="292"/>
-      <c r="R41" s="292"/>
-      <c r="S41" s="292"/>
-      <c r="T41" s="292"/>
-      <c r="U41" s="292"/>
-      <c r="V41" s="292"/>
-      <c r="W41" s="292"/>
-      <c r="X41" s="292"/>
-      <c r="Y41" s="292"/>
-      <c r="Z41" s="292"/>
-      <c r="AA41" s="292"/>
-      <c r="AB41" s="292"/>
-      <c r="AC41" s="292"/>
-      <c r="AD41" s="292"/>
-      <c r="AE41" s="292"/>
-      <c r="AF41" s="292"/>
-      <c r="AG41" s="292"/>
-      <c r="AH41" s="293"/>
+      <c r="E41" s="319"/>
+      <c r="F41" s="320"/>
+      <c r="G41" s="320"/>
+      <c r="H41" s="320"/>
+      <c r="I41" s="320"/>
+      <c r="J41" s="321"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="327"/>
+      <c r="M41" s="280"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="281"/>
+      <c r="Q41" s="281"/>
+      <c r="R41" s="281"/>
+      <c r="S41" s="281"/>
+      <c r="T41" s="281"/>
+      <c r="U41" s="281"/>
+      <c r="V41" s="281"/>
+      <c r="W41" s="281"/>
+      <c r="X41" s="281"/>
+      <c r="Y41" s="281"/>
+      <c r="Z41" s="281"/>
+      <c r="AA41" s="281"/>
+      <c r="AB41" s="281"/>
+      <c r="AC41" s="281"/>
+      <c r="AD41" s="281"/>
+      <c r="AE41" s="281"/>
+      <c r="AF41" s="281"/>
+      <c r="AG41" s="281"/>
+      <c r="AH41" s="282"/>
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="305" t="s">
+      <c r="E42" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="306"/>
-      <c r="G42" s="306"/>
-      <c r="H42" s="306"/>
-      <c r="I42" s="306"/>
-      <c r="J42" s="307"/>
-      <c r="K42" s="311" t="s">
+      <c r="F42" s="314"/>
+      <c r="G42" s="314"/>
+      <c r="H42" s="314"/>
+      <c r="I42" s="314"/>
+      <c r="J42" s="315"/>
+      <c r="K42" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="L42" s="312"/>
-      <c r="M42" s="315" t="s">
+      <c r="L42" s="323"/>
+      <c r="M42" s="335" t="s">
         <v>200</v>
       </c>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
-      <c r="X42" s="286"/>
-      <c r="Y42" s="286"/>
-      <c r="Z42" s="286"/>
-      <c r="AA42" s="286"/>
-      <c r="AB42" s="286"/>
-      <c r="AC42" s="286"/>
-      <c r="AD42" s="286"/>
-      <c r="AE42" s="286"/>
-      <c r="AF42" s="286"/>
-      <c r="AG42" s="286"/>
-      <c r="AH42" s="287"/>
+      <c r="N42" s="278"/>
+      <c r="O42" s="278"/>
+      <c r="P42" s="278"/>
+      <c r="Q42" s="278"/>
+      <c r="R42" s="278"/>
+      <c r="S42" s="278"/>
+      <c r="T42" s="278"/>
+      <c r="U42" s="278"/>
+      <c r="V42" s="278"/>
+      <c r="W42" s="278"/>
+      <c r="X42" s="278"/>
+      <c r="Y42" s="278"/>
+      <c r="Z42" s="278"/>
+      <c r="AA42" s="278"/>
+      <c r="AB42" s="278"/>
+      <c r="AC42" s="278"/>
+      <c r="AD42" s="278"/>
+      <c r="AE42" s="278"/>
+      <c r="AF42" s="278"/>
+      <c r="AG42" s="278"/>
+      <c r="AH42" s="279"/>
     </row>
     <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="308"/>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="310"/>
-      <c r="K43" s="313"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="292"/>
-      <c r="O43" s="292"/>
-      <c r="P43" s="292"/>
-      <c r="Q43" s="292"/>
-      <c r="R43" s="292"/>
-      <c r="S43" s="292"/>
-      <c r="T43" s="292"/>
-      <c r="U43" s="292"/>
-      <c r="V43" s="292"/>
-      <c r="W43" s="292"/>
-      <c r="X43" s="292"/>
-      <c r="Y43" s="292"/>
-      <c r="Z43" s="292"/>
-      <c r="AA43" s="292"/>
-      <c r="AB43" s="292"/>
-      <c r="AC43" s="292"/>
-      <c r="AD43" s="292"/>
-      <c r="AE43" s="292"/>
-      <c r="AF43" s="292"/>
-      <c r="AG43" s="292"/>
-      <c r="AH43" s="293"/>
+      <c r="E43" s="319"/>
+      <c r="F43" s="320"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="320"/>
+      <c r="I43" s="320"/>
+      <c r="J43" s="321"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="327"/>
+      <c r="M43" s="280"/>
+      <c r="N43" s="281"/>
+      <c r="O43" s="281"/>
+      <c r="P43" s="281"/>
+      <c r="Q43" s="281"/>
+      <c r="R43" s="281"/>
+      <c r="S43" s="281"/>
+      <c r="T43" s="281"/>
+      <c r="U43" s="281"/>
+      <c r="V43" s="281"/>
+      <c r="W43" s="281"/>
+      <c r="X43" s="281"/>
+      <c r="Y43" s="281"/>
+      <c r="Z43" s="281"/>
+      <c r="AA43" s="281"/>
+      <c r="AB43" s="281"/>
+      <c r="AC43" s="281"/>
+      <c r="AD43" s="281"/>
+      <c r="AE43" s="281"/>
+      <c r="AF43" s="281"/>
+      <c r="AG43" s="281"/>
+      <c r="AH43" s="282"/>
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="305" t="s">
+      <c r="E44" s="313" t="s">
         <v>232</v>
       </c>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
-      <c r="H44" s="306"/>
-      <c r="I44" s="306"/>
-      <c r="J44" s="307"/>
-      <c r="K44" s="311" t="s">
+      <c r="F44" s="314"/>
+      <c r="G44" s="314"/>
+      <c r="H44" s="314"/>
+      <c r="I44" s="314"/>
+      <c r="J44" s="315"/>
+      <c r="K44" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="L44" s="312"/>
-      <c r="M44" s="315" t="s">
+      <c r="L44" s="323"/>
+      <c r="M44" s="335" t="s">
         <v>201</v>
       </c>
-      <c r="N44" s="286"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="286"/>
-      <c r="Q44" s="286"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="286"/>
-      <c r="T44" s="286"/>
-      <c r="U44" s="286"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="286"/>
-      <c r="X44" s="286"/>
-      <c r="Y44" s="286"/>
-      <c r="Z44" s="286"/>
-      <c r="AA44" s="286"/>
-      <c r="AB44" s="286"/>
-      <c r="AC44" s="286"/>
-      <c r="AD44" s="286"/>
-      <c r="AE44" s="286"/>
-      <c r="AF44" s="286"/>
-      <c r="AG44" s="286"/>
-      <c r="AH44" s="287"/>
+      <c r="N44" s="278"/>
+      <c r="O44" s="278"/>
+      <c r="P44" s="278"/>
+      <c r="Q44" s="278"/>
+      <c r="R44" s="278"/>
+      <c r="S44" s="278"/>
+      <c r="T44" s="278"/>
+      <c r="U44" s="278"/>
+      <c r="V44" s="278"/>
+      <c r="W44" s="278"/>
+      <c r="X44" s="278"/>
+      <c r="Y44" s="278"/>
+      <c r="Z44" s="278"/>
+      <c r="AA44" s="278"/>
+      <c r="AB44" s="278"/>
+      <c r="AC44" s="278"/>
+      <c r="AD44" s="278"/>
+      <c r="AE44" s="278"/>
+      <c r="AF44" s="278"/>
+      <c r="AG44" s="278"/>
+      <c r="AH44" s="279"/>
     </row>
     <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="308"/>
-      <c r="F45" s="309"/>
-      <c r="G45" s="309"/>
-      <c r="H45" s="309"/>
-      <c r="I45" s="309"/>
-      <c r="J45" s="310"/>
-      <c r="K45" s="313"/>
-      <c r="L45" s="314"/>
-      <c r="M45" s="291"/>
-      <c r="N45" s="292"/>
-      <c r="O45" s="292"/>
-      <c r="P45" s="292"/>
-      <c r="Q45" s="292"/>
-      <c r="R45" s="292"/>
-      <c r="S45" s="292"/>
-      <c r="T45" s="292"/>
-      <c r="U45" s="292"/>
-      <c r="V45" s="292"/>
-      <c r="W45" s="292"/>
-      <c r="X45" s="292"/>
-      <c r="Y45" s="292"/>
-      <c r="Z45" s="292"/>
-      <c r="AA45" s="292"/>
-      <c r="AB45" s="292"/>
-      <c r="AC45" s="292"/>
-      <c r="AD45" s="292"/>
-      <c r="AE45" s="292"/>
-      <c r="AF45" s="292"/>
-      <c r="AG45" s="292"/>
-      <c r="AH45" s="293"/>
+      <c r="E45" s="319"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="320"/>
+      <c r="I45" s="320"/>
+      <c r="J45" s="321"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="327"/>
+      <c r="M45" s="280"/>
+      <c r="N45" s="281"/>
+      <c r="O45" s="281"/>
+      <c r="P45" s="281"/>
+      <c r="Q45" s="281"/>
+      <c r="R45" s="281"/>
+      <c r="S45" s="281"/>
+      <c r="T45" s="281"/>
+      <c r="U45" s="281"/>
+      <c r="V45" s="281"/>
+      <c r="W45" s="281"/>
+      <c r="X45" s="281"/>
+      <c r="Y45" s="281"/>
+      <c r="Z45" s="281"/>
+      <c r="AA45" s="281"/>
+      <c r="AB45" s="281"/>
+      <c r="AC45" s="281"/>
+      <c r="AD45" s="281"/>
+      <c r="AE45" s="281"/>
+      <c r="AF45" s="281"/>
+      <c r="AG45" s="281"/>
+      <c r="AH45" s="282"/>
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="330" t="s">
+      <c r="E46" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="306"/>
-      <c r="G46" s="306"/>
-      <c r="H46" s="306"/>
-      <c r="I46" s="306"/>
-      <c r="J46" s="307"/>
-      <c r="K46" s="311" t="s">
+      <c r="F46" s="314"/>
+      <c r="G46" s="314"/>
+      <c r="H46" s="314"/>
+      <c r="I46" s="314"/>
+      <c r="J46" s="315"/>
+      <c r="K46" s="322" t="s">
         <v>68</v>
       </c>
-      <c r="L46" s="312"/>
-      <c r="M46" s="285" t="s">
+      <c r="L46" s="323"/>
+      <c r="M46" s="277" t="s">
         <v>131</v>
       </c>
-      <c r="N46" s="286"/>
-      <c r="O46" s="286"/>
-      <c r="P46" s="286"/>
-      <c r="Q46" s="286"/>
-      <c r="R46" s="286"/>
-      <c r="S46" s="286"/>
-      <c r="T46" s="286"/>
-      <c r="U46" s="286"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="286"/>
-      <c r="X46" s="286"/>
-      <c r="Y46" s="286"/>
-      <c r="Z46" s="286"/>
-      <c r="AA46" s="286"/>
-      <c r="AB46" s="286"/>
-      <c r="AC46" s="286"/>
-      <c r="AD46" s="286"/>
-      <c r="AE46" s="286"/>
-      <c r="AF46" s="286"/>
-      <c r="AG46" s="286"/>
-      <c r="AH46" s="287"/>
+      <c r="N46" s="278"/>
+      <c r="O46" s="278"/>
+      <c r="P46" s="278"/>
+      <c r="Q46" s="278"/>
+      <c r="R46" s="278"/>
+      <c r="S46" s="278"/>
+      <c r="T46" s="278"/>
+      <c r="U46" s="278"/>
+      <c r="V46" s="278"/>
+      <c r="W46" s="278"/>
+      <c r="X46" s="278"/>
+      <c r="Y46" s="278"/>
+      <c r="Z46" s="278"/>
+      <c r="AA46" s="278"/>
+      <c r="AB46" s="278"/>
+      <c r="AC46" s="278"/>
+      <c r="AD46" s="278"/>
+      <c r="AE46" s="278"/>
+      <c r="AF46" s="278"/>
+      <c r="AG46" s="278"/>
+      <c r="AH46" s="279"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="331"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
-      <c r="H47" s="332"/>
-      <c r="I47" s="332"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="335"/>
-      <c r="M47" s="288"/>
-      <c r="N47" s="289"/>
-      <c r="O47" s="289"/>
-      <c r="P47" s="289"/>
-      <c r="Q47" s="289"/>
-      <c r="R47" s="289"/>
-      <c r="S47" s="289"/>
-      <c r="T47" s="289"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="289"/>
-      <c r="W47" s="289"/>
-      <c r="X47" s="289"/>
-      <c r="Y47" s="289"/>
-      <c r="Z47" s="289"/>
-      <c r="AA47" s="289"/>
-      <c r="AB47" s="289"/>
-      <c r="AC47" s="289"/>
-      <c r="AD47" s="289"/>
-      <c r="AE47" s="289"/>
-      <c r="AF47" s="289"/>
-      <c r="AG47" s="289"/>
-      <c r="AH47" s="290"/>
+      <c r="E47" s="316"/>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="317"/>
+      <c r="I47" s="317"/>
+      <c r="J47" s="318"/>
+      <c r="K47" s="324"/>
+      <c r="L47" s="325"/>
+      <c r="M47" s="265"/>
+      <c r="N47" s="266"/>
+      <c r="O47" s="266"/>
+      <c r="P47" s="266"/>
+      <c r="Q47" s="266"/>
+      <c r="R47" s="266"/>
+      <c r="S47" s="266"/>
+      <c r="T47" s="266"/>
+      <c r="U47" s="266"/>
+      <c r="V47" s="266"/>
+      <c r="W47" s="266"/>
+      <c r="X47" s="266"/>
+      <c r="Y47" s="266"/>
+      <c r="Z47" s="266"/>
+      <c r="AA47" s="266"/>
+      <c r="AB47" s="266"/>
+      <c r="AC47" s="266"/>
+      <c r="AD47" s="266"/>
+      <c r="AE47" s="266"/>
+      <c r="AF47" s="266"/>
+      <c r="AG47" s="266"/>
+      <c r="AH47" s="267"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="308"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="309"/>
-      <c r="H48" s="309"/>
-      <c r="I48" s="309"/>
-      <c r="J48" s="310"/>
-      <c r="K48" s="313"/>
-      <c r="L48" s="314"/>
-      <c r="M48" s="291"/>
-      <c r="N48" s="292"/>
-      <c r="O48" s="292"/>
-      <c r="P48" s="292"/>
-      <c r="Q48" s="292"/>
-      <c r="R48" s="292"/>
-      <c r="S48" s="292"/>
-      <c r="T48" s="292"/>
-      <c r="U48" s="292"/>
-      <c r="V48" s="292"/>
-      <c r="W48" s="292"/>
-      <c r="X48" s="292"/>
-      <c r="Y48" s="292"/>
-      <c r="Z48" s="292"/>
-      <c r="AA48" s="292"/>
-      <c r="AB48" s="292"/>
-      <c r="AC48" s="292"/>
-      <c r="AD48" s="292"/>
-      <c r="AE48" s="292"/>
-      <c r="AF48" s="292"/>
-      <c r="AG48" s="292"/>
-      <c r="AH48" s="293"/>
+      <c r="E48" s="319"/>
+      <c r="F48" s="320"/>
+      <c r="G48" s="320"/>
+      <c r="H48" s="320"/>
+      <c r="I48" s="320"/>
+      <c r="J48" s="321"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="327"/>
+      <c r="M48" s="280"/>
+      <c r="N48" s="281"/>
+      <c r="O48" s="281"/>
+      <c r="P48" s="281"/>
+      <c r="Q48" s="281"/>
+      <c r="R48" s="281"/>
+      <c r="S48" s="281"/>
+      <c r="T48" s="281"/>
+      <c r="U48" s="281"/>
+      <c r="V48" s="281"/>
+      <c r="W48" s="281"/>
+      <c r="X48" s="281"/>
+      <c r="Y48" s="281"/>
+      <c r="Z48" s="281"/>
+      <c r="AA48" s="281"/>
+      <c r="AB48" s="281"/>
+      <c r="AC48" s="281"/>
+      <c r="AD48" s="281"/>
+      <c r="AE48" s="281"/>
+      <c r="AF48" s="281"/>
+      <c r="AG48" s="281"/>
+      <c r="AH48" s="282"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="305" t="s">
+      <c r="E49" s="313" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="306"/>
-      <c r="G49" s="306"/>
-      <c r="H49" s="306"/>
-      <c r="I49" s="306"/>
-      <c r="J49" s="307"/>
-      <c r="K49" s="311" t="s">
+      <c r="F49" s="314"/>
+      <c r="G49" s="314"/>
+      <c r="H49" s="314"/>
+      <c r="I49" s="314"/>
+      <c r="J49" s="315"/>
+      <c r="K49" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="L49" s="312"/>
+      <c r="L49" s="323"/>
       <c r="M49" s="61" t="s">
         <v>19</v>
       </c>
@@ -15503,14 +15592,14 @@
       <c r="AH49" s="62"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="331"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
-      <c r="J50" s="333"/>
-      <c r="K50" s="334"/>
-      <c r="L50" s="335"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="317"/>
+      <c r="G50" s="317"/>
+      <c r="H50" s="317"/>
+      <c r="I50" s="317"/>
+      <c r="J50" s="318"/>
+      <c r="K50" s="324"/>
+      <c r="L50" s="325"/>
       <c r="M50" s="61" t="s">
         <v>56</v>
       </c>
@@ -15537,14 +15626,14 @@
       <c r="AH50" s="62"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="331"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="333"/>
-      <c r="K51" s="334"/>
-      <c r="L51" s="335"/>
+      <c r="E51" s="316"/>
+      <c r="F51" s="317"/>
+      <c r="G51" s="317"/>
+      <c r="H51" s="317"/>
+      <c r="I51" s="317"/>
+      <c r="J51" s="318"/>
+      <c r="K51" s="324"/>
+      <c r="L51" s="325"/>
       <c r="M51" s="61" t="s">
         <v>20</v>
       </c>
@@ -15571,14 +15660,14 @@
       <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="331"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="333"/>
-      <c r="K52" s="334"/>
-      <c r="L52" s="335"/>
+      <c r="E52" s="316"/>
+      <c r="F52" s="317"/>
+      <c r="G52" s="317"/>
+      <c r="H52" s="317"/>
+      <c r="I52" s="317"/>
+      <c r="J52" s="318"/>
+      <c r="K52" s="324"/>
+      <c r="L52" s="325"/>
       <c r="M52" s="61" t="s">
         <v>54</v>
       </c>
@@ -15593,14 +15682,14 @@
       <c r="AH52" s="62"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="331"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
-      <c r="H53" s="332"/>
-      <c r="I53" s="332"/>
-      <c r="J53" s="333"/>
-      <c r="K53" s="334"/>
-      <c r="L53" s="335"/>
+      <c r="E53" s="316"/>
+      <c r="F53" s="317"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
+      <c r="I53" s="317"/>
+      <c r="J53" s="318"/>
+      <c r="K53" s="324"/>
+      <c r="L53" s="325"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
         <v>55</v>
@@ -15616,14 +15705,14 @@
       <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="331"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
-      <c r="J54" s="333"/>
-      <c r="K54" s="334"/>
-      <c r="L54" s="335"/>
+      <c r="E54" s="316"/>
+      <c r="F54" s="317"/>
+      <c r="G54" s="317"/>
+      <c r="H54" s="317"/>
+      <c r="I54" s="317"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="325"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
         <v>69</v>
@@ -15650,14 +15739,14 @@
       <c r="AH54" s="62"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="331"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="332"/>
-      <c r="I55" s="332"/>
-      <c r="J55" s="333"/>
-      <c r="K55" s="334"/>
-      <c r="L55" s="335"/>
+      <c r="E55" s="316"/>
+      <c r="F55" s="317"/>
+      <c r="G55" s="317"/>
+      <c r="H55" s="317"/>
+      <c r="I55" s="317"/>
+      <c r="J55" s="318"/>
+      <c r="K55" s="324"/>
+      <c r="L55" s="325"/>
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
@@ -15684,14 +15773,14 @@
       <c r="AH55" s="62"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="331"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
-      <c r="H56" s="332"/>
-      <c r="I56" s="332"/>
-      <c r="J56" s="333"/>
-      <c r="K56" s="334"/>
-      <c r="L56" s="335"/>
+      <c r="E56" s="316"/>
+      <c r="F56" s="317"/>
+      <c r="G56" s="317"/>
+      <c r="H56" s="317"/>
+      <c r="I56" s="317"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="324"/>
+      <c r="L56" s="325"/>
       <c r="M56" s="61"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
@@ -15718,14 +15807,14 @@
       <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="331"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="332"/>
-      <c r="J57" s="333"/>
-      <c r="K57" s="334"/>
-      <c r="L57" s="335"/>
+      <c r="E57" s="316"/>
+      <c r="F57" s="317"/>
+      <c r="G57" s="317"/>
+      <c r="H57" s="317"/>
+      <c r="I57" s="317"/>
+      <c r="J57" s="318"/>
+      <c r="K57" s="324"/>
+      <c r="L57" s="325"/>
       <c r="M57" s="61"/>
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
@@ -15752,14 +15841,14 @@
       <c r="AH57" s="62"/>
     </row>
     <row r="58" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="331"/>
-      <c r="F58" s="332"/>
-      <c r="G58" s="332"/>
-      <c r="H58" s="332"/>
-      <c r="I58" s="332"/>
-      <c r="J58" s="333"/>
-      <c r="K58" s="334"/>
-      <c r="L58" s="335"/>
+      <c r="E58" s="316"/>
+      <c r="F58" s="317"/>
+      <c r="G58" s="317"/>
+      <c r="H58" s="317"/>
+      <c r="I58" s="317"/>
+      <c r="J58" s="318"/>
+      <c r="K58" s="324"/>
+      <c r="L58" s="325"/>
       <c r="M58" s="61"/>
       <c r="N58" s="19" t="s">
         <v>57</v>
@@ -15784,14 +15873,14 @@
       <c r="AH58" s="62"/>
     </row>
     <row r="59" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="331"/>
-      <c r="F59" s="332"/>
-      <c r="G59" s="332"/>
-      <c r="H59" s="332"/>
-      <c r="I59" s="332"/>
-      <c r="J59" s="333"/>
-      <c r="K59" s="334"/>
-      <c r="L59" s="335"/>
+      <c r="E59" s="316"/>
+      <c r="F59" s="317"/>
+      <c r="G59" s="317"/>
+      <c r="H59" s="317"/>
+      <c r="I59" s="317"/>
+      <c r="J59" s="318"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="325"/>
       <c r="M59" s="61"/>
       <c r="N59" s="19" t="s">
         <v>58</v>
@@ -15818,14 +15907,14 @@
       <c r="AH59" s="62"/>
     </row>
     <row r="60" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="331"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="332"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="332"/>
-      <c r="J60" s="333"/>
-      <c r="K60" s="334"/>
-      <c r="L60" s="335"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="317"/>
+      <c r="G60" s="317"/>
+      <c r="H60" s="317"/>
+      <c r="I60" s="317"/>
+      <c r="J60" s="318"/>
+      <c r="K60" s="324"/>
+      <c r="L60" s="325"/>
       <c r="M60" s="61"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
@@ -15852,14 +15941,14 @@
       <c r="AH60" s="62"/>
     </row>
     <row r="61" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="331"/>
-      <c r="F61" s="332"/>
-      <c r="G61" s="332"/>
-      <c r="H61" s="332"/>
-      <c r="I61" s="332"/>
-      <c r="J61" s="333"/>
-      <c r="K61" s="334"/>
-      <c r="L61" s="335"/>
+      <c r="E61" s="316"/>
+      <c r="F61" s="317"/>
+      <c r="G61" s="317"/>
+      <c r="H61" s="317"/>
+      <c r="I61" s="317"/>
+      <c r="J61" s="318"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="325"/>
       <c r="M61" s="61"/>
       <c r="N61" s="19"/>
       <c r="O61" s="19" t="s">
@@ -15886,14 +15975,14 @@
       <c r="AH61" s="62"/>
     </row>
     <row r="62" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="308"/>
-      <c r="F62" s="309"/>
-      <c r="G62" s="309"/>
-      <c r="H62" s="309"/>
-      <c r="I62" s="309"/>
-      <c r="J62" s="310"/>
-      <c r="K62" s="313"/>
-      <c r="L62" s="314"/>
+      <c r="E62" s="319"/>
+      <c r="F62" s="320"/>
+      <c r="G62" s="320"/>
+      <c r="H62" s="320"/>
+      <c r="I62" s="320"/>
+      <c r="J62" s="321"/>
+      <c r="K62" s="326"/>
+      <c r="L62" s="327"/>
       <c r="M62" s="61"/>
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
@@ -15920,144 +16009,144 @@
       <c r="AH62" s="62"/>
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="316" t="s">
+      <c r="E63" s="305" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="317"/>
-      <c r="G63" s="317"/>
-      <c r="H63" s="317"/>
-      <c r="I63" s="317"/>
-      <c r="J63" s="318"/>
-      <c r="K63" s="316" t="s">
+      <c r="F63" s="306"/>
+      <c r="G63" s="306"/>
+      <c r="H63" s="306"/>
+      <c r="I63" s="306"/>
+      <c r="J63" s="307"/>
+      <c r="K63" s="305" t="s">
         <v>154</v>
       </c>
-      <c r="L63" s="318"/>
-      <c r="M63" s="219" t="s">
+      <c r="L63" s="307"/>
+      <c r="M63" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="N63" s="325"/>
-      <c r="O63" s="325"/>
-      <c r="P63" s="325"/>
-      <c r="Q63" s="325"/>
-      <c r="R63" s="325"/>
-      <c r="S63" s="325"/>
-      <c r="T63" s="325"/>
-      <c r="U63" s="325"/>
-      <c r="V63" s="325"/>
-      <c r="W63" s="325"/>
-      <c r="X63" s="325"/>
-      <c r="Y63" s="325"/>
-      <c r="Z63" s="325"/>
-      <c r="AA63" s="325"/>
-      <c r="AB63" s="325"/>
-      <c r="AC63" s="325"/>
-      <c r="AD63" s="325"/>
-      <c r="AE63" s="325"/>
-      <c r="AF63" s="325"/>
-      <c r="AG63" s="325"/>
-      <c r="AH63" s="326"/>
+      <c r="N63" s="329"/>
+      <c r="O63" s="329"/>
+      <c r="P63" s="329"/>
+      <c r="Q63" s="329"/>
+      <c r="R63" s="329"/>
+      <c r="S63" s="329"/>
+      <c r="T63" s="329"/>
+      <c r="U63" s="329"/>
+      <c r="V63" s="329"/>
+      <c r="W63" s="329"/>
+      <c r="X63" s="329"/>
+      <c r="Y63" s="329"/>
+      <c r="Z63" s="329"/>
+      <c r="AA63" s="329"/>
+      <c r="AB63" s="329"/>
+      <c r="AC63" s="329"/>
+      <c r="AD63" s="329"/>
+      <c r="AE63" s="329"/>
+      <c r="AF63" s="329"/>
+      <c r="AG63" s="329"/>
+      <c r="AH63" s="330"/>
     </row>
     <row r="64" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="319"/>
-      <c r="F64" s="320"/>
-      <c r="G64" s="320"/>
-      <c r="H64" s="320"/>
-      <c r="I64" s="320"/>
-      <c r="J64" s="321"/>
-      <c r="K64" s="319"/>
-      <c r="L64" s="321"/>
-      <c r="M64" s="327"/>
-      <c r="N64" s="328"/>
-      <c r="O64" s="328"/>
-      <c r="P64" s="328"/>
-      <c r="Q64" s="328"/>
-      <c r="R64" s="328"/>
-      <c r="S64" s="328"/>
-      <c r="T64" s="328"/>
-      <c r="U64" s="328"/>
-      <c r="V64" s="328"/>
-      <c r="W64" s="328"/>
-      <c r="X64" s="328"/>
-      <c r="Y64" s="328"/>
-      <c r="Z64" s="328"/>
-      <c r="AA64" s="328"/>
-      <c r="AB64" s="328"/>
-      <c r="AC64" s="328"/>
-      <c r="AD64" s="328"/>
-      <c r="AE64" s="328"/>
-      <c r="AF64" s="328"/>
-      <c r="AG64" s="328"/>
-      <c r="AH64" s="329"/>
+      <c r="E64" s="308"/>
+      <c r="F64" s="309"/>
+      <c r="G64" s="309"/>
+      <c r="H64" s="309"/>
+      <c r="I64" s="309"/>
+      <c r="J64" s="310"/>
+      <c r="K64" s="308"/>
+      <c r="L64" s="310"/>
+      <c r="M64" s="331"/>
+      <c r="N64" s="332"/>
+      <c r="O64" s="332"/>
+      <c r="P64" s="332"/>
+      <c r="Q64" s="332"/>
+      <c r="R64" s="332"/>
+      <c r="S64" s="332"/>
+      <c r="T64" s="332"/>
+      <c r="U64" s="332"/>
+      <c r="V64" s="332"/>
+      <c r="W64" s="332"/>
+      <c r="X64" s="332"/>
+      <c r="Y64" s="332"/>
+      <c r="Z64" s="332"/>
+      <c r="AA64" s="332"/>
+      <c r="AB64" s="332"/>
+      <c r="AC64" s="332"/>
+      <c r="AD64" s="332"/>
+      <c r="AE64" s="332"/>
+      <c r="AF64" s="332"/>
+      <c r="AG64" s="332"/>
+      <c r="AH64" s="333"/>
     </row>
     <row r="65" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="285" t="s">
+      <c r="E65" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="286"/>
-      <c r="G65" s="286"/>
-      <c r="H65" s="286"/>
-      <c r="I65" s="286"/>
-      <c r="J65" s="287"/>
-      <c r="K65" s="330" t="s">
+      <c r="F65" s="278"/>
+      <c r="G65" s="278"/>
+      <c r="H65" s="278"/>
+      <c r="I65" s="278"/>
+      <c r="J65" s="279"/>
+      <c r="K65" s="328" t="s">
         <v>154</v>
       </c>
-      <c r="L65" s="307"/>
-      <c r="M65" s="305" t="s">
+      <c r="L65" s="315"/>
+      <c r="M65" s="313" t="s">
         <v>12</v>
       </c>
-      <c r="N65" s="306"/>
-      <c r="O65" s="306"/>
-      <c r="P65" s="306"/>
-      <c r="Q65" s="306"/>
-      <c r="R65" s="306"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="306"/>
-      <c r="V65" s="306"/>
-      <c r="W65" s="306"/>
-      <c r="X65" s="306"/>
-      <c r="Y65" s="306"/>
-      <c r="Z65" s="306"/>
-      <c r="AA65" s="306"/>
-      <c r="AB65" s="306"/>
-      <c r="AC65" s="306"/>
-      <c r="AD65" s="306"/>
-      <c r="AE65" s="306"/>
-      <c r="AF65" s="306"/>
-      <c r="AG65" s="306"/>
-      <c r="AH65" s="307"/>
+      <c r="N65" s="314"/>
+      <c r="O65" s="314"/>
+      <c r="P65" s="314"/>
+      <c r="Q65" s="314"/>
+      <c r="R65" s="314"/>
+      <c r="S65" s="314"/>
+      <c r="T65" s="314"/>
+      <c r="U65" s="314"/>
+      <c r="V65" s="314"/>
+      <c r="W65" s="314"/>
+      <c r="X65" s="314"/>
+      <c r="Y65" s="314"/>
+      <c r="Z65" s="314"/>
+      <c r="AA65" s="314"/>
+      <c r="AB65" s="314"/>
+      <c r="AC65" s="314"/>
+      <c r="AD65" s="314"/>
+      <c r="AE65" s="314"/>
+      <c r="AF65" s="314"/>
+      <c r="AG65" s="314"/>
+      <c r="AH65" s="315"/>
     </row>
     <row r="66" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="291"/>
-      <c r="F66" s="292"/>
-      <c r="G66" s="292"/>
-      <c r="H66" s="292"/>
-      <c r="I66" s="292"/>
-      <c r="J66" s="293"/>
-      <c r="K66" s="308"/>
-      <c r="L66" s="310"/>
-      <c r="M66" s="308"/>
-      <c r="N66" s="309"/>
-      <c r="O66" s="309"/>
-      <c r="P66" s="309"/>
-      <c r="Q66" s="309"/>
-      <c r="R66" s="309"/>
-      <c r="S66" s="309"/>
-      <c r="T66" s="309"/>
-      <c r="U66" s="309"/>
-      <c r="V66" s="309"/>
-      <c r="W66" s="309"/>
-      <c r="X66" s="309"/>
-      <c r="Y66" s="309"/>
-      <c r="Z66" s="309"/>
-      <c r="AA66" s="309"/>
-      <c r="AB66" s="309"/>
-      <c r="AC66" s="309"/>
-      <c r="AD66" s="309"/>
-      <c r="AE66" s="309"/>
-      <c r="AF66" s="309"/>
-      <c r="AG66" s="309"/>
-      <c r="AH66" s="310"/>
+      <c r="E66" s="280"/>
+      <c r="F66" s="281"/>
+      <c r="G66" s="281"/>
+      <c r="H66" s="281"/>
+      <c r="I66" s="281"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="319"/>
+      <c r="L66" s="321"/>
+      <c r="M66" s="319"/>
+      <c r="N66" s="320"/>
+      <c r="O66" s="320"/>
+      <c r="P66" s="320"/>
+      <c r="Q66" s="320"/>
+      <c r="R66" s="320"/>
+      <c r="S66" s="320"/>
+      <c r="T66" s="320"/>
+      <c r="U66" s="320"/>
+      <c r="V66" s="320"/>
+      <c r="W66" s="320"/>
+      <c r="X66" s="320"/>
+      <c r="Y66" s="320"/>
+      <c r="Z66" s="320"/>
+      <c r="AA66" s="320"/>
+      <c r="AB66" s="320"/>
+      <c r="AC66" s="320"/>
+      <c r="AD66" s="320"/>
+      <c r="AE66" s="320"/>
+      <c r="AF66" s="320"/>
+      <c r="AG66" s="320"/>
+      <c r="AH66" s="321"/>
     </row>
     <row r="67" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="114"/>
@@ -16126,112 +16215,112 @@
       <c r="AH68" s="115"/>
     </row>
     <row r="69" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="298" t="s">
+      <c r="E69" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="299"/>
-      <c r="G69" s="299"/>
-      <c r="H69" s="299"/>
-      <c r="I69" s="299"/>
-      <c r="J69" s="300"/>
-      <c r="K69" s="298" t="s">
+      <c r="F69" s="285"/>
+      <c r="G69" s="285"/>
+      <c r="H69" s="285"/>
+      <c r="I69" s="285"/>
+      <c r="J69" s="286"/>
+      <c r="K69" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="L69" s="300"/>
-      <c r="M69" s="298" t="s">
+      <c r="L69" s="286"/>
+      <c r="M69" s="284" t="s">
         <v>60</v>
       </c>
-      <c r="N69" s="299"/>
-      <c r="O69" s="299"/>
-      <c r="P69" s="299"/>
-      <c r="Q69" s="299"/>
-      <c r="R69" s="299"/>
-      <c r="S69" s="299"/>
-      <c r="T69" s="299"/>
-      <c r="U69" s="299"/>
-      <c r="V69" s="299"/>
-      <c r="W69" s="299"/>
-      <c r="X69" s="299"/>
-      <c r="Y69" s="299"/>
-      <c r="Z69" s="299"/>
-      <c r="AA69" s="299"/>
-      <c r="AB69" s="299"/>
-      <c r="AC69" s="299"/>
-      <c r="AD69" s="299"/>
-      <c r="AE69" s="299"/>
-      <c r="AF69" s="299"/>
-      <c r="AG69" s="299"/>
-      <c r="AH69" s="300"/>
+      <c r="N69" s="285"/>
+      <c r="O69" s="285"/>
+      <c r="P69" s="285"/>
+      <c r="Q69" s="285"/>
+      <c r="R69" s="285"/>
+      <c r="S69" s="285"/>
+      <c r="T69" s="285"/>
+      <c r="U69" s="285"/>
+      <c r="V69" s="285"/>
+      <c r="W69" s="285"/>
+      <c r="X69" s="285"/>
+      <c r="Y69" s="285"/>
+      <c r="Z69" s="285"/>
+      <c r="AA69" s="285"/>
+      <c r="AB69" s="285"/>
+      <c r="AC69" s="285"/>
+      <c r="AD69" s="285"/>
+      <c r="AE69" s="285"/>
+      <c r="AF69" s="285"/>
+      <c r="AG69" s="285"/>
+      <c r="AH69" s="286"/>
     </row>
     <row r="70" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="316" t="s">
+      <c r="E70" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="317"/>
-      <c r="G70" s="317"/>
-      <c r="H70" s="317"/>
-      <c r="I70" s="317"/>
-      <c r="J70" s="318"/>
-      <c r="K70" s="193" t="s">
+      <c r="F70" s="306"/>
+      <c r="G70" s="306"/>
+      <c r="H70" s="306"/>
+      <c r="I70" s="306"/>
+      <c r="J70" s="307"/>
+      <c r="K70" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="194"/>
-      <c r="M70" s="324" t="s">
+      <c r="L70" s="129"/>
+      <c r="M70" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="N70" s="325"/>
-      <c r="O70" s="325"/>
-      <c r="P70" s="325"/>
-      <c r="Q70" s="325"/>
-      <c r="R70" s="325"/>
-      <c r="S70" s="325"/>
-      <c r="T70" s="325"/>
-      <c r="U70" s="325"/>
-      <c r="V70" s="325"/>
-      <c r="W70" s="325"/>
-      <c r="X70" s="325"/>
-      <c r="Y70" s="325"/>
-      <c r="Z70" s="325"/>
-      <c r="AA70" s="325"/>
-      <c r="AB70" s="325"/>
-      <c r="AC70" s="325"/>
-      <c r="AD70" s="325"/>
-      <c r="AE70" s="325"/>
-      <c r="AF70" s="325"/>
-      <c r="AG70" s="325"/>
-      <c r="AH70" s="326"/>
+      <c r="N70" s="329"/>
+      <c r="O70" s="329"/>
+      <c r="P70" s="329"/>
+      <c r="Q70" s="329"/>
+      <c r="R70" s="329"/>
+      <c r="S70" s="329"/>
+      <c r="T70" s="329"/>
+      <c r="U70" s="329"/>
+      <c r="V70" s="329"/>
+      <c r="W70" s="329"/>
+      <c r="X70" s="329"/>
+      <c r="Y70" s="329"/>
+      <c r="Z70" s="329"/>
+      <c r="AA70" s="329"/>
+      <c r="AB70" s="329"/>
+      <c r="AC70" s="329"/>
+      <c r="AD70" s="329"/>
+      <c r="AE70" s="329"/>
+      <c r="AF70" s="329"/>
+      <c r="AG70" s="329"/>
+      <c r="AH70" s="330"/>
     </row>
     <row r="71" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="319"/>
-      <c r="F71" s="320"/>
-      <c r="G71" s="320"/>
-      <c r="H71" s="320"/>
-      <c r="I71" s="320"/>
-      <c r="J71" s="321"/>
-      <c r="K71" s="322"/>
-      <c r="L71" s="323"/>
-      <c r="M71" s="327"/>
-      <c r="N71" s="328"/>
-      <c r="O71" s="328"/>
-      <c r="P71" s="328"/>
-      <c r="Q71" s="328"/>
-      <c r="R71" s="328"/>
-      <c r="S71" s="328"/>
-      <c r="T71" s="328"/>
-      <c r="U71" s="328"/>
-      <c r="V71" s="328"/>
-      <c r="W71" s="328"/>
-      <c r="X71" s="328"/>
-      <c r="Y71" s="328"/>
-      <c r="Z71" s="328"/>
-      <c r="AA71" s="328"/>
-      <c r="AB71" s="328"/>
-      <c r="AC71" s="328"/>
-      <c r="AD71" s="328"/>
-      <c r="AE71" s="328"/>
-      <c r="AF71" s="328"/>
-      <c r="AG71" s="328"/>
-      <c r="AH71" s="329"/>
+      <c r="E71" s="308"/>
+      <c r="F71" s="309"/>
+      <c r="G71" s="309"/>
+      <c r="H71" s="309"/>
+      <c r="I71" s="309"/>
+      <c r="J71" s="310"/>
+      <c r="K71" s="311"/>
+      <c r="L71" s="312"/>
+      <c r="M71" s="331"/>
+      <c r="N71" s="332"/>
+      <c r="O71" s="332"/>
+      <c r="P71" s="332"/>
+      <c r="Q71" s="332"/>
+      <c r="R71" s="332"/>
+      <c r="S71" s="332"/>
+      <c r="T71" s="332"/>
+      <c r="U71" s="332"/>
+      <c r="V71" s="332"/>
+      <c r="W71" s="332"/>
+      <c r="X71" s="332"/>
+      <c r="Y71" s="332"/>
+      <c r="Z71" s="332"/>
+      <c r="AA71" s="332"/>
+      <c r="AB71" s="332"/>
+      <c r="AC71" s="332"/>
+      <c r="AD71" s="332"/>
+      <c r="AE71" s="332"/>
+      <c r="AF71" s="332"/>
+      <c r="AG71" s="332"/>
+      <c r="AH71" s="333"/>
     </row>
     <row r="72" spans="4:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="114"/>
@@ -16630,30 +16719,34 @@
     <row r="90" spans="5:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M22:AH22"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:AH29"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:AH69"/>
+    <mergeCell ref="E70:J71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="M70:AH71"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="M46:AH48"/>
+    <mergeCell ref="M38:AH41"/>
+    <mergeCell ref="M36:AH37"/>
+    <mergeCell ref="M35:AH35"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="M42:AH43"/>
+    <mergeCell ref="M44:AH45"/>
+    <mergeCell ref="E65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:AH66"/>
+    <mergeCell ref="E49:J62"/>
+    <mergeCell ref="K49:L62"/>
+    <mergeCell ref="E63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:AH64"/>
     <mergeCell ref="E38:J41"/>
     <mergeCell ref="K38:L41"/>
     <mergeCell ref="E46:J48"/>
@@ -16666,34 +16759,30 @@
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="E44:J45"/>
     <mergeCell ref="K44:L45"/>
-    <mergeCell ref="E65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:AH66"/>
-    <mergeCell ref="E49:J62"/>
-    <mergeCell ref="K49:L62"/>
-    <mergeCell ref="E63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:AH64"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M46:AH48"/>
-    <mergeCell ref="M38:AH41"/>
-    <mergeCell ref="M36:AH37"/>
-    <mergeCell ref="M35:AH35"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="M42:AH43"/>
-    <mergeCell ref="M44:AH45"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:AH69"/>
-    <mergeCell ref="E70:J71"/>
-    <mergeCell ref="K70:L71"/>
-    <mergeCell ref="M70:AH71"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:AH29"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:AH31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:AH22"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350042B-0484-4A3C-824A-4F465F5B70FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B19F9E-7528-4E50-8A8C-4350FDB55D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15255" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="DBアクセスを伴う精査">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2'!$A$1:$AI$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1'!$A$1:$AI$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.3'!$A$1:$AI$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$39</definedName>
@@ -70,15 +70,7 @@
     <definedName name="文字種精査">#REF!</definedName>
     <definedName name="文字列長精査">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -3160,7 +3152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3475,6 +3467,15 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3493,24 +3494,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3577,12 +3635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3608,15 +3660,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3626,58 +3669,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3715,18 +3707,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3736,9 +3800,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3775,71 +3836,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3886,57 +3992,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3946,65 +4001,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4015,6 +4034,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4030,77 +4058,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4443,10 +4438,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D46BB64-302A-419F-BC04-A60CF8BE74ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4492,15 +4487,15 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74573B44-8D6C-46B9-9934-8A5AEEFBC7DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4504,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3314700" y="1304925"/>
-          <a:ext cx="0" cy="1285875"/>
+          <a:ext cx="0" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4538,23 +4533,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD2FF07-B4D5-45E2-85A2-7BD065E34F4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,8 +4557,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7458075" y="1304925"/>
-          <a:ext cx="0" cy="1285875"/>
+          <a:off x="8010525" y="1304925"/>
+          <a:ext cx="0" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4593,17 +4588,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>141928</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>110051</xdr:rowOff>
+      <xdr:rowOff>50703</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1697131" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5F480E-0119-4BC5-A52C-1E557161E97F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,7 +4606,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="1414976"/>
+          <a:off x="4561528" y="1355628"/>
           <a:ext cx="1697131" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4678,18 +4673,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>58029</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1273875" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD302ED7-5E97-46B8-90F3-FB9BB501C1D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4697,7 +4692,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="1438275"/>
+          <a:off x="8010525" y="1362954"/>
           <a:ext cx="1273875" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4742,20 +4737,20 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91B9242-0C62-4AA3-A173-DCC5DE4157E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4763,8 +4758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3590925" y="1924050"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="3590925" y="1876426"/>
+          <a:ext cx="1381125" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4790,7 +4785,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4817,23 +4812,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6E6BB2-4600-4C93-8C21-26AE29C8004E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4841,8 +4836,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5248275" y="1924050"/>
-          <a:ext cx="1657350" cy="523875"/>
+          <a:off x="6353175" y="1876426"/>
+          <a:ext cx="1381125" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4868,7 +4863,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -4886,7 +4881,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>業務的な取引単位のテスト</a:t>
+            <a:t>業務的な取引単位の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>テスト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4895,18 +4898,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14801</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>112321</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="992579" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEBD8B2-EB34-4B94-A569-D7A668567744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="1891226"/>
+          <a:off x="8122846" y="1857375"/>
           <a:ext cx="992579" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4957,17 +4960,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74092</xdr:colOff>
+      <xdr:colOff>89479</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55260</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1859483" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0804EEE-0D08-43B3-A733-C349072161DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +4978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1178992" y="1360185"/>
+          <a:off x="1194379" y="1304925"/>
           <a:ext cx="1859483" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5038,10 +5041,10 @@
     <xdr:ext cx="2253759" cy="714374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4B30E2-8E64-4928-9C4A-8748C8F5063C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5275,21 +5278,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD94BCC-70B2-44F2-B1DF-D9559008BC33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5298,7 +5301,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="838200" y="1304924"/>
-          <a:ext cx="8553450" cy="1285875"/>
+          <a:ext cx="8553450" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5321,6 +5324,92 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4938ACA8-F3F4-4462-BD69-2AF5D6946711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4972050" y="1876426"/>
+          <a:ext cx="1381125" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>リクエスト単体テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>クラスの結合組み合わせの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>テスト</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6402,57 +6491,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="s">
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="140" t="s">
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="42"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -6460,53 +6549,53 @@
       <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="140" t="s">
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="186" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="152" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="149">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -6514,45 +6603,45 @@
       <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="46"/>
       <c r="AL3" s="46"/>
@@ -6691,1042 +6780,1042 @@
       <c r="A7" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="193" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="193" t="s">
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="193" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="195"/>
-      <c r="S7" s="195"/>
-      <c r="T7" s="195"/>
-      <c r="U7" s="195"/>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195"/>
-      <c r="X7" s="195"/>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="195"/>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="195"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="195"/>
-      <c r="AE7" s="194"/>
-      <c r="AF7" s="193" t="s">
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="195"/>
-      <c r="AH7" s="195"/>
-      <c r="AI7" s="194"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="129"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="99">
         <v>1</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166">
+      <c r="C8" s="185"/>
+      <c r="D8" s="186">
         <v>43643</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172" t="s">
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175" t="s">
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="172" t="s">
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="174"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="160"/>
     </row>
     <row r="9" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="120">
         <v>2</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="136">
+      <c r="C9" s="141"/>
+      <c r="D9" s="137">
         <v>43850</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="192" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="178" t="s">
+      <c r="H9" s="145"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="179" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="195" t="s">
         <v>204</v>
       </c>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="178" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="161" t="s">
         <v>202</v>
       </c>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="130"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="120"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="120"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="120"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="120"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="133"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="120"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="120"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="120"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="120"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="120"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="120"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="133"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="120"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="120"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="133"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="120"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="120"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="120"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="120"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="120"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="120"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="120"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="131"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="120"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="130"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="131"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="120"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="130"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="120"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="130"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="131"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="120"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="130"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="120"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="130"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
       <c r="AJ33" s="48"/>
       <c r="AK33" s="48"/>
       <c r="AL33" s="48"/>
@@ -7735,16 +7824,151 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -7769,151 +7993,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7944,31 +8033,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -7980,23 +8069,23 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
       <c r="AL1" s="43"/>
@@ -8013,29 +8102,29 @@
       <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -8044,23 +8133,23 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
@@ -8077,29 +8166,29 @@
       <c r="AW2" s="42"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -8108,21 +8197,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
       <c r="AL3" s="51"/>
@@ -11315,14 +11404,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11332,6 +11413,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11361,31 +11450,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11397,48 +11486,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -11447,48 +11536,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -11497,21 +11586,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -11887,14 +11976,6 @@
     <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11904,6 +11985,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11923,7 +12012,7 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11935,31 +12024,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -11971,48 +12060,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12021,48 +12110,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12071,21 +12160,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -12114,505 +12203,450 @@
     <row r="9" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D9" s="74"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D10" s="74"/>
-    </row>
-    <row r="11" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D21" s="74" t="s">
+    <row r="10" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D10" s="337"/>
+    </row>
+    <row r="11" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="4:34" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="4:34" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="4:34" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="4:34" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="4:34" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D22" s="74" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D24" s="212" t="s">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D25" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="212" t="s">
+      <c r="E25" s="237"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="213"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="213"/>
-      <c r="AH24" s="214"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D25" s="237" t="s">
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="237"/>
+      <c r="W25" s="237"/>
+      <c r="X25" s="237"/>
+      <c r="Y25" s="237"/>
+      <c r="Z25" s="237"/>
+      <c r="AA25" s="237"/>
+      <c r="AB25" s="237"/>
+      <c r="AC25" s="237"/>
+      <c r="AD25" s="237"/>
+      <c r="AE25" s="237"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="237"/>
+      <c r="AH25" s="238"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D26" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="238"/>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="219" t="s">
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="242" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
-      <c r="T25" s="220"/>
-      <c r="U25" s="220"/>
-      <c r="V25" s="220"/>
-      <c r="W25" s="220"/>
-      <c r="X25" s="220"/>
-      <c r="Y25" s="220"/>
-      <c r="Z25" s="220"/>
-      <c r="AA25" s="220"/>
-      <c r="AB25" s="220"/>
-      <c r="AC25" s="220"/>
-      <c r="AD25" s="220"/>
-      <c r="AE25" s="220"/>
-      <c r="AF25" s="220"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="221"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D26" s="240"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="223"/>
-      <c r="O26" s="223"/>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="223"/>
-      <c r="S26" s="223"/>
-      <c r="T26" s="223"/>
-      <c r="U26" s="223"/>
-      <c r="V26" s="223"/>
-      <c r="W26" s="223"/>
-      <c r="X26" s="223"/>
-      <c r="Y26" s="223"/>
-      <c r="Z26" s="223"/>
-      <c r="AA26" s="223"/>
-      <c r="AB26" s="223"/>
-      <c r="AC26" s="223"/>
-      <c r="AD26" s="223"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="223"/>
-      <c r="AH26" s="224"/>
+      <c r="K26" s="243"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="243"/>
+      <c r="N26" s="243"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="243"/>
+      <c r="R26" s="243"/>
+      <c r="S26" s="243"/>
+      <c r="T26" s="243"/>
+      <c r="U26" s="243"/>
+      <c r="V26" s="243"/>
+      <c r="W26" s="243"/>
+      <c r="X26" s="243"/>
+      <c r="Y26" s="243"/>
+      <c r="Z26" s="243"/>
+      <c r="AA26" s="243"/>
+      <c r="AB26" s="243"/>
+      <c r="AC26" s="243"/>
+      <c r="AD26" s="243"/>
+      <c r="AE26" s="243"/>
+      <c r="AF26" s="243"/>
+      <c r="AG26" s="243"/>
+      <c r="AH26" s="244"/>
     </row>
     <row r="27" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="225"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="226"/>
-      <c r="AA27" s="226"/>
-      <c r="AB27" s="226"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="226"/>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="226"/>
-      <c r="AH27" s="227"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="246"/>
+      <c r="N27" s="246"/>
+      <c r="O27" s="246"/>
+      <c r="P27" s="246"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="246"/>
+      <c r="S27" s="246"/>
+      <c r="T27" s="246"/>
+      <c r="U27" s="246"/>
+      <c r="V27" s="246"/>
+      <c r="W27" s="246"/>
+      <c r="X27" s="246"/>
+      <c r="Y27" s="246"/>
+      <c r="Z27" s="246"/>
+      <c r="AA27" s="246"/>
+      <c r="AB27" s="246"/>
+      <c r="AC27" s="246"/>
+      <c r="AD27" s="246"/>
+      <c r="AE27" s="246"/>
+      <c r="AF27" s="246"/>
+      <c r="AG27" s="246"/>
+      <c r="AH27" s="247"/>
     </row>
     <row r="28" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D28" s="237" t="s">
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
+      <c r="N28" s="249"/>
+      <c r="O28" s="249"/>
+      <c r="P28" s="249"/>
+      <c r="Q28" s="249"/>
+      <c r="R28" s="249"/>
+      <c r="S28" s="249"/>
+      <c r="T28" s="249"/>
+      <c r="U28" s="249"/>
+      <c r="V28" s="249"/>
+      <c r="W28" s="249"/>
+      <c r="X28" s="249"/>
+      <c r="Y28" s="249"/>
+      <c r="Z28" s="249"/>
+      <c r="AA28" s="249"/>
+      <c r="AB28" s="249"/>
+      <c r="AC28" s="249"/>
+      <c r="AD28" s="249"/>
+      <c r="AE28" s="249"/>
+      <c r="AF28" s="249"/>
+      <c r="AG28" s="249"/>
+      <c r="AH28" s="250"/>
+    </row>
+    <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D29" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="228" t="s">
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="225" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="229"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="229"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="229"/>
-      <c r="U28" s="229"/>
-      <c r="V28" s="229"/>
-      <c r="W28" s="229"/>
-      <c r="X28" s="229"/>
-      <c r="Y28" s="229"/>
-      <c r="Z28" s="229"/>
-      <c r="AA28" s="229"/>
-      <c r="AB28" s="229"/>
-      <c r="AC28" s="229"/>
-      <c r="AD28" s="229"/>
-      <c r="AE28" s="229"/>
-      <c r="AF28" s="229"/>
-      <c r="AG28" s="229"/>
-      <c r="AH28" s="230"/>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D29" s="240"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="232"/>
-      <c r="Q29" s="232"/>
-      <c r="R29" s="232"/>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="232"/>
-      <c r="W29" s="232"/>
-      <c r="X29" s="232"/>
-      <c r="Y29" s="232"/>
-      <c r="Z29" s="232"/>
-      <c r="AA29" s="232"/>
-      <c r="AB29" s="232"/>
-      <c r="AC29" s="232"/>
-      <c r="AD29" s="232"/>
-      <c r="AE29" s="232"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="232"/>
-      <c r="AH29" s="233"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="226"/>
+      <c r="W29" s="226"/>
+      <c r="X29" s="226"/>
+      <c r="Y29" s="226"/>
+      <c r="Z29" s="226"/>
+      <c r="AA29" s="226"/>
+      <c r="AB29" s="226"/>
+      <c r="AC29" s="226"/>
+      <c r="AD29" s="226"/>
+      <c r="AE29" s="226"/>
+      <c r="AF29" s="226"/>
+      <c r="AG29" s="226"/>
+      <c r="AH29" s="227"/>
     </row>
     <row r="30" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D30" s="243"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="234"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="235"/>
-      <c r="M30" s="235"/>
-      <c r="N30" s="235"/>
-      <c r="O30" s="235"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="235"/>
-      <c r="R30" s="235"/>
-      <c r="S30" s="235"/>
-      <c r="T30" s="235"/>
-      <c r="U30" s="235"/>
-      <c r="V30" s="235"/>
-      <c r="W30" s="235"/>
-      <c r="X30" s="235"/>
-      <c r="Y30" s="235"/>
-      <c r="Z30" s="235"/>
-      <c r="AA30" s="235"/>
-      <c r="AB30" s="235"/>
-      <c r="AC30" s="235"/>
-      <c r="AD30" s="235"/>
-      <c r="AE30" s="235"/>
-      <c r="AF30" s="235"/>
-      <c r="AG30" s="235"/>
-      <c r="AH30" s="236"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="229"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
+      <c r="N30" s="229"/>
+      <c r="O30" s="229"/>
+      <c r="P30" s="229"/>
+      <c r="Q30" s="229"/>
+      <c r="R30" s="229"/>
+      <c r="S30" s="229"/>
+      <c r="T30" s="229"/>
+      <c r="U30" s="229"/>
+      <c r="V30" s="229"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="229"/>
+      <c r="Y30" s="229"/>
+      <c r="Z30" s="229"/>
+      <c r="AA30" s="229"/>
+      <c r="AB30" s="229"/>
+      <c r="AC30" s="229"/>
+      <c r="AD30" s="229"/>
+      <c r="AE30" s="229"/>
+      <c r="AF30" s="229"/>
+      <c r="AG30" s="229"/>
+      <c r="AH30" s="230"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D31" s="246" t="s">
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="232"/>
+      <c r="R31" s="232"/>
+      <c r="S31" s="232"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="232"/>
+      <c r="V31" s="232"/>
+      <c r="W31" s="232"/>
+      <c r="X31" s="232"/>
+      <c r="Y31" s="232"/>
+      <c r="Z31" s="232"/>
+      <c r="AA31" s="232"/>
+      <c r="AB31" s="232"/>
+      <c r="AC31" s="232"/>
+      <c r="AD31" s="232"/>
+      <c r="AE31" s="232"/>
+      <c r="AF31" s="232"/>
+      <c r="AG31" s="232"/>
+      <c r="AH31" s="233"/>
+    </row>
+    <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D32" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="228" t="s">
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="225" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="229"/>
-      <c r="L31" s="229"/>
-      <c r="M31" s="229"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="229"/>
-      <c r="P31" s="229"/>
-      <c r="Q31" s="229"/>
-      <c r="R31" s="229"/>
-      <c r="S31" s="229"/>
-      <c r="T31" s="229"/>
-      <c r="U31" s="229"/>
-      <c r="V31" s="229"/>
-      <c r="W31" s="229"/>
-      <c r="X31" s="229"/>
-      <c r="Y31" s="229"/>
-      <c r="Z31" s="229"/>
-      <c r="AA31" s="229"/>
-      <c r="AB31" s="229"/>
-      <c r="AC31" s="229"/>
-      <c r="AD31" s="229"/>
-      <c r="AE31" s="229"/>
-      <c r="AF31" s="229"/>
-      <c r="AG31" s="229"/>
-      <c r="AH31" s="230"/>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D32" s="240"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="232"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
-      <c r="W32" s="232"/>
-      <c r="X32" s="232"/>
-      <c r="Y32" s="232"/>
-      <c r="Z32" s="232"/>
-      <c r="AA32" s="232"/>
-      <c r="AB32" s="232"/>
-      <c r="AC32" s="232"/>
-      <c r="AD32" s="232"/>
-      <c r="AE32" s="232"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="233"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="226"/>
+      <c r="P32" s="226"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="226"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="226"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="226"/>
+      <c r="X32" s="226"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="226"/>
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="226"/>
+      <c r="AC32" s="226"/>
+      <c r="AD32" s="226"/>
+      <c r="AE32" s="226"/>
+      <c r="AF32" s="226"/>
+      <c r="AG32" s="226"/>
+      <c r="AH32" s="227"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="245"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="235"/>
-      <c r="M33" s="235"/>
-      <c r="N33" s="235"/>
-      <c r="O33" s="235"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="235"/>
-      <c r="V33" s="235"/>
-      <c r="W33" s="235"/>
-      <c r="X33" s="235"/>
-      <c r="Y33" s="235"/>
-      <c r="Z33" s="235"/>
-      <c r="AA33" s="235"/>
-      <c r="AB33" s="235"/>
-      <c r="AC33" s="235"/>
-      <c r="AD33" s="235"/>
-      <c r="AE33" s="235"/>
-      <c r="AF33" s="235"/>
-      <c r="AG33" s="235"/>
-      <c r="AH33" s="236"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="229"/>
+      <c r="N33" s="229"/>
+      <c r="O33" s="229"/>
+      <c r="P33" s="229"/>
+      <c r="Q33" s="229"/>
+      <c r="R33" s="229"/>
+      <c r="S33" s="229"/>
+      <c r="T33" s="229"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="229"/>
+      <c r="X33" s="229"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="229"/>
+      <c r="AA33" s="229"/>
+      <c r="AB33" s="229"/>
+      <c r="AC33" s="229"/>
+      <c r="AD33" s="229"/>
+      <c r="AE33" s="229"/>
+      <c r="AF33" s="229"/>
+      <c r="AG33" s="229"/>
+      <c r="AH33" s="230"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="214"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="231"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="232"/>
+      <c r="M34" s="232"/>
+      <c r="N34" s="232"/>
+      <c r="O34" s="232"/>
+      <c r="P34" s="232"/>
+      <c r="Q34" s="232"/>
+      <c r="R34" s="232"/>
+      <c r="S34" s="232"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="232"/>
+      <c r="AA34" s="232"/>
+      <c r="AB34" s="232"/>
+      <c r="AC34" s="232"/>
+      <c r="AD34" s="232"/>
+      <c r="AE34" s="232"/>
+      <c r="AF34" s="232"/>
+      <c r="AG34" s="232"/>
+      <c r="AH34" s="233"/>
+    </row>
+    <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D35" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D36" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="36" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D37" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D38" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="247" t="s">
+    <row r="39" spans="3:34" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="222" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="248"/>
-      <c r="F39" s="248"/>
-      <c r="G39" s="249"/>
-      <c r="H39" s="215" t="s">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="215" t="s">
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="216"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="215" t="s">
+      <c r="M40" s="239"/>
+      <c r="N40" s="239"/>
+      <c r="O40" s="240"/>
+      <c r="P40" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="215" t="s">
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="136"/>
+      <c r="T40" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="218" t="s">
+      <c r="U40" s="135"/>
+      <c r="V40" s="135"/>
+      <c r="W40" s="136"/>
+      <c r="X40" s="241" t="s">
         <v>193</v>
       </c>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="132"/>
-      <c r="AA39" s="133"/>
-    </row>
-    <row r="40" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D40" s="205" t="s">
+      <c r="Y40" s="135"/>
+      <c r="Z40" s="135"/>
+      <c r="AA40" s="136"/>
+    </row>
+    <row r="41" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D41" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="205" t="s">
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="205" t="s">
         <v>34</v>
-      </c>
-      <c r="I40" s="206"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="206"/>
-      <c r="N40" s="206"/>
-      <c r="O40" s="207"/>
-      <c r="P40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q40" s="206"/>
-      <c r="R40" s="206"/>
-      <c r="S40" s="207"/>
-      <c r="T40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="U40" s="206"/>
-      <c r="V40" s="206"/>
-      <c r="W40" s="207"/>
-      <c r="X40" s="205" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y40" s="206"/>
-      <c r="Z40" s="206"/>
-      <c r="AA40" s="207"/>
-    </row>
-    <row r="41" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="209" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="210"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="209" t="s">
-        <v>184</v>
       </c>
       <c r="I41" s="206"/>
       <c r="J41" s="206"/>
       <c r="K41" s="207"/>
-      <c r="L41" s="209" t="s">
-        <v>185</v>
+      <c r="L41" s="205" t="s">
+        <v>34</v>
       </c>
       <c r="M41" s="206"/>
       <c r="N41" s="206"/>
@@ -12636,136 +12670,175 @@
       <c r="Z41" s="206"/>
       <c r="AA41" s="207"/>
     </row>
-    <row r="42" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="205" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="209" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="210"/>
-      <c r="J42" s="210"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="209" t="s">
-        <v>219</v>
-      </c>
-      <c r="M42" s="210"/>
-      <c r="N42" s="210"/>
-      <c r="O42" s="211"/>
-      <c r="P42" s="208" t="s">
+    <row r="42" spans="3:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="219" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="219" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="219" t="s">
+        <v>185</v>
+      </c>
+      <c r="M42" s="206"/>
+      <c r="N42" s="206"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="205" t="s">
         <v>34</v>
       </c>
       <c r="Q42" s="206"/>
       <c r="R42" s="206"/>
       <c r="S42" s="207"/>
-      <c r="T42" s="208" t="s">
+      <c r="T42" s="205" t="s">
         <v>34</v>
       </c>
       <c r="U42" s="206"/>
       <c r="V42" s="206"/>
       <c r="W42" s="207"/>
-      <c r="X42" s="336" t="s">
-        <v>232</v>
+      <c r="X42" s="205" t="s">
+        <v>34</v>
       </c>
       <c r="Y42" s="206"/>
       <c r="Z42" s="206"/>
       <c r="AA42" s="207"/>
     </row>
-    <row r="43" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D43" s="15" t="s">
+    <row r="43" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="205" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="207"/>
+      <c r="H43" s="219" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="219" t="s">
+        <v>219</v>
+      </c>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
+      <c r="O43" s="221"/>
+      <c r="P43" s="235" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q43" s="206"/>
+      <c r="R43" s="206"/>
+      <c r="S43" s="207"/>
+      <c r="T43" s="235" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" s="206"/>
+      <c r="V43" s="206"/>
+      <c r="W43" s="207"/>
+      <c r="X43" s="234" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y43" s="206"/>
+      <c r="Z43" s="206"/>
+      <c r="AA43" s="207"/>
+    </row>
+    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D44" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D44" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D45" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D46" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E46" s="31" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C46" s="76" t="s">
+    <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C47" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C47" s="76"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D48" s="31" t="s">
+      <c r="C48" s="76"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D49" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C51" s="76" t="s">
+    <row r="50" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="3:5" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C52" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C52" s="76"/>
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="76"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D54" s="15" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D54" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="55" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D55" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D56" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E56" s="15" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D25:I27"/>
-    <mergeCell ref="D31:I33"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="J28:AH30"/>
-    <mergeCell ref="D28:I30"/>
-    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="J25:AH25"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="X40:AA40"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J26:AH28"/>
+    <mergeCell ref="J32:AH34"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T40:W40"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="AC1:AF1"/>
@@ -12782,23 +12855,22 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D26:I28"/>
+    <mergeCell ref="D32:I34"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="J29:AH31"/>
+    <mergeCell ref="D29:I31"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="P43:S43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12808,8 +12880,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="45" max="34" man="1"/>
-    <brk id="231" max="16383" man="1"/>
+    <brk id="46" max="34" man="1"/>
+    <brk id="232" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12833,31 +12905,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -12869,48 +12941,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -12919,48 +12991,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -12969,21 +13041,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13197,35 +13269,35 @@
       <c r="D28" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="298" t="s">
+      <c r="E28" s="285" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="300"/>
-      <c r="I28" s="268" t="s">
+      <c r="F28" s="286"/>
+      <c r="G28" s="286"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="269"/>
-      <c r="K28" s="270"/>
-      <c r="L28" s="280" t="s">
+      <c r="J28" s="264"/>
+      <c r="K28" s="265"/>
+      <c r="L28" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="280"/>
-      <c r="N28" s="280"/>
-      <c r="O28" s="280"/>
-      <c r="P28" s="280"/>
-      <c r="Q28" s="268" t="s">
+      <c r="M28" s="284"/>
+      <c r="N28" s="284"/>
+      <c r="O28" s="284"/>
+      <c r="P28" s="284"/>
+      <c r="Q28" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="269"/>
-      <c r="S28" s="269"/>
-      <c r="T28" s="270"/>
-      <c r="U28" s="268" t="s">
+      <c r="R28" s="264"/>
+      <c r="S28" s="264"/>
+      <c r="T28" s="265"/>
+      <c r="U28" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="269"/>
-      <c r="W28" s="270"/>
+      <c r="V28" s="264"/>
+      <c r="W28" s="265"/>
       <c r="X28" s="72" t="s">
         <v>39</v>
       </c>
@@ -13246,31 +13318,31 @@
       <c r="D29" s="81">
         <v>1</v>
       </c>
-      <c r="E29" s="285" t="s">
+      <c r="E29" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="286"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="301" t="s">
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="302"/>
-      <c r="K29" s="302"/>
-      <c r="L29" s="297" t="s">
+      <c r="J29" s="273"/>
+      <c r="K29" s="273"/>
+      <c r="L29" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="297"/>
-      <c r="N29" s="297"/>
-      <c r="O29" s="297"/>
-      <c r="P29" s="297"/>
-      <c r="Q29" s="288"/>
-      <c r="R29" s="289"/>
-      <c r="S29" s="289"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="288"/>
-      <c r="V29" s="289"/>
-      <c r="W29" s="290"/>
+      <c r="M29" s="274"/>
+      <c r="N29" s="274"/>
+      <c r="O29" s="274"/>
+      <c r="P29" s="274"/>
+      <c r="Q29" s="266"/>
+      <c r="R29" s="267"/>
+      <c r="S29" s="267"/>
+      <c r="T29" s="268"/>
+      <c r="U29" s="266"/>
+      <c r="V29" s="267"/>
+      <c r="W29" s="268"/>
       <c r="X29" s="82" t="s">
         <v>8</v>
       </c>
@@ -13291,27 +13363,27 @@
       <c r="D30" s="81">
         <v>2</v>
       </c>
-      <c r="E30" s="288"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="302"/>
-      <c r="J30" s="302"/>
-      <c r="K30" s="302"/>
-      <c r="L30" s="297" t="s">
+      <c r="E30" s="266"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="268"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="273"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="297"/>
-      <c r="N30" s="297"/>
-      <c r="O30" s="297"/>
-      <c r="P30" s="297"/>
-      <c r="Q30" s="288"/>
-      <c r="R30" s="289"/>
-      <c r="S30" s="289"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="288"/>
-      <c r="V30" s="289"/>
-      <c r="W30" s="290"/>
+      <c r="M30" s="274"/>
+      <c r="N30" s="274"/>
+      <c r="O30" s="274"/>
+      <c r="P30" s="274"/>
+      <c r="Q30" s="266"/>
+      <c r="R30" s="267"/>
+      <c r="S30" s="267"/>
+      <c r="T30" s="268"/>
+      <c r="U30" s="266"/>
+      <c r="V30" s="267"/>
+      <c r="W30" s="268"/>
       <c r="X30" s="82" t="s">
         <v>3</v>
       </c>
@@ -13330,27 +13402,27 @@
       <c r="D31" s="88">
         <v>3</v>
       </c>
-      <c r="E31" s="291"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="293"/>
-      <c r="I31" s="302"/>
-      <c r="J31" s="302"/>
-      <c r="K31" s="302"/>
-      <c r="L31" s="297" t="s">
+      <c r="E31" s="281"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="282"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="273"/>
+      <c r="J31" s="273"/>
+      <c r="K31" s="273"/>
+      <c r="L31" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="297"/>
-      <c r="N31" s="297"/>
-      <c r="O31" s="297"/>
-      <c r="P31" s="297"/>
-      <c r="Q31" s="294"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="295"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="295"/>
-      <c r="W31" s="296"/>
+      <c r="M31" s="274"/>
+      <c r="N31" s="274"/>
+      <c r="O31" s="274"/>
+      <c r="P31" s="274"/>
+      <c r="Q31" s="269"/>
+      <c r="R31" s="270"/>
+      <c r="S31" s="270"/>
+      <c r="T31" s="271"/>
+      <c r="U31" s="269"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="271"/>
       <c r="X31" s="89" t="s">
         <v>4</v>
       </c>
@@ -13498,50 +13570,50 @@
       <c r="D39" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="262" t="s">
+      <c r="E39" s="300" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="264"/>
-      <c r="I39" s="268" t="s">
+      <c r="F39" s="301"/>
+      <c r="G39" s="301"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="269"/>
-      <c r="K39" s="270"/>
-      <c r="L39" s="280" t="s">
+      <c r="J39" s="264"/>
+      <c r="K39" s="265"/>
+      <c r="L39" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="280"/>
-      <c r="N39" s="280"/>
-      <c r="O39" s="280"/>
-      <c r="P39" s="280"/>
-      <c r="Q39" s="282" t="s">
+      <c r="M39" s="284"/>
+      <c r="N39" s="284"/>
+      <c r="O39" s="284"/>
+      <c r="P39" s="284"/>
+      <c r="Q39" s="303" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="283"/>
-      <c r="S39" s="283"/>
-      <c r="T39" s="284"/>
-      <c r="U39" s="268" t="s">
+      <c r="R39" s="304"/>
+      <c r="S39" s="304"/>
+      <c r="T39" s="305"/>
+      <c r="U39" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="269"/>
-      <c r="W39" s="270"/>
-      <c r="X39" s="262" t="s">
+      <c r="V39" s="264"/>
+      <c r="W39" s="265"/>
+      <c r="X39" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="Y39" s="263"/>
-      <c r="Z39" s="263"/>
-      <c r="AA39" s="263"/>
-      <c r="AB39" s="263"/>
-      <c r="AC39" s="263"/>
-      <c r="AD39" s="263"/>
-      <c r="AE39" s="264"/>
-      <c r="AF39" s="250" t="s">
+      <c r="Y39" s="301"/>
+      <c r="Z39" s="301"/>
+      <c r="AA39" s="301"/>
+      <c r="AB39" s="301"/>
+      <c r="AC39" s="301"/>
+      <c r="AD39" s="301"/>
+      <c r="AE39" s="302"/>
+      <c r="AF39" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="AG39" s="251"/>
-      <c r="AH39" s="252"/>
+      <c r="AG39" s="289"/>
+      <c r="AH39" s="290"/>
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
@@ -13554,45 +13626,45 @@
       <c r="D40" s="81">
         <v>1</v>
       </c>
-      <c r="E40" s="253" t="s">
+      <c r="E40" s="291" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="254"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="255"/>
-      <c r="I40" s="271" t="s">
+      <c r="F40" s="292"/>
+      <c r="G40" s="292"/>
+      <c r="H40" s="293"/>
+      <c r="I40" s="254" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="272"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="281" t="s">
+      <c r="J40" s="255"/>
+      <c r="K40" s="256"/>
+      <c r="L40" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="M40" s="281"/>
-      <c r="N40" s="281"/>
-      <c r="O40" s="281"/>
-      <c r="P40" s="281"/>
-      <c r="Q40" s="253" t="s">
+      <c r="M40" s="276"/>
+      <c r="N40" s="276"/>
+      <c r="O40" s="276"/>
+      <c r="P40" s="276"/>
+      <c r="Q40" s="291" t="s">
         <v>137</v>
       </c>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="255"/>
-      <c r="U40" s="271" t="s">
+      <c r="R40" s="292"/>
+      <c r="S40" s="292"/>
+      <c r="T40" s="293"/>
+      <c r="U40" s="254" t="s">
         <v>138</v>
       </c>
-      <c r="V40" s="272"/>
-      <c r="W40" s="273"/>
-      <c r="X40" s="265" t="s">
+      <c r="V40" s="255"/>
+      <c r="W40" s="256"/>
+      <c r="X40" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="Y40" s="266"/>
-      <c r="Z40" s="266"/>
-      <c r="AA40" s="266"/>
-      <c r="AB40" s="266"/>
-      <c r="AC40" s="266"/>
-      <c r="AD40" s="266"/>
-      <c r="AE40" s="267"/>
+      <c r="Y40" s="252"/>
+      <c r="Z40" s="252"/>
+      <c r="AA40" s="252"/>
+      <c r="AB40" s="252"/>
+      <c r="AC40" s="252"/>
+      <c r="AD40" s="252"/>
+      <c r="AE40" s="253"/>
       <c r="AF40" s="100" t="s">
         <v>85</v>
       </c>
@@ -13610,37 +13682,37 @@
       <c r="D41" s="81">
         <v>2</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="258"/>
-      <c r="I41" s="274"/>
-      <c r="J41" s="275"/>
-      <c r="K41" s="276"/>
-      <c r="L41" s="281" t="s">
+      <c r="E41" s="294"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="296"/>
+      <c r="I41" s="257"/>
+      <c r="J41" s="258"/>
+      <c r="K41" s="259"/>
+      <c r="L41" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="281"/>
-      <c r="N41" s="281"/>
-      <c r="O41" s="281"/>
-      <c r="P41" s="281"/>
-      <c r="Q41" s="256"/>
-      <c r="R41" s="257"/>
-      <c r="S41" s="257"/>
-      <c r="T41" s="258"/>
-      <c r="U41" s="274"/>
-      <c r="V41" s="275"/>
-      <c r="W41" s="276"/>
-      <c r="X41" s="265" t="s">
+      <c r="M41" s="276"/>
+      <c r="N41" s="276"/>
+      <c r="O41" s="276"/>
+      <c r="P41" s="276"/>
+      <c r="Q41" s="294"/>
+      <c r="R41" s="295"/>
+      <c r="S41" s="295"/>
+      <c r="T41" s="296"/>
+      <c r="U41" s="257"/>
+      <c r="V41" s="258"/>
+      <c r="W41" s="259"/>
+      <c r="X41" s="251" t="s">
         <v>135</v>
       </c>
-      <c r="Y41" s="266"/>
-      <c r="Z41" s="266"/>
-      <c r="AA41" s="266"/>
-      <c r="AB41" s="266"/>
-      <c r="AC41" s="266"/>
-      <c r="AD41" s="266"/>
-      <c r="AE41" s="267"/>
+      <c r="Y41" s="252"/>
+      <c r="Z41" s="252"/>
+      <c r="AA41" s="252"/>
+      <c r="AB41" s="252"/>
+      <c r="AC41" s="252"/>
+      <c r="AD41" s="252"/>
+      <c r="AE41" s="253"/>
       <c r="AF41" s="103"/>
       <c r="AG41" s="104"/>
       <c r="AH41" s="105"/>
@@ -13656,37 +13728,37 @@
       <c r="D42" s="81">
         <v>3</v>
       </c>
-      <c r="E42" s="256"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="257"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="274"/>
-      <c r="J42" s="275"/>
-      <c r="K42" s="276"/>
-      <c r="L42" s="281" t="s">
+      <c r="E42" s="294"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="295"/>
+      <c r="H42" s="296"/>
+      <c r="I42" s="257"/>
+      <c r="J42" s="258"/>
+      <c r="K42" s="259"/>
+      <c r="L42" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="M42" s="281"/>
-      <c r="N42" s="281"/>
-      <c r="O42" s="281"/>
-      <c r="P42" s="281"/>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="257"/>
-      <c r="S42" s="257"/>
-      <c r="T42" s="258"/>
-      <c r="U42" s="274"/>
-      <c r="V42" s="275"/>
-      <c r="W42" s="276"/>
-      <c r="X42" s="265" t="s">
+      <c r="M42" s="276"/>
+      <c r="N42" s="276"/>
+      <c r="O42" s="276"/>
+      <c r="P42" s="276"/>
+      <c r="Q42" s="294"/>
+      <c r="R42" s="295"/>
+      <c r="S42" s="295"/>
+      <c r="T42" s="296"/>
+      <c r="U42" s="257"/>
+      <c r="V42" s="258"/>
+      <c r="W42" s="259"/>
+      <c r="X42" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="Y42" s="266"/>
-      <c r="Z42" s="266"/>
-      <c r="AA42" s="266"/>
-      <c r="AB42" s="266"/>
-      <c r="AC42" s="266"/>
-      <c r="AD42" s="266"/>
-      <c r="AE42" s="267"/>
+      <c r="Y42" s="252"/>
+      <c r="Z42" s="252"/>
+      <c r="AA42" s="252"/>
+      <c r="AB42" s="252"/>
+      <c r="AC42" s="252"/>
+      <c r="AD42" s="252"/>
+      <c r="AE42" s="253"/>
       <c r="AF42" s="103"/>
       <c r="AG42" s="104"/>
       <c r="AH42" s="105"/>
@@ -13702,37 +13774,37 @@
       <c r="D43" s="81">
         <v>4</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="257"/>
-      <c r="G43" s="257"/>
-      <c r="H43" s="258"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="275"/>
-      <c r="K43" s="276"/>
-      <c r="L43" s="304" t="s">
+      <c r="E43" s="294"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="295"/>
+      <c r="H43" s="296"/>
+      <c r="I43" s="257"/>
+      <c r="J43" s="258"/>
+      <c r="K43" s="259"/>
+      <c r="L43" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="M43" s="281"/>
-      <c r="N43" s="281"/>
-      <c r="O43" s="281"/>
-      <c r="P43" s="281"/>
-      <c r="Q43" s="256"/>
-      <c r="R43" s="257"/>
-      <c r="S43" s="257"/>
-      <c r="T43" s="258"/>
-      <c r="U43" s="274"/>
-      <c r="V43" s="275"/>
-      <c r="W43" s="276"/>
-      <c r="X43" s="265" t="s">
+      <c r="M43" s="276"/>
+      <c r="N43" s="276"/>
+      <c r="O43" s="276"/>
+      <c r="P43" s="276"/>
+      <c r="Q43" s="294"/>
+      <c r="R43" s="295"/>
+      <c r="S43" s="295"/>
+      <c r="T43" s="296"/>
+      <c r="U43" s="257"/>
+      <c r="V43" s="258"/>
+      <c r="W43" s="259"/>
+      <c r="X43" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="Y43" s="266"/>
-      <c r="Z43" s="266"/>
-      <c r="AA43" s="266"/>
-      <c r="AB43" s="266"/>
-      <c r="AC43" s="266"/>
-      <c r="AD43" s="266"/>
-      <c r="AE43" s="267"/>
+      <c r="Y43" s="252"/>
+      <c r="Z43" s="252"/>
+      <c r="AA43" s="252"/>
+      <c r="AB43" s="252"/>
+      <c r="AC43" s="252"/>
+      <c r="AD43" s="252"/>
+      <c r="AE43" s="253"/>
       <c r="AF43" s="103"/>
       <c r="AG43" s="104"/>
       <c r="AH43" s="105"/>
@@ -13748,37 +13820,37 @@
       <c r="D44" s="81">
         <v>5</v>
       </c>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="277"/>
-      <c r="J44" s="278"/>
-      <c r="K44" s="279"/>
-      <c r="L44" s="303" t="s">
+      <c r="E44" s="297"/>
+      <c r="F44" s="298"/>
+      <c r="G44" s="298"/>
+      <c r="H44" s="299"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="261"/>
+      <c r="K44" s="262"/>
+      <c r="L44" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="303"/>
-      <c r="N44" s="303"/>
-      <c r="O44" s="303"/>
-      <c r="P44" s="303"/>
-      <c r="Q44" s="259"/>
-      <c r="R44" s="260"/>
-      <c r="S44" s="260"/>
-      <c r="T44" s="261"/>
-      <c r="U44" s="277"/>
-      <c r="V44" s="278"/>
-      <c r="W44" s="279"/>
-      <c r="X44" s="265" t="s">
+      <c r="M44" s="275"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="275"/>
+      <c r="P44" s="275"/>
+      <c r="Q44" s="297"/>
+      <c r="R44" s="298"/>
+      <c r="S44" s="298"/>
+      <c r="T44" s="299"/>
+      <c r="U44" s="260"/>
+      <c r="V44" s="261"/>
+      <c r="W44" s="262"/>
+      <c r="X44" s="251" t="s">
         <v>93</v>
       </c>
-      <c r="Y44" s="266"/>
-      <c r="Z44" s="266"/>
-      <c r="AA44" s="266"/>
-      <c r="AB44" s="266"/>
-      <c r="AC44" s="266"/>
-      <c r="AD44" s="266"/>
-      <c r="AE44" s="267"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="252"/>
+      <c r="AB44" s="252"/>
+      <c r="AC44" s="252"/>
+      <c r="AD44" s="252"/>
+      <c r="AE44" s="253"/>
       <c r="AF44" s="106"/>
       <c r="AG44" s="107"/>
       <c r="AH44" s="108"/>
@@ -14045,40 +14117,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -14095,6 +14133,40 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14128,31 +14200,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="189" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="143" t="s">
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14164,48 +14236,48 @@
       <c r="X1" s="197"/>
       <c r="Y1" s="197"/>
       <c r="Z1" s="198"/>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="180" t="str">
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="183">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="184"/>
-      <c r="AI1" s="185"/>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="189" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="199"/>
       <c r="T2" s="200"/>
       <c r="U2" s="200"/>
@@ -14214,48 +14286,48 @@
       <c r="X2" s="200"/>
       <c r="Y2" s="200"/>
       <c r="Z2" s="201"/>
-      <c r="AA2" s="140" t="s">
+      <c r="AA2" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43850</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="189" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="202"/>
       <c r="T3" s="203"/>
       <c r="U3" s="203"/>
@@ -14264,21 +14336,21 @@
       <c r="X3" s="203"/>
       <c r="Y3" s="203"/>
       <c r="Z3" s="204"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="180" t="str">
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="185"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
@@ -14647,354 +14719,354 @@
       <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="298" t="s">
+      <c r="E22" s="285" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="298" t="s">
+      <c r="F22" s="286"/>
+      <c r="G22" s="286"/>
+      <c r="H22" s="286"/>
+      <c r="I22" s="286"/>
+      <c r="J22" s="287"/>
+      <c r="K22" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="300"/>
-      <c r="M22" s="298" t="s">
+      <c r="L22" s="287"/>
+      <c r="M22" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="299"/>
-      <c r="Q22" s="299"/>
-      <c r="R22" s="299"/>
-      <c r="S22" s="299"/>
-      <c r="T22" s="299"/>
-      <c r="U22" s="299"/>
-      <c r="V22" s="299"/>
-      <c r="W22" s="299"/>
-      <c r="X22" s="299"/>
-      <c r="Y22" s="299"/>
-      <c r="Z22" s="299"/>
-      <c r="AA22" s="299"/>
-      <c r="AB22" s="299"/>
-      <c r="AC22" s="299"/>
-      <c r="AD22" s="299"/>
-      <c r="AE22" s="299"/>
-      <c r="AF22" s="299"/>
-      <c r="AG22" s="299"/>
-      <c r="AH22" s="300"/>
+      <c r="N22" s="286"/>
+      <c r="O22" s="286"/>
+      <c r="P22" s="286"/>
+      <c r="Q22" s="286"/>
+      <c r="R22" s="286"/>
+      <c r="S22" s="286"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="286"/>
+      <c r="V22" s="286"/>
+      <c r="W22" s="286"/>
+      <c r="X22" s="286"/>
+      <c r="Y22" s="286"/>
+      <c r="Z22" s="286"/>
+      <c r="AA22" s="286"/>
+      <c r="AB22" s="286"/>
+      <c r="AC22" s="286"/>
+      <c r="AD22" s="286"/>
+      <c r="AE22" s="286"/>
+      <c r="AF22" s="286"/>
+      <c r="AG22" s="286"/>
+      <c r="AH22" s="287"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="316" t="s">
+      <c r="E23" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="317"/>
-      <c r="G23" s="317"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="193" t="s">
+      <c r="F23" s="307"/>
+      <c r="G23" s="307"/>
+      <c r="H23" s="307"/>
+      <c r="I23" s="307"/>
+      <c r="J23" s="308"/>
+      <c r="K23" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="194"/>
-      <c r="M23" s="324" t="s">
+      <c r="L23" s="129"/>
+      <c r="M23" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="325"/>
-      <c r="O23" s="325"/>
-      <c r="P23" s="325"/>
-      <c r="Q23" s="325"/>
-      <c r="R23" s="325"/>
-      <c r="S23" s="325"/>
-      <c r="T23" s="325"/>
-      <c r="U23" s="325"/>
-      <c r="V23" s="325"/>
-      <c r="W23" s="325"/>
-      <c r="X23" s="325"/>
-      <c r="Y23" s="325"/>
-      <c r="Z23" s="325"/>
-      <c r="AA23" s="325"/>
-      <c r="AB23" s="325"/>
-      <c r="AC23" s="325"/>
-      <c r="AD23" s="325"/>
-      <c r="AE23" s="325"/>
-      <c r="AF23" s="325"/>
-      <c r="AG23" s="325"/>
-      <c r="AH23" s="326"/>
+      <c r="N23" s="330"/>
+      <c r="O23" s="330"/>
+      <c r="P23" s="330"/>
+      <c r="Q23" s="330"/>
+      <c r="R23" s="330"/>
+      <c r="S23" s="330"/>
+      <c r="T23" s="330"/>
+      <c r="U23" s="330"/>
+      <c r="V23" s="330"/>
+      <c r="W23" s="330"/>
+      <c r="X23" s="330"/>
+      <c r="Y23" s="330"/>
+      <c r="Z23" s="330"/>
+      <c r="AA23" s="330"/>
+      <c r="AB23" s="330"/>
+      <c r="AC23" s="330"/>
+      <c r="AD23" s="330"/>
+      <c r="AE23" s="330"/>
+      <c r="AF23" s="330"/>
+      <c r="AG23" s="330"/>
+      <c r="AH23" s="331"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="319"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="320"/>
-      <c r="I24" s="320"/>
-      <c r="J24" s="321"/>
-      <c r="K24" s="322"/>
-      <c r="L24" s="323"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="328"/>
-      <c r="U24" s="328"/>
-      <c r="V24" s="328"/>
-      <c r="W24" s="328"/>
-      <c r="X24" s="328"/>
-      <c r="Y24" s="328"/>
-      <c r="Z24" s="328"/>
-      <c r="AA24" s="328"/>
-      <c r="AB24" s="328"/>
-      <c r="AC24" s="328"/>
-      <c r="AD24" s="328"/>
-      <c r="AE24" s="328"/>
-      <c r="AF24" s="328"/>
-      <c r="AG24" s="328"/>
-      <c r="AH24" s="329"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="310"/>
+      <c r="G24" s="310"/>
+      <c r="H24" s="310"/>
+      <c r="I24" s="310"/>
+      <c r="J24" s="311"/>
+      <c r="K24" s="312"/>
+      <c r="L24" s="313"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="333"/>
+      <c r="O24" s="333"/>
+      <c r="P24" s="333"/>
+      <c r="Q24" s="333"/>
+      <c r="R24" s="333"/>
+      <c r="S24" s="333"/>
+      <c r="T24" s="333"/>
+      <c r="U24" s="333"/>
+      <c r="V24" s="333"/>
+      <c r="W24" s="333"/>
+      <c r="X24" s="333"/>
+      <c r="Y24" s="333"/>
+      <c r="Z24" s="333"/>
+      <c r="AA24" s="333"/>
+      <c r="AB24" s="333"/>
+      <c r="AC24" s="333"/>
+      <c r="AD24" s="333"/>
+      <c r="AE24" s="333"/>
+      <c r="AF24" s="333"/>
+      <c r="AG24" s="333"/>
+      <c r="AH24" s="334"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="305" t="s">
+      <c r="E25" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="306"/>
-      <c r="G25" s="306"/>
-      <c r="H25" s="306"/>
-      <c r="I25" s="306"/>
-      <c r="J25" s="307"/>
-      <c r="K25" s="311" t="s">
+      <c r="F25" s="315"/>
+      <c r="G25" s="315"/>
+      <c r="H25" s="315"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="316"/>
+      <c r="K25" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="L25" s="312"/>
-      <c r="M25" s="315" t="s">
+      <c r="L25" s="324"/>
+      <c r="M25" s="336" t="s">
         <v>128</v>
       </c>
-      <c r="N25" s="286"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="286"/>
-      <c r="R25" s="286"/>
-      <c r="S25" s="286"/>
-      <c r="T25" s="286"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="286"/>
-      <c r="W25" s="286"/>
-      <c r="X25" s="286"/>
-      <c r="Y25" s="286"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="286"/>
-      <c r="AD25" s="286"/>
-      <c r="AE25" s="286"/>
-      <c r="AF25" s="286"/>
-      <c r="AG25" s="286"/>
-      <c r="AH25" s="287"/>
+      <c r="N25" s="279"/>
+      <c r="O25" s="279"/>
+      <c r="P25" s="279"/>
+      <c r="Q25" s="279"/>
+      <c r="R25" s="279"/>
+      <c r="S25" s="279"/>
+      <c r="T25" s="279"/>
+      <c r="U25" s="279"/>
+      <c r="V25" s="279"/>
+      <c r="W25" s="279"/>
+      <c r="X25" s="279"/>
+      <c r="Y25" s="279"/>
+      <c r="Z25" s="279"/>
+      <c r="AA25" s="279"/>
+      <c r="AB25" s="279"/>
+      <c r="AC25" s="279"/>
+      <c r="AD25" s="279"/>
+      <c r="AE25" s="279"/>
+      <c r="AF25" s="279"/>
+      <c r="AG25" s="279"/>
+      <c r="AH25" s="280"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="331"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="333"/>
-      <c r="K26" s="334"/>
-      <c r="L26" s="335"/>
-      <c r="M26" s="288"/>
-      <c r="N26" s="289"/>
-      <c r="O26" s="289"/>
-      <c r="P26" s="289"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="289"/>
-      <c r="S26" s="289"/>
-      <c r="T26" s="289"/>
-      <c r="U26" s="289"/>
-      <c r="V26" s="289"/>
-      <c r="W26" s="289"/>
-      <c r="X26" s="289"/>
-      <c r="Y26" s="289"/>
-      <c r="Z26" s="289"/>
-      <c r="AA26" s="289"/>
-      <c r="AB26" s="289"/>
-      <c r="AC26" s="289"/>
-      <c r="AD26" s="289"/>
-      <c r="AE26" s="289"/>
-      <c r="AF26" s="289"/>
-      <c r="AG26" s="289"/>
-      <c r="AH26" s="290"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="318"/>
+      <c r="G26" s="318"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="318"/>
+      <c r="J26" s="319"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="326"/>
+      <c r="M26" s="266"/>
+      <c r="N26" s="267"/>
+      <c r="O26" s="267"/>
+      <c r="P26" s="267"/>
+      <c r="Q26" s="267"/>
+      <c r="R26" s="267"/>
+      <c r="S26" s="267"/>
+      <c r="T26" s="267"/>
+      <c r="U26" s="267"/>
+      <c r="V26" s="267"/>
+      <c r="W26" s="267"/>
+      <c r="X26" s="267"/>
+      <c r="Y26" s="267"/>
+      <c r="Z26" s="267"/>
+      <c r="AA26" s="267"/>
+      <c r="AB26" s="267"/>
+      <c r="AC26" s="267"/>
+      <c r="AD26" s="267"/>
+      <c r="AE26" s="267"/>
+      <c r="AF26" s="267"/>
+      <c r="AG26" s="267"/>
+      <c r="AH26" s="268"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="308"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="309"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="314"/>
-      <c r="M27" s="291"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="292"/>
-      <c r="P27" s="292"/>
-      <c r="Q27" s="292"/>
-      <c r="R27" s="292"/>
-      <c r="S27" s="292"/>
-      <c r="T27" s="292"/>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="292"/>
-      <c r="Y27" s="292"/>
-      <c r="Z27" s="292"/>
-      <c r="AA27" s="292"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="292"/>
-      <c r="AE27" s="292"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="292"/>
-      <c r="AH27" s="293"/>
+      <c r="E27" s="320"/>
+      <c r="F27" s="321"/>
+      <c r="G27" s="321"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="321"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="327"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
+      <c r="Q27" s="282"/>
+      <c r="R27" s="282"/>
+      <c r="S27" s="282"/>
+      <c r="T27" s="282"/>
+      <c r="U27" s="282"/>
+      <c r="V27" s="282"/>
+      <c r="W27" s="282"/>
+      <c r="X27" s="282"/>
+      <c r="Y27" s="282"/>
+      <c r="Z27" s="282"/>
+      <c r="AA27" s="282"/>
+      <c r="AB27" s="282"/>
+      <c r="AC27" s="282"/>
+      <c r="AD27" s="282"/>
+      <c r="AE27" s="282"/>
+      <c r="AF27" s="282"/>
+      <c r="AG27" s="282"/>
+      <c r="AH27" s="283"/>
     </row>
     <row r="28" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="305" t="s">
+      <c r="E28" s="314" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="306"/>
-      <c r="G28" s="306"/>
-      <c r="H28" s="306"/>
-      <c r="I28" s="306"/>
-      <c r="J28" s="307"/>
-      <c r="K28" s="311" t="s">
+      <c r="F28" s="315"/>
+      <c r="G28" s="315"/>
+      <c r="H28" s="315"/>
+      <c r="I28" s="315"/>
+      <c r="J28" s="316"/>
+      <c r="K28" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="L28" s="312"/>
-      <c r="M28" s="315" t="s">
+      <c r="L28" s="324"/>
+      <c r="M28" s="336" t="s">
         <v>198</v>
       </c>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="286"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="286"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="286"/>
-      <c r="W28" s="286"/>
-      <c r="X28" s="286"/>
-      <c r="Y28" s="286"/>
-      <c r="Z28" s="286"/>
-      <c r="AA28" s="286"/>
-      <c r="AB28" s="286"/>
-      <c r="AC28" s="286"/>
-      <c r="AD28" s="286"/>
-      <c r="AE28" s="286"/>
-      <c r="AF28" s="286"/>
-      <c r="AG28" s="286"/>
-      <c r="AH28" s="287"/>
+      <c r="N28" s="279"/>
+      <c r="O28" s="279"/>
+      <c r="P28" s="279"/>
+      <c r="Q28" s="279"/>
+      <c r="R28" s="279"/>
+      <c r="S28" s="279"/>
+      <c r="T28" s="279"/>
+      <c r="U28" s="279"/>
+      <c r="V28" s="279"/>
+      <c r="W28" s="279"/>
+      <c r="X28" s="279"/>
+      <c r="Y28" s="279"/>
+      <c r="Z28" s="279"/>
+      <c r="AA28" s="279"/>
+      <c r="AB28" s="279"/>
+      <c r="AC28" s="279"/>
+      <c r="AD28" s="279"/>
+      <c r="AE28" s="279"/>
+      <c r="AF28" s="279"/>
+      <c r="AG28" s="279"/>
+      <c r="AH28" s="280"/>
     </row>
     <row r="29" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="308"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="314"/>
-      <c r="M29" s="291"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="292"/>
-      <c r="Q29" s="292"/>
-      <c r="R29" s="292"/>
-      <c r="S29" s="292"/>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="292"/>
-      <c r="W29" s="292"/>
-      <c r="X29" s="292"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="292"/>
-      <c r="AA29" s="292"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="292"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="292"/>
-      <c r="AH29" s="293"/>
+      <c r="E29" s="320"/>
+      <c r="F29" s="321"/>
+      <c r="G29" s="321"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="321"/>
+      <c r="J29" s="322"/>
+      <c r="K29" s="327"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="281"/>
+      <c r="N29" s="282"/>
+      <c r="O29" s="282"/>
+      <c r="P29" s="282"/>
+      <c r="Q29" s="282"/>
+      <c r="R29" s="282"/>
+      <c r="S29" s="282"/>
+      <c r="T29" s="282"/>
+      <c r="U29" s="282"/>
+      <c r="V29" s="282"/>
+      <c r="W29" s="282"/>
+      <c r="X29" s="282"/>
+      <c r="Y29" s="282"/>
+      <c r="Z29" s="282"/>
+      <c r="AA29" s="282"/>
+      <c r="AB29" s="282"/>
+      <c r="AC29" s="282"/>
+      <c r="AD29" s="282"/>
+      <c r="AE29" s="282"/>
+      <c r="AF29" s="282"/>
+      <c r="AG29" s="282"/>
+      <c r="AH29" s="283"/>
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="305" t="s">
+      <c r="E30" s="314" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="306"/>
-      <c r="G30" s="306"/>
-      <c r="H30" s="306"/>
-      <c r="I30" s="306"/>
-      <c r="J30" s="307"/>
-      <c r="K30" s="311" t="s">
+      <c r="F30" s="315"/>
+      <c r="G30" s="315"/>
+      <c r="H30" s="315"/>
+      <c r="I30" s="315"/>
+      <c r="J30" s="316"/>
+      <c r="K30" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="L30" s="312"/>
-      <c r="M30" s="315" t="s">
+      <c r="L30" s="324"/>
+      <c r="M30" s="336" t="s">
         <v>199</v>
       </c>
-      <c r="N30" s="286"/>
-      <c r="O30" s="286"/>
-      <c r="P30" s="286"/>
-      <c r="Q30" s="286"/>
-      <c r="R30" s="286"/>
-      <c r="S30" s="286"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="286"/>
-      <c r="V30" s="286"/>
-      <c r="W30" s="286"/>
-      <c r="X30" s="286"/>
-      <c r="Y30" s="286"/>
-      <c r="Z30" s="286"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="286"/>
-      <c r="AC30" s="286"/>
-      <c r="AD30" s="286"/>
-      <c r="AE30" s="286"/>
-      <c r="AF30" s="286"/>
-      <c r="AG30" s="286"/>
-      <c r="AH30" s="287"/>
+      <c r="N30" s="279"/>
+      <c r="O30" s="279"/>
+      <c r="P30" s="279"/>
+      <c r="Q30" s="279"/>
+      <c r="R30" s="279"/>
+      <c r="S30" s="279"/>
+      <c r="T30" s="279"/>
+      <c r="U30" s="279"/>
+      <c r="V30" s="279"/>
+      <c r="W30" s="279"/>
+      <c r="X30" s="279"/>
+      <c r="Y30" s="279"/>
+      <c r="Z30" s="279"/>
+      <c r="AA30" s="279"/>
+      <c r="AB30" s="279"/>
+      <c r="AC30" s="279"/>
+      <c r="AD30" s="279"/>
+      <c r="AE30" s="279"/>
+      <c r="AF30" s="279"/>
+      <c r="AG30" s="279"/>
+      <c r="AH30" s="280"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="308"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="313"/>
-      <c r="L31" s="314"/>
-      <c r="M31" s="291"/>
-      <c r="N31" s="292"/>
-      <c r="O31" s="292"/>
-      <c r="P31" s="292"/>
-      <c r="Q31" s="292"/>
-      <c r="R31" s="292"/>
-      <c r="S31" s="292"/>
-      <c r="T31" s="292"/>
-      <c r="U31" s="292"/>
-      <c r="V31" s="292"/>
-      <c r="W31" s="292"/>
-      <c r="X31" s="292"/>
-      <c r="Y31" s="292"/>
-      <c r="Z31" s="292"/>
-      <c r="AA31" s="292"/>
-      <c r="AB31" s="292"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="292"/>
-      <c r="AE31" s="292"/>
-      <c r="AF31" s="292"/>
-      <c r="AG31" s="292"/>
-      <c r="AH31" s="293"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="321"/>
+      <c r="G31" s="321"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="321"/>
+      <c r="J31" s="322"/>
+      <c r="K31" s="327"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="281"/>
+      <c r="N31" s="282"/>
+      <c r="O31" s="282"/>
+      <c r="P31" s="282"/>
+      <c r="Q31" s="282"/>
+      <c r="R31" s="282"/>
+      <c r="S31" s="282"/>
+      <c r="T31" s="282"/>
+      <c r="U31" s="282"/>
+      <c r="V31" s="282"/>
+      <c r="W31" s="282"/>
+      <c r="X31" s="282"/>
+      <c r="Y31" s="282"/>
+      <c r="Z31" s="282"/>
+      <c r="AA31" s="282"/>
+      <c r="AB31" s="282"/>
+      <c r="AC31" s="282"/>
+      <c r="AD31" s="282"/>
+      <c r="AE31" s="282"/>
+      <c r="AF31" s="282"/>
+      <c r="AG31" s="282"/>
+      <c r="AH31" s="283"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="118" t="s">
@@ -15005,502 +15077,502 @@
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="298" t="s">
+      <c r="E35" s="285" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
-      <c r="J35" s="300"/>
-      <c r="K35" s="298" t="s">
+      <c r="F35" s="286"/>
+      <c r="G35" s="286"/>
+      <c r="H35" s="286"/>
+      <c r="I35" s="286"/>
+      <c r="J35" s="287"/>
+      <c r="K35" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="300"/>
-      <c r="M35" s="298" t="s">
+      <c r="L35" s="287"/>
+      <c r="M35" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="N35" s="299"/>
-      <c r="O35" s="299"/>
-      <c r="P35" s="299"/>
-      <c r="Q35" s="299"/>
-      <c r="R35" s="299"/>
-      <c r="S35" s="299"/>
-      <c r="T35" s="299"/>
-      <c r="U35" s="299"/>
-      <c r="V35" s="299"/>
-      <c r="W35" s="299"/>
-      <c r="X35" s="299"/>
-      <c r="Y35" s="299"/>
-      <c r="Z35" s="299"/>
-      <c r="AA35" s="299"/>
-      <c r="AB35" s="299"/>
-      <c r="AC35" s="299"/>
-      <c r="AD35" s="299"/>
-      <c r="AE35" s="299"/>
-      <c r="AF35" s="299"/>
-      <c r="AG35" s="299"/>
-      <c r="AH35" s="300"/>
+      <c r="N35" s="286"/>
+      <c r="O35" s="286"/>
+      <c r="P35" s="286"/>
+      <c r="Q35" s="286"/>
+      <c r="R35" s="286"/>
+      <c r="S35" s="286"/>
+      <c r="T35" s="286"/>
+      <c r="U35" s="286"/>
+      <c r="V35" s="286"/>
+      <c r="W35" s="286"/>
+      <c r="X35" s="286"/>
+      <c r="Y35" s="286"/>
+      <c r="Z35" s="286"/>
+      <c r="AA35" s="286"/>
+      <c r="AB35" s="286"/>
+      <c r="AC35" s="286"/>
+      <c r="AD35" s="286"/>
+      <c r="AE35" s="286"/>
+      <c r="AF35" s="286"/>
+      <c r="AG35" s="286"/>
+      <c r="AH35" s="287"/>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="316" t="s">
+      <c r="E36" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="317"/>
-      <c r="G36" s="317"/>
-      <c r="H36" s="317"/>
-      <c r="I36" s="317"/>
-      <c r="J36" s="318"/>
-      <c r="K36" s="193" t="s">
+      <c r="F36" s="307"/>
+      <c r="G36" s="307"/>
+      <c r="H36" s="307"/>
+      <c r="I36" s="307"/>
+      <c r="J36" s="308"/>
+      <c r="K36" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="194"/>
-      <c r="M36" s="324" t="s">
+      <c r="L36" s="129"/>
+      <c r="M36" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="N36" s="325"/>
-      <c r="O36" s="325"/>
-      <c r="P36" s="325"/>
-      <c r="Q36" s="325"/>
-      <c r="R36" s="325"/>
-      <c r="S36" s="325"/>
-      <c r="T36" s="325"/>
-      <c r="U36" s="325"/>
-      <c r="V36" s="325"/>
-      <c r="W36" s="325"/>
-      <c r="X36" s="325"/>
-      <c r="Y36" s="325"/>
-      <c r="Z36" s="325"/>
-      <c r="AA36" s="325"/>
-      <c r="AB36" s="325"/>
-      <c r="AC36" s="325"/>
-      <c r="AD36" s="325"/>
-      <c r="AE36" s="325"/>
-      <c r="AF36" s="325"/>
-      <c r="AG36" s="325"/>
-      <c r="AH36" s="326"/>
+      <c r="N36" s="330"/>
+      <c r="O36" s="330"/>
+      <c r="P36" s="330"/>
+      <c r="Q36" s="330"/>
+      <c r="R36" s="330"/>
+      <c r="S36" s="330"/>
+      <c r="T36" s="330"/>
+      <c r="U36" s="330"/>
+      <c r="V36" s="330"/>
+      <c r="W36" s="330"/>
+      <c r="X36" s="330"/>
+      <c r="Y36" s="330"/>
+      <c r="Z36" s="330"/>
+      <c r="AA36" s="330"/>
+      <c r="AB36" s="330"/>
+      <c r="AC36" s="330"/>
+      <c r="AD36" s="330"/>
+      <c r="AE36" s="330"/>
+      <c r="AF36" s="330"/>
+      <c r="AG36" s="330"/>
+      <c r="AH36" s="331"/>
     </row>
     <row r="37" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="319"/>
-      <c r="F37" s="320"/>
-      <c r="G37" s="320"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="322"/>
-      <c r="L37" s="323"/>
-      <c r="M37" s="327"/>
-      <c r="N37" s="328"/>
-      <c r="O37" s="328"/>
-      <c r="P37" s="328"/>
-      <c r="Q37" s="328"/>
-      <c r="R37" s="328"/>
-      <c r="S37" s="328"/>
-      <c r="T37" s="328"/>
-      <c r="U37" s="328"/>
-      <c r="V37" s="328"/>
-      <c r="W37" s="328"/>
-      <c r="X37" s="328"/>
-      <c r="Y37" s="328"/>
-      <c r="Z37" s="328"/>
-      <c r="AA37" s="328"/>
-      <c r="AB37" s="328"/>
-      <c r="AC37" s="328"/>
-      <c r="AD37" s="328"/>
-      <c r="AE37" s="328"/>
-      <c r="AF37" s="328"/>
-      <c r="AG37" s="328"/>
-      <c r="AH37" s="329"/>
+      <c r="E37" s="309"/>
+      <c r="F37" s="310"/>
+      <c r="G37" s="310"/>
+      <c r="H37" s="310"/>
+      <c r="I37" s="310"/>
+      <c r="J37" s="311"/>
+      <c r="K37" s="312"/>
+      <c r="L37" s="313"/>
+      <c r="M37" s="332"/>
+      <c r="N37" s="333"/>
+      <c r="O37" s="333"/>
+      <c r="P37" s="333"/>
+      <c r="Q37" s="333"/>
+      <c r="R37" s="333"/>
+      <c r="S37" s="333"/>
+      <c r="T37" s="333"/>
+      <c r="U37" s="333"/>
+      <c r="V37" s="333"/>
+      <c r="W37" s="333"/>
+      <c r="X37" s="333"/>
+      <c r="Y37" s="333"/>
+      <c r="Z37" s="333"/>
+      <c r="AA37" s="333"/>
+      <c r="AB37" s="333"/>
+      <c r="AC37" s="333"/>
+      <c r="AD37" s="333"/>
+      <c r="AE37" s="333"/>
+      <c r="AF37" s="333"/>
+      <c r="AG37" s="333"/>
+      <c r="AH37" s="334"/>
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="305" t="s">
+      <c r="E38" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="306"/>
-      <c r="G38" s="306"/>
-      <c r="H38" s="306"/>
-      <c r="I38" s="306"/>
-      <c r="J38" s="307"/>
-      <c r="K38" s="311" t="s">
+      <c r="F38" s="315"/>
+      <c r="G38" s="315"/>
+      <c r="H38" s="315"/>
+      <c r="I38" s="315"/>
+      <c r="J38" s="316"/>
+      <c r="K38" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="312"/>
-      <c r="M38" s="285" t="s">
+      <c r="L38" s="324"/>
+      <c r="M38" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="N38" s="286"/>
-      <c r="O38" s="286"/>
-      <c r="P38" s="286"/>
-      <c r="Q38" s="286"/>
-      <c r="R38" s="286"/>
-      <c r="S38" s="286"/>
-      <c r="T38" s="286"/>
-      <c r="U38" s="286"/>
-      <c r="V38" s="286"/>
-      <c r="W38" s="286"/>
-      <c r="X38" s="286"/>
-      <c r="Y38" s="286"/>
-      <c r="Z38" s="286"/>
-      <c r="AA38" s="286"/>
-      <c r="AB38" s="286"/>
-      <c r="AC38" s="286"/>
-      <c r="AD38" s="286"/>
-      <c r="AE38" s="286"/>
-      <c r="AF38" s="286"/>
-      <c r="AG38" s="286"/>
-      <c r="AH38" s="287"/>
+      <c r="N38" s="279"/>
+      <c r="O38" s="279"/>
+      <c r="P38" s="279"/>
+      <c r="Q38" s="279"/>
+      <c r="R38" s="279"/>
+      <c r="S38" s="279"/>
+      <c r="T38" s="279"/>
+      <c r="U38" s="279"/>
+      <c r="V38" s="279"/>
+      <c r="W38" s="279"/>
+      <c r="X38" s="279"/>
+      <c r="Y38" s="279"/>
+      <c r="Z38" s="279"/>
+      <c r="AA38" s="279"/>
+      <c r="AB38" s="279"/>
+      <c r="AC38" s="279"/>
+      <c r="AD38" s="279"/>
+      <c r="AE38" s="279"/>
+      <c r="AF38" s="279"/>
+      <c r="AG38" s="279"/>
+      <c r="AH38" s="280"/>
     </row>
     <row r="39" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="331"/>
-      <c r="F39" s="332"/>
-      <c r="G39" s="332"/>
-      <c r="H39" s="332"/>
-      <c r="I39" s="332"/>
-      <c r="J39" s="333"/>
-      <c r="K39" s="334"/>
-      <c r="L39" s="335"/>
-      <c r="M39" s="288"/>
-      <c r="N39" s="289"/>
-      <c r="O39" s="289"/>
-      <c r="P39" s="289"/>
-      <c r="Q39" s="289"/>
-      <c r="R39" s="289"/>
-      <c r="S39" s="289"/>
-      <c r="T39" s="289"/>
-      <c r="U39" s="289"/>
-      <c r="V39" s="289"/>
-      <c r="W39" s="289"/>
-      <c r="X39" s="289"/>
-      <c r="Y39" s="289"/>
-      <c r="Z39" s="289"/>
-      <c r="AA39" s="289"/>
-      <c r="AB39" s="289"/>
-      <c r="AC39" s="289"/>
-      <c r="AD39" s="289"/>
-      <c r="AE39" s="289"/>
-      <c r="AF39" s="289"/>
-      <c r="AG39" s="289"/>
-      <c r="AH39" s="290"/>
+      <c r="E39" s="317"/>
+      <c r="F39" s="318"/>
+      <c r="G39" s="318"/>
+      <c r="H39" s="318"/>
+      <c r="I39" s="318"/>
+      <c r="J39" s="319"/>
+      <c r="K39" s="325"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="266"/>
+      <c r="N39" s="267"/>
+      <c r="O39" s="267"/>
+      <c r="P39" s="267"/>
+      <c r="Q39" s="267"/>
+      <c r="R39" s="267"/>
+      <c r="S39" s="267"/>
+      <c r="T39" s="267"/>
+      <c r="U39" s="267"/>
+      <c r="V39" s="267"/>
+      <c r="W39" s="267"/>
+      <c r="X39" s="267"/>
+      <c r="Y39" s="267"/>
+      <c r="Z39" s="267"/>
+      <c r="AA39" s="267"/>
+      <c r="AB39" s="267"/>
+      <c r="AC39" s="267"/>
+      <c r="AD39" s="267"/>
+      <c r="AE39" s="267"/>
+      <c r="AF39" s="267"/>
+      <c r="AG39" s="267"/>
+      <c r="AH39" s="268"/>
     </row>
     <row r="40" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="331"/>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
-      <c r="J40" s="333"/>
-      <c r="K40" s="334"/>
-      <c r="L40" s="335"/>
-      <c r="M40" s="288"/>
-      <c r="N40" s="289"/>
-      <c r="O40" s="289"/>
-      <c r="P40" s="289"/>
-      <c r="Q40" s="289"/>
-      <c r="R40" s="289"/>
-      <c r="S40" s="289"/>
-      <c r="T40" s="289"/>
-      <c r="U40" s="289"/>
-      <c r="V40" s="289"/>
-      <c r="W40" s="289"/>
-      <c r="X40" s="289"/>
-      <c r="Y40" s="289"/>
-      <c r="Z40" s="289"/>
-      <c r="AA40" s="289"/>
-      <c r="AB40" s="289"/>
-      <c r="AC40" s="289"/>
-      <c r="AD40" s="289"/>
-      <c r="AE40" s="289"/>
-      <c r="AF40" s="289"/>
-      <c r="AG40" s="289"/>
-      <c r="AH40" s="290"/>
+      <c r="E40" s="317"/>
+      <c r="F40" s="318"/>
+      <c r="G40" s="318"/>
+      <c r="H40" s="318"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="319"/>
+      <c r="K40" s="325"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="266"/>
+      <c r="N40" s="267"/>
+      <c r="O40" s="267"/>
+      <c r="P40" s="267"/>
+      <c r="Q40" s="267"/>
+      <c r="R40" s="267"/>
+      <c r="S40" s="267"/>
+      <c r="T40" s="267"/>
+      <c r="U40" s="267"/>
+      <c r="V40" s="267"/>
+      <c r="W40" s="267"/>
+      <c r="X40" s="267"/>
+      <c r="Y40" s="267"/>
+      <c r="Z40" s="267"/>
+      <c r="AA40" s="267"/>
+      <c r="AB40" s="267"/>
+      <c r="AC40" s="267"/>
+      <c r="AD40" s="267"/>
+      <c r="AE40" s="267"/>
+      <c r="AF40" s="267"/>
+      <c r="AG40" s="267"/>
+      <c r="AH40" s="268"/>
     </row>
     <row r="41" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="308"/>
-      <c r="F41" s="309"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="309"/>
-      <c r="I41" s="309"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="313"/>
-      <c r="L41" s="314"/>
-      <c r="M41" s="291"/>
-      <c r="N41" s="292"/>
-      <c r="O41" s="292"/>
-      <c r="P41" s="292"/>
-      <c r="Q41" s="292"/>
-      <c r="R41" s="292"/>
-      <c r="S41" s="292"/>
-      <c r="T41" s="292"/>
-      <c r="U41" s="292"/>
-      <c r="V41" s="292"/>
-      <c r="W41" s="292"/>
-      <c r="X41" s="292"/>
-      <c r="Y41" s="292"/>
-      <c r="Z41" s="292"/>
-      <c r="AA41" s="292"/>
-      <c r="AB41" s="292"/>
-      <c r="AC41" s="292"/>
-      <c r="AD41" s="292"/>
-      <c r="AE41" s="292"/>
-      <c r="AF41" s="292"/>
-      <c r="AG41" s="292"/>
-      <c r="AH41" s="293"/>
+      <c r="E41" s="320"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="321"/>
+      <c r="I41" s="321"/>
+      <c r="J41" s="322"/>
+      <c r="K41" s="327"/>
+      <c r="L41" s="328"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="282"/>
+      <c r="O41" s="282"/>
+      <c r="P41" s="282"/>
+      <c r="Q41" s="282"/>
+      <c r="R41" s="282"/>
+      <c r="S41" s="282"/>
+      <c r="T41" s="282"/>
+      <c r="U41" s="282"/>
+      <c r="V41" s="282"/>
+      <c r="W41" s="282"/>
+      <c r="X41" s="282"/>
+      <c r="Y41" s="282"/>
+      <c r="Z41" s="282"/>
+      <c r="AA41" s="282"/>
+      <c r="AB41" s="282"/>
+      <c r="AC41" s="282"/>
+      <c r="AD41" s="282"/>
+      <c r="AE41" s="282"/>
+      <c r="AF41" s="282"/>
+      <c r="AG41" s="282"/>
+      <c r="AH41" s="283"/>
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="305" t="s">
+      <c r="E42" s="314" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="306"/>
-      <c r="G42" s="306"/>
-      <c r="H42" s="306"/>
-      <c r="I42" s="306"/>
-      <c r="J42" s="307"/>
-      <c r="K42" s="311" t="s">
+      <c r="F42" s="315"/>
+      <c r="G42" s="315"/>
+      <c r="H42" s="315"/>
+      <c r="I42" s="315"/>
+      <c r="J42" s="316"/>
+      <c r="K42" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="L42" s="312"/>
-      <c r="M42" s="315" t="s">
+      <c r="L42" s="324"/>
+      <c r="M42" s="336" t="s">
         <v>198</v>
       </c>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
-      <c r="X42" s="286"/>
-      <c r="Y42" s="286"/>
-      <c r="Z42" s="286"/>
-      <c r="AA42" s="286"/>
-      <c r="AB42" s="286"/>
-      <c r="AC42" s="286"/>
-      <c r="AD42" s="286"/>
-      <c r="AE42" s="286"/>
-      <c r="AF42" s="286"/>
-      <c r="AG42" s="286"/>
-      <c r="AH42" s="287"/>
+      <c r="N42" s="279"/>
+      <c r="O42" s="279"/>
+      <c r="P42" s="279"/>
+      <c r="Q42" s="279"/>
+      <c r="R42" s="279"/>
+      <c r="S42" s="279"/>
+      <c r="T42" s="279"/>
+      <c r="U42" s="279"/>
+      <c r="V42" s="279"/>
+      <c r="W42" s="279"/>
+      <c r="X42" s="279"/>
+      <c r="Y42" s="279"/>
+      <c r="Z42" s="279"/>
+      <c r="AA42" s="279"/>
+      <c r="AB42" s="279"/>
+      <c r="AC42" s="279"/>
+      <c r="AD42" s="279"/>
+      <c r="AE42" s="279"/>
+      <c r="AF42" s="279"/>
+      <c r="AG42" s="279"/>
+      <c r="AH42" s="280"/>
     </row>
     <row r="43" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="308"/>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="310"/>
-      <c r="K43" s="313"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="292"/>
-      <c r="O43" s="292"/>
-      <c r="P43" s="292"/>
-      <c r="Q43" s="292"/>
-      <c r="R43" s="292"/>
-      <c r="S43" s="292"/>
-      <c r="T43" s="292"/>
-      <c r="U43" s="292"/>
-      <c r="V43" s="292"/>
-      <c r="W43" s="292"/>
-      <c r="X43" s="292"/>
-      <c r="Y43" s="292"/>
-      <c r="Z43" s="292"/>
-      <c r="AA43" s="292"/>
-      <c r="AB43" s="292"/>
-      <c r="AC43" s="292"/>
-      <c r="AD43" s="292"/>
-      <c r="AE43" s="292"/>
-      <c r="AF43" s="292"/>
-      <c r="AG43" s="292"/>
-      <c r="AH43" s="293"/>
+      <c r="E43" s="320"/>
+      <c r="F43" s="321"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="321"/>
+      <c r="I43" s="321"/>
+      <c r="J43" s="322"/>
+      <c r="K43" s="327"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="281"/>
+      <c r="N43" s="282"/>
+      <c r="O43" s="282"/>
+      <c r="P43" s="282"/>
+      <c r="Q43" s="282"/>
+      <c r="R43" s="282"/>
+      <c r="S43" s="282"/>
+      <c r="T43" s="282"/>
+      <c r="U43" s="282"/>
+      <c r="V43" s="282"/>
+      <c r="W43" s="282"/>
+      <c r="X43" s="282"/>
+      <c r="Y43" s="282"/>
+      <c r="Z43" s="282"/>
+      <c r="AA43" s="282"/>
+      <c r="AB43" s="282"/>
+      <c r="AC43" s="282"/>
+      <c r="AD43" s="282"/>
+      <c r="AE43" s="282"/>
+      <c r="AF43" s="282"/>
+      <c r="AG43" s="282"/>
+      <c r="AH43" s="283"/>
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="305" t="s">
+      <c r="E44" s="314" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
-      <c r="H44" s="306"/>
-      <c r="I44" s="306"/>
-      <c r="J44" s="307"/>
-      <c r="K44" s="311" t="s">
+      <c r="F44" s="315"/>
+      <c r="G44" s="315"/>
+      <c r="H44" s="315"/>
+      <c r="I44" s="315"/>
+      <c r="J44" s="316"/>
+      <c r="K44" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="L44" s="312"/>
-      <c r="M44" s="315" t="s">
+      <c r="L44" s="324"/>
+      <c r="M44" s="336" t="s">
         <v>199</v>
       </c>
-      <c r="N44" s="286"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="286"/>
-      <c r="Q44" s="286"/>
-      <c r="R44" s="286"/>
-      <c r="S44" s="286"/>
-      <c r="T44" s="286"/>
-      <c r="U44" s="286"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="286"/>
-      <c r="X44" s="286"/>
-      <c r="Y44" s="286"/>
-      <c r="Z44" s="286"/>
-      <c r="AA44" s="286"/>
-      <c r="AB44" s="286"/>
-      <c r="AC44" s="286"/>
-      <c r="AD44" s="286"/>
-      <c r="AE44" s="286"/>
-      <c r="AF44" s="286"/>
-      <c r="AG44" s="286"/>
-      <c r="AH44" s="287"/>
+      <c r="N44" s="279"/>
+      <c r="O44" s="279"/>
+      <c r="P44" s="279"/>
+      <c r="Q44" s="279"/>
+      <c r="R44" s="279"/>
+      <c r="S44" s="279"/>
+      <c r="T44" s="279"/>
+      <c r="U44" s="279"/>
+      <c r="V44" s="279"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="279"/>
+      <c r="Y44" s="279"/>
+      <c r="Z44" s="279"/>
+      <c r="AA44" s="279"/>
+      <c r="AB44" s="279"/>
+      <c r="AC44" s="279"/>
+      <c r="AD44" s="279"/>
+      <c r="AE44" s="279"/>
+      <c r="AF44" s="279"/>
+      <c r="AG44" s="279"/>
+      <c r="AH44" s="280"/>
     </row>
     <row r="45" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="308"/>
-      <c r="F45" s="309"/>
-      <c r="G45" s="309"/>
-      <c r="H45" s="309"/>
-      <c r="I45" s="309"/>
-      <c r="J45" s="310"/>
-      <c r="K45" s="313"/>
-      <c r="L45" s="314"/>
-      <c r="M45" s="291"/>
-      <c r="N45" s="292"/>
-      <c r="O45" s="292"/>
-      <c r="P45" s="292"/>
-      <c r="Q45" s="292"/>
-      <c r="R45" s="292"/>
-      <c r="S45" s="292"/>
-      <c r="T45" s="292"/>
-      <c r="U45" s="292"/>
-      <c r="V45" s="292"/>
-      <c r="W45" s="292"/>
-      <c r="X45" s="292"/>
-      <c r="Y45" s="292"/>
-      <c r="Z45" s="292"/>
-      <c r="AA45" s="292"/>
-      <c r="AB45" s="292"/>
-      <c r="AC45" s="292"/>
-      <c r="AD45" s="292"/>
-      <c r="AE45" s="292"/>
-      <c r="AF45" s="292"/>
-      <c r="AG45" s="292"/>
-      <c r="AH45" s="293"/>
+      <c r="E45" s="320"/>
+      <c r="F45" s="321"/>
+      <c r="G45" s="321"/>
+      <c r="H45" s="321"/>
+      <c r="I45" s="321"/>
+      <c r="J45" s="322"/>
+      <c r="K45" s="327"/>
+      <c r="L45" s="328"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
+      <c r="O45" s="282"/>
+      <c r="P45" s="282"/>
+      <c r="Q45" s="282"/>
+      <c r="R45" s="282"/>
+      <c r="S45" s="282"/>
+      <c r="T45" s="282"/>
+      <c r="U45" s="282"/>
+      <c r="V45" s="282"/>
+      <c r="W45" s="282"/>
+      <c r="X45" s="282"/>
+      <c r="Y45" s="282"/>
+      <c r="Z45" s="282"/>
+      <c r="AA45" s="282"/>
+      <c r="AB45" s="282"/>
+      <c r="AC45" s="282"/>
+      <c r="AD45" s="282"/>
+      <c r="AE45" s="282"/>
+      <c r="AF45" s="282"/>
+      <c r="AG45" s="282"/>
+      <c r="AH45" s="283"/>
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="330" t="s">
+      <c r="E46" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="306"/>
-      <c r="G46" s="306"/>
-      <c r="H46" s="306"/>
-      <c r="I46" s="306"/>
-      <c r="J46" s="307"/>
-      <c r="K46" s="311" t="s">
+      <c r="F46" s="315"/>
+      <c r="G46" s="315"/>
+      <c r="H46" s="315"/>
+      <c r="I46" s="315"/>
+      <c r="J46" s="316"/>
+      <c r="K46" s="323" t="s">
         <v>67</v>
       </c>
-      <c r="L46" s="312"/>
-      <c r="M46" s="285" t="s">
+      <c r="L46" s="324"/>
+      <c r="M46" s="278" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="286"/>
-      <c r="O46" s="286"/>
-      <c r="P46" s="286"/>
-      <c r="Q46" s="286"/>
-      <c r="R46" s="286"/>
-      <c r="S46" s="286"/>
-      <c r="T46" s="286"/>
-      <c r="U46" s="286"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="286"/>
-      <c r="X46" s="286"/>
-      <c r="Y46" s="286"/>
-      <c r="Z46" s="286"/>
-      <c r="AA46" s="286"/>
-      <c r="AB46" s="286"/>
-      <c r="AC46" s="286"/>
-      <c r="AD46" s="286"/>
-      <c r="AE46" s="286"/>
-      <c r="AF46" s="286"/>
-      <c r="AG46" s="286"/>
-      <c r="AH46" s="287"/>
+      <c r="N46" s="279"/>
+      <c r="O46" s="279"/>
+      <c r="P46" s="279"/>
+      <c r="Q46" s="279"/>
+      <c r="R46" s="279"/>
+      <c r="S46" s="279"/>
+      <c r="T46" s="279"/>
+      <c r="U46" s="279"/>
+      <c r="V46" s="279"/>
+      <c r="W46" s="279"/>
+      <c r="X46" s="279"/>
+      <c r="Y46" s="279"/>
+      <c r="Z46" s="279"/>
+      <c r="AA46" s="279"/>
+      <c r="AB46" s="279"/>
+      <c r="AC46" s="279"/>
+      <c r="AD46" s="279"/>
+      <c r="AE46" s="279"/>
+      <c r="AF46" s="279"/>
+      <c r="AG46" s="279"/>
+      <c r="AH46" s="280"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="331"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
-      <c r="H47" s="332"/>
-      <c r="I47" s="332"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="335"/>
-      <c r="M47" s="288"/>
-      <c r="N47" s="289"/>
-      <c r="O47" s="289"/>
-      <c r="P47" s="289"/>
-      <c r="Q47" s="289"/>
-      <c r="R47" s="289"/>
-      <c r="S47" s="289"/>
-      <c r="T47" s="289"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="289"/>
-      <c r="W47" s="289"/>
-      <c r="X47" s="289"/>
-      <c r="Y47" s="289"/>
-      <c r="Z47" s="289"/>
-      <c r="AA47" s="289"/>
-      <c r="AB47" s="289"/>
-      <c r="AC47" s="289"/>
-      <c r="AD47" s="289"/>
-      <c r="AE47" s="289"/>
-      <c r="AF47" s="289"/>
-      <c r="AG47" s="289"/>
-      <c r="AH47" s="290"/>
+      <c r="E47" s="317"/>
+      <c r="F47" s="318"/>
+      <c r="G47" s="318"/>
+      <c r="H47" s="318"/>
+      <c r="I47" s="318"/>
+      <c r="J47" s="319"/>
+      <c r="K47" s="325"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="266"/>
+      <c r="N47" s="267"/>
+      <c r="O47" s="267"/>
+      <c r="P47" s="267"/>
+      <c r="Q47" s="267"/>
+      <c r="R47" s="267"/>
+      <c r="S47" s="267"/>
+      <c r="T47" s="267"/>
+      <c r="U47" s="267"/>
+      <c r="V47" s="267"/>
+      <c r="W47" s="267"/>
+      <c r="X47" s="267"/>
+      <c r="Y47" s="267"/>
+      <c r="Z47" s="267"/>
+      <c r="AA47" s="267"/>
+      <c r="AB47" s="267"/>
+      <c r="AC47" s="267"/>
+      <c r="AD47" s="267"/>
+      <c r="AE47" s="267"/>
+      <c r="AF47" s="267"/>
+      <c r="AG47" s="267"/>
+      <c r="AH47" s="268"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="308"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="309"/>
-      <c r="H48" s="309"/>
-      <c r="I48" s="309"/>
-      <c r="J48" s="310"/>
-      <c r="K48" s="313"/>
-      <c r="L48" s="314"/>
-      <c r="M48" s="291"/>
-      <c r="N48" s="292"/>
-      <c r="O48" s="292"/>
-      <c r="P48" s="292"/>
-      <c r="Q48" s="292"/>
-      <c r="R48" s="292"/>
-      <c r="S48" s="292"/>
-      <c r="T48" s="292"/>
-      <c r="U48" s="292"/>
-      <c r="V48" s="292"/>
-      <c r="W48" s="292"/>
-      <c r="X48" s="292"/>
-      <c r="Y48" s="292"/>
-      <c r="Z48" s="292"/>
-      <c r="AA48" s="292"/>
-      <c r="AB48" s="292"/>
-      <c r="AC48" s="292"/>
-      <c r="AD48" s="292"/>
-      <c r="AE48" s="292"/>
-      <c r="AF48" s="292"/>
-      <c r="AG48" s="292"/>
-      <c r="AH48" s="293"/>
+      <c r="E48" s="320"/>
+      <c r="F48" s="321"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="321"/>
+      <c r="J48" s="322"/>
+      <c r="K48" s="327"/>
+      <c r="L48" s="328"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="282"/>
+      <c r="O48" s="282"/>
+      <c r="P48" s="282"/>
+      <c r="Q48" s="282"/>
+      <c r="R48" s="282"/>
+      <c r="S48" s="282"/>
+      <c r="T48" s="282"/>
+      <c r="U48" s="282"/>
+      <c r="V48" s="282"/>
+      <c r="W48" s="282"/>
+      <c r="X48" s="282"/>
+      <c r="Y48" s="282"/>
+      <c r="Z48" s="282"/>
+      <c r="AA48" s="282"/>
+      <c r="AB48" s="282"/>
+      <c r="AC48" s="282"/>
+      <c r="AD48" s="282"/>
+      <c r="AE48" s="282"/>
+      <c r="AF48" s="282"/>
+      <c r="AG48" s="282"/>
+      <c r="AH48" s="283"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="305" t="s">
+      <c r="E49" s="314" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="306"/>
-      <c r="G49" s="306"/>
-      <c r="H49" s="306"/>
-      <c r="I49" s="306"/>
-      <c r="J49" s="307"/>
-      <c r="K49" s="311" t="s">
+      <c r="F49" s="315"/>
+      <c r="G49" s="315"/>
+      <c r="H49" s="315"/>
+      <c r="I49" s="315"/>
+      <c r="J49" s="316"/>
+      <c r="K49" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="L49" s="312"/>
+      <c r="L49" s="324"/>
       <c r="M49" s="61" t="s">
         <v>19</v>
       </c>
@@ -15527,14 +15599,14 @@
       <c r="AH49" s="62"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="331"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
-      <c r="J50" s="333"/>
-      <c r="K50" s="334"/>
-      <c r="L50" s="335"/>
+      <c r="E50" s="317"/>
+      <c r="F50" s="318"/>
+      <c r="G50" s="318"/>
+      <c r="H50" s="318"/>
+      <c r="I50" s="318"/>
+      <c r="J50" s="319"/>
+      <c r="K50" s="325"/>
+      <c r="L50" s="326"/>
       <c r="M50" s="61" t="s">
         <v>55</v>
       </c>
@@ -15561,14 +15633,14 @@
       <c r="AH50" s="62"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="331"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="333"/>
-      <c r="K51" s="334"/>
-      <c r="L51" s="335"/>
+      <c r="E51" s="317"/>
+      <c r="F51" s="318"/>
+      <c r="G51" s="318"/>
+      <c r="H51" s="318"/>
+      <c r="I51" s="318"/>
+      <c r="J51" s="319"/>
+      <c r="K51" s="325"/>
+      <c r="L51" s="326"/>
       <c r="M51" s="61" t="s">
         <v>20</v>
       </c>
@@ -15595,14 +15667,14 @@
       <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="331"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="333"/>
-      <c r="K52" s="334"/>
-      <c r="L52" s="335"/>
+      <c r="E52" s="317"/>
+      <c r="F52" s="318"/>
+      <c r="G52" s="318"/>
+      <c r="H52" s="318"/>
+      <c r="I52" s="318"/>
+      <c r="J52" s="319"/>
+      <c r="K52" s="325"/>
+      <c r="L52" s="326"/>
       <c r="M52" s="61" t="s">
         <v>53</v>
       </c>
@@ -15617,14 +15689,14 @@
       <c r="AH52" s="62"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="331"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
-      <c r="H53" s="332"/>
-      <c r="I53" s="332"/>
-      <c r="J53" s="333"/>
-      <c r="K53" s="334"/>
-      <c r="L53" s="335"/>
+      <c r="E53" s="317"/>
+      <c r="F53" s="318"/>
+      <c r="G53" s="318"/>
+      <c r="H53" s="318"/>
+      <c r="I53" s="318"/>
+      <c r="J53" s="319"/>
+      <c r="K53" s="325"/>
+      <c r="L53" s="326"/>
       <c r="M53" s="61"/>
       <c r="N53" s="15" t="s">
         <v>54</v>
@@ -15640,14 +15712,14 @@
       <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="331"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
-      <c r="J54" s="333"/>
-      <c r="K54" s="334"/>
-      <c r="L54" s="335"/>
+      <c r="E54" s="317"/>
+      <c r="F54" s="318"/>
+      <c r="G54" s="318"/>
+      <c r="H54" s="318"/>
+      <c r="I54" s="318"/>
+      <c r="J54" s="319"/>
+      <c r="K54" s="325"/>
+      <c r="L54" s="326"/>
       <c r="M54" s="61"/>
       <c r="N54" s="19" t="s">
         <v>68</v>
@@ -15674,14 +15746,14 @@
       <c r="AH54" s="62"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="331"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="332"/>
-      <c r="I55" s="332"/>
-      <c r="J55" s="333"/>
-      <c r="K55" s="334"/>
-      <c r="L55" s="335"/>
+      <c r="E55" s="317"/>
+      <c r="F55" s="318"/>
+      <c r="G55" s="318"/>
+      <c r="H55" s="318"/>
+      <c r="I55" s="318"/>
+      <c r="J55" s="319"/>
+      <c r="K55" s="325"/>
+      <c r="L55" s="326"/>
       <c r="M55" s="61"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19" t="s">
@@ -15708,14 +15780,14 @@
       <c r="AH55" s="62"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="331"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
-      <c r="H56" s="332"/>
-      <c r="I56" s="332"/>
-      <c r="J56" s="333"/>
-      <c r="K56" s="334"/>
-      <c r="L56" s="335"/>
+      <c r="E56" s="317"/>
+      <c r="F56" s="318"/>
+      <c r="G56" s="318"/>
+      <c r="H56" s="318"/>
+      <c r="I56" s="318"/>
+      <c r="J56" s="319"/>
+      <c r="K56" s="325"/>
+      <c r="L56" s="326"/>
       <c r="M56" s="61"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19" t="s">
@@ -15742,14 +15814,14 @@
       <c r="AH56" s="62"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="331"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
-      <c r="H5